--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jormart\Desktop\miscellaneous\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF93204-6EDD-4244-A100-A43A8521205F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B092D-C346-4465-92CC-F4E18F1F695C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -578,10 +583,6 @@
 Customer collaboration over contract negotiation</t>
   </si>
   <si>
-    <t>Customer collaboration over contract negotiation
-Individual interactions over processes and tools</t>
-  </si>
-  <si>
     <t>What is the primary goal of the Innovation and Planning (IP) iteration in SAFe?</t>
   </si>
   <si>
@@ -2760,9 +2761,6 @@
 Stakeholders</t>
   </si>
   <si>
-    <t>External Customers</t>
-  </si>
-  <si>
     <t>How does SAFe recommend managing risks during PI Planning?</t>
   </si>
   <si>
@@ -3692,6 +3690,13 @@
   </si>
   <si>
     <t>To enable releasing functionality on demand to meet business needs</t>
+  </si>
+  <si>
+    <t>Customer collaboration over contract negotiation;
+Individual interactions over processes and tools</t>
+  </si>
+  <si>
+    <t>External; Customers</t>
   </si>
 </sst>
 </file>
@@ -3747,10 +3752,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4056,13 +4064,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D316"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="165.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4102,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4122,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4142,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4162,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4182,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4202,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4222,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4242,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4262,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4282,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4322,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4342,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4362,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4382,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4402,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4422,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4442,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4462,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4482,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4502,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4542,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4562,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4582,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4602,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4622,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4642,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4662,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4682,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4702,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4722,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4742,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4762,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4782,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4802,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4822,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4842,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4862,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4882,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4902,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4922,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4942,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4962,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4972,8 +4983,8 @@
       <c r="C46" t="s">
         <v>139</v>
       </c>
-      <c r="D46" t="s">
-        <v>140</v>
+      <c r="D46" s="2" t="s">
+        <v>909</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4982,19 +4993,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
         <v>141</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>142</v>
       </c>
-      <c r="D47" t="s">
-        <v>143</v>
-      </c>
       <c r="E47">
         <v>0</v>
       </c>
@@ -5002,19 +5013,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
         <v>144</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>145</v>
       </c>
-      <c r="D48" t="s">
-        <v>146</v>
-      </c>
       <c r="E48">
         <v>0</v>
       </c>
@@ -5022,19 +5033,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
         <v>147</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>148</v>
       </c>
-      <c r="D49" t="s">
-        <v>149</v>
-      </c>
       <c r="E49">
         <v>0</v>
       </c>
@@ -5042,19 +5053,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
         <v>150</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>151</v>
       </c>
-      <c r="D50" t="s">
-        <v>152</v>
-      </c>
       <c r="E50">
         <v>0</v>
       </c>
@@ -5062,19 +5073,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
         <v>153</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>154</v>
       </c>
-      <c r="D51" t="s">
-        <v>155</v>
-      </c>
       <c r="E51">
         <v>0</v>
       </c>
@@ -5082,19 +5093,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
         <v>156</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>157</v>
       </c>
-      <c r="D52" t="s">
-        <v>158</v>
-      </c>
       <c r="E52">
         <v>0</v>
       </c>
@@ -5102,19 +5113,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>160</v>
       </c>
-      <c r="D53" t="s">
-        <v>161</v>
-      </c>
       <c r="E53">
         <v>0</v>
       </c>
@@ -5122,19 +5133,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
         <v>162</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>163</v>
       </c>
-      <c r="D54" t="s">
-        <v>164</v>
-      </c>
       <c r="E54">
         <v>0</v>
       </c>
@@ -5142,19 +5153,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" t="s">
         <v>165</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>166</v>
       </c>
-      <c r="D55" t="s">
-        <v>167</v>
-      </c>
       <c r="E55">
         <v>0</v>
       </c>
@@ -5162,19 +5173,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
         <v>168</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>169</v>
       </c>
-      <c r="D56" t="s">
-        <v>170</v>
-      </c>
       <c r="E56">
         <v>0</v>
       </c>
@@ -5182,19 +5193,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
         <v>171</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>172</v>
       </c>
-      <c r="D57" t="s">
-        <v>173</v>
-      </c>
       <c r="E57">
         <v>0</v>
       </c>
@@ -5202,19 +5213,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" t="s">
         <v>174</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>175</v>
       </c>
-      <c r="D58" t="s">
-        <v>176</v>
-      </c>
       <c r="E58">
         <v>0</v>
       </c>
@@ -5222,19 +5233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="s">
         <v>177</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>178</v>
       </c>
-      <c r="D59" t="s">
-        <v>179</v>
-      </c>
       <c r="E59">
         <v>0</v>
       </c>
@@ -5242,19 +5253,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" t="s">
         <v>180</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>181</v>
       </c>
-      <c r="D60" t="s">
-        <v>182</v>
-      </c>
       <c r="E60">
         <v>0</v>
       </c>
@@ -5262,19 +5273,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
         <v>183</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>184</v>
       </c>
-      <c r="D61" t="s">
-        <v>185</v>
-      </c>
       <c r="E61">
         <v>0</v>
       </c>
@@ -5282,19 +5293,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
         <v>186</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>187</v>
       </c>
-      <c r="D62" t="s">
-        <v>188</v>
-      </c>
       <c r="E62">
         <v>0</v>
       </c>
@@ -5302,19 +5313,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" t="s">
         <v>189</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>190</v>
       </c>
-      <c r="D63" t="s">
-        <v>191</v>
-      </c>
       <c r="E63">
         <v>0</v>
       </c>
@@ -5322,19 +5333,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" t="s">
         <v>192</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>193</v>
       </c>
-      <c r="D64" t="s">
-        <v>194</v>
-      </c>
       <c r="E64">
         <v>0</v>
       </c>
@@ -5342,19 +5353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
         <v>195</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>196</v>
       </c>
-      <c r="D65" t="s">
-        <v>197</v>
-      </c>
       <c r="E65">
         <v>0</v>
       </c>
@@ -5362,19 +5373,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
         <v>198</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>199</v>
       </c>
-      <c r="D66" t="s">
-        <v>200</v>
-      </c>
       <c r="E66">
         <v>0</v>
       </c>
@@ -5382,19 +5393,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" t="s">
         <v>201</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>202</v>
       </c>
-      <c r="D67" t="s">
-        <v>203</v>
-      </c>
       <c r="E67">
         <v>0</v>
       </c>
@@ -5402,19 +5413,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" t="s">
         <v>204</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>205</v>
       </c>
-      <c r="D68" t="s">
-        <v>206</v>
-      </c>
       <c r="E68">
         <v>0</v>
       </c>
@@ -5422,18 +5433,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" t="s">
         <v>207</v>
       </c>
-      <c r="C69" t="s">
-        <v>208</v>
-      </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5442,19 +5453,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
         <v>209</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>210</v>
       </c>
-      <c r="D70" t="s">
-        <v>211</v>
-      </c>
       <c r="E70">
         <v>0</v>
       </c>
@@ -5462,19 +5473,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
         <v>212</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>213</v>
       </c>
-      <c r="D71" t="s">
-        <v>214</v>
-      </c>
       <c r="E71">
         <v>0</v>
       </c>
@@ -5482,19 +5493,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
         <v>215</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>216</v>
       </c>
-      <c r="D72" t="s">
-        <v>217</v>
-      </c>
       <c r="E72">
         <v>0</v>
       </c>
@@ -5502,19 +5513,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
         <v>218</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>219</v>
       </c>
-      <c r="D73" t="s">
-        <v>220</v>
-      </c>
       <c r="E73">
         <v>0</v>
       </c>
@@ -5522,19 +5533,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
         <v>221</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>222</v>
       </c>
-      <c r="D74" t="s">
-        <v>223</v>
-      </c>
       <c r="E74">
         <v>0</v>
       </c>
@@ -5542,19 +5553,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
         <v>224</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>225</v>
       </c>
-      <c r="D75" t="s">
-        <v>226</v>
-      </c>
       <c r="E75">
         <v>0</v>
       </c>
@@ -5562,19 +5573,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
         <v>227</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>228</v>
       </c>
-      <c r="D76" t="s">
-        <v>229</v>
-      </c>
       <c r="E76">
         <v>0</v>
       </c>
@@ -5582,19 +5593,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s">
         <v>230</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>231</v>
       </c>
-      <c r="D77" t="s">
-        <v>232</v>
-      </c>
       <c r="E77">
         <v>0</v>
       </c>
@@ -5602,19 +5613,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
         <v>233</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>234</v>
       </c>
-      <c r="D78" t="s">
-        <v>235</v>
-      </c>
       <c r="E78">
         <v>0</v>
       </c>
@@ -5622,19 +5633,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
         <v>236</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>237</v>
       </c>
-      <c r="D79" t="s">
-        <v>238</v>
-      </c>
       <c r="E79">
         <v>0</v>
       </c>
@@ -5642,19 +5653,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
         <v>239</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>240</v>
       </c>
-      <c r="D80" t="s">
-        <v>241</v>
-      </c>
       <c r="E80">
         <v>0</v>
       </c>
@@ -5662,19 +5673,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" t="s">
         <v>242</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>243</v>
       </c>
-      <c r="D81" t="s">
-        <v>244</v>
-      </c>
       <c r="E81">
         <v>0</v>
       </c>
@@ -5682,19 +5693,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" t="s">
         <v>245</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>246</v>
       </c>
-      <c r="D82" t="s">
-        <v>247</v>
-      </c>
       <c r="E82">
         <v>0</v>
       </c>
@@ -5702,19 +5713,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="s">
         <v>248</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>249</v>
       </c>
-      <c r="D83" t="s">
-        <v>250</v>
-      </c>
       <c r="E83">
         <v>0</v>
       </c>
@@ -5722,19 +5733,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" t="s">
         <v>251</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>252</v>
       </c>
-      <c r="D84" t="s">
-        <v>253</v>
-      </c>
       <c r="E84">
         <v>0</v>
       </c>
@@ -5742,19 +5753,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" t="s">
         <v>254</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>255</v>
       </c>
-      <c r="D85" t="s">
-        <v>256</v>
-      </c>
       <c r="E85">
         <v>0</v>
       </c>
@@ -5762,19 +5773,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" t="s">
         <v>257</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>258</v>
       </c>
-      <c r="D86" t="s">
-        <v>259</v>
-      </c>
       <c r="E86">
         <v>0</v>
       </c>
@@ -5782,19 +5793,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
         <v>260</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>261</v>
       </c>
-      <c r="D87" t="s">
-        <v>262</v>
-      </c>
       <c r="E87">
         <v>0</v>
       </c>
@@ -5802,19 +5813,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" t="s">
         <v>263</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>264</v>
       </c>
-      <c r="D88" t="s">
-        <v>265</v>
-      </c>
       <c r="E88">
         <v>0</v>
       </c>
@@ -5822,19 +5833,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" t="s">
         <v>266</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>267</v>
       </c>
-      <c r="D89" t="s">
-        <v>268</v>
-      </c>
       <c r="E89">
         <v>0</v>
       </c>
@@ -5842,19 +5853,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
         <v>269</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>270</v>
       </c>
-      <c r="D90" t="s">
-        <v>271</v>
-      </c>
       <c r="E90">
         <v>0</v>
       </c>
@@ -5862,19 +5873,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" t="s">
         <v>272</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>273</v>
       </c>
-      <c r="D91" t="s">
-        <v>274</v>
-      </c>
       <c r="E91">
         <v>0</v>
       </c>
@@ -5882,19 +5893,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" t="s">
         <v>275</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>276</v>
       </c>
-      <c r="D92" t="s">
-        <v>277</v>
-      </c>
       <c r="E92">
         <v>0</v>
       </c>
@@ -5902,18 +5913,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
         <v>278</v>
       </c>
-      <c r="C93" t="s">
-        <v>279</v>
-      </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5922,19 +5933,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" t="s">
         <v>280</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>281</v>
       </c>
-      <c r="D94" t="s">
-        <v>282</v>
-      </c>
       <c r="E94">
         <v>0</v>
       </c>
@@ -5942,19 +5953,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" t="s">
         <v>283</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>284</v>
       </c>
-      <c r="D95" t="s">
-        <v>285</v>
-      </c>
       <c r="E95">
         <v>0</v>
       </c>
@@ -5962,19 +5973,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" t="s">
         <v>286</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>287</v>
       </c>
-      <c r="D96" t="s">
-        <v>288</v>
-      </c>
       <c r="E96">
         <v>0</v>
       </c>
@@ -5982,19 +5993,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" t="s">
         <v>289</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>290</v>
       </c>
-      <c r="D97" t="s">
-        <v>291</v>
-      </c>
       <c r="E97">
         <v>0</v>
       </c>
@@ -6002,19 +6013,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" t="s">
         <v>292</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>293</v>
       </c>
-      <c r="D98" t="s">
-        <v>294</v>
-      </c>
       <c r="E98">
         <v>0</v>
       </c>
@@ -6022,19 +6033,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" t="s">
         <v>295</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>296</v>
       </c>
-      <c r="D99" t="s">
-        <v>297</v>
-      </c>
       <c r="E99">
         <v>0</v>
       </c>
@@ -6042,19 +6053,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" t="s">
         <v>298</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>299</v>
       </c>
-      <c r="D100" t="s">
-        <v>300</v>
-      </c>
       <c r="E100">
         <v>0</v>
       </c>
@@ -6062,19 +6073,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" t="s">
         <v>301</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>302</v>
       </c>
-      <c r="D101" t="s">
-        <v>303</v>
-      </c>
       <c r="E101">
         <v>0</v>
       </c>
@@ -6082,19 +6093,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" t="s">
         <v>304</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>305</v>
       </c>
-      <c r="D102" t="s">
-        <v>306</v>
-      </c>
       <c r="E102">
         <v>0</v>
       </c>
@@ -6102,19 +6113,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" t="s">
         <v>307</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>308</v>
       </c>
-      <c r="D103" t="s">
-        <v>309</v>
-      </c>
       <c r="E103">
         <v>0</v>
       </c>
@@ -6122,19 +6133,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" t="s">
         <v>310</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>311</v>
       </c>
-      <c r="D104" t="s">
-        <v>312</v>
-      </c>
       <c r="E104">
         <v>0</v>
       </c>
@@ -6142,19 +6153,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" t="s">
         <v>313</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>314</v>
       </c>
-      <c r="D105" t="s">
-        <v>315</v>
-      </c>
       <c r="E105">
         <v>0</v>
       </c>
@@ -6162,19 +6173,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" t="s">
         <v>316</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>317</v>
       </c>
-      <c r="D106" t="s">
-        <v>318</v>
-      </c>
       <c r="E106">
         <v>0</v>
       </c>
@@ -6182,18 +6193,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" t="s">
         <v>319</v>
       </c>
-      <c r="C107" t="s">
-        <v>320</v>
-      </c>
       <c r="D107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6202,19 +6213,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" t="s">
         <v>321</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>322</v>
       </c>
-      <c r="D108" t="s">
-        <v>323</v>
-      </c>
       <c r="E108">
         <v>0</v>
       </c>
@@ -6222,19 +6233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" t="s">
         <v>324</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>325</v>
       </c>
-      <c r="D109" t="s">
-        <v>326</v>
-      </c>
       <c r="E109">
         <v>0</v>
       </c>
@@ -6242,19 +6253,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" t="s">
         <v>327</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>328</v>
       </c>
-      <c r="D110" t="s">
-        <v>329</v>
-      </c>
       <c r="E110">
         <v>0</v>
       </c>
@@ -6262,19 +6273,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>329</v>
+      </c>
+      <c r="C111" t="s">
         <v>330</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>331</v>
       </c>
-      <c r="D111" t="s">
-        <v>332</v>
-      </c>
       <c r="E111">
         <v>0</v>
       </c>
@@ -6282,19 +6293,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" t="s">
         <v>333</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>334</v>
       </c>
-      <c r="D112" t="s">
-        <v>335</v>
-      </c>
       <c r="E112">
         <v>0</v>
       </c>
@@ -6302,19 +6313,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>335</v>
+      </c>
+      <c r="C113" t="s">
         <v>336</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>337</v>
       </c>
-      <c r="D113" t="s">
-        <v>338</v>
-      </c>
       <c r="E113">
         <v>0</v>
       </c>
@@ -6322,19 +6333,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>338</v>
+      </c>
+      <c r="C114" t="s">
         <v>339</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>340</v>
       </c>
-      <c r="D114" t="s">
-        <v>341</v>
-      </c>
       <c r="E114">
         <v>0</v>
       </c>
@@ -6342,19 +6353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" t="s">
         <v>342</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>343</v>
       </c>
-      <c r="D115" t="s">
-        <v>344</v>
-      </c>
       <c r="E115">
         <v>0</v>
       </c>
@@ -6362,19 +6373,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" t="s">
         <v>345</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>346</v>
       </c>
-      <c r="D116" t="s">
-        <v>347</v>
-      </c>
       <c r="E116">
         <v>0</v>
       </c>
@@ -6382,19 +6393,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" t="s">
         <v>348</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>349</v>
       </c>
-      <c r="D117" t="s">
-        <v>350</v>
-      </c>
       <c r="E117">
         <v>0</v>
       </c>
@@ -6402,19 +6413,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>350</v>
+      </c>
+      <c r="C118" t="s">
         <v>351</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>352</v>
       </c>
-      <c r="D118" t="s">
-        <v>353</v>
-      </c>
       <c r="E118">
         <v>0</v>
       </c>
@@ -6422,19 +6433,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" t="s">
         <v>354</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>355</v>
       </c>
-      <c r="D119" t="s">
-        <v>356</v>
-      </c>
       <c r="E119">
         <v>0</v>
       </c>
@@ -6442,19 +6453,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" t="s">
         <v>357</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>358</v>
       </c>
-      <c r="D120" t="s">
-        <v>359</v>
-      </c>
       <c r="E120">
         <v>0</v>
       </c>
@@ -6462,19 +6473,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" t="s">
         <v>360</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>361</v>
       </c>
-      <c r="D121" t="s">
-        <v>362</v>
-      </c>
       <c r="E121">
         <v>0</v>
       </c>
@@ -6482,19 +6493,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>362</v>
+      </c>
+      <c r="C122" t="s">
         <v>363</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>364</v>
       </c>
-      <c r="D122" t="s">
-        <v>365</v>
-      </c>
       <c r="E122">
         <v>0</v>
       </c>
@@ -6502,19 +6513,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123" t="s">
         <v>366</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>367</v>
       </c>
-      <c r="D123" t="s">
-        <v>368</v>
-      </c>
       <c r="E123">
         <v>0</v>
       </c>
@@ -6522,19 +6533,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" t="s">
         <v>369</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>370</v>
       </c>
-      <c r="D124" t="s">
-        <v>371</v>
-      </c>
       <c r="E124">
         <v>0</v>
       </c>
@@ -6542,19 +6553,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>371</v>
+      </c>
+      <c r="C125" t="s">
         <v>372</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>373</v>
       </c>
-      <c r="D125" t="s">
-        <v>374</v>
-      </c>
       <c r="E125">
         <v>0</v>
       </c>
@@ -6562,19 +6573,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" t="s">
         <v>375</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>376</v>
       </c>
-      <c r="D126" t="s">
-        <v>377</v>
-      </c>
       <c r="E126">
         <v>0</v>
       </c>
@@ -6582,19 +6593,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" t="s">
         <v>378</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>379</v>
       </c>
-      <c r="D127" t="s">
-        <v>380</v>
-      </c>
       <c r="E127">
         <v>0</v>
       </c>
@@ -6602,19 +6613,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" t="s">
         <v>381</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>382</v>
       </c>
-      <c r="D128" t="s">
-        <v>383</v>
-      </c>
       <c r="E128">
         <v>0</v>
       </c>
@@ -6622,19 +6633,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" t="s">
         <v>384</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>385</v>
       </c>
-      <c r="D129" t="s">
-        <v>386</v>
-      </c>
       <c r="E129">
         <v>0</v>
       </c>
@@ -6642,18 +6653,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>386</v>
+      </c>
+      <c r="C130" t="s">
         <v>387</v>
       </c>
-      <c r="C130" t="s">
-        <v>388</v>
-      </c>
       <c r="D130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6662,19 +6673,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" t="s">
         <v>389</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>390</v>
       </c>
-      <c r="D131" t="s">
-        <v>391</v>
-      </c>
       <c r="E131">
         <v>0</v>
       </c>
@@ -6682,19 +6693,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>391</v>
+      </c>
+      <c r="C132" t="s">
         <v>392</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>393</v>
       </c>
-      <c r="D132" t="s">
-        <v>394</v>
-      </c>
       <c r="E132">
         <v>0</v>
       </c>
@@ -6702,15 +6713,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>394</v>
+      </c>
+      <c r="C133" t="s">
         <v>395</v>
-      </c>
-      <c r="C133" t="s">
-        <v>396</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -6722,19 +6733,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" t="s">
         <v>397</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>398</v>
       </c>
-      <c r="D134" t="s">
-        <v>399</v>
-      </c>
       <c r="E134">
         <v>0</v>
       </c>
@@ -6742,19 +6753,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" t="s">
         <v>400</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>401</v>
       </c>
-      <c r="D135" t="s">
-        <v>402</v>
-      </c>
       <c r="E135">
         <v>0</v>
       </c>
@@ -6762,18 +6773,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" t="s">
         <v>403</v>
       </c>
-      <c r="C136" t="s">
-        <v>404</v>
-      </c>
       <c r="D136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6782,19 +6793,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>404</v>
+      </c>
+      <c r="C137" t="s">
         <v>405</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>406</v>
       </c>
-      <c r="D137" t="s">
-        <v>407</v>
-      </c>
       <c r="E137">
         <v>0</v>
       </c>
@@ -6802,19 +6813,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>407</v>
+      </c>
+      <c r="C138" t="s">
         <v>408</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>409</v>
       </c>
-      <c r="D138" t="s">
-        <v>410</v>
-      </c>
       <c r="E138">
         <v>0</v>
       </c>
@@ -6822,19 +6833,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>410</v>
+      </c>
+      <c r="C139" t="s">
         <v>411</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>412</v>
       </c>
-      <c r="D139" t="s">
-        <v>413</v>
-      </c>
       <c r="E139">
         <v>0</v>
       </c>
@@ -6842,19 +6853,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>413</v>
+      </c>
+      <c r="C140" t="s">
         <v>414</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>415</v>
       </c>
-      <c r="D140" t="s">
-        <v>416</v>
-      </c>
       <c r="E140">
         <v>0</v>
       </c>
@@ -6862,19 +6873,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>416</v>
+      </c>
+      <c r="C141" t="s">
         <v>417</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>418</v>
       </c>
-      <c r="D141" t="s">
-        <v>419</v>
-      </c>
       <c r="E141">
         <v>0</v>
       </c>
@@ -6882,19 +6893,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>419</v>
+      </c>
+      <c r="C142" t="s">
         <v>420</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>421</v>
       </c>
-      <c r="D142" t="s">
-        <v>422</v>
-      </c>
       <c r="E142">
         <v>0</v>
       </c>
@@ -6902,19 +6913,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>422</v>
+      </c>
+      <c r="C143" t="s">
         <v>423</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>424</v>
       </c>
-      <c r="D143" t="s">
-        <v>425</v>
-      </c>
       <c r="E143">
         <v>0</v>
       </c>
@@ -6922,18 +6933,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>425</v>
+      </c>
+      <c r="C144" t="s">
         <v>426</v>
       </c>
-      <c r="C144" t="s">
-        <v>427</v>
-      </c>
       <c r="D144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6942,19 +6953,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" t="s">
         <v>428</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>429</v>
       </c>
-      <c r="D145" t="s">
-        <v>430</v>
-      </c>
       <c r="E145">
         <v>0</v>
       </c>
@@ -6962,19 +6973,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" t="s">
         <v>431</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>432</v>
       </c>
-      <c r="D146" t="s">
-        <v>433</v>
-      </c>
       <c r="E146">
         <v>0</v>
       </c>
@@ -6982,19 +6993,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>433</v>
+      </c>
+      <c r="C147" t="s">
         <v>434</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>435</v>
       </c>
-      <c r="D147" t="s">
-        <v>436</v>
-      </c>
       <c r="E147">
         <v>0</v>
       </c>
@@ -7002,19 +7013,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>436</v>
+      </c>
+      <c r="C148" t="s">
         <v>437</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>438</v>
       </c>
-      <c r="D148" t="s">
-        <v>439</v>
-      </c>
       <c r="E148">
         <v>0</v>
       </c>
@@ -7022,19 +7033,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>439</v>
+      </c>
+      <c r="C149" t="s">
         <v>440</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>441</v>
       </c>
-      <c r="D149" t="s">
-        <v>442</v>
-      </c>
       <c r="E149">
         <v>0</v>
       </c>
@@ -7042,19 +7053,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>442</v>
+      </c>
+      <c r="C150" t="s">
         <v>443</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>444</v>
       </c>
-      <c r="D150" t="s">
-        <v>445</v>
-      </c>
       <c r="E150">
         <v>0</v>
       </c>
@@ -7062,19 +7073,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>445</v>
+      </c>
+      <c r="C151" t="s">
         <v>446</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>447</v>
       </c>
-      <c r="D151" t="s">
-        <v>448</v>
-      </c>
       <c r="E151">
         <v>0</v>
       </c>
@@ -7082,19 +7093,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>448</v>
+      </c>
+      <c r="C152" t="s">
         <v>449</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>450</v>
       </c>
-      <c r="D152" t="s">
-        <v>451</v>
-      </c>
       <c r="E152">
         <v>0</v>
       </c>
@@ -7102,19 +7113,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>451</v>
+      </c>
+      <c r="C153" t="s">
         <v>452</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>453</v>
       </c>
-      <c r="D153" t="s">
-        <v>454</v>
-      </c>
       <c r="E153">
         <v>0</v>
       </c>
@@ -7122,19 +7133,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>454</v>
+      </c>
+      <c r="C154" t="s">
         <v>455</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>456</v>
       </c>
-      <c r="D154" t="s">
-        <v>457</v>
-      </c>
       <c r="E154">
         <v>0</v>
       </c>
@@ -7142,19 +7153,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>457</v>
+      </c>
+      <c r="C155" t="s">
         <v>458</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>459</v>
       </c>
-      <c r="D155" t="s">
-        <v>460</v>
-      </c>
       <c r="E155">
         <v>0</v>
       </c>
@@ -7162,19 +7173,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>460</v>
+      </c>
+      <c r="C156" t="s">
         <v>461</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>462</v>
       </c>
-      <c r="D156" t="s">
-        <v>463</v>
-      </c>
       <c r="E156">
         <v>0</v>
       </c>
@@ -7182,19 +7193,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>463</v>
+      </c>
+      <c r="C157" t="s">
         <v>464</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>465</v>
       </c>
-      <c r="D157" t="s">
-        <v>466</v>
-      </c>
       <c r="E157">
         <v>0</v>
       </c>
@@ -7202,19 +7213,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>466</v>
+      </c>
+      <c r="C158" t="s">
         <v>467</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>468</v>
       </c>
-      <c r="D158" t="s">
-        <v>469</v>
-      </c>
       <c r="E158">
         <v>0</v>
       </c>
@@ -7222,19 +7233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>469</v>
+      </c>
+      <c r="C159" t="s">
         <v>470</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>471</v>
       </c>
-      <c r="D159" t="s">
-        <v>472</v>
-      </c>
       <c r="E159">
         <v>0</v>
       </c>
@@ -7242,18 +7253,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
+        <v>472</v>
+      </c>
+      <c r="C160" t="s">
         <v>473</v>
       </c>
-      <c r="C160" t="s">
-        <v>474</v>
-      </c>
       <c r="D160" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7262,19 +7273,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>474</v>
+      </c>
+      <c r="C161" t="s">
         <v>475</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>476</v>
       </c>
-      <c r="D161" t="s">
-        <v>477</v>
-      </c>
       <c r="E161">
         <v>0</v>
       </c>
@@ -7282,19 +7293,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>477</v>
+      </c>
+      <c r="C162" t="s">
         <v>478</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>479</v>
       </c>
-      <c r="D162" t="s">
-        <v>480</v>
-      </c>
       <c r="E162">
         <v>0</v>
       </c>
@@ -7302,19 +7313,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>480</v>
+      </c>
+      <c r="C163" t="s">
         <v>481</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>482</v>
       </c>
-      <c r="D163" t="s">
-        <v>483</v>
-      </c>
       <c r="E163">
         <v>0</v>
       </c>
@@ -7322,19 +7333,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>483</v>
+      </c>
+      <c r="C164" t="s">
         <v>484</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>485</v>
       </c>
-      <c r="D164" t="s">
-        <v>486</v>
-      </c>
       <c r="E164">
         <v>0</v>
       </c>
@@ -7342,18 +7353,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C165" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D165" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7362,18 +7373,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>487</v>
+      </c>
+      <c r="C166" t="s">
         <v>488</v>
       </c>
-      <c r="C166" t="s">
-        <v>489</v>
-      </c>
       <c r="D166" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7382,19 +7393,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>489</v>
+      </c>
+      <c r="C167" t="s">
         <v>490</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>491</v>
       </c>
-      <c r="D167" t="s">
-        <v>492</v>
-      </c>
       <c r="E167">
         <v>0</v>
       </c>
@@ -7402,19 +7413,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>492</v>
+      </c>
+      <c r="C168" t="s">
         <v>493</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>494</v>
       </c>
-      <c r="D168" t="s">
-        <v>495</v>
-      </c>
       <c r="E168">
         <v>0</v>
       </c>
@@ -7422,15 +7433,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>495</v>
+      </c>
+      <c r="C169" t="s">
         <v>496</v>
-      </c>
-      <c r="C169" t="s">
-        <v>497</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
@@ -7442,19 +7453,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" t="s">
         <v>498</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>499</v>
       </c>
-      <c r="D170" t="s">
-        <v>500</v>
-      </c>
       <c r="E170">
         <v>0</v>
       </c>
@@ -7462,19 +7473,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>500</v>
+      </c>
+      <c r="C171" t="s">
         <v>501</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>502</v>
       </c>
-      <c r="D171" t="s">
-        <v>503</v>
-      </c>
       <c r="E171">
         <v>0</v>
       </c>
@@ -7482,19 +7493,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>503</v>
+      </c>
+      <c r="C172" t="s">
         <v>504</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>505</v>
       </c>
-      <c r="D172" t="s">
-        <v>506</v>
-      </c>
       <c r="E172">
         <v>0</v>
       </c>
@@ -7502,19 +7513,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>506</v>
+      </c>
+      <c r="C173" t="s">
         <v>507</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>508</v>
       </c>
-      <c r="D173" t="s">
-        <v>509</v>
-      </c>
       <c r="E173">
         <v>0</v>
       </c>
@@ -7522,19 +7533,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>509</v>
+      </c>
+      <c r="C174" t="s">
         <v>510</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>511</v>
       </c>
-      <c r="D174" t="s">
-        <v>512</v>
-      </c>
       <c r="E174">
         <v>0</v>
       </c>
@@ -7542,18 +7553,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>512</v>
+      </c>
+      <c r="C175" t="s">
         <v>513</v>
       </c>
-      <c r="C175" t="s">
-        <v>514</v>
-      </c>
       <c r="D175" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -7562,19 +7573,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>514</v>
+      </c>
+      <c r="C176" t="s">
         <v>515</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>516</v>
       </c>
-      <c r="D176" t="s">
-        <v>517</v>
-      </c>
       <c r="E176">
         <v>0</v>
       </c>
@@ -7582,18 +7593,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>517</v>
+      </c>
+      <c r="C177" t="s">
         <v>518</v>
       </c>
-      <c r="C177" t="s">
-        <v>519</v>
-      </c>
       <c r="D177" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7602,18 +7613,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>519</v>
+      </c>
+      <c r="C178" t="s">
         <v>520</v>
       </c>
-      <c r="C178" t="s">
-        <v>521</v>
-      </c>
       <c r="D178" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7622,19 +7633,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>521</v>
+      </c>
+      <c r="C179" t="s">
         <v>522</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>523</v>
       </c>
-      <c r="D179" t="s">
-        <v>524</v>
-      </c>
       <c r="E179">
         <v>0</v>
       </c>
@@ -7642,19 +7653,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>524</v>
+      </c>
+      <c r="C180" t="s">
         <v>525</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>526</v>
       </c>
-      <c r="D180" t="s">
-        <v>527</v>
-      </c>
       <c r="E180">
         <v>0</v>
       </c>
@@ -7662,19 +7673,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>527</v>
+      </c>
+      <c r="C181" t="s">
         <v>528</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>529</v>
       </c>
-      <c r="D181" t="s">
-        <v>530</v>
-      </c>
       <c r="E181">
         <v>0</v>
       </c>
@@ -7682,19 +7693,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>530</v>
+      </c>
+      <c r="C182" t="s">
         <v>531</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>532</v>
       </c>
-      <c r="D182" t="s">
-        <v>533</v>
-      </c>
       <c r="E182">
         <v>0</v>
       </c>
@@ -7702,19 +7713,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>533</v>
+      </c>
+      <c r="C183" t="s">
         <v>534</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>535</v>
       </c>
-      <c r="D183" t="s">
-        <v>536</v>
-      </c>
       <c r="E183">
         <v>0</v>
       </c>
@@ -7722,19 +7733,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>536</v>
+      </c>
+      <c r="C184" t="s">
         <v>537</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>538</v>
       </c>
-      <c r="D184" t="s">
-        <v>539</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -7742,19 +7753,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>539</v>
+      </c>
+      <c r="C185" t="s">
         <v>540</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>541</v>
       </c>
-      <c r="D185" t="s">
-        <v>542</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -7762,19 +7773,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>542</v>
+      </c>
+      <c r="C186" t="s">
         <v>543</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>544</v>
       </c>
-      <c r="D186" t="s">
-        <v>545</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -7782,19 +7793,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>545</v>
+      </c>
+      <c r="C187" t="s">
         <v>546</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>547</v>
       </c>
-      <c r="D187" t="s">
-        <v>548</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -7802,19 +7813,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>548</v>
+      </c>
+      <c r="C188" t="s">
         <v>549</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>550</v>
       </c>
-      <c r="D188" t="s">
-        <v>551</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -7822,18 +7833,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>551</v>
+      </c>
+      <c r="C189" t="s">
         <v>552</v>
       </c>
-      <c r="C189" t="s">
-        <v>553</v>
-      </c>
       <c r="D189" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7842,18 +7853,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C190" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D190" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -7862,18 +7873,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>555</v>
+      </c>
+      <c r="C191" t="s">
         <v>556</v>
       </c>
-      <c r="C191" t="s">
-        <v>557</v>
-      </c>
       <c r="D191" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -7882,19 +7893,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>557</v>
+      </c>
+      <c r="C192" t="s">
         <v>558</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>559</v>
       </c>
-      <c r="D192" t="s">
-        <v>560</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -7902,19 +7913,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>560</v>
+      </c>
+      <c r="C193" t="s">
         <v>561</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>562</v>
       </c>
-      <c r="D193" t="s">
-        <v>563</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -7922,18 +7933,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>563</v>
+      </c>
+      <c r="C194" t="s">
         <v>564</v>
       </c>
-      <c r="C194" t="s">
-        <v>565</v>
-      </c>
       <c r="D194" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -7942,19 +7953,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>565</v>
+      </c>
+      <c r="C195" t="s">
         <v>566</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>567</v>
       </c>
-      <c r="D195" t="s">
-        <v>568</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -7962,19 +7973,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>568</v>
+      </c>
+      <c r="C196" t="s">
         <v>569</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>570</v>
       </c>
-      <c r="D196" t="s">
-        <v>571</v>
-      </c>
       <c r="E196">
         <v>0</v>
       </c>
@@ -7982,18 +7993,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C197" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D197" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8002,18 +8013,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>572</v>
+      </c>
+      <c r="C198" t="s">
         <v>573</v>
       </c>
-      <c r="C198" t="s">
-        <v>574</v>
-      </c>
       <c r="D198" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8022,18 +8033,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>574</v>
+      </c>
+      <c r="C199" t="s">
         <v>575</v>
       </c>
-      <c r="C199" t="s">
-        <v>576</v>
-      </c>
       <c r="D199" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8042,18 +8053,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>576</v>
+      </c>
+      <c r="C200" t="s">
         <v>577</v>
       </c>
-      <c r="C200" t="s">
-        <v>578</v>
-      </c>
       <c r="D200" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8062,18 +8073,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>578</v>
+      </c>
+      <c r="C201" t="s">
         <v>579</v>
       </c>
-      <c r="C201" t="s">
-        <v>580</v>
-      </c>
       <c r="D201" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -8082,19 +8093,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>580</v>
+      </c>
+      <c r="C202" t="s">
         <v>581</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>582</v>
       </c>
-      <c r="D202" t="s">
-        <v>583</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -8102,19 +8113,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>583</v>
+      </c>
+      <c r="C203" t="s">
         <v>584</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>585</v>
       </c>
-      <c r="D203" t="s">
-        <v>586</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -8122,19 +8133,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>586</v>
+      </c>
+      <c r="C204" t="s">
         <v>587</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>588</v>
       </c>
-      <c r="D204" t="s">
-        <v>589</v>
-      </c>
       <c r="E204">
         <v>0</v>
       </c>
@@ -8142,19 +8153,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>589</v>
+      </c>
+      <c r="C205" t="s">
         <v>590</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>591</v>
       </c>
-      <c r="D205" t="s">
-        <v>592</v>
-      </c>
       <c r="E205">
         <v>0</v>
       </c>
@@ -8162,19 +8173,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
+        <v>592</v>
+      </c>
+      <c r="C206" t="s">
         <v>593</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>594</v>
       </c>
-      <c r="D206" t="s">
-        <v>595</v>
-      </c>
       <c r="E206">
         <v>0</v>
       </c>
@@ -8182,18 +8193,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>595</v>
+      </c>
+      <c r="C207" t="s">
         <v>596</v>
       </c>
-      <c r="C207" t="s">
-        <v>597</v>
-      </c>
       <c r="D207" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -8202,18 +8213,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>597</v>
+      </c>
+      <c r="C208" t="s">
         <v>598</v>
       </c>
-      <c r="C208" t="s">
-        <v>599</v>
-      </c>
       <c r="D208" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -8222,19 +8233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>599</v>
+      </c>
+      <c r="C209" t="s">
         <v>600</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>601</v>
       </c>
-      <c r="D209" t="s">
-        <v>602</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -8242,18 +8253,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C210" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D210" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -8262,19 +8273,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>603</v>
+      </c>
+      <c r="C211" t="s">
         <v>604</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>605</v>
       </c>
-      <c r="D211" t="s">
-        <v>606</v>
-      </c>
       <c r="E211">
         <v>0</v>
       </c>
@@ -8282,19 +8293,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>606</v>
+      </c>
+      <c r="C212" t="s">
         <v>607</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>608</v>
       </c>
-      <c r="D212" t="s">
-        <v>609</v>
-      </c>
       <c r="E212">
         <v>0</v>
       </c>
@@ -8302,18 +8313,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>609</v>
+      </c>
+      <c r="C213" t="s">
         <v>610</v>
       </c>
-      <c r="C213" t="s">
-        <v>611</v>
-      </c>
       <c r="D213" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8322,18 +8333,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C214" t="s">
         <v>43</v>
       </c>
       <c r="D214" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -8342,19 +8353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>612</v>
+      </c>
+      <c r="C215" t="s">
         <v>613</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>614</v>
       </c>
-      <c r="D215" t="s">
-        <v>615</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -8362,19 +8373,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>615</v>
+      </c>
+      <c r="C216" t="s">
         <v>616</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>617</v>
       </c>
-      <c r="D216" t="s">
-        <v>618</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -8382,19 +8393,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>618</v>
+      </c>
+      <c r="C217" t="s">
         <v>619</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>620</v>
       </c>
-      <c r="D217" t="s">
-        <v>621</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -8402,19 +8413,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>621</v>
+      </c>
+      <c r="C218" t="s">
         <v>622</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>623</v>
       </c>
-      <c r="D218" t="s">
-        <v>624</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -8422,18 +8433,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C219" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D219" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -8442,19 +8453,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>625</v>
+      </c>
+      <c r="C220" t="s">
         <v>626</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>627</v>
       </c>
-      <c r="D220" t="s">
-        <v>628</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -8462,19 +8473,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>628</v>
+      </c>
+      <c r="C221" t="s">
         <v>629</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>630</v>
       </c>
-      <c r="D221" t="s">
-        <v>631</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -8482,18 +8493,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>631</v>
+      </c>
+      <c r="C222" t="s">
         <v>632</v>
       </c>
-      <c r="C222" t="s">
-        <v>633</v>
-      </c>
       <c r="D222" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -8502,19 +8513,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>633</v>
+      </c>
+      <c r="C223" t="s">
         <v>634</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>635</v>
       </c>
-      <c r="D223" t="s">
-        <v>636</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -8522,19 +8533,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>636</v>
+      </c>
+      <c r="C224" t="s">
+        <v>198</v>
+      </c>
+      <c r="D224" t="s">
         <v>637</v>
       </c>
-      <c r="C224" t="s">
-        <v>199</v>
-      </c>
-      <c r="D224" t="s">
-        <v>638</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -8542,19 +8553,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>638</v>
+      </c>
+      <c r="C225" t="s">
         <v>639</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>640</v>
       </c>
-      <c r="D225" t="s">
-        <v>641</v>
-      </c>
       <c r="E225">
         <v>0</v>
       </c>
@@ -8562,19 +8573,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>641</v>
+      </c>
+      <c r="C226" t="s">
         <v>642</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>643</v>
       </c>
-      <c r="D226" t="s">
-        <v>644</v>
-      </c>
       <c r="E226">
         <v>0</v>
       </c>
@@ -8582,19 +8593,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>644</v>
+      </c>
+      <c r="C227" t="s">
         <v>645</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>646</v>
       </c>
-      <c r="D227" t="s">
-        <v>647</v>
-      </c>
       <c r="E227">
         <v>0</v>
       </c>
@@ -8602,18 +8613,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>647</v>
+      </c>
+      <c r="C228" t="s">
         <v>648</v>
       </c>
-      <c r="C228" t="s">
-        <v>649</v>
-      </c>
       <c r="D228" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8622,19 +8633,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>649</v>
+      </c>
+      <c r="C229" t="s">
         <v>650</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>651</v>
       </c>
-      <c r="D229" t="s">
-        <v>652</v>
-      </c>
       <c r="E229">
         <v>0</v>
       </c>
@@ -8642,19 +8653,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>652</v>
+      </c>
+      <c r="C230" t="s">
         <v>653</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>654</v>
       </c>
-      <c r="D230" t="s">
-        <v>655</v>
-      </c>
       <c r="E230">
         <v>0</v>
       </c>
@@ -8662,19 +8673,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>655</v>
+      </c>
+      <c r="C231" t="s">
         <v>656</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>657</v>
       </c>
-      <c r="D231" t="s">
-        <v>658</v>
-      </c>
       <c r="E231">
         <v>0</v>
       </c>
@@ -8682,19 +8693,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>658</v>
+      </c>
+      <c r="C232" t="s">
         <v>659</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>660</v>
       </c>
-      <c r="D232" t="s">
-        <v>661</v>
-      </c>
       <c r="E232">
         <v>0</v>
       </c>
@@ -8702,19 +8713,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>661</v>
+      </c>
+      <c r="C233" t="s">
         <v>662</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>663</v>
       </c>
-      <c r="D233" t="s">
-        <v>664</v>
-      </c>
       <c r="E233">
         <v>0</v>
       </c>
@@ -8722,18 +8733,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C234" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D234" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -8742,18 +8753,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>665</v>
+      </c>
+      <c r="C235" t="s">
         <v>666</v>
       </c>
-      <c r="C235" t="s">
-        <v>667</v>
-      </c>
       <c r="D235" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -8762,19 +8773,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>667</v>
+      </c>
+      <c r="C236" t="s">
         <v>668</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>669</v>
       </c>
-      <c r="D236" t="s">
-        <v>670</v>
-      </c>
       <c r="E236">
         <v>0</v>
       </c>
@@ -8782,19 +8793,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>670</v>
+      </c>
+      <c r="C237" t="s">
         <v>671</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>672</v>
       </c>
-      <c r="D237" t="s">
-        <v>673</v>
-      </c>
       <c r="E237">
         <v>0</v>
       </c>
@@ -8802,19 +8813,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>673</v>
+      </c>
+      <c r="C238" t="s">
         <v>674</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>675</v>
       </c>
-      <c r="D238" t="s">
-        <v>676</v>
-      </c>
       <c r="E238">
         <v>0</v>
       </c>
@@ -8822,18 +8833,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>676</v>
+      </c>
+      <c r="C239" t="s">
         <v>677</v>
       </c>
-      <c r="C239" t="s">
-        <v>678</v>
-      </c>
       <c r="D239" t="s">
-        <v>679</v>
+        <v>910</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -8842,19 +8853,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
+        <v>678</v>
+      </c>
+      <c r="C240" t="s">
+        <v>679</v>
+      </c>
+      <c r="D240" t="s">
         <v>680</v>
       </c>
-      <c r="C240" t="s">
-        <v>681</v>
-      </c>
-      <c r="D240" t="s">
-        <v>682</v>
-      </c>
       <c r="E240">
         <v>0</v>
       </c>
@@ -8862,19 +8873,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>681</v>
+      </c>
+      <c r="C241" t="s">
+        <v>682</v>
+      </c>
+      <c r="D241" t="s">
         <v>683</v>
       </c>
-      <c r="C241" t="s">
-        <v>684</v>
-      </c>
-      <c r="D241" t="s">
-        <v>685</v>
-      </c>
       <c r="E241">
         <v>0</v>
       </c>
@@ -8882,19 +8893,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>684</v>
+      </c>
+      <c r="C242" t="s">
+        <v>685</v>
+      </c>
+      <c r="D242" t="s">
         <v>686</v>
       </c>
-      <c r="C242" t="s">
-        <v>687</v>
-      </c>
-      <c r="D242" t="s">
-        <v>688</v>
-      </c>
       <c r="E242">
         <v>0</v>
       </c>
@@ -8902,19 +8913,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>687</v>
+      </c>
+      <c r="C243" t="s">
+        <v>688</v>
+      </c>
+      <c r="D243" t="s">
         <v>689</v>
       </c>
-      <c r="C243" t="s">
-        <v>690</v>
-      </c>
-      <c r="D243" t="s">
-        <v>691</v>
-      </c>
       <c r="E243">
         <v>0</v>
       </c>
@@ -8922,19 +8933,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>690</v>
+      </c>
+      <c r="C244" t="s">
+        <v>691</v>
+      </c>
+      <c r="D244" t="s">
         <v>692</v>
       </c>
-      <c r="C244" t="s">
-        <v>693</v>
-      </c>
-      <c r="D244" t="s">
-        <v>694</v>
-      </c>
       <c r="E244">
         <v>0</v>
       </c>
@@ -8942,19 +8953,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>693</v>
+      </c>
+      <c r="C245" t="s">
+        <v>694</v>
+      </c>
+      <c r="D245" t="s">
         <v>695</v>
       </c>
-      <c r="C245" t="s">
-        <v>696</v>
-      </c>
-      <c r="D245" t="s">
-        <v>697</v>
-      </c>
       <c r="E245">
         <v>0</v>
       </c>
@@ -8962,19 +8973,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>696</v>
+      </c>
+      <c r="C246" t="s">
+        <v>697</v>
+      </c>
+      <c r="D246" t="s">
         <v>698</v>
       </c>
-      <c r="C246" t="s">
-        <v>699</v>
-      </c>
-      <c r="D246" t="s">
-        <v>700</v>
-      </c>
       <c r="E246">
         <v>0</v>
       </c>
@@ -8982,19 +8993,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>699</v>
+      </c>
+      <c r="C247" t="s">
+        <v>700</v>
+      </c>
+      <c r="D247" t="s">
         <v>701</v>
       </c>
-      <c r="C247" t="s">
-        <v>702</v>
-      </c>
-      <c r="D247" t="s">
-        <v>703</v>
-      </c>
       <c r="E247">
         <v>0</v>
       </c>
@@ -9002,19 +9013,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>702</v>
+      </c>
+      <c r="C248" t="s">
+        <v>703</v>
+      </c>
+      <c r="D248" t="s">
         <v>704</v>
       </c>
-      <c r="C248" t="s">
-        <v>705</v>
-      </c>
-      <c r="D248" t="s">
-        <v>706</v>
-      </c>
       <c r="E248">
         <v>0</v>
       </c>
@@ -9022,19 +9033,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>705</v>
+      </c>
+      <c r="C249" t="s">
+        <v>706</v>
+      </c>
+      <c r="D249" t="s">
         <v>707</v>
       </c>
-      <c r="C249" t="s">
-        <v>708</v>
-      </c>
-      <c r="D249" t="s">
-        <v>709</v>
-      </c>
       <c r="E249">
         <v>0</v>
       </c>
@@ -9042,19 +9053,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>708</v>
+      </c>
+      <c r="C250" t="s">
+        <v>709</v>
+      </c>
+      <c r="D250" t="s">
         <v>710</v>
       </c>
-      <c r="C250" t="s">
-        <v>711</v>
-      </c>
-      <c r="D250" t="s">
-        <v>712</v>
-      </c>
       <c r="E250">
         <v>0</v>
       </c>
@@ -9062,19 +9073,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>711</v>
+      </c>
+      <c r="C251" t="s">
+        <v>712</v>
+      </c>
+      <c r="D251" t="s">
         <v>713</v>
       </c>
-      <c r="C251" t="s">
-        <v>714</v>
-      </c>
-      <c r="D251" t="s">
-        <v>715</v>
-      </c>
       <c r="E251">
         <v>0</v>
       </c>
@@ -9082,19 +9093,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>714</v>
+      </c>
+      <c r="C252" t="s">
+        <v>715</v>
+      </c>
+      <c r="D252" t="s">
         <v>716</v>
       </c>
-      <c r="C252" t="s">
-        <v>717</v>
-      </c>
-      <c r="D252" t="s">
-        <v>718</v>
-      </c>
       <c r="E252">
         <v>0</v>
       </c>
@@ -9102,19 +9113,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>717</v>
+      </c>
+      <c r="C253" t="s">
+        <v>718</v>
+      </c>
+      <c r="D253" t="s">
         <v>719</v>
       </c>
-      <c r="C253" t="s">
-        <v>720</v>
-      </c>
-      <c r="D253" t="s">
-        <v>721</v>
-      </c>
       <c r="E253">
         <v>0</v>
       </c>
@@ -9122,19 +9133,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>720</v>
+      </c>
+      <c r="C254" t="s">
+        <v>721</v>
+      </c>
+      <c r="D254" t="s">
         <v>722</v>
       </c>
-      <c r="C254" t="s">
-        <v>723</v>
-      </c>
-      <c r="D254" t="s">
-        <v>724</v>
-      </c>
       <c r="E254">
         <v>0</v>
       </c>
@@ -9142,19 +9153,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>723</v>
+      </c>
+      <c r="C255" t="s">
+        <v>724</v>
+      </c>
+      <c r="D255" t="s">
         <v>725</v>
       </c>
-      <c r="C255" t="s">
-        <v>726</v>
-      </c>
-      <c r="D255" t="s">
-        <v>727</v>
-      </c>
       <c r="E255">
         <v>0</v>
       </c>
@@ -9162,19 +9173,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>726</v>
+      </c>
+      <c r="C256" t="s">
+        <v>727</v>
+      </c>
+      <c r="D256" t="s">
         <v>728</v>
       </c>
-      <c r="C256" t="s">
-        <v>729</v>
-      </c>
-      <c r="D256" t="s">
-        <v>730</v>
-      </c>
       <c r="E256">
         <v>0</v>
       </c>
@@ -9182,19 +9193,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>729</v>
+      </c>
+      <c r="C257" t="s">
+        <v>730</v>
+      </c>
+      <c r="D257" t="s">
         <v>731</v>
       </c>
-      <c r="C257" t="s">
-        <v>732</v>
-      </c>
-      <c r="D257" t="s">
-        <v>733</v>
-      </c>
       <c r="E257">
         <v>0</v>
       </c>
@@ -9202,19 +9213,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>732</v>
+      </c>
+      <c r="C258" t="s">
+        <v>733</v>
+      </c>
+      <c r="D258" t="s">
         <v>734</v>
       </c>
-      <c r="C258" t="s">
-        <v>735</v>
-      </c>
-      <c r="D258" t="s">
-        <v>736</v>
-      </c>
       <c r="E258">
         <v>0</v>
       </c>
@@ -9222,19 +9233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>735</v>
+      </c>
+      <c r="C259" t="s">
+        <v>736</v>
+      </c>
+      <c r="D259" t="s">
         <v>737</v>
       </c>
-      <c r="C259" t="s">
-        <v>738</v>
-      </c>
-      <c r="D259" t="s">
-        <v>739</v>
-      </c>
       <c r="E259">
         <v>0</v>
       </c>
@@ -9242,19 +9253,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>738</v>
+      </c>
+      <c r="C260" t="s">
+        <v>739</v>
+      </c>
+      <c r="D260" t="s">
         <v>740</v>
       </c>
-      <c r="C260" t="s">
-        <v>741</v>
-      </c>
-      <c r="D260" t="s">
-        <v>742</v>
-      </c>
       <c r="E260">
         <v>0</v>
       </c>
@@ -9262,19 +9273,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>741</v>
+      </c>
+      <c r="C261" t="s">
+        <v>742</v>
+      </c>
+      <c r="D261" t="s">
         <v>743</v>
       </c>
-      <c r="C261" t="s">
-        <v>744</v>
-      </c>
-      <c r="D261" t="s">
-        <v>745</v>
-      </c>
       <c r="E261">
         <v>0</v>
       </c>
@@ -9282,18 +9293,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C262" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D262" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -9302,19 +9313,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
+        <v>746</v>
+      </c>
+      <c r="C263" t="s">
+        <v>747</v>
+      </c>
+      <c r="D263" t="s">
         <v>748</v>
       </c>
-      <c r="C263" t="s">
-        <v>749</v>
-      </c>
-      <c r="D263" t="s">
-        <v>750</v>
-      </c>
       <c r="E263">
         <v>0</v>
       </c>
@@ -9322,19 +9333,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
+        <v>749</v>
+      </c>
+      <c r="C264" t="s">
+        <v>750</v>
+      </c>
+      <c r="D264" t="s">
         <v>751</v>
       </c>
-      <c r="C264" t="s">
-        <v>752</v>
-      </c>
-      <c r="D264" t="s">
-        <v>753</v>
-      </c>
       <c r="E264">
         <v>0</v>
       </c>
@@ -9342,19 +9353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>752</v>
+      </c>
+      <c r="C265" t="s">
+        <v>753</v>
+      </c>
+      <c r="D265" t="s">
         <v>754</v>
       </c>
-      <c r="C265" t="s">
-        <v>755</v>
-      </c>
-      <c r="D265" t="s">
-        <v>756</v>
-      </c>
       <c r="E265">
         <v>0</v>
       </c>
@@ -9362,19 +9373,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>755</v>
+      </c>
+      <c r="C266" t="s">
+        <v>756</v>
+      </c>
+      <c r="D266" t="s">
         <v>757</v>
       </c>
-      <c r="C266" t="s">
-        <v>758</v>
-      </c>
-      <c r="D266" t="s">
-        <v>759</v>
-      </c>
       <c r="E266">
         <v>0</v>
       </c>
@@ -9382,19 +9393,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>758</v>
+      </c>
+      <c r="C267" t="s">
+        <v>759</v>
+      </c>
+      <c r="D267" t="s">
         <v>760</v>
       </c>
-      <c r="C267" t="s">
-        <v>761</v>
-      </c>
-      <c r="D267" t="s">
-        <v>762</v>
-      </c>
       <c r="E267">
         <v>0</v>
       </c>
@@ -9402,19 +9413,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>761</v>
+      </c>
+      <c r="C268" t="s">
+        <v>762</v>
+      </c>
+      <c r="D268" t="s">
         <v>763</v>
       </c>
-      <c r="C268" t="s">
-        <v>764</v>
-      </c>
-      <c r="D268" t="s">
-        <v>765</v>
-      </c>
       <c r="E268">
         <v>0</v>
       </c>
@@ -9422,18 +9433,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C269" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D269" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -9442,19 +9453,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
+        <v>766</v>
+      </c>
+      <c r="C270" t="s">
+        <v>767</v>
+      </c>
+      <c r="D270" t="s">
         <v>768</v>
       </c>
-      <c r="C270" t="s">
-        <v>769</v>
-      </c>
-      <c r="D270" t="s">
-        <v>770</v>
-      </c>
       <c r="E270">
         <v>0</v>
       </c>
@@ -9462,19 +9473,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>769</v>
+      </c>
+      <c r="C271" t="s">
+        <v>770</v>
+      </c>
+      <c r="D271" t="s">
         <v>771</v>
       </c>
-      <c r="C271" t="s">
-        <v>772</v>
-      </c>
-      <c r="D271" t="s">
-        <v>773</v>
-      </c>
       <c r="E271">
         <v>0</v>
       </c>
@@ -9482,19 +9493,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>772</v>
+      </c>
+      <c r="C272" t="s">
+        <v>773</v>
+      </c>
+      <c r="D272" t="s">
         <v>774</v>
       </c>
-      <c r="C272" t="s">
-        <v>775</v>
-      </c>
-      <c r="D272" t="s">
-        <v>776</v>
-      </c>
       <c r="E272">
         <v>0</v>
       </c>
@@ -9502,19 +9513,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
+        <v>775</v>
+      </c>
+      <c r="C273" t="s">
+        <v>776</v>
+      </c>
+      <c r="D273" t="s">
         <v>777</v>
       </c>
-      <c r="C273" t="s">
-        <v>778</v>
-      </c>
-      <c r="D273" t="s">
-        <v>779</v>
-      </c>
       <c r="E273">
         <v>0</v>
       </c>
@@ -9522,19 +9533,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
+        <v>778</v>
+      </c>
+      <c r="C274" t="s">
+        <v>779</v>
+      </c>
+      <c r="D274" t="s">
         <v>780</v>
       </c>
-      <c r="C274" t="s">
-        <v>781</v>
-      </c>
-      <c r="D274" t="s">
-        <v>782</v>
-      </c>
       <c r="E274">
         <v>0</v>
       </c>
@@ -9542,19 +9553,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
+        <v>781</v>
+      </c>
+      <c r="C275" t="s">
+        <v>782</v>
+      </c>
+      <c r="D275" t="s">
         <v>783</v>
       </c>
-      <c r="C275" t="s">
-        <v>784</v>
-      </c>
-      <c r="D275" t="s">
-        <v>785</v>
-      </c>
       <c r="E275">
         <v>0</v>
       </c>
@@ -9562,19 +9573,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>784</v>
+      </c>
+      <c r="C276" t="s">
+        <v>785</v>
+      </c>
+      <c r="D276" t="s">
         <v>786</v>
       </c>
-      <c r="C276" t="s">
-        <v>787</v>
-      </c>
-      <c r="D276" t="s">
-        <v>788</v>
-      </c>
       <c r="E276">
         <v>0</v>
       </c>
@@ -9582,19 +9593,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
+        <v>787</v>
+      </c>
+      <c r="C277" t="s">
+        <v>788</v>
+      </c>
+      <c r="D277" t="s">
         <v>789</v>
       </c>
-      <c r="C277" t="s">
-        <v>790</v>
-      </c>
-      <c r="D277" t="s">
-        <v>791</v>
-      </c>
       <c r="E277">
         <v>0</v>
       </c>
@@ -9602,18 +9613,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C278" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D278" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9622,18 +9633,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C279" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D279" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -9642,19 +9653,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
+        <v>794</v>
+      </c>
+      <c r="C280" t="s">
+        <v>795</v>
+      </c>
+      <c r="D280" t="s">
         <v>796</v>
       </c>
-      <c r="C280" t="s">
-        <v>797</v>
-      </c>
-      <c r="D280" t="s">
-        <v>798</v>
-      </c>
       <c r="E280">
         <v>0</v>
       </c>
@@ -9662,19 +9673,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
+        <v>797</v>
+      </c>
+      <c r="C281" t="s">
+        <v>798</v>
+      </c>
+      <c r="D281" t="s">
         <v>799</v>
       </c>
-      <c r="C281" t="s">
-        <v>800</v>
-      </c>
-      <c r="D281" t="s">
-        <v>801</v>
-      </c>
       <c r="E281">
         <v>0</v>
       </c>
@@ -9682,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9690,10 +9701,10 @@
         <v>27</v>
       </c>
       <c r="C282" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D282" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9702,19 +9713,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
+        <v>802</v>
+      </c>
+      <c r="C283" t="s">
+        <v>803</v>
+      </c>
+      <c r="D283" t="s">
         <v>804</v>
       </c>
-      <c r="C283" t="s">
-        <v>805</v>
-      </c>
-      <c r="D283" t="s">
-        <v>806</v>
-      </c>
       <c r="E283">
         <v>0</v>
       </c>
@@ -9722,19 +9733,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
+        <v>805</v>
+      </c>
+      <c r="C284" t="s">
+        <v>806</v>
+      </c>
+      <c r="D284" t="s">
         <v>807</v>
       </c>
-      <c r="C284" t="s">
-        <v>808</v>
-      </c>
-      <c r="D284" t="s">
-        <v>809</v>
-      </c>
       <c r="E284">
         <v>0</v>
       </c>
@@ -9742,19 +9753,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
+        <v>808</v>
+      </c>
+      <c r="C285" t="s">
+        <v>809</v>
+      </c>
+      <c r="D285" t="s">
         <v>810</v>
       </c>
-      <c r="C285" t="s">
-        <v>811</v>
-      </c>
-      <c r="D285" t="s">
-        <v>812</v>
-      </c>
       <c r="E285">
         <v>0</v>
       </c>
@@ -9762,19 +9773,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
+        <v>811</v>
+      </c>
+      <c r="C286" t="s">
+        <v>812</v>
+      </c>
+      <c r="D286" t="s">
         <v>813</v>
       </c>
-      <c r="C286" t="s">
-        <v>814</v>
-      </c>
-      <c r="D286" t="s">
-        <v>815</v>
-      </c>
       <c r="E286">
         <v>0</v>
       </c>
@@ -9782,19 +9793,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
+        <v>814</v>
+      </c>
+      <c r="C287" t="s">
+        <v>815</v>
+      </c>
+      <c r="D287" t="s">
         <v>816</v>
       </c>
-      <c r="C287" t="s">
-        <v>817</v>
-      </c>
-      <c r="D287" t="s">
-        <v>818</v>
-      </c>
       <c r="E287">
         <v>0</v>
       </c>
@@ -9802,18 +9813,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C288" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D288" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -9822,19 +9833,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
+        <v>819</v>
+      </c>
+      <c r="C289" t="s">
+        <v>820</v>
+      </c>
+      <c r="D289" t="s">
         <v>821</v>
       </c>
-      <c r="C289" t="s">
-        <v>822</v>
-      </c>
-      <c r="D289" t="s">
-        <v>823</v>
-      </c>
       <c r="E289">
         <v>0</v>
       </c>
@@ -9842,19 +9853,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
+        <v>822</v>
+      </c>
+      <c r="C290" t="s">
+        <v>823</v>
+      </c>
+      <c r="D290" t="s">
         <v>824</v>
       </c>
-      <c r="C290" t="s">
-        <v>825</v>
-      </c>
-      <c r="D290" t="s">
-        <v>826</v>
-      </c>
       <c r="E290">
         <v>0</v>
       </c>
@@ -9862,19 +9873,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>825</v>
+      </c>
+      <c r="C291" t="s">
+        <v>826</v>
+      </c>
+      <c r="D291" t="s">
         <v>827</v>
       </c>
-      <c r="C291" t="s">
-        <v>828</v>
-      </c>
-      <c r="D291" t="s">
-        <v>829</v>
-      </c>
       <c r="E291">
         <v>0</v>
       </c>
@@ -9882,19 +9893,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>828</v>
+      </c>
+      <c r="C292" t="s">
+        <v>829</v>
+      </c>
+      <c r="D292" t="s">
         <v>830</v>
       </c>
-      <c r="C292" t="s">
-        <v>831</v>
-      </c>
-      <c r="D292" t="s">
-        <v>832</v>
-      </c>
       <c r="E292">
         <v>0</v>
       </c>
@@ -9902,19 +9913,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
+        <v>831</v>
+      </c>
+      <c r="C293" t="s">
+        <v>832</v>
+      </c>
+      <c r="D293" t="s">
         <v>833</v>
       </c>
-      <c r="C293" t="s">
-        <v>834</v>
-      </c>
-      <c r="D293" t="s">
-        <v>835</v>
-      </c>
       <c r="E293">
         <v>0</v>
       </c>
@@ -9922,19 +9933,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
+        <v>834</v>
+      </c>
+      <c r="C294" t="s">
+        <v>835</v>
+      </c>
+      <c r="D294" t="s">
         <v>836</v>
       </c>
-      <c r="C294" t="s">
-        <v>837</v>
-      </c>
-      <c r="D294" t="s">
-        <v>838</v>
-      </c>
       <c r="E294">
         <v>0</v>
       </c>
@@ -9942,19 +9953,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
+        <v>837</v>
+      </c>
+      <c r="C295" t="s">
+        <v>838</v>
+      </c>
+      <c r="D295" t="s">
         <v>839</v>
       </c>
-      <c r="C295" t="s">
-        <v>840</v>
-      </c>
-      <c r="D295" t="s">
-        <v>841</v>
-      </c>
       <c r="E295">
         <v>0</v>
       </c>
@@ -9962,19 +9973,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
+        <v>840</v>
+      </c>
+      <c r="C296" t="s">
+        <v>841</v>
+      </c>
+      <c r="D296" t="s">
         <v>842</v>
       </c>
-      <c r="C296" t="s">
-        <v>843</v>
-      </c>
-      <c r="D296" t="s">
-        <v>844</v>
-      </c>
       <c r="E296">
         <v>0</v>
       </c>
@@ -9982,19 +9993,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
+        <v>843</v>
+      </c>
+      <c r="C297" t="s">
+        <v>844</v>
+      </c>
+      <c r="D297" t="s">
         <v>845</v>
       </c>
-      <c r="C297" t="s">
-        <v>846</v>
-      </c>
-      <c r="D297" t="s">
-        <v>847</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -10002,19 +10013,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
+        <v>846</v>
+      </c>
+      <c r="C298" t="s">
+        <v>847</v>
+      </c>
+      <c r="D298" t="s">
         <v>848</v>
       </c>
-      <c r="C298" t="s">
-        <v>849</v>
-      </c>
-      <c r="D298" t="s">
-        <v>850</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -10022,18 +10033,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C299" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D299" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -10042,19 +10053,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
+        <v>851</v>
+      </c>
+      <c r="C300" t="s">
+        <v>852</v>
+      </c>
+      <c r="D300" t="s">
         <v>853</v>
       </c>
-      <c r="C300" t="s">
-        <v>854</v>
-      </c>
-      <c r="D300" t="s">
-        <v>855</v>
-      </c>
       <c r="E300">
         <v>0</v>
       </c>
@@ -10062,19 +10073,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>854</v>
+      </c>
+      <c r="C301" t="s">
+        <v>855</v>
+      </c>
+      <c r="D301" t="s">
         <v>856</v>
       </c>
-      <c r="C301" t="s">
-        <v>857</v>
-      </c>
-      <c r="D301" t="s">
-        <v>858</v>
-      </c>
       <c r="E301">
         <v>0</v>
       </c>
@@ -10082,19 +10093,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>857</v>
+      </c>
+      <c r="C302" t="s">
+        <v>858</v>
+      </c>
+      <c r="D302" t="s">
         <v>859</v>
       </c>
-      <c r="C302" t="s">
-        <v>860</v>
-      </c>
-      <c r="D302" t="s">
-        <v>861</v>
-      </c>
       <c r="E302">
         <v>0</v>
       </c>
@@ -10102,19 +10113,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303" t="s">
+        <v>860</v>
+      </c>
+      <c r="C303" t="s">
+        <v>861</v>
+      </c>
+      <c r="D303" t="s">
         <v>862</v>
       </c>
-      <c r="C303" t="s">
-        <v>863</v>
-      </c>
-      <c r="D303" t="s">
-        <v>864</v>
-      </c>
       <c r="E303">
         <v>0</v>
       </c>
@@ -10122,19 +10133,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>863</v>
+      </c>
+      <c r="C304" t="s">
+        <v>864</v>
+      </c>
+      <c r="D304" t="s">
         <v>865</v>
       </c>
-      <c r="C304" t="s">
-        <v>866</v>
-      </c>
-      <c r="D304" t="s">
-        <v>867</v>
-      </c>
       <c r="E304">
         <v>0</v>
       </c>
@@ -10142,19 +10153,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
+        <v>866</v>
+      </c>
+      <c r="C305" t="s">
+        <v>867</v>
+      </c>
+      <c r="D305" t="s">
         <v>868</v>
       </c>
-      <c r="C305" t="s">
-        <v>869</v>
-      </c>
-      <c r="D305" t="s">
-        <v>870</v>
-      </c>
       <c r="E305">
         <v>0</v>
       </c>
@@ -10162,19 +10173,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
+        <v>869</v>
+      </c>
+      <c r="C306" t="s">
+        <v>870</v>
+      </c>
+      <c r="D306" t="s">
         <v>871</v>
       </c>
-      <c r="C306" t="s">
-        <v>872</v>
-      </c>
-      <c r="D306" t="s">
-        <v>873</v>
-      </c>
       <c r="E306">
         <v>0</v>
       </c>
@@ -10182,18 +10193,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C307" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D307" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -10202,18 +10213,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C308" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D308" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10222,19 +10233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
+        <v>876</v>
+      </c>
+      <c r="C309" t="s">
+        <v>877</v>
+      </c>
+      <c r="D309" t="s">
         <v>878</v>
       </c>
-      <c r="C309" t="s">
-        <v>879</v>
-      </c>
-      <c r="D309" t="s">
-        <v>880</v>
-      </c>
       <c r="E309">
         <v>0</v>
       </c>
@@ -10242,19 +10253,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
+        <v>879</v>
+      </c>
+      <c r="C310" t="s">
+        <v>880</v>
+      </c>
+      <c r="D310" t="s">
         <v>881</v>
       </c>
-      <c r="C310" t="s">
-        <v>882</v>
-      </c>
-      <c r="D310" t="s">
-        <v>883</v>
-      </c>
       <c r="E310">
         <v>0</v>
       </c>
@@ -10262,19 +10273,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
+        <v>882</v>
+      </c>
+      <c r="C311" t="s">
+        <v>883</v>
+      </c>
+      <c r="D311" t="s">
         <v>884</v>
       </c>
-      <c r="C311" t="s">
-        <v>885</v>
-      </c>
-      <c r="D311" t="s">
-        <v>886</v>
-      </c>
       <c r="E311">
         <v>0</v>
       </c>
@@ -10282,19 +10293,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
+        <v>885</v>
+      </c>
+      <c r="C312" t="s">
+        <v>886</v>
+      </c>
+      <c r="D312" t="s">
         <v>887</v>
       </c>
-      <c r="C312" t="s">
-        <v>888</v>
-      </c>
-      <c r="D312" t="s">
-        <v>889</v>
-      </c>
       <c r="E312">
         <v>0</v>
       </c>
@@ -10302,18 +10313,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C313" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D313" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -10322,19 +10333,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
+        <v>890</v>
+      </c>
+      <c r="C314" t="s">
+        <v>891</v>
+      </c>
+      <c r="D314" t="s">
         <v>892</v>
       </c>
-      <c r="C314" t="s">
-        <v>893</v>
-      </c>
-      <c r="D314" t="s">
-        <v>894</v>
-      </c>
       <c r="E314">
         <v>0</v>
       </c>
@@ -10342,19 +10353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
+        <v>893</v>
+      </c>
+      <c r="C315" t="s">
+        <v>894</v>
+      </c>
+      <c r="D315" t="s">
         <v>895</v>
       </c>
-      <c r="C315" t="s">
-        <v>896</v>
-      </c>
-      <c r="D315" t="s">
-        <v>897</v>
-      </c>
       <c r="E315">
         <v>0</v>
       </c>
@@ -10362,18 +10373,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C316" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D316" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E316">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jormart\Desktop\miscellaneous\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B092D-C346-4465-92CC-F4E18F1F695C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A9A00-5E46-4675-9C53-C296F2F11E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3692,11 +3692,10 @@
     <t>To enable releasing functionality on demand to meet business needs</t>
   </si>
   <si>
-    <t>Customer collaboration over contract negotiation;
-Individual interactions over processes and tools</t>
-  </si>
-  <si>
-    <t>External; Customers</t>
+    <t>External;Customers</t>
+  </si>
+  <si>
+    <t>Customer collaboration over contract negotiation;Individual interactions over processes and tools</t>
   </si>
 </sst>
 </file>
@@ -4064,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4973,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>139</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -8844,7 +8843,7 @@
         <v>677</v>
       </c>
       <c r="D239" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -10395,6 +10394,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>
   </headerFooter>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jormart\Desktop\miscellaneous\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A9A00-5E46-4675-9C53-C296F2F11E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76264955-D55A-40D2-90E6-A96EA1A48266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3692,10 +3692,10 @@
     <t>To enable releasing functionality on demand to meet business needs</t>
   </si>
   <si>
-    <t>External;Customers</t>
-  </si>
-  <si>
     <t>Customer collaboration over contract negotiation;Individual interactions over processes and tools</t>
+  </si>
+  <si>
+    <t>External Customers;Internal Customers</t>
   </si>
 </sst>
 </file>
@@ -4063,12 +4063,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="D221" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="165.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4983,7 +4984,7 @@
         <v>139</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -8843,7 +8844,7 @@
         <v>677</v>
       </c>
       <c r="D239" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E239">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jormart\Desktop\miscellaneous\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76264955-D55A-40D2-90E6-A96EA1A48266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA27CF7-EACC-4B3B-8349-DF5AE8022C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,9 +573,6 @@
     <t xml:space="preserve"> To receive feedback on the increment</t>
   </si>
   <si>
-    <t>The Product Manager makes weekly visits to a customer's site. Which two Agile Manifesto Values support this behavior? (Choose two.)</t>
-  </si>
-  <si>
     <t>Individual interactions over processes and tools
 Business people and developers must work together daily throughout the project
 Following a plan over responding to change
@@ -3696,6 +3693,9 @@
   </si>
   <si>
     <t>External Customers;Internal Customers</t>
+  </si>
+  <si>
+    <t>The Product Manager makes weekly visits to a customer's site. Which two Agile Manifesto Values support this behavior? (Choose two)</t>
   </si>
 </sst>
 </file>
@@ -4063,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D221" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,13 +4978,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>910</v>
+      </c>
+      <c r="C46" t="s">
         <v>138</v>
       </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4998,13 +4998,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
         <v>140</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>141</v>
-      </c>
-      <c r="D47" t="s">
-        <v>142</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5018,13 +5018,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>144</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5038,13 +5038,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
         <v>146</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>147</v>
-      </c>
-      <c r="D49" t="s">
-        <v>148</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
         <v>149</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>150</v>
-      </c>
-      <c r="D50" t="s">
-        <v>151</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5078,13 +5078,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
         <v>152</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>153</v>
-      </c>
-      <c r="D51" t="s">
-        <v>154</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5098,13 +5098,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
         <v>155</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>156</v>
-      </c>
-      <c r="D52" t="s">
-        <v>157</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5118,13 +5118,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
         <v>158</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>159</v>
-      </c>
-      <c r="D53" t="s">
-        <v>160</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5138,13 +5138,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
         <v>161</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>162</v>
-      </c>
-      <c r="D54" t="s">
-        <v>163</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5158,13 +5158,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
         <v>164</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>165</v>
-      </c>
-      <c r="D55" t="s">
-        <v>166</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5178,13 +5178,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
         <v>167</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>168</v>
-      </c>
-      <c r="D56" t="s">
-        <v>169</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5198,13 +5198,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
         <v>170</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>171</v>
-      </c>
-      <c r="D57" t="s">
-        <v>172</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
         <v>173</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>174</v>
-      </c>
-      <c r="D58" t="s">
-        <v>175</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -5238,13 +5238,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
         <v>176</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>177</v>
-      </c>
-      <c r="D59" t="s">
-        <v>178</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5258,13 +5258,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
         <v>179</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>180</v>
-      </c>
-      <c r="D60" t="s">
-        <v>181</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5278,13 +5278,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
         <v>182</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>183</v>
-      </c>
-      <c r="D61" t="s">
-        <v>184</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5298,13 +5298,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
         <v>185</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>186</v>
-      </c>
-      <c r="D62" t="s">
-        <v>187</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5318,13 +5318,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
         <v>188</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>189</v>
-      </c>
-      <c r="D63" t="s">
-        <v>190</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5338,13 +5338,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
         <v>191</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>192</v>
-      </c>
-      <c r="D64" t="s">
-        <v>193</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5358,13 +5358,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
         <v>194</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>195</v>
-      </c>
-      <c r="D65" t="s">
-        <v>196</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5378,13 +5378,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
         <v>197</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>198</v>
-      </c>
-      <c r="D66" t="s">
-        <v>199</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5398,13 +5398,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
         <v>200</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>201</v>
-      </c>
-      <c r="D67" t="s">
-        <v>202</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5418,13 +5418,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
         <v>203</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>204</v>
-      </c>
-      <c r="D68" t="s">
-        <v>205</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5438,13 +5438,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
         <v>206</v>
       </c>
-      <c r="C69" t="s">
-        <v>207</v>
-      </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5458,13 +5458,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
         <v>208</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>209</v>
-      </c>
-      <c r="D70" t="s">
-        <v>210</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5478,13 +5478,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" t="s">
         <v>211</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>212</v>
-      </c>
-      <c r="D71" t="s">
-        <v>213</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5498,13 +5498,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" t="s">
         <v>214</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>215</v>
-      </c>
-      <c r="D72" t="s">
-        <v>216</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5518,13 +5518,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" t="s">
         <v>217</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>218</v>
-      </c>
-      <c r="D73" t="s">
-        <v>219</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5538,13 +5538,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" t="s">
         <v>220</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>221</v>
-      </c>
-      <c r="D74" t="s">
-        <v>222</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5558,13 +5558,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" t="s">
         <v>223</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>224</v>
-      </c>
-      <c r="D75" t="s">
-        <v>225</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5578,13 +5578,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" t="s">
         <v>226</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>227</v>
-      </c>
-      <c r="D76" t="s">
-        <v>228</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" t="s">
         <v>229</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>230</v>
-      </c>
-      <c r="D77" t="s">
-        <v>231</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5618,13 +5618,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" t="s">
         <v>232</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>233</v>
-      </c>
-      <c r="D78" t="s">
-        <v>234</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5638,13 +5638,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" t="s">
         <v>235</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>236</v>
-      </c>
-      <c r="D79" t="s">
-        <v>237</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5658,13 +5658,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" t="s">
         <v>238</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>239</v>
-      </c>
-      <c r="D80" t="s">
-        <v>240</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5678,13 +5678,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" t="s">
         <v>241</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>242</v>
-      </c>
-      <c r="D81" t="s">
-        <v>243</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5698,13 +5698,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" t="s">
         <v>244</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>245</v>
-      </c>
-      <c r="D82" t="s">
-        <v>246</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5718,13 +5718,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" t="s">
         <v>247</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>248</v>
-      </c>
-      <c r="D83" t="s">
-        <v>249</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5738,13 +5738,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" t="s">
         <v>250</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>251</v>
-      </c>
-      <c r="D84" t="s">
-        <v>252</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5758,13 +5758,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" t="s">
         <v>253</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>254</v>
-      </c>
-      <c r="D85" t="s">
-        <v>255</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5778,13 +5778,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" t="s">
         <v>256</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>257</v>
-      </c>
-      <c r="D86" t="s">
-        <v>258</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" t="s">
         <v>259</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>260</v>
-      </c>
-      <c r="D87" t="s">
-        <v>261</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5818,13 +5818,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" t="s">
         <v>262</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>263</v>
-      </c>
-      <c r="D88" t="s">
-        <v>264</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5838,13 +5838,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" t="s">
         <v>265</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>266</v>
-      </c>
-      <c r="D89" t="s">
-        <v>267</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5858,13 +5858,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" t="s">
         <v>268</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>269</v>
-      </c>
-      <c r="D90" t="s">
-        <v>270</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5878,13 +5878,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" t="s">
         <v>271</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>272</v>
-      </c>
-      <c r="D91" t="s">
-        <v>273</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5898,13 +5898,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" t="s">
         <v>274</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>275</v>
-      </c>
-      <c r="D92" t="s">
-        <v>276</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5918,13 +5918,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" t="s">
         <v>277</v>
       </c>
-      <c r="C93" t="s">
-        <v>278</v>
-      </c>
       <c r="D93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5938,13 +5938,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" t="s">
         <v>279</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>280</v>
-      </c>
-      <c r="D94" t="s">
-        <v>281</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -5958,13 +5958,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>283</v>
-      </c>
-      <c r="D95" t="s">
-        <v>284</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -5978,13 +5978,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>286</v>
-      </c>
-      <c r="D96" t="s">
-        <v>287</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -5998,13 +5998,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>289</v>
-      </c>
-      <c r="D97" t="s">
-        <v>290</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6018,13 +6018,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>292</v>
-      </c>
-      <c r="D98" t="s">
-        <v>293</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6038,13 +6038,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" t="s">
         <v>294</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>295</v>
-      </c>
-      <c r="D99" t="s">
-        <v>296</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6058,13 +6058,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" t="s">
         <v>297</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>298</v>
-      </c>
-      <c r="D100" t="s">
-        <v>299</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6078,13 +6078,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>301</v>
-      </c>
-      <c r="D101" t="s">
-        <v>302</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6098,13 +6098,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" t="s">
         <v>303</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>304</v>
-      </c>
-      <c r="D102" t="s">
-        <v>305</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6118,13 +6118,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" t="s">
         <v>306</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>307</v>
-      </c>
-      <c r="D103" t="s">
-        <v>308</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>308</v>
+      </c>
+      <c r="C104" t="s">
         <v>309</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>310</v>
-      </c>
-      <c r="D104" t="s">
-        <v>311</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6158,13 +6158,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>311</v>
+      </c>
+      <c r="C105" t="s">
         <v>312</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>313</v>
-      </c>
-      <c r="D105" t="s">
-        <v>314</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6178,13 +6178,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" t="s">
         <v>315</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>316</v>
-      </c>
-      <c r="D106" t="s">
-        <v>317</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6198,13 +6198,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" t="s">
         <v>318</v>
       </c>
-      <c r="C107" t="s">
-        <v>319</v>
-      </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6218,13 +6218,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" t="s">
         <v>320</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>321</v>
-      </c>
-      <c r="D108" t="s">
-        <v>322</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6238,13 +6238,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>322</v>
+      </c>
+      <c r="C109" t="s">
         <v>323</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>324</v>
-      </c>
-      <c r="D109" t="s">
-        <v>325</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6258,13 +6258,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" t="s">
         <v>326</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>327</v>
-      </c>
-      <c r="D110" t="s">
-        <v>328</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -6278,13 +6278,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" t="s">
         <v>329</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>330</v>
-      </c>
-      <c r="D111" t="s">
-        <v>331</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -6298,13 +6298,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" t="s">
         <v>332</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>333</v>
-      </c>
-      <c r="D112" t="s">
-        <v>334</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -6318,13 +6318,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" t="s">
         <v>335</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>336</v>
-      </c>
-      <c r="D113" t="s">
-        <v>337</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6338,13 +6338,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114" t="s">
         <v>338</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>339</v>
-      </c>
-      <c r="D114" t="s">
-        <v>340</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -6358,13 +6358,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" t="s">
         <v>341</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>342</v>
-      </c>
-      <c r="D115" t="s">
-        <v>343</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" t="s">
         <v>344</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>345</v>
-      </c>
-      <c r="D116" t="s">
-        <v>346</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6398,13 +6398,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" t="s">
         <v>347</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>348</v>
-      </c>
-      <c r="D117" t="s">
-        <v>349</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6418,13 +6418,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" t="s">
         <v>350</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>351</v>
-      </c>
-      <c r="D118" t="s">
-        <v>352</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -6438,13 +6438,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" t="s">
         <v>353</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>354</v>
-      </c>
-      <c r="D119" t="s">
-        <v>355</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6458,13 +6458,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>355</v>
+      </c>
+      <c r="C120" t="s">
         <v>356</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>357</v>
-      </c>
-      <c r="D120" t="s">
-        <v>358</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6478,13 +6478,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" t="s">
         <v>359</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>360</v>
-      </c>
-      <c r="D121" t="s">
-        <v>361</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6498,13 +6498,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" t="s">
         <v>362</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>363</v>
-      </c>
-      <c r="D122" t="s">
-        <v>364</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -6518,13 +6518,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" t="s">
         <v>365</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>366</v>
-      </c>
-      <c r="D123" t="s">
-        <v>367</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6538,13 +6538,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>367</v>
+      </c>
+      <c r="C124" t="s">
         <v>368</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>369</v>
-      </c>
-      <c r="D124" t="s">
-        <v>370</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -6558,13 +6558,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" t="s">
         <v>371</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>372</v>
-      </c>
-      <c r="D125" t="s">
-        <v>373</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -6578,13 +6578,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" t="s">
         <v>374</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>375</v>
-      </c>
-      <c r="D126" t="s">
-        <v>376</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -6598,13 +6598,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" t="s">
         <v>377</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>378</v>
-      </c>
-      <c r="D127" t="s">
-        <v>379</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -6618,13 +6618,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C128" t="s">
         <v>380</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>381</v>
-      </c>
-      <c r="D128" t="s">
-        <v>382</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6638,13 +6638,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" t="s">
         <v>383</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>384</v>
-      </c>
-      <c r="D129" t="s">
-        <v>385</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6658,13 +6658,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" t="s">
         <v>386</v>
       </c>
-      <c r="C130" t="s">
-        <v>387</v>
-      </c>
       <c r="D130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6678,13 +6678,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" t="s">
         <v>388</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>389</v>
-      </c>
-      <c r="D131" t="s">
-        <v>390</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6698,13 +6698,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" t="s">
         <v>391</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>392</v>
-      </c>
-      <c r="D132" t="s">
-        <v>393</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6718,10 +6718,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" t="s">
         <v>394</v>
-      </c>
-      <c r="C133" t="s">
-        <v>395</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -6738,13 +6738,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>395</v>
+      </c>
+      <c r="C134" t="s">
         <v>396</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>397</v>
-      </c>
-      <c r="D134" t="s">
-        <v>398</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6758,13 +6758,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>398</v>
+      </c>
+      <c r="C135" t="s">
         <v>399</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>400</v>
-      </c>
-      <c r="D135" t="s">
-        <v>401</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -6778,13 +6778,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>401</v>
+      </c>
+      <c r="C136" t="s">
         <v>402</v>
       </c>
-      <c r="C136" t="s">
-        <v>403</v>
-      </c>
       <c r="D136" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6798,13 +6798,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>403</v>
+      </c>
+      <c r="C137" t="s">
         <v>404</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>405</v>
-      </c>
-      <c r="D137" t="s">
-        <v>406</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6818,13 +6818,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" t="s">
         <v>407</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>408</v>
-      </c>
-      <c r="D138" t="s">
-        <v>409</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -6838,13 +6838,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>409</v>
+      </c>
+      <c r="C139" t="s">
         <v>410</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>411</v>
-      </c>
-      <c r="D139" t="s">
-        <v>412</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6858,13 +6858,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>412</v>
+      </c>
+      <c r="C140" t="s">
         <v>413</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>414</v>
-      </c>
-      <c r="D140" t="s">
-        <v>415</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -6878,13 +6878,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>415</v>
+      </c>
+      <c r="C141" t="s">
         <v>416</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>417</v>
-      </c>
-      <c r="D141" t="s">
-        <v>418</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -6898,13 +6898,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>418</v>
+      </c>
+      <c r="C142" t="s">
         <v>419</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>420</v>
-      </c>
-      <c r="D142" t="s">
-        <v>421</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6918,13 +6918,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>421</v>
+      </c>
+      <c r="C143" t="s">
         <v>422</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>423</v>
-      </c>
-      <c r="D143" t="s">
-        <v>424</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -6938,13 +6938,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>424</v>
+      </c>
+      <c r="C144" t="s">
         <v>425</v>
       </c>
-      <c r="C144" t="s">
-        <v>426</v>
-      </c>
       <c r="D144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>426</v>
+      </c>
+      <c r="C145" t="s">
         <v>427</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>428</v>
-      </c>
-      <c r="D145" t="s">
-        <v>429</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -6978,13 +6978,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>429</v>
+      </c>
+      <c r="C146" t="s">
         <v>430</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>431</v>
-      </c>
-      <c r="D146" t="s">
-        <v>432</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -6998,13 +6998,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" t="s">
         <v>433</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>434</v>
-      </c>
-      <c r="D147" t="s">
-        <v>435</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7018,13 +7018,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" t="s">
         <v>436</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>437</v>
-      </c>
-      <c r="D148" t="s">
-        <v>438</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7038,13 +7038,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" t="s">
         <v>439</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>440</v>
-      </c>
-      <c r="D149" t="s">
-        <v>441</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7058,13 +7058,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" t="s">
         <v>442</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>443</v>
-      </c>
-      <c r="D150" t="s">
-        <v>444</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7078,13 +7078,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>444</v>
+      </c>
+      <c r="C151" t="s">
         <v>445</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>446</v>
-      </c>
-      <c r="D151" t="s">
-        <v>447</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7098,13 +7098,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" t="s">
         <v>448</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>449</v>
-      </c>
-      <c r="D152" t="s">
-        <v>450</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7118,13 +7118,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" t="s">
         <v>451</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>452</v>
-      </c>
-      <c r="D153" t="s">
-        <v>453</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -7138,13 +7138,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>453</v>
+      </c>
+      <c r="C154" t="s">
         <v>454</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>455</v>
-      </c>
-      <c r="D154" t="s">
-        <v>456</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7158,13 +7158,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" t="s">
         <v>457</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>458</v>
-      </c>
-      <c r="D155" t="s">
-        <v>459</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7178,13 +7178,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" t="s">
         <v>460</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>461</v>
-      </c>
-      <c r="D156" t="s">
-        <v>462</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7198,13 +7198,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" t="s">
         <v>463</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>464</v>
-      </c>
-      <c r="D157" t="s">
-        <v>465</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7218,13 +7218,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>465</v>
+      </c>
+      <c r="C158" t="s">
         <v>466</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>467</v>
-      </c>
-      <c r="D158" t="s">
-        <v>468</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7238,13 +7238,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159" t="s">
         <v>469</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>470</v>
-      </c>
-      <c r="D159" t="s">
-        <v>471</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7258,13 +7258,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
+        <v>471</v>
+      </c>
+      <c r="C160" t="s">
         <v>472</v>
       </c>
-      <c r="C160" t="s">
-        <v>473</v>
-      </c>
       <c r="D160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7278,13 +7278,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>473</v>
+      </c>
+      <c r="C161" t="s">
         <v>474</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>475</v>
-      </c>
-      <c r="D161" t="s">
-        <v>476</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -7298,13 +7298,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>476</v>
+      </c>
+      <c r="C162" t="s">
         <v>477</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>478</v>
-      </c>
-      <c r="D162" t="s">
-        <v>479</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7318,13 +7318,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>479</v>
+      </c>
+      <c r="C163" t="s">
         <v>480</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>481</v>
-      </c>
-      <c r="D163" t="s">
-        <v>482</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -7338,13 +7338,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" t="s">
         <v>483</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>484</v>
-      </c>
-      <c r="D164" t="s">
-        <v>485</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -7358,13 +7358,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>897</v>
+      </c>
+      <c r="C165" t="s">
         <v>898</v>
       </c>
-      <c r="C165" t="s">
-        <v>899</v>
-      </c>
       <c r="D165" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7378,13 +7378,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" t="s">
         <v>487</v>
       </c>
-      <c r="C166" t="s">
-        <v>488</v>
-      </c>
       <c r="D166" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7398,13 +7398,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>488</v>
+      </c>
+      <c r="C167" t="s">
         <v>489</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>490</v>
-      </c>
-      <c r="D167" t="s">
-        <v>491</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7418,13 +7418,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" t="s">
         <v>492</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>493</v>
-      </c>
-      <c r="D168" t="s">
-        <v>494</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7438,10 +7438,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>494</v>
+      </c>
+      <c r="C169" t="s">
         <v>495</v>
-      </c>
-      <c r="C169" t="s">
-        <v>496</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
@@ -7458,13 +7458,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>496</v>
+      </c>
+      <c r="C170" t="s">
         <v>497</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>498</v>
-      </c>
-      <c r="D170" t="s">
-        <v>499</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7478,13 +7478,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" t="s">
         <v>500</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>501</v>
-      </c>
-      <c r="D171" t="s">
-        <v>502</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7498,13 +7498,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>502</v>
+      </c>
+      <c r="C172" t="s">
         <v>503</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>504</v>
-      </c>
-      <c r="D172" t="s">
-        <v>505</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7518,13 +7518,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>505</v>
+      </c>
+      <c r="C173" t="s">
         <v>506</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>507</v>
-      </c>
-      <c r="D173" t="s">
-        <v>508</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>508</v>
+      </c>
+      <c r="C174" t="s">
         <v>509</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>510</v>
-      </c>
-      <c r="D174" t="s">
-        <v>511</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7558,13 +7558,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>511</v>
+      </c>
+      <c r="C175" t="s">
         <v>512</v>
       </c>
-      <c r="C175" t="s">
-        <v>513</v>
-      </c>
       <c r="D175" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -7578,13 +7578,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>513</v>
+      </c>
+      <c r="C176" t="s">
         <v>514</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>515</v>
-      </c>
-      <c r="D176" t="s">
-        <v>516</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -7598,13 +7598,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>516</v>
+      </c>
+      <c r="C177" t="s">
         <v>517</v>
       </c>
-      <c r="C177" t="s">
-        <v>518</v>
-      </c>
       <c r="D177" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7618,13 +7618,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>518</v>
+      </c>
+      <c r="C178" t="s">
         <v>519</v>
       </c>
-      <c r="C178" t="s">
-        <v>520</v>
-      </c>
       <c r="D178" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7638,13 +7638,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>520</v>
+      </c>
+      <c r="C179" t="s">
         <v>521</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>522</v>
-      </c>
-      <c r="D179" t="s">
-        <v>523</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -7658,13 +7658,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>523</v>
+      </c>
+      <c r="C180" t="s">
         <v>524</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>525</v>
-      </c>
-      <c r="D180" t="s">
-        <v>526</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7678,13 +7678,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>526</v>
+      </c>
+      <c r="C181" t="s">
         <v>527</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>528</v>
-      </c>
-      <c r="D181" t="s">
-        <v>529</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -7698,13 +7698,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>529</v>
+      </c>
+      <c r="C182" t="s">
         <v>530</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>531</v>
-      </c>
-      <c r="D182" t="s">
-        <v>532</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7718,13 +7718,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>532</v>
+      </c>
+      <c r="C183" t="s">
         <v>533</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>534</v>
-      </c>
-      <c r="D183" t="s">
-        <v>535</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>535</v>
+      </c>
+      <c r="C184" t="s">
         <v>536</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>537</v>
-      </c>
-      <c r="D184" t="s">
-        <v>538</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>538</v>
+      </c>
+      <c r="C185" t="s">
         <v>539</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>540</v>
-      </c>
-      <c r="D185" t="s">
-        <v>541</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -7778,13 +7778,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>541</v>
+      </c>
+      <c r="C186" t="s">
         <v>542</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>543</v>
-      </c>
-      <c r="D186" t="s">
-        <v>544</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7798,13 +7798,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>544</v>
+      </c>
+      <c r="C187" t="s">
         <v>545</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>546</v>
-      </c>
-      <c r="D187" t="s">
-        <v>547</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7818,13 +7818,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>547</v>
+      </c>
+      <c r="C188" t="s">
         <v>548</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>549</v>
-      </c>
-      <c r="D188" t="s">
-        <v>550</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -7838,13 +7838,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>550</v>
+      </c>
+      <c r="C189" t="s">
         <v>551</v>
       </c>
-      <c r="C189" t="s">
-        <v>552</v>
-      </c>
       <c r="D189" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7858,13 +7858,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C190" t="s">
+        <v>900</v>
+      </c>
+      <c r="D190" t="s">
         <v>901</v>
-      </c>
-      <c r="D190" t="s">
-        <v>902</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -7878,13 +7878,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>554</v>
+      </c>
+      <c r="C191" t="s">
         <v>555</v>
       </c>
-      <c r="C191" t="s">
-        <v>556</v>
-      </c>
       <c r="D191" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -7898,13 +7898,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>556</v>
+      </c>
+      <c r="C192" t="s">
         <v>557</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>558</v>
-      </c>
-      <c r="D192" t="s">
-        <v>559</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -7918,13 +7918,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>559</v>
+      </c>
+      <c r="C193" t="s">
         <v>560</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>561</v>
-      </c>
-      <c r="D193" t="s">
-        <v>562</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -7938,13 +7938,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>562</v>
+      </c>
+      <c r="C194" t="s">
         <v>563</v>
       </c>
-      <c r="C194" t="s">
-        <v>564</v>
-      </c>
       <c r="D194" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -7958,13 +7958,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>564</v>
+      </c>
+      <c r="C195" t="s">
         <v>565</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>566</v>
-      </c>
-      <c r="D195" t="s">
-        <v>567</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -7978,13 +7978,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>567</v>
+      </c>
+      <c r="C196" t="s">
         <v>568</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>569</v>
-      </c>
-      <c r="D196" t="s">
-        <v>570</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -7998,13 +7998,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>904</v>
+      </c>
+      <c r="C197" t="s">
+        <v>570</v>
+      </c>
+      <c r="D197" t="s">
         <v>905</v>
-      </c>
-      <c r="C197" t="s">
-        <v>571</v>
-      </c>
-      <c r="D197" t="s">
-        <v>906</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8018,13 +8018,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>571</v>
+      </c>
+      <c r="C198" t="s">
         <v>572</v>
       </c>
-      <c r="C198" t="s">
-        <v>573</v>
-      </c>
       <c r="D198" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8038,13 +8038,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>573</v>
+      </c>
+      <c r="C199" t="s">
         <v>574</v>
       </c>
-      <c r="C199" t="s">
-        <v>575</v>
-      </c>
       <c r="D199" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>575</v>
+      </c>
+      <c r="C200" t="s">
         <v>576</v>
       </c>
-      <c r="C200" t="s">
-        <v>577</v>
-      </c>
       <c r="D200" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8078,13 +8078,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>577</v>
+      </c>
+      <c r="C201" t="s">
         <v>578</v>
       </c>
-      <c r="C201" t="s">
-        <v>579</v>
-      </c>
       <c r="D201" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -8098,13 +8098,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>579</v>
+      </c>
+      <c r="C202" t="s">
         <v>580</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>581</v>
-      </c>
-      <c r="D202" t="s">
-        <v>582</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>582</v>
+      </c>
+      <c r="C203" t="s">
         <v>583</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>584</v>
-      </c>
-      <c r="D203" t="s">
-        <v>585</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8138,13 +8138,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>585</v>
+      </c>
+      <c r="C204" t="s">
         <v>586</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>587</v>
-      </c>
-      <c r="D204" t="s">
-        <v>588</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8158,13 +8158,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>588</v>
+      </c>
+      <c r="C205" t="s">
         <v>589</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>590</v>
-      </c>
-      <c r="D205" t="s">
-        <v>591</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -8178,13 +8178,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
+        <v>591</v>
+      </c>
+      <c r="C206" t="s">
         <v>592</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>593</v>
-      </c>
-      <c r="D206" t="s">
-        <v>594</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -8198,13 +8198,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>594</v>
+      </c>
+      <c r="C207" t="s">
         <v>595</v>
       </c>
-      <c r="C207" t="s">
-        <v>596</v>
-      </c>
       <c r="D207" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>596</v>
+      </c>
+      <c r="C208" t="s">
         <v>597</v>
       </c>
-      <c r="C208" t="s">
-        <v>598</v>
-      </c>
       <c r="D208" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -8238,13 +8238,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>598</v>
+      </c>
+      <c r="C209" t="s">
         <v>599</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>600</v>
-      </c>
-      <c r="D209" t="s">
-        <v>601</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -8258,13 +8258,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C210" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D210" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -8278,13 +8278,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>602</v>
+      </c>
+      <c r="C211" t="s">
         <v>603</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>604</v>
-      </c>
-      <c r="D211" t="s">
-        <v>605</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>605</v>
+      </c>
+      <c r="C212" t="s">
         <v>606</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>607</v>
-      </c>
-      <c r="D212" t="s">
-        <v>608</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8318,13 +8318,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>608</v>
+      </c>
+      <c r="C213" t="s">
         <v>609</v>
       </c>
-      <c r="C213" t="s">
-        <v>610</v>
-      </c>
       <c r="D213" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8338,13 +8338,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C214" t="s">
         <v>43</v>
       </c>
       <c r="D214" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -8358,13 +8358,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>611</v>
+      </c>
+      <c r="C215" t="s">
         <v>612</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>613</v>
-      </c>
-      <c r="D215" t="s">
-        <v>614</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8378,13 +8378,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>614</v>
+      </c>
+      <c r="C216" t="s">
         <v>615</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>616</v>
-      </c>
-      <c r="D216" t="s">
-        <v>617</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8398,13 +8398,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>617</v>
+      </c>
+      <c r="C217" t="s">
         <v>618</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>619</v>
-      </c>
-      <c r="D217" t="s">
-        <v>620</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8418,13 +8418,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>620</v>
+      </c>
+      <c r="C218" t="s">
         <v>621</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>622</v>
-      </c>
-      <c r="D218" t="s">
-        <v>623</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8438,13 +8438,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D219" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -8458,13 +8458,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>624</v>
+      </c>
+      <c r="C220" t="s">
         <v>625</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>626</v>
-      </c>
-      <c r="D220" t="s">
-        <v>627</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8478,13 +8478,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>627</v>
+      </c>
+      <c r="C221" t="s">
         <v>628</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>629</v>
-      </c>
-      <c r="D221" t="s">
-        <v>630</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8498,13 +8498,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>630</v>
+      </c>
+      <c r="C222" t="s">
         <v>631</v>
       </c>
-      <c r="C222" t="s">
-        <v>632</v>
-      </c>
       <c r="D222" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -8518,13 +8518,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>632</v>
+      </c>
+      <c r="C223" t="s">
         <v>633</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>634</v>
-      </c>
-      <c r="D223" t="s">
-        <v>635</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>635</v>
+      </c>
+      <c r="C224" t="s">
+        <v>197</v>
+      </c>
+      <c r="D224" t="s">
         <v>636</v>
-      </c>
-      <c r="C224" t="s">
-        <v>198</v>
-      </c>
-      <c r="D224" t="s">
-        <v>637</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8558,13 +8558,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>637</v>
+      </c>
+      <c r="C225" t="s">
         <v>638</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>639</v>
-      </c>
-      <c r="D225" t="s">
-        <v>640</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -8578,13 +8578,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>640</v>
+      </c>
+      <c r="C226" t="s">
         <v>641</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>642</v>
-      </c>
-      <c r="D226" t="s">
-        <v>643</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -8598,13 +8598,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>643</v>
+      </c>
+      <c r="C227" t="s">
         <v>644</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>645</v>
-      </c>
-      <c r="D227" t="s">
-        <v>646</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8618,13 +8618,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>646</v>
+      </c>
+      <c r="C228" t="s">
         <v>647</v>
       </c>
-      <c r="C228" t="s">
-        <v>648</v>
-      </c>
       <c r="D228" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8638,13 +8638,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>648</v>
+      </c>
+      <c r="C229" t="s">
         <v>649</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>650</v>
-      </c>
-      <c r="D229" t="s">
-        <v>651</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -8658,13 +8658,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>651</v>
+      </c>
+      <c r="C230" t="s">
         <v>652</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>653</v>
-      </c>
-      <c r="D230" t="s">
-        <v>654</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -8678,13 +8678,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>654</v>
+      </c>
+      <c r="C231" t="s">
         <v>655</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>656</v>
-      </c>
-      <c r="D231" t="s">
-        <v>657</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>657</v>
+      </c>
+      <c r="C232" t="s">
         <v>658</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>659</v>
-      </c>
-      <c r="D232" t="s">
-        <v>660</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -8718,13 +8718,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>660</v>
+      </c>
+      <c r="C233" t="s">
         <v>661</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>662</v>
-      </c>
-      <c r="D233" t="s">
-        <v>663</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -8738,13 +8738,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C234" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D234" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -8758,13 +8758,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>664</v>
+      </c>
+      <c r="C235" t="s">
         <v>665</v>
       </c>
-      <c r="C235" t="s">
-        <v>666</v>
-      </c>
       <c r="D235" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -8778,13 +8778,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>666</v>
+      </c>
+      <c r="C236" t="s">
         <v>667</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>668</v>
-      </c>
-      <c r="D236" t="s">
-        <v>669</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -8798,13 +8798,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>669</v>
+      </c>
+      <c r="C237" t="s">
         <v>670</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>671</v>
-      </c>
-      <c r="D237" t="s">
-        <v>672</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -8818,13 +8818,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>672</v>
+      </c>
+      <c r="C238" t="s">
         <v>673</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>674</v>
-      </c>
-      <c r="D238" t="s">
-        <v>675</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -8838,13 +8838,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>675</v>
+      </c>
+      <c r="C239" t="s">
         <v>676</v>
       </c>
-      <c r="C239" t="s">
-        <v>677</v>
-      </c>
       <c r="D239" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -8858,13 +8858,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
+        <v>677</v>
+      </c>
+      <c r="C240" t="s">
         <v>678</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>679</v>
-      </c>
-      <c r="D240" t="s">
-        <v>680</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -8878,13 +8878,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>680</v>
+      </c>
+      <c r="C241" t="s">
         <v>681</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>682</v>
-      </c>
-      <c r="D241" t="s">
-        <v>683</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -8898,13 +8898,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>683</v>
+      </c>
+      <c r="C242" t="s">
         <v>684</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>685</v>
-      </c>
-      <c r="D242" t="s">
-        <v>686</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -8918,13 +8918,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>686</v>
+      </c>
+      <c r="C243" t="s">
         <v>687</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>688</v>
-      </c>
-      <c r="D243" t="s">
-        <v>689</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>689</v>
+      </c>
+      <c r="C244" t="s">
         <v>690</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>691</v>
-      </c>
-      <c r="D244" t="s">
-        <v>692</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -8958,13 +8958,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>692</v>
+      </c>
+      <c r="C245" t="s">
         <v>693</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>694</v>
-      </c>
-      <c r="D245" t="s">
-        <v>695</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -8978,13 +8978,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>695</v>
+      </c>
+      <c r="C246" t="s">
         <v>696</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>697</v>
-      </c>
-      <c r="D246" t="s">
-        <v>698</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>698</v>
+      </c>
+      <c r="C247" t="s">
         <v>699</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>700</v>
-      </c>
-      <c r="D247" t="s">
-        <v>701</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>701</v>
+      </c>
+      <c r="C248" t="s">
         <v>702</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>703</v>
-      </c>
-      <c r="D248" t="s">
-        <v>704</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9038,13 +9038,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>704</v>
+      </c>
+      <c r="C249" t="s">
         <v>705</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>706</v>
-      </c>
-      <c r="D249" t="s">
-        <v>707</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9058,13 +9058,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>707</v>
+      </c>
+      <c r="C250" t="s">
         <v>708</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>709</v>
-      </c>
-      <c r="D250" t="s">
-        <v>710</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9078,13 +9078,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>710</v>
+      </c>
+      <c r="C251" t="s">
         <v>711</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>712</v>
-      </c>
-      <c r="D251" t="s">
-        <v>713</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9098,13 +9098,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>713</v>
+      </c>
+      <c r="C252" t="s">
         <v>714</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>715</v>
-      </c>
-      <c r="D252" t="s">
-        <v>716</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9118,13 +9118,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>716</v>
+      </c>
+      <c r="C253" t="s">
         <v>717</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>718</v>
-      </c>
-      <c r="D253" t="s">
-        <v>719</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9138,13 +9138,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>719</v>
+      </c>
+      <c r="C254" t="s">
         <v>720</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>721</v>
-      </c>
-      <c r="D254" t="s">
-        <v>722</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9158,13 +9158,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>722</v>
+      </c>
+      <c r="C255" t="s">
         <v>723</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>724</v>
-      </c>
-      <c r="D255" t="s">
-        <v>725</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>725</v>
+      </c>
+      <c r="C256" t="s">
         <v>726</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>727</v>
-      </c>
-      <c r="D256" t="s">
-        <v>728</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9198,13 +9198,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>728</v>
+      </c>
+      <c r="C257" t="s">
         <v>729</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>730</v>
-      </c>
-      <c r="D257" t="s">
-        <v>731</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9218,13 +9218,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>731</v>
+      </c>
+      <c r="C258" t="s">
         <v>732</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>733</v>
-      </c>
-      <c r="D258" t="s">
-        <v>734</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9238,13 +9238,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>734</v>
+      </c>
+      <c r="C259" t="s">
         <v>735</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>736</v>
-      </c>
-      <c r="D259" t="s">
-        <v>737</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>737</v>
+      </c>
+      <c r="C260" t="s">
         <v>738</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>739</v>
-      </c>
-      <c r="D260" t="s">
-        <v>740</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9278,13 +9278,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>740</v>
+      </c>
+      <c r="C261" t="s">
         <v>741</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>742</v>
-      </c>
-      <c r="D261" t="s">
-        <v>743</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9298,13 +9298,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>743</v>
+      </c>
+      <c r="C262" t="s">
         <v>744</v>
       </c>
-      <c r="C262" t="s">
-        <v>745</v>
-      </c>
       <c r="D262" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -9318,13 +9318,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
+        <v>745</v>
+      </c>
+      <c r="C263" t="s">
         <v>746</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>747</v>
-      </c>
-      <c r="D263" t="s">
-        <v>748</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9338,13 +9338,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
+        <v>748</v>
+      </c>
+      <c r="C264" t="s">
         <v>749</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>750</v>
-      </c>
-      <c r="D264" t="s">
-        <v>751</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9358,13 +9358,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>751</v>
+      </c>
+      <c r="C265" t="s">
         <v>752</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>753</v>
-      </c>
-      <c r="D265" t="s">
-        <v>754</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9378,13 +9378,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>754</v>
+      </c>
+      <c r="C266" t="s">
         <v>755</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>756</v>
-      </c>
-      <c r="D266" t="s">
-        <v>757</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>757</v>
+      </c>
+      <c r="C267" t="s">
         <v>758</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>759</v>
-      </c>
-      <c r="D267" t="s">
-        <v>760</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>760</v>
+      </c>
+      <c r="C268" t="s">
         <v>761</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>762</v>
-      </c>
-      <c r="D268" t="s">
-        <v>763</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9438,13 +9438,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>763</v>
+      </c>
+      <c r="C269" t="s">
         <v>764</v>
       </c>
-      <c r="C269" t="s">
-        <v>765</v>
-      </c>
       <c r="D269" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -9458,13 +9458,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
+        <v>765</v>
+      </c>
+      <c r="C270" t="s">
         <v>766</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>767</v>
-      </c>
-      <c r="D270" t="s">
-        <v>768</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9478,13 +9478,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>768</v>
+      </c>
+      <c r="C271" t="s">
         <v>769</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>770</v>
-      </c>
-      <c r="D271" t="s">
-        <v>771</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9498,13 +9498,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>771</v>
+      </c>
+      <c r="C272" t="s">
         <v>772</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>773</v>
-      </c>
-      <c r="D272" t="s">
-        <v>774</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9518,13 +9518,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
+        <v>774</v>
+      </c>
+      <c r="C273" t="s">
         <v>775</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>776</v>
-      </c>
-      <c r="D273" t="s">
-        <v>777</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9538,13 +9538,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
+        <v>777</v>
+      </c>
+      <c r="C274" t="s">
         <v>778</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>779</v>
-      </c>
-      <c r="D274" t="s">
-        <v>780</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
+        <v>780</v>
+      </c>
+      <c r="C275" t="s">
         <v>781</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>782</v>
-      </c>
-      <c r="D275" t="s">
-        <v>783</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>783</v>
+      </c>
+      <c r="C276" t="s">
         <v>784</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>785</v>
-      </c>
-      <c r="D276" t="s">
-        <v>786</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -9598,13 +9598,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
+        <v>786</v>
+      </c>
+      <c r="C277" t="s">
         <v>787</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>788</v>
-      </c>
-      <c r="D277" t="s">
-        <v>789</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -9618,13 +9618,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C278" t="s">
+        <v>789</v>
+      </c>
+      <c r="D278" t="s">
         <v>790</v>
-      </c>
-      <c r="D278" t="s">
-        <v>791</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
+        <v>791</v>
+      </c>
+      <c r="C279" t="s">
         <v>792</v>
       </c>
-      <c r="C279" t="s">
-        <v>793</v>
-      </c>
       <c r="D279" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -9658,13 +9658,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
+        <v>793</v>
+      </c>
+      <c r="C280" t="s">
         <v>794</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>795</v>
-      </c>
-      <c r="D280" t="s">
-        <v>796</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -9678,13 +9678,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
+        <v>796</v>
+      </c>
+      <c r="C281" t="s">
         <v>797</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>798</v>
-      </c>
-      <c r="D281" t="s">
-        <v>799</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -9701,10 +9701,10 @@
         <v>27</v>
       </c>
       <c r="C282" t="s">
+        <v>799</v>
+      </c>
+      <c r="D282" t="s">
         <v>800</v>
-      </c>
-      <c r="D282" t="s">
-        <v>801</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9718,13 +9718,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
+        <v>801</v>
+      </c>
+      <c r="C283" t="s">
         <v>802</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>803</v>
-      </c>
-      <c r="D283" t="s">
-        <v>804</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -9738,13 +9738,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
+        <v>804</v>
+      </c>
+      <c r="C284" t="s">
         <v>805</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>806</v>
-      </c>
-      <c r="D284" t="s">
-        <v>807</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9758,13 +9758,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
+        <v>807</v>
+      </c>
+      <c r="C285" t="s">
         <v>808</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>809</v>
-      </c>
-      <c r="D285" t="s">
-        <v>810</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9778,13 +9778,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
+        <v>810</v>
+      </c>
+      <c r="C286" t="s">
         <v>811</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>812</v>
-      </c>
-      <c r="D286" t="s">
-        <v>813</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
+        <v>813</v>
+      </c>
+      <c r="C287" t="s">
         <v>814</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>815</v>
-      </c>
-      <c r="D287" t="s">
-        <v>816</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -9818,13 +9818,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
+        <v>816</v>
+      </c>
+      <c r="C288" t="s">
         <v>817</v>
       </c>
-      <c r="C288" t="s">
-        <v>818</v>
-      </c>
       <c r="D288" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -9838,13 +9838,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
+        <v>818</v>
+      </c>
+      <c r="C289" t="s">
         <v>819</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>820</v>
-      </c>
-      <c r="D289" t="s">
-        <v>821</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -9858,13 +9858,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
+        <v>821</v>
+      </c>
+      <c r="C290" t="s">
         <v>822</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>823</v>
-      </c>
-      <c r="D290" t="s">
-        <v>824</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>824</v>
+      </c>
+      <c r="C291" t="s">
         <v>825</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>826</v>
-      </c>
-      <c r="D291" t="s">
-        <v>827</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -9898,13 +9898,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>827</v>
+      </c>
+      <c r="C292" t="s">
         <v>828</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>829</v>
-      </c>
-      <c r="D292" t="s">
-        <v>830</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -9918,13 +9918,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
+        <v>830</v>
+      </c>
+      <c r="C293" t="s">
         <v>831</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>832</v>
-      </c>
-      <c r="D293" t="s">
-        <v>833</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -9938,13 +9938,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
+        <v>833</v>
+      </c>
+      <c r="C294" t="s">
         <v>834</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>835</v>
-      </c>
-      <c r="D294" t="s">
-        <v>836</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -9958,13 +9958,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
+        <v>836</v>
+      </c>
+      <c r="C295" t="s">
         <v>837</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>838</v>
-      </c>
-      <c r="D295" t="s">
-        <v>839</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -9978,13 +9978,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
+        <v>839</v>
+      </c>
+      <c r="C296" t="s">
         <v>840</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>841</v>
-      </c>
-      <c r="D296" t="s">
-        <v>842</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -9998,13 +9998,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
+        <v>842</v>
+      </c>
+      <c r="C297" t="s">
         <v>843</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>844</v>
-      </c>
-      <c r="D297" t="s">
-        <v>845</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10018,13 +10018,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
+        <v>845</v>
+      </c>
+      <c r="C298" t="s">
         <v>846</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>847</v>
-      </c>
-      <c r="D298" t="s">
-        <v>848</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10038,13 +10038,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
+        <v>848</v>
+      </c>
+      <c r="C299" t="s">
         <v>849</v>
       </c>
-      <c r="C299" t="s">
-        <v>850</v>
-      </c>
       <c r="D299" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -10058,13 +10058,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
+        <v>850</v>
+      </c>
+      <c r="C300" t="s">
         <v>851</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>852</v>
-      </c>
-      <c r="D300" t="s">
-        <v>853</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10078,13 +10078,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>853</v>
+      </c>
+      <c r="C301" t="s">
         <v>854</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>855</v>
-      </c>
-      <c r="D301" t="s">
-        <v>856</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10098,13 +10098,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>856</v>
+      </c>
+      <c r="C302" t="s">
         <v>857</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>858</v>
-      </c>
-      <c r="D302" t="s">
-        <v>859</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
+        <v>859</v>
+      </c>
+      <c r="C303" t="s">
         <v>860</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>861</v>
-      </c>
-      <c r="D303" t="s">
-        <v>862</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10138,13 +10138,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>862</v>
+      </c>
+      <c r="C304" t="s">
         <v>863</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>864</v>
-      </c>
-      <c r="D304" t="s">
-        <v>865</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
+        <v>865</v>
+      </c>
+      <c r="C305" t="s">
         <v>866</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>867</v>
-      </c>
-      <c r="D305" t="s">
-        <v>868</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
+        <v>868</v>
+      </c>
+      <c r="C306" t="s">
         <v>869</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>870</v>
-      </c>
-      <c r="D306" t="s">
-        <v>871</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10198,13 +10198,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
+        <v>871</v>
+      </c>
+      <c r="C307" t="s">
         <v>872</v>
       </c>
-      <c r="C307" t="s">
-        <v>873</v>
-      </c>
       <c r="D307" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -10218,13 +10218,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C308" t="s">
+        <v>873</v>
+      </c>
+      <c r="D308" t="s">
         <v>874</v>
-      </c>
-      <c r="D308" t="s">
-        <v>875</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10238,13 +10238,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
+        <v>875</v>
+      </c>
+      <c r="C309" t="s">
         <v>876</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>877</v>
-      </c>
-      <c r="D309" t="s">
-        <v>878</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10258,13 +10258,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
+        <v>878</v>
+      </c>
+      <c r="C310" t="s">
         <v>879</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>880</v>
-      </c>
-      <c r="D310" t="s">
-        <v>881</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
+        <v>881</v>
+      </c>
+      <c r="C311" t="s">
         <v>882</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>883</v>
-      </c>
-      <c r="D311" t="s">
-        <v>884</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10298,13 +10298,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
+        <v>884</v>
+      </c>
+      <c r="C312" t="s">
         <v>885</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>886</v>
-      </c>
-      <c r="D312" t="s">
-        <v>887</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10318,13 +10318,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
+        <v>887</v>
+      </c>
+      <c r="C313" t="s">
         <v>888</v>
       </c>
-      <c r="C313" t="s">
-        <v>889</v>
-      </c>
       <c r="D313" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -10338,13 +10338,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
+        <v>889</v>
+      </c>
+      <c r="C314" t="s">
         <v>890</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
         <v>891</v>
-      </c>
-      <c r="D314" t="s">
-        <v>892</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
+        <v>892</v>
+      </c>
+      <c r="C315" t="s">
         <v>893</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>894</v>
-      </c>
-      <c r="D315" t="s">
-        <v>895</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10378,13 +10378,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
+        <v>895</v>
+      </c>
+      <c r="C316" t="s">
         <v>896</v>
       </c>
-      <c r="C316" t="s">
-        <v>897</v>
-      </c>
       <c r="D316" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E316">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jormart\Desktop\miscellaneous\safe-trainer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA27CF7-EACC-4B3B-8349-DF5AE8022C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF6E61-9BBF-4F55-BD9C-B0B32882FB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2475,9 +2475,6 @@
 Working software is the primary measure of progress</t>
   </si>
   <si>
-    <t>Responding to change</t>
-  </si>
-  <si>
     <t>What brings structure to analysis and decision making around Epics?</t>
   </si>
   <si>
@@ -3696,6 +3693,9 @@
   </si>
   <si>
     <t>The Product Manager makes weekly visits to a customer's site. Which two Agile Manifesto Values support this behavior? (Choose two)</t>
+  </si>
+  <si>
+    <t>Responding to change over following a plan</t>
   </si>
 </sst>
 </file>
@@ -4063,17 +4063,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="165.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="165.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4973,18 +4973,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C46" t="s">
         <v>138</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7353,15 +7353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>896</v>
+      </c>
+      <c r="C165" t="s">
         <v>897</v>
-      </c>
-      <c r="C165" t="s">
-        <v>898</v>
       </c>
       <c r="D165" t="s">
         <v>485</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>551</v>
       </c>
       <c r="D189" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7861,11 +7861,11 @@
         <v>552</v>
       </c>
       <c r="C190" t="s">
+        <v>899</v>
+      </c>
+      <c r="D190" t="s">
         <v>900</v>
       </c>
-      <c r="D190" t="s">
-        <v>901</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>555</v>
       </c>
       <c r="D191" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>563</v>
       </c>
       <c r="D194" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7993,18 +7993,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C197" t="s">
         <v>570</v>
       </c>
       <c r="D197" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>574</v>
       </c>
       <c r="D199" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>576</v>
       </c>
       <c r="D200" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>606</v>
       </c>
       <c r="D212" t="s">
-        <v>607</v>
+        <v>910</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8313,15 +8313,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>607</v>
+      </c>
+      <c r="C213" t="s">
         <v>608</v>
-      </c>
-      <c r="C213" t="s">
-        <v>609</v>
       </c>
       <c r="D213" t="s">
         <v>553</v>
@@ -8333,12 +8333,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C214" t="s">
         <v>43</v>
@@ -8353,19 +8353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>610</v>
+      </c>
+      <c r="C215" t="s">
         <v>611</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>612</v>
       </c>
-      <c r="D215" t="s">
-        <v>613</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>613</v>
+      </c>
+      <c r="C216" t="s">
         <v>614</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>615</v>
       </c>
-      <c r="D216" t="s">
-        <v>616</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -8393,19 +8393,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>616</v>
+      </c>
+      <c r="C217" t="s">
         <v>617</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>618</v>
       </c>
-      <c r="D217" t="s">
-        <v>619</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -8413,19 +8413,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>619</v>
+      </c>
+      <c r="C218" t="s">
         <v>620</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>621</v>
       </c>
-      <c r="D218" t="s">
-        <v>622</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D219" t="s">
         <v>269</v>
@@ -8453,19 +8453,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>623</v>
+      </c>
+      <c r="C220" t="s">
         <v>624</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>625</v>
       </c>
-      <c r="D220" t="s">
-        <v>626</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -8473,19 +8473,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>626</v>
+      </c>
+      <c r="C221" t="s">
         <v>627</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>628</v>
       </c>
-      <c r="D221" t="s">
-        <v>629</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -8493,15 +8493,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>629</v>
+      </c>
+      <c r="C222" t="s">
         <v>630</v>
-      </c>
-      <c r="C222" t="s">
-        <v>631</v>
       </c>
       <c r="D222" t="s">
         <v>375</v>
@@ -8513,19 +8513,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>631</v>
+      </c>
+      <c r="C223" t="s">
         <v>632</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>633</v>
       </c>
-      <c r="D223" t="s">
-        <v>634</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -8533,18 +8533,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C224" t="s">
         <v>197</v>
       </c>
       <c r="D224" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8553,19 +8553,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>636</v>
+      </c>
+      <c r="C225" t="s">
         <v>637</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>638</v>
       </c>
-      <c r="D225" t="s">
-        <v>639</v>
-      </c>
       <c r="E225">
         <v>0</v>
       </c>
@@ -8573,19 +8573,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>639</v>
+      </c>
+      <c r="C226" t="s">
         <v>640</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>641</v>
       </c>
-      <c r="D226" t="s">
-        <v>642</v>
-      </c>
       <c r="E226">
         <v>0</v>
       </c>
@@ -8593,19 +8593,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>642</v>
+      </c>
+      <c r="C227" t="s">
         <v>643</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>644</v>
       </c>
-      <c r="D227" t="s">
-        <v>645</v>
-      </c>
       <c r="E227">
         <v>0</v>
       </c>
@@ -8613,18 +8613,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>645</v>
+      </c>
+      <c r="C228" t="s">
         <v>646</v>
       </c>
-      <c r="C228" t="s">
-        <v>647</v>
-      </c>
       <c r="D228" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8633,19 +8633,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>647</v>
+      </c>
+      <c r="C229" t="s">
         <v>648</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>649</v>
       </c>
-      <c r="D229" t="s">
-        <v>650</v>
-      </c>
       <c r="E229">
         <v>0</v>
       </c>
@@ -8653,19 +8653,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>650</v>
+      </c>
+      <c r="C230" t="s">
         <v>651</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>652</v>
       </c>
-      <c r="D230" t="s">
-        <v>653</v>
-      </c>
       <c r="E230">
         <v>0</v>
       </c>
@@ -8673,19 +8673,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>653</v>
+      </c>
+      <c r="C231" t="s">
         <v>654</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>655</v>
       </c>
-      <c r="D231" t="s">
-        <v>656</v>
-      </c>
       <c r="E231">
         <v>0</v>
       </c>
@@ -8693,19 +8693,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>656</v>
+      </c>
+      <c r="C232" t="s">
         <v>657</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>658</v>
       </c>
-      <c r="D232" t="s">
-        <v>659</v>
-      </c>
       <c r="E232">
         <v>0</v>
       </c>
@@ -8713,19 +8713,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>659</v>
+      </c>
+      <c r="C233" t="s">
         <v>660</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>661</v>
       </c>
-      <c r="D233" t="s">
-        <v>662</v>
-      </c>
       <c r="E233">
         <v>0</v>
       </c>
@@ -8733,12 +8733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C234" t="s">
         <v>356</v>
@@ -8753,15 +8753,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>663</v>
+      </c>
+      <c r="C235" t="s">
         <v>664</v>
-      </c>
-      <c r="C235" t="s">
-        <v>665</v>
       </c>
       <c r="D235" t="s">
         <v>165</v>
@@ -8773,19 +8773,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>665</v>
+      </c>
+      <c r="C236" t="s">
         <v>666</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>667</v>
       </c>
-      <c r="D236" t="s">
-        <v>668</v>
-      </c>
       <c r="E236">
         <v>0</v>
       </c>
@@ -8793,19 +8793,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>668</v>
+      </c>
+      <c r="C237" t="s">
         <v>669</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>670</v>
       </c>
-      <c r="D237" t="s">
-        <v>671</v>
-      </c>
       <c r="E237">
         <v>0</v>
       </c>
@@ -8813,19 +8813,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>671</v>
+      </c>
+      <c r="C238" t="s">
         <v>672</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>673</v>
       </c>
-      <c r="D238" t="s">
-        <v>674</v>
-      </c>
       <c r="E238">
         <v>0</v>
       </c>
@@ -8833,18 +8833,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>674</v>
+      </c>
+      <c r="C239" t="s">
         <v>675</v>
       </c>
-      <c r="C239" t="s">
-        <v>676</v>
-      </c>
       <c r="D239" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
+        <v>676</v>
+      </c>
+      <c r="C240" t="s">
         <v>677</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>678</v>
       </c>
-      <c r="D240" t="s">
-        <v>679</v>
-      </c>
       <c r="E240">
         <v>0</v>
       </c>
@@ -8873,19 +8873,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>679</v>
+      </c>
+      <c r="C241" t="s">
         <v>680</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>681</v>
       </c>
-      <c r="D241" t="s">
-        <v>682</v>
-      </c>
       <c r="E241">
         <v>0</v>
       </c>
@@ -8893,19 +8893,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>682</v>
+      </c>
+      <c r="C242" t="s">
         <v>683</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>684</v>
       </c>
-      <c r="D242" t="s">
-        <v>685</v>
-      </c>
       <c r="E242">
         <v>0</v>
       </c>
@@ -8913,19 +8913,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>685</v>
+      </c>
+      <c r="C243" t="s">
         <v>686</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>687</v>
       </c>
-      <c r="D243" t="s">
-        <v>688</v>
-      </c>
       <c r="E243">
         <v>0</v>
       </c>
@@ -8933,19 +8933,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>688</v>
+      </c>
+      <c r="C244" t="s">
         <v>689</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>690</v>
       </c>
-      <c r="D244" t="s">
-        <v>691</v>
-      </c>
       <c r="E244">
         <v>0</v>
       </c>
@@ -8953,19 +8953,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>691</v>
+      </c>
+      <c r="C245" t="s">
         <v>692</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>693</v>
       </c>
-      <c r="D245" t="s">
-        <v>694</v>
-      </c>
       <c r="E245">
         <v>0</v>
       </c>
@@ -8973,19 +8973,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>694</v>
+      </c>
+      <c r="C246" t="s">
         <v>695</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>696</v>
       </c>
-      <c r="D246" t="s">
-        <v>697</v>
-      </c>
       <c r="E246">
         <v>0</v>
       </c>
@@ -8993,19 +8993,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>697</v>
+      </c>
+      <c r="C247" t="s">
         <v>698</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>699</v>
       </c>
-      <c r="D247" t="s">
-        <v>700</v>
-      </c>
       <c r="E247">
         <v>0</v>
       </c>
@@ -9013,19 +9013,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>700</v>
+      </c>
+      <c r="C248" t="s">
         <v>701</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>702</v>
       </c>
-      <c r="D248" t="s">
-        <v>703</v>
-      </c>
       <c r="E248">
         <v>0</v>
       </c>
@@ -9033,19 +9033,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>703</v>
+      </c>
+      <c r="C249" t="s">
         <v>704</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>705</v>
       </c>
-      <c r="D249" t="s">
-        <v>706</v>
-      </c>
       <c r="E249">
         <v>0</v>
       </c>
@@ -9053,19 +9053,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>706</v>
+      </c>
+      <c r="C250" t="s">
         <v>707</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>708</v>
       </c>
-      <c r="D250" t="s">
-        <v>709</v>
-      </c>
       <c r="E250">
         <v>0</v>
       </c>
@@ -9073,19 +9073,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>709</v>
+      </c>
+      <c r="C251" t="s">
         <v>710</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>711</v>
       </c>
-      <c r="D251" t="s">
-        <v>712</v>
-      </c>
       <c r="E251">
         <v>0</v>
       </c>
@@ -9093,19 +9093,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>712</v>
+      </c>
+      <c r="C252" t="s">
         <v>713</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>714</v>
       </c>
-      <c r="D252" t="s">
-        <v>715</v>
-      </c>
       <c r="E252">
         <v>0</v>
       </c>
@@ -9113,19 +9113,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>715</v>
+      </c>
+      <c r="C253" t="s">
         <v>716</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>717</v>
       </c>
-      <c r="D253" t="s">
-        <v>718</v>
-      </c>
       <c r="E253">
         <v>0</v>
       </c>
@@ -9133,19 +9133,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>718</v>
+      </c>
+      <c r="C254" t="s">
         <v>719</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>720</v>
       </c>
-      <c r="D254" t="s">
-        <v>721</v>
-      </c>
       <c r="E254">
         <v>0</v>
       </c>
@@ -9153,19 +9153,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>721</v>
+      </c>
+      <c r="C255" t="s">
         <v>722</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>723</v>
       </c>
-      <c r="D255" t="s">
-        <v>724</v>
-      </c>
       <c r="E255">
         <v>0</v>
       </c>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>724</v>
+      </c>
+      <c r="C256" t="s">
         <v>725</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>726</v>
       </c>
-      <c r="D256" t="s">
-        <v>727</v>
-      </c>
       <c r="E256">
         <v>0</v>
       </c>
@@ -9193,19 +9193,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>727</v>
+      </c>
+      <c r="C257" t="s">
         <v>728</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>729</v>
       </c>
-      <c r="D257" t="s">
-        <v>730</v>
-      </c>
       <c r="E257">
         <v>0</v>
       </c>
@@ -9213,19 +9213,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>730</v>
+      </c>
+      <c r="C258" t="s">
         <v>731</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>732</v>
       </c>
-      <c r="D258" t="s">
-        <v>733</v>
-      </c>
       <c r="E258">
         <v>0</v>
       </c>
@@ -9233,19 +9233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>733</v>
+      </c>
+      <c r="C259" t="s">
         <v>734</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>735</v>
       </c>
-      <c r="D259" t="s">
-        <v>736</v>
-      </c>
       <c r="E259">
         <v>0</v>
       </c>
@@ -9253,19 +9253,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>736</v>
+      </c>
+      <c r="C260" t="s">
         <v>737</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>738</v>
       </c>
-      <c r="D260" t="s">
-        <v>739</v>
-      </c>
       <c r="E260">
         <v>0</v>
       </c>
@@ -9273,19 +9273,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>739</v>
+      </c>
+      <c r="C261" t="s">
         <v>740</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>741</v>
       </c>
-      <c r="D261" t="s">
-        <v>742</v>
-      </c>
       <c r="E261">
         <v>0</v>
       </c>
@@ -9293,15 +9293,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>742</v>
+      </c>
+      <c r="C262" t="s">
         <v>743</v>
-      </c>
-      <c r="C262" t="s">
-        <v>744</v>
       </c>
       <c r="D262" t="s">
         <v>561</v>
@@ -9313,19 +9313,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
+        <v>744</v>
+      </c>
+      <c r="C263" t="s">
         <v>745</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>746</v>
       </c>
-      <c r="D263" t="s">
-        <v>747</v>
-      </c>
       <c r="E263">
         <v>0</v>
       </c>
@@ -9333,19 +9333,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
+        <v>747</v>
+      </c>
+      <c r="C264" t="s">
         <v>748</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>749</v>
       </c>
-      <c r="D264" t="s">
-        <v>750</v>
-      </c>
       <c r="E264">
         <v>0</v>
       </c>
@@ -9353,19 +9353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>750</v>
+      </c>
+      <c r="C265" t="s">
         <v>751</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>752</v>
       </c>
-      <c r="D265" t="s">
-        <v>753</v>
-      </c>
       <c r="E265">
         <v>0</v>
       </c>
@@ -9373,19 +9373,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>753</v>
+      </c>
+      <c r="C266" t="s">
         <v>754</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>755</v>
       </c>
-      <c r="D266" t="s">
-        <v>756</v>
-      </c>
       <c r="E266">
         <v>0</v>
       </c>
@@ -9393,19 +9393,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>756</v>
+      </c>
+      <c r="C267" t="s">
         <v>757</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>758</v>
       </c>
-      <c r="D267" t="s">
-        <v>759</v>
-      </c>
       <c r="E267">
         <v>0</v>
       </c>
@@ -9413,19 +9413,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>759</v>
+      </c>
+      <c r="C268" t="s">
         <v>760</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>761</v>
       </c>
-      <c r="D268" t="s">
-        <v>762</v>
-      </c>
       <c r="E268">
         <v>0</v>
       </c>
@@ -9433,15 +9433,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>762</v>
+      </c>
+      <c r="C269" t="s">
         <v>763</v>
-      </c>
-      <c r="C269" t="s">
-        <v>764</v>
       </c>
       <c r="D269" t="s">
         <v>507</v>
@@ -9453,19 +9453,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
+        <v>764</v>
+      </c>
+      <c r="C270" t="s">
         <v>765</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>766</v>
       </c>
-      <c r="D270" t="s">
-        <v>767</v>
-      </c>
       <c r="E270">
         <v>0</v>
       </c>
@@ -9473,19 +9473,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>767</v>
+      </c>
+      <c r="C271" t="s">
         <v>768</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>769</v>
       </c>
-      <c r="D271" t="s">
-        <v>770</v>
-      </c>
       <c r="E271">
         <v>0</v>
       </c>
@@ -9493,19 +9493,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>770</v>
+      </c>
+      <c r="C272" t="s">
         <v>771</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>772</v>
       </c>
-      <c r="D272" t="s">
-        <v>773</v>
-      </c>
       <c r="E272">
         <v>0</v>
       </c>
@@ -9513,19 +9513,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
+        <v>773</v>
+      </c>
+      <c r="C273" t="s">
         <v>774</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>775</v>
       </c>
-      <c r="D273" t="s">
-        <v>776</v>
-      </c>
       <c r="E273">
         <v>0</v>
       </c>
@@ -9533,19 +9533,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
+        <v>776</v>
+      </c>
+      <c r="C274" t="s">
         <v>777</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>778</v>
       </c>
-      <c r="D274" t="s">
-        <v>779</v>
-      </c>
       <c r="E274">
         <v>0</v>
       </c>
@@ -9553,19 +9553,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
+        <v>779</v>
+      </c>
+      <c r="C275" t="s">
         <v>780</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>781</v>
       </c>
-      <c r="D275" t="s">
-        <v>782</v>
-      </c>
       <c r="E275">
         <v>0</v>
       </c>
@@ -9573,19 +9573,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>782</v>
+      </c>
+      <c r="C276" t="s">
         <v>783</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>784</v>
       </c>
-      <c r="D276" t="s">
-        <v>785</v>
-      </c>
       <c r="E276">
         <v>0</v>
       </c>
@@ -9593,19 +9593,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
+        <v>785</v>
+      </c>
+      <c r="C277" t="s">
         <v>786</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>787</v>
       </c>
-      <c r="D277" t="s">
-        <v>788</v>
-      </c>
       <c r="E277">
         <v>0</v>
       </c>
@@ -9613,19 +9613,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C278" t="s">
+        <v>788</v>
+      </c>
+      <c r="D278" t="s">
         <v>789</v>
       </c>
-      <c r="D278" t="s">
-        <v>790</v>
-      </c>
       <c r="E278">
         <v>0</v>
       </c>
@@ -9633,15 +9633,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
+        <v>790</v>
+      </c>
+      <c r="C279" t="s">
         <v>791</v>
-      </c>
-      <c r="C279" t="s">
-        <v>792</v>
       </c>
       <c r="D279" t="s">
         <v>455</v>
@@ -9653,19 +9653,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
+        <v>792</v>
+      </c>
+      <c r="C280" t="s">
         <v>793</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>794</v>
       </c>
-      <c r="D280" t="s">
-        <v>795</v>
-      </c>
       <c r="E280">
         <v>0</v>
       </c>
@@ -9673,19 +9673,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
+        <v>795</v>
+      </c>
+      <c r="C281" t="s">
         <v>796</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>797</v>
       </c>
-      <c r="D281" t="s">
-        <v>798</v>
-      </c>
       <c r="E281">
         <v>0</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9701,11 +9701,11 @@
         <v>27</v>
       </c>
       <c r="C282" t="s">
+        <v>798</v>
+      </c>
+      <c r="D282" t="s">
         <v>799</v>
       </c>
-      <c r="D282" t="s">
-        <v>800</v>
-      </c>
       <c r="E282">
         <v>0</v>
       </c>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
+        <v>800</v>
+      </c>
+      <c r="C283" t="s">
         <v>801</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>802</v>
       </c>
-      <c r="D283" t="s">
-        <v>803</v>
-      </c>
       <c r="E283">
         <v>0</v>
       </c>
@@ -9733,19 +9733,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
+        <v>803</v>
+      </c>
+      <c r="C284" t="s">
         <v>804</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>805</v>
       </c>
-      <c r="D284" t="s">
-        <v>806</v>
-      </c>
       <c r="E284">
         <v>0</v>
       </c>
@@ -9753,19 +9753,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
+        <v>806</v>
+      </c>
+      <c r="C285" t="s">
         <v>807</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>808</v>
       </c>
-      <c r="D285" t="s">
-        <v>809</v>
-      </c>
       <c r="E285">
         <v>0</v>
       </c>
@@ -9773,19 +9773,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
+        <v>809</v>
+      </c>
+      <c r="C286" t="s">
         <v>810</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>811</v>
       </c>
-      <c r="D286" t="s">
-        <v>812</v>
-      </c>
       <c r="E286">
         <v>0</v>
       </c>
@@ -9793,19 +9793,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
+        <v>812</v>
+      </c>
+      <c r="C287" t="s">
         <v>813</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>814</v>
       </c>
-      <c r="D287" t="s">
-        <v>815</v>
-      </c>
       <c r="E287">
         <v>0</v>
       </c>
@@ -9813,15 +9813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
+        <v>815</v>
+      </c>
+      <c r="C288" t="s">
         <v>816</v>
-      </c>
-      <c r="C288" t="s">
-        <v>817</v>
       </c>
       <c r="D288" t="s">
         <v>481</v>
@@ -9833,19 +9833,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
+        <v>817</v>
+      </c>
+      <c r="C289" t="s">
         <v>818</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>819</v>
       </c>
-      <c r="D289" t="s">
-        <v>820</v>
-      </c>
       <c r="E289">
         <v>0</v>
       </c>
@@ -9853,19 +9853,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
+        <v>820</v>
+      </c>
+      <c r="C290" t="s">
         <v>821</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>822</v>
       </c>
-      <c r="D290" t="s">
-        <v>823</v>
-      </c>
       <c r="E290">
         <v>0</v>
       </c>
@@ -9873,19 +9873,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>823</v>
+      </c>
+      <c r="C291" t="s">
         <v>824</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>825</v>
       </c>
-      <c r="D291" t="s">
-        <v>826</v>
-      </c>
       <c r="E291">
         <v>0</v>
       </c>
@@ -9893,19 +9893,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>826</v>
+      </c>
+      <c r="C292" t="s">
         <v>827</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>828</v>
       </c>
-      <c r="D292" t="s">
-        <v>829</v>
-      </c>
       <c r="E292">
         <v>0</v>
       </c>
@@ -9913,19 +9913,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
+        <v>829</v>
+      </c>
+      <c r="C293" t="s">
         <v>830</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>831</v>
       </c>
-      <c r="D293" t="s">
-        <v>832</v>
-      </c>
       <c r="E293">
         <v>0</v>
       </c>
@@ -9933,19 +9933,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
+        <v>832</v>
+      </c>
+      <c r="C294" t="s">
         <v>833</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>834</v>
       </c>
-      <c r="D294" t="s">
-        <v>835</v>
-      </c>
       <c r="E294">
         <v>0</v>
       </c>
@@ -9953,19 +9953,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
+        <v>835</v>
+      </c>
+      <c r="C295" t="s">
         <v>836</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>837</v>
       </c>
-      <c r="D295" t="s">
-        <v>838</v>
-      </c>
       <c r="E295">
         <v>0</v>
       </c>
@@ -9973,19 +9973,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
+        <v>838</v>
+      </c>
+      <c r="C296" t="s">
         <v>839</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>840</v>
       </c>
-      <c r="D296" t="s">
-        <v>841</v>
-      </c>
       <c r="E296">
         <v>0</v>
       </c>
@@ -9993,19 +9993,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
+        <v>841</v>
+      </c>
+      <c r="C297" t="s">
         <v>842</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>843</v>
       </c>
-      <c r="D297" t="s">
-        <v>844</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -10013,19 +10013,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
+        <v>844</v>
+      </c>
+      <c r="C298" t="s">
         <v>845</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>846</v>
       </c>
-      <c r="D298" t="s">
-        <v>847</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -10033,15 +10033,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
+        <v>847</v>
+      </c>
+      <c r="C299" t="s">
         <v>848</v>
-      </c>
-      <c r="C299" t="s">
-        <v>849</v>
       </c>
       <c r="D299" t="s">
         <v>254</v>
@@ -10053,19 +10053,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
+        <v>849</v>
+      </c>
+      <c r="C300" t="s">
         <v>850</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>851</v>
       </c>
-      <c r="D300" t="s">
-        <v>852</v>
-      </c>
       <c r="E300">
         <v>0</v>
       </c>
@@ -10073,19 +10073,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>852</v>
+      </c>
+      <c r="C301" t="s">
         <v>853</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>854</v>
       </c>
-      <c r="D301" t="s">
-        <v>855</v>
-      </c>
       <c r="E301">
         <v>0</v>
       </c>
@@ -10093,19 +10093,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>855</v>
+      </c>
+      <c r="C302" t="s">
         <v>856</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>857</v>
       </c>
-      <c r="D302" t="s">
-        <v>858</v>
-      </c>
       <c r="E302">
         <v>0</v>
       </c>
@@ -10113,19 +10113,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303" t="s">
+        <v>858</v>
+      </c>
+      <c r="C303" t="s">
         <v>859</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>860</v>
       </c>
-      <c r="D303" t="s">
-        <v>861</v>
-      </c>
       <c r="E303">
         <v>0</v>
       </c>
@@ -10133,19 +10133,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>861</v>
+      </c>
+      <c r="C304" t="s">
         <v>862</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>863</v>
       </c>
-      <c r="D304" t="s">
-        <v>864</v>
-      </c>
       <c r="E304">
         <v>0</v>
       </c>
@@ -10153,19 +10153,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
+        <v>864</v>
+      </c>
+      <c r="C305" t="s">
         <v>865</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>866</v>
       </c>
-      <c r="D305" t="s">
-        <v>867</v>
-      </c>
       <c r="E305">
         <v>0</v>
       </c>
@@ -10173,19 +10173,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
+        <v>867</v>
+      </c>
+      <c r="C306" t="s">
         <v>868</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>869</v>
       </c>
-      <c r="D306" t="s">
-        <v>870</v>
-      </c>
       <c r="E306">
         <v>0</v>
       </c>
@@ -10193,15 +10193,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
+        <v>870</v>
+      </c>
+      <c r="C307" t="s">
         <v>871</v>
-      </c>
-      <c r="C307" t="s">
-        <v>872</v>
       </c>
       <c r="D307" t="s">
         <v>254</v>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10221,11 +10221,11 @@
         <v>148</v>
       </c>
       <c r="C308" t="s">
+        <v>872</v>
+      </c>
+      <c r="D308" t="s">
         <v>873</v>
       </c>
-      <c r="D308" t="s">
-        <v>874</v>
-      </c>
       <c r="E308">
         <v>0</v>
       </c>
@@ -10233,19 +10233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
+        <v>874</v>
+      </c>
+      <c r="C309" t="s">
         <v>875</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>876</v>
       </c>
-      <c r="D309" t="s">
-        <v>877</v>
-      </c>
       <c r="E309">
         <v>0</v>
       </c>
@@ -10253,19 +10253,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
+        <v>877</v>
+      </c>
+      <c r="C310" t="s">
         <v>878</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>879</v>
       </c>
-      <c r="D310" t="s">
-        <v>880</v>
-      </c>
       <c r="E310">
         <v>0</v>
       </c>
@@ -10273,19 +10273,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
+        <v>880</v>
+      </c>
+      <c r="C311" t="s">
         <v>881</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>882</v>
       </c>
-      <c r="D311" t="s">
-        <v>883</v>
-      </c>
       <c r="E311">
         <v>0</v>
       </c>
@@ -10293,19 +10293,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
+        <v>883</v>
+      </c>
+      <c r="C312" t="s">
         <v>884</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>885</v>
       </c>
-      <c r="D312" t="s">
-        <v>886</v>
-      </c>
       <c r="E312">
         <v>0</v>
       </c>
@@ -10313,15 +10313,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
+        <v>886</v>
+      </c>
+      <c r="C313" t="s">
         <v>887</v>
-      </c>
-      <c r="C313" t="s">
-        <v>888</v>
       </c>
       <c r="D313" t="s">
         <v>189</v>
@@ -10333,19 +10333,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
+        <v>888</v>
+      </c>
+      <c r="C314" t="s">
         <v>889</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
         <v>890</v>
       </c>
-      <c r="D314" t="s">
-        <v>891</v>
-      </c>
       <c r="E314">
         <v>0</v>
       </c>
@@ -10353,19 +10353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
+        <v>891</v>
+      </c>
+      <c r="C315" t="s">
         <v>892</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>893</v>
       </c>
-      <c r="D315" t="s">
-        <v>894</v>
-      </c>
       <c r="E315">
         <v>0</v>
       </c>
@@ -10373,18 +10373,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
+        <v>894</v>
+      </c>
+      <c r="C316" t="s">
         <v>895</v>
       </c>
-      <c r="C316" t="s">
-        <v>896</v>
-      </c>
       <c r="D316" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E316">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF6E61-9BBF-4F55-BD9C-B0B32882FB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8131B9-8D26-4C19-A5A8-81810CC753B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2313,9 +2313,6 @@
 All PI Objectives are given a business value of 10</t>
   </si>
   <si>
-    <t>All PI Objectives get value 10</t>
-  </si>
-  <si>
     <t>To ensure large queues are not forming
 To reduce handoffs and dependencies
 To enable Continuous Deployment
@@ -3696,6 +3693,9 @@
   </si>
   <si>
     <t>Responding to change over following a plan</t>
+  </si>
+  <si>
+    <t>All PI Objectives get value of 10</t>
   </si>
 </sst>
 </file>
@@ -4063,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+    <sheetView tabSelected="1" topLeftCell="D164" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4978,13 +4978,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C46" t="s">
         <v>138</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -7358,10 +7358,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>895</v>
+      </c>
+      <c r="C165" t="s">
         <v>896</v>
-      </c>
-      <c r="C165" t="s">
-        <v>897</v>
       </c>
       <c r="D165" t="s">
         <v>485</v>
@@ -7844,7 +7844,7 @@
         <v>551</v>
       </c>
       <c r="D189" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7861,10 +7861,10 @@
         <v>552</v>
       </c>
       <c r="C190" t="s">
+        <v>898</v>
+      </c>
+      <c r="D190" t="s">
         <v>899</v>
-      </c>
-      <c r="D190" t="s">
-        <v>900</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>555</v>
       </c>
       <c r="D191" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>563</v>
       </c>
       <c r="D194" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -7984,7 +7984,7 @@
         <v>568</v>
       </c>
       <c r="D196" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -7998,13 +7998,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>902</v>
+      </c>
+      <c r="C197" t="s">
+        <v>569</v>
+      </c>
+      <c r="D197" t="s">
         <v>903</v>
-      </c>
-      <c r="C197" t="s">
-        <v>570</v>
-      </c>
-      <c r="D197" t="s">
-        <v>904</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8018,10 +8018,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>570</v>
+      </c>
+      <c r="C198" t="s">
         <v>571</v>
-      </c>
-      <c r="C198" t="s">
-        <v>572</v>
       </c>
       <c r="D198" t="s">
         <v>493</v>
@@ -8038,13 +8038,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>572</v>
+      </c>
+      <c r="C199" t="s">
         <v>573</v>
       </c>
-      <c r="C199" t="s">
-        <v>574</v>
-      </c>
       <c r="D199" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>574</v>
+      </c>
+      <c r="C200" t="s">
         <v>575</v>
       </c>
-      <c r="C200" t="s">
-        <v>576</v>
-      </c>
       <c r="D200" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>576</v>
+      </c>
+      <c r="C201" t="s">
         <v>577</v>
-      </c>
-      <c r="C201" t="s">
-        <v>578</v>
       </c>
       <c r="D201" t="s">
         <v>150</v>
@@ -8098,13 +8098,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>578</v>
+      </c>
+      <c r="C202" t="s">
         <v>579</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>580</v>
-      </c>
-      <c r="D202" t="s">
-        <v>581</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>581</v>
+      </c>
+      <c r="C203" t="s">
         <v>582</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>583</v>
-      </c>
-      <c r="D203" t="s">
-        <v>584</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8138,13 +8138,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>584</v>
+      </c>
+      <c r="C204" t="s">
         <v>585</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>586</v>
-      </c>
-      <c r="D204" t="s">
-        <v>587</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8158,13 +8158,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>587</v>
+      </c>
+      <c r="C205" t="s">
         <v>588</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>589</v>
-      </c>
-      <c r="D205" t="s">
-        <v>590</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -8178,13 +8178,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
+        <v>590</v>
+      </c>
+      <c r="C206" t="s">
         <v>591</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>592</v>
-      </c>
-      <c r="D206" t="s">
-        <v>593</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -8198,10 +8198,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>593</v>
+      </c>
+      <c r="C207" t="s">
         <v>594</v>
-      </c>
-      <c r="C207" t="s">
-        <v>595</v>
       </c>
       <c r="D207" t="s">
         <v>266</v>
@@ -8218,10 +8218,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>595</v>
+      </c>
+      <c r="C208" t="s">
         <v>596</v>
-      </c>
-      <c r="C208" t="s">
-        <v>597</v>
       </c>
       <c r="D208" t="s">
         <v>546</v>
@@ -8238,13 +8238,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>597</v>
+      </c>
+      <c r="C209" t="s">
         <v>598</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>599</v>
-      </c>
-      <c r="D209" t="s">
-        <v>600</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>246</v>
       </c>
       <c r="C210" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D210" t="s">
         <v>248</v>
@@ -8278,13 +8278,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>601</v>
+      </c>
+      <c r="C211" t="s">
         <v>602</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>603</v>
-      </c>
-      <c r="D211" t="s">
-        <v>604</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>604</v>
+      </c>
+      <c r="C212" t="s">
         <v>605</v>
       </c>
-      <c r="C212" t="s">
-        <v>606</v>
-      </c>
       <c r="D212" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8318,10 +8318,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>606</v>
+      </c>
+      <c r="C213" t="s">
         <v>607</v>
-      </c>
-      <c r="C213" t="s">
-        <v>608</v>
       </c>
       <c r="D213" t="s">
         <v>553</v>
@@ -8338,7 +8338,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C214" t="s">
         <v>43</v>
@@ -8358,13 +8358,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>609</v>
+      </c>
+      <c r="C215" t="s">
         <v>610</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>611</v>
-      </c>
-      <c r="D215" t="s">
-        <v>612</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8378,13 +8378,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>612</v>
+      </c>
+      <c r="C216" t="s">
         <v>613</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>614</v>
-      </c>
-      <c r="D216" t="s">
-        <v>615</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8398,13 +8398,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>615</v>
+      </c>
+      <c r="C217" t="s">
         <v>616</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>617</v>
-      </c>
-      <c r="D217" t="s">
-        <v>618</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8418,13 +8418,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>618</v>
+      </c>
+      <c r="C218" t="s">
         <v>619</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>620</v>
-      </c>
-      <c r="D218" t="s">
-        <v>621</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8441,7 +8441,7 @@
         <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D219" t="s">
         <v>269</v>
@@ -8458,13 +8458,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>622</v>
+      </c>
+      <c r="C220" t="s">
         <v>623</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>624</v>
-      </c>
-      <c r="D220" t="s">
-        <v>625</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8478,13 +8478,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>625</v>
+      </c>
+      <c r="C221" t="s">
         <v>626</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>627</v>
-      </c>
-      <c r="D221" t="s">
-        <v>628</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8498,10 +8498,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>628</v>
+      </c>
+      <c r="C222" t="s">
         <v>629</v>
-      </c>
-      <c r="C222" t="s">
-        <v>630</v>
       </c>
       <c r="D222" t="s">
         <v>375</v>
@@ -8518,13 +8518,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>630</v>
+      </c>
+      <c r="C223" t="s">
         <v>631</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>632</v>
-      </c>
-      <c r="D223" t="s">
-        <v>633</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C224" t="s">
         <v>197</v>
       </c>
       <c r="D224" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8558,13 +8558,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>635</v>
+      </c>
+      <c r="C225" t="s">
         <v>636</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>637</v>
-      </c>
-      <c r="D225" t="s">
-        <v>638</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -8578,13 +8578,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>638</v>
+      </c>
+      <c r="C226" t="s">
         <v>639</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>640</v>
-      </c>
-      <c r="D226" t="s">
-        <v>641</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -8598,13 +8598,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>641</v>
+      </c>
+      <c r="C227" t="s">
         <v>642</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>643</v>
-      </c>
-      <c r="D227" t="s">
-        <v>644</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8618,13 +8618,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>644</v>
+      </c>
+      <c r="C228" t="s">
         <v>645</v>
       </c>
-      <c r="C228" t="s">
-        <v>646</v>
-      </c>
       <c r="D228" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8638,13 +8638,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>646</v>
+      </c>
+      <c r="C229" t="s">
         <v>647</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>648</v>
-      </c>
-      <c r="D229" t="s">
-        <v>649</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -8658,13 +8658,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>649</v>
+      </c>
+      <c r="C230" t="s">
         <v>650</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>651</v>
-      </c>
-      <c r="D230" t="s">
-        <v>652</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -8678,13 +8678,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>652</v>
+      </c>
+      <c r="C231" t="s">
         <v>653</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>654</v>
-      </c>
-      <c r="D231" t="s">
-        <v>655</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>655</v>
+      </c>
+      <c r="C232" t="s">
         <v>656</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>657</v>
-      </c>
-      <c r="D232" t="s">
-        <v>658</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -8718,13 +8718,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>658</v>
+      </c>
+      <c r="C233" t="s">
         <v>659</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>660</v>
-      </c>
-      <c r="D233" t="s">
-        <v>661</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -8738,7 +8738,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C234" t="s">
         <v>356</v>
@@ -8758,10 +8758,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>662</v>
+      </c>
+      <c r="C235" t="s">
         <v>663</v>
-      </c>
-      <c r="C235" t="s">
-        <v>664</v>
       </c>
       <c r="D235" t="s">
         <v>165</v>
@@ -8778,13 +8778,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>664</v>
+      </c>
+      <c r="C236" t="s">
         <v>665</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>666</v>
-      </c>
-      <c r="D236" t="s">
-        <v>667</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -8798,13 +8798,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>667</v>
+      </c>
+      <c r="C237" t="s">
         <v>668</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>669</v>
-      </c>
-      <c r="D237" t="s">
-        <v>670</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -8818,13 +8818,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>670</v>
+      </c>
+      <c r="C238" t="s">
         <v>671</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>672</v>
-      </c>
-      <c r="D238" t="s">
-        <v>673</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -8838,13 +8838,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>673</v>
+      </c>
+      <c r="C239" t="s">
         <v>674</v>
       </c>
-      <c r="C239" t="s">
-        <v>675</v>
-      </c>
       <c r="D239" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -8858,13 +8858,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
+        <v>675</v>
+      </c>
+      <c r="C240" t="s">
         <v>676</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>677</v>
-      </c>
-      <c r="D240" t="s">
-        <v>678</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -8878,13 +8878,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>678</v>
+      </c>
+      <c r="C241" t="s">
         <v>679</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>680</v>
-      </c>
-      <c r="D241" t="s">
-        <v>681</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -8898,13 +8898,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>681</v>
+      </c>
+      <c r="C242" t="s">
         <v>682</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>683</v>
-      </c>
-      <c r="D242" t="s">
-        <v>684</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -8918,13 +8918,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>684</v>
+      </c>
+      <c r="C243" t="s">
         <v>685</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>686</v>
-      </c>
-      <c r="D243" t="s">
-        <v>687</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>687</v>
+      </c>
+      <c r="C244" t="s">
         <v>688</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>689</v>
-      </c>
-      <c r="D244" t="s">
-        <v>690</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -8958,13 +8958,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>690</v>
+      </c>
+      <c r="C245" t="s">
         <v>691</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>692</v>
-      </c>
-      <c r="D245" t="s">
-        <v>693</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -8978,13 +8978,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>693</v>
+      </c>
+      <c r="C246" t="s">
         <v>694</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>695</v>
-      </c>
-      <c r="D246" t="s">
-        <v>696</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>696</v>
+      </c>
+      <c r="C247" t="s">
         <v>697</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>698</v>
-      </c>
-      <c r="D247" t="s">
-        <v>699</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>699</v>
+      </c>
+      <c r="C248" t="s">
         <v>700</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>701</v>
-      </c>
-      <c r="D248" t="s">
-        <v>702</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9038,13 +9038,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>702</v>
+      </c>
+      <c r="C249" t="s">
         <v>703</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>704</v>
-      </c>
-      <c r="D249" t="s">
-        <v>705</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9058,13 +9058,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>705</v>
+      </c>
+      <c r="C250" t="s">
         <v>706</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>707</v>
-      </c>
-      <c r="D250" t="s">
-        <v>708</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9078,13 +9078,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>708</v>
+      </c>
+      <c r="C251" t="s">
         <v>709</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>710</v>
-      </c>
-      <c r="D251" t="s">
-        <v>711</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9098,13 +9098,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>711</v>
+      </c>
+      <c r="C252" t="s">
         <v>712</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>713</v>
-      </c>
-      <c r="D252" t="s">
-        <v>714</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9118,13 +9118,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>714</v>
+      </c>
+      <c r="C253" t="s">
         <v>715</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>716</v>
-      </c>
-      <c r="D253" t="s">
-        <v>717</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9138,13 +9138,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>717</v>
+      </c>
+      <c r="C254" t="s">
         <v>718</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>719</v>
-      </c>
-      <c r="D254" t="s">
-        <v>720</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9158,13 +9158,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>720</v>
+      </c>
+      <c r="C255" t="s">
         <v>721</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>722</v>
-      </c>
-      <c r="D255" t="s">
-        <v>723</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>723</v>
+      </c>
+      <c r="C256" t="s">
         <v>724</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>725</v>
-      </c>
-      <c r="D256" t="s">
-        <v>726</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9198,13 +9198,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>726</v>
+      </c>
+      <c r="C257" t="s">
         <v>727</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>728</v>
-      </c>
-      <c r="D257" t="s">
-        <v>729</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9218,13 +9218,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>729</v>
+      </c>
+      <c r="C258" t="s">
         <v>730</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>731</v>
-      </c>
-      <c r="D258" t="s">
-        <v>732</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9238,13 +9238,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>732</v>
+      </c>
+      <c r="C259" t="s">
         <v>733</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>734</v>
-      </c>
-      <c r="D259" t="s">
-        <v>735</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>735</v>
+      </c>
+      <c r="C260" t="s">
         <v>736</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>737</v>
-      </c>
-      <c r="D260" t="s">
-        <v>738</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9278,13 +9278,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>738</v>
+      </c>
+      <c r="C261" t="s">
         <v>739</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>740</v>
-      </c>
-      <c r="D261" t="s">
-        <v>741</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9298,10 +9298,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>741</v>
+      </c>
+      <c r="C262" t="s">
         <v>742</v>
-      </c>
-      <c r="C262" t="s">
-        <v>743</v>
       </c>
       <c r="D262" t="s">
         <v>561</v>
@@ -9318,13 +9318,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
+        <v>743</v>
+      </c>
+      <c r="C263" t="s">
         <v>744</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>745</v>
-      </c>
-      <c r="D263" t="s">
-        <v>746</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9338,13 +9338,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
+        <v>746</v>
+      </c>
+      <c r="C264" t="s">
         <v>747</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>748</v>
-      </c>
-      <c r="D264" t="s">
-        <v>749</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9358,13 +9358,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>749</v>
+      </c>
+      <c r="C265" t="s">
         <v>750</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>751</v>
-      </c>
-      <c r="D265" t="s">
-        <v>752</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9378,13 +9378,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>752</v>
+      </c>
+      <c r="C266" t="s">
         <v>753</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>754</v>
-      </c>
-      <c r="D266" t="s">
-        <v>755</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>755</v>
+      </c>
+      <c r="C267" t="s">
         <v>756</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>757</v>
-      </c>
-      <c r="D267" t="s">
-        <v>758</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>758</v>
+      </c>
+      <c r="C268" t="s">
         <v>759</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>760</v>
-      </c>
-      <c r="D268" t="s">
-        <v>761</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9438,10 +9438,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>761</v>
+      </c>
+      <c r="C269" t="s">
         <v>762</v>
-      </c>
-      <c r="C269" t="s">
-        <v>763</v>
       </c>
       <c r="D269" t="s">
         <v>507</v>
@@ -9458,13 +9458,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
+        <v>763</v>
+      </c>
+      <c r="C270" t="s">
         <v>764</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>765</v>
-      </c>
-      <c r="D270" t="s">
-        <v>766</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9478,13 +9478,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>766</v>
+      </c>
+      <c r="C271" t="s">
         <v>767</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>768</v>
-      </c>
-      <c r="D271" t="s">
-        <v>769</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9498,13 +9498,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>769</v>
+      </c>
+      <c r="C272" t="s">
         <v>770</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>771</v>
-      </c>
-      <c r="D272" t="s">
-        <v>772</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9518,13 +9518,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
+        <v>772</v>
+      </c>
+      <c r="C273" t="s">
         <v>773</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>774</v>
-      </c>
-      <c r="D273" t="s">
-        <v>775</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9538,13 +9538,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
+        <v>775</v>
+      </c>
+      <c r="C274" t="s">
         <v>776</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>777</v>
-      </c>
-      <c r="D274" t="s">
-        <v>778</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
+        <v>778</v>
+      </c>
+      <c r="C275" t="s">
         <v>779</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>780</v>
-      </c>
-      <c r="D275" t="s">
-        <v>781</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>781</v>
+      </c>
+      <c r="C276" t="s">
         <v>782</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>783</v>
-      </c>
-      <c r="D276" t="s">
-        <v>784</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -9598,13 +9598,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
+        <v>784</v>
+      </c>
+      <c r="C277" t="s">
         <v>785</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>786</v>
-      </c>
-      <c r="D277" t="s">
-        <v>787</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -9618,13 +9618,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C278" t="s">
+        <v>787</v>
+      </c>
+      <c r="D278" t="s">
         <v>788</v>
-      </c>
-      <c r="D278" t="s">
-        <v>789</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
+        <v>789</v>
+      </c>
+      <c r="C279" t="s">
         <v>790</v>
-      </c>
-      <c r="C279" t="s">
-        <v>791</v>
       </c>
       <c r="D279" t="s">
         <v>455</v>
@@ -9658,13 +9658,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
+        <v>791</v>
+      </c>
+      <c r="C280" t="s">
         <v>792</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>793</v>
-      </c>
-      <c r="D280" t="s">
-        <v>794</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -9678,13 +9678,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
+        <v>794</v>
+      </c>
+      <c r="C281" t="s">
         <v>795</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>796</v>
-      </c>
-      <c r="D281" t="s">
-        <v>797</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -9701,10 +9701,10 @@
         <v>27</v>
       </c>
       <c r="C282" t="s">
+        <v>797</v>
+      </c>
+      <c r="D282" t="s">
         <v>798</v>
-      </c>
-      <c r="D282" t="s">
-        <v>799</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9718,13 +9718,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
+        <v>799</v>
+      </c>
+      <c r="C283" t="s">
         <v>800</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>801</v>
-      </c>
-      <c r="D283" t="s">
-        <v>802</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -9738,13 +9738,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
+        <v>802</v>
+      </c>
+      <c r="C284" t="s">
         <v>803</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>804</v>
-      </c>
-      <c r="D284" t="s">
-        <v>805</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9758,13 +9758,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
+        <v>805</v>
+      </c>
+      <c r="C285" t="s">
         <v>806</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>807</v>
-      </c>
-      <c r="D285" t="s">
-        <v>808</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9778,13 +9778,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
+        <v>808</v>
+      </c>
+      <c r="C286" t="s">
         <v>809</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>810</v>
-      </c>
-      <c r="D286" t="s">
-        <v>811</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
+        <v>811</v>
+      </c>
+      <c r="C287" t="s">
         <v>812</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>813</v>
-      </c>
-      <c r="D287" t="s">
-        <v>814</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
+        <v>814</v>
+      </c>
+      <c r="C288" t="s">
         <v>815</v>
-      </c>
-      <c r="C288" t="s">
-        <v>816</v>
       </c>
       <c r="D288" t="s">
         <v>481</v>
@@ -9838,13 +9838,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
+        <v>816</v>
+      </c>
+      <c r="C289" t="s">
         <v>817</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>818</v>
-      </c>
-      <c r="D289" t="s">
-        <v>819</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -9858,13 +9858,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
+        <v>819</v>
+      </c>
+      <c r="C290" t="s">
         <v>820</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>821</v>
-      </c>
-      <c r="D290" t="s">
-        <v>822</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>822</v>
+      </c>
+      <c r="C291" t="s">
         <v>823</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>824</v>
-      </c>
-      <c r="D291" t="s">
-        <v>825</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -9898,13 +9898,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>825</v>
+      </c>
+      <c r="C292" t="s">
         <v>826</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>827</v>
-      </c>
-      <c r="D292" t="s">
-        <v>828</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -9918,13 +9918,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
+        <v>828</v>
+      </c>
+      <c r="C293" t="s">
         <v>829</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>830</v>
-      </c>
-      <c r="D293" t="s">
-        <v>831</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -9938,13 +9938,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
+        <v>831</v>
+      </c>
+      <c r="C294" t="s">
         <v>832</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>833</v>
-      </c>
-      <c r="D294" t="s">
-        <v>834</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -9958,13 +9958,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
+        <v>834</v>
+      </c>
+      <c r="C295" t="s">
         <v>835</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>836</v>
-      </c>
-      <c r="D295" t="s">
-        <v>837</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -9978,13 +9978,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
+        <v>837</v>
+      </c>
+      <c r="C296" t="s">
         <v>838</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>839</v>
-      </c>
-      <c r="D296" t="s">
-        <v>840</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -9998,13 +9998,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
+        <v>840</v>
+      </c>
+      <c r="C297" t="s">
         <v>841</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>842</v>
-      </c>
-      <c r="D297" t="s">
-        <v>843</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10018,13 +10018,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
+        <v>843</v>
+      </c>
+      <c r="C298" t="s">
         <v>844</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>845</v>
-      </c>
-      <c r="D298" t="s">
-        <v>846</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
+        <v>846</v>
+      </c>
+      <c r="C299" t="s">
         <v>847</v>
-      </c>
-      <c r="C299" t="s">
-        <v>848</v>
       </c>
       <c r="D299" t="s">
         <v>254</v>
@@ -10058,13 +10058,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
+        <v>848</v>
+      </c>
+      <c r="C300" t="s">
         <v>849</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>850</v>
-      </c>
-      <c r="D300" t="s">
-        <v>851</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10078,13 +10078,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>851</v>
+      </c>
+      <c r="C301" t="s">
         <v>852</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>853</v>
-      </c>
-      <c r="D301" t="s">
-        <v>854</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10098,13 +10098,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>854</v>
+      </c>
+      <c r="C302" t="s">
         <v>855</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>856</v>
-      </c>
-      <c r="D302" t="s">
-        <v>857</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
+        <v>857</v>
+      </c>
+      <c r="C303" t="s">
         <v>858</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>859</v>
-      </c>
-      <c r="D303" t="s">
-        <v>860</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10138,13 +10138,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>860</v>
+      </c>
+      <c r="C304" t="s">
         <v>861</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>862</v>
-      </c>
-      <c r="D304" t="s">
-        <v>863</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
+        <v>863</v>
+      </c>
+      <c r="C305" t="s">
         <v>864</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>865</v>
-      </c>
-      <c r="D305" t="s">
-        <v>866</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
+        <v>866</v>
+      </c>
+      <c r="C306" t="s">
         <v>867</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>868</v>
-      </c>
-      <c r="D306" t="s">
-        <v>869</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10198,10 +10198,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
+        <v>869</v>
+      </c>
+      <c r="C307" t="s">
         <v>870</v>
-      </c>
-      <c r="C307" t="s">
-        <v>871</v>
       </c>
       <c r="D307" t="s">
         <v>254</v>
@@ -10221,10 +10221,10 @@
         <v>148</v>
       </c>
       <c r="C308" t="s">
+        <v>871</v>
+      </c>
+      <c r="D308" t="s">
         <v>872</v>
-      </c>
-      <c r="D308" t="s">
-        <v>873</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10238,13 +10238,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
+        <v>873</v>
+      </c>
+      <c r="C309" t="s">
         <v>874</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>875</v>
-      </c>
-      <c r="D309" t="s">
-        <v>876</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10258,13 +10258,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
+        <v>876</v>
+      </c>
+      <c r="C310" t="s">
         <v>877</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>878</v>
-      </c>
-      <c r="D310" t="s">
-        <v>879</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
+        <v>879</v>
+      </c>
+      <c r="C311" t="s">
         <v>880</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>881</v>
-      </c>
-      <c r="D311" t="s">
-        <v>882</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10298,13 +10298,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
+        <v>882</v>
+      </c>
+      <c r="C312" t="s">
         <v>883</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>884</v>
-      </c>
-      <c r="D312" t="s">
-        <v>885</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10318,10 +10318,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
+        <v>885</v>
+      </c>
+      <c r="C313" t="s">
         <v>886</v>
-      </c>
-      <c r="C313" t="s">
-        <v>887</v>
       </c>
       <c r="D313" t="s">
         <v>189</v>
@@ -10338,13 +10338,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
+        <v>887</v>
+      </c>
+      <c r="C314" t="s">
         <v>888</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
         <v>889</v>
-      </c>
-      <c r="D314" t="s">
-        <v>890</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
+        <v>890</v>
+      </c>
+      <c r="C315" t="s">
         <v>891</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>892</v>
-      </c>
-      <c r="D315" t="s">
-        <v>893</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10378,13 +10378,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
+        <v>893</v>
+      </c>
+      <c r="C316" t="s">
         <v>894</v>
       </c>
-      <c r="C316" t="s">
-        <v>895</v>
-      </c>
       <c r="D316" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E316">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8131B9-8D26-4C19-A5A8-81810CC753B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9208BE-F88E-4FD4-89C3-3070B96A11EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3695,7 +3695,7 @@
     <t>Responding to change over following a plan</t>
   </si>
   <si>
-    <t>All PI Objectives get value of 10</t>
+    <t>All PI Objectives are given a business value of 10</t>
   </si>
 </sst>
 </file>
@@ -4063,7 +4063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D164" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D170" workbookViewId="0">
       <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
@@ -7973,14 +7973,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>567</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="2" t="s">
         <v>568</v>
       </c>
       <c r="D196" t="s">

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9208BE-F88E-4FD4-89C3-3070B96A11EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98418E-FF8D-4955-AED5-AD2C50009020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4064,7 +4064,7 @@
   <dimension ref="A1:F316"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D170" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+      <selection activeCell="B196" sqref="B196:D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7973,14 +7973,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>567</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" t="s">
         <v>568</v>
       </c>
       <c r="D196" t="s">

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98418E-FF8D-4955-AED5-AD2C50009020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E156B-7484-4838-8CE6-5D258E0D0B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4063,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D170" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196:D196"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:XFD196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E156B-7484-4838-8CE6-5D258E0D0B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29D49B4-18C9-462A-9450-1FABAAFBC37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2493,9 +2493,6 @@
 Teams meet twice every PI to plan and schedule capacity</t>
   </si>
   <si>
-    <t>Align iteration dates</t>
-  </si>
-  <si>
     <t>What is one component of the Continuous Delivery Pipeline?</t>
   </si>
   <si>
@@ -3696,6 +3693,9 @@
   </si>
   <si>
     <t>All PI Objectives are given a business value of 10</t>
+  </si>
+  <si>
+    <t>Teams align the start and end dates of their Iterations</t>
   </si>
 </sst>
 </file>
@@ -4063,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:XFD196"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215:XFD215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4978,13 +4978,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C46" t="s">
         <v>138</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -7358,10 +7358,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>894</v>
+      </c>
+      <c r="C165" t="s">
         <v>895</v>
-      </c>
-      <c r="C165" t="s">
-        <v>896</v>
       </c>
       <c r="D165" t="s">
         <v>485</v>
@@ -7844,7 +7844,7 @@
         <v>551</v>
       </c>
       <c r="D189" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7861,10 +7861,10 @@
         <v>552</v>
       </c>
       <c r="C190" t="s">
+        <v>897</v>
+      </c>
+      <c r="D190" t="s">
         <v>898</v>
-      </c>
-      <c r="D190" t="s">
-        <v>899</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>555</v>
       </c>
       <c r="D191" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>563</v>
       </c>
       <c r="D194" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -7984,7 +7984,7 @@
         <v>568</v>
       </c>
       <c r="D196" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -7998,13 +7998,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C197" t="s">
         <v>569</v>
       </c>
       <c r="D197" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8044,7 +8044,7 @@
         <v>573</v>
       </c>
       <c r="D199" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>575</v>
       </c>
       <c r="D200" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>605</v>
       </c>
       <c r="D212" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8364,7 +8364,7 @@
         <v>610</v>
       </c>
       <c r="D215" t="s">
-        <v>611</v>
+        <v>910</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8378,13 +8378,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>611</v>
+      </c>
+      <c r="C216" t="s">
         <v>612</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>613</v>
-      </c>
-      <c r="D216" t="s">
-        <v>614</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8398,13 +8398,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>614</v>
+      </c>
+      <c r="C217" t="s">
         <v>615</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>616</v>
-      </c>
-      <c r="D217" t="s">
-        <v>617</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8418,13 +8418,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>617</v>
+      </c>
+      <c r="C218" t="s">
         <v>618</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>619</v>
-      </c>
-      <c r="D218" t="s">
-        <v>620</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8441,7 +8441,7 @@
         <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D219" t="s">
         <v>269</v>
@@ -8458,13 +8458,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>621</v>
+      </c>
+      <c r="C220" t="s">
         <v>622</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>623</v>
-      </c>
-      <c r="D220" t="s">
-        <v>624</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8478,13 +8478,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>624</v>
+      </c>
+      <c r="C221" t="s">
         <v>625</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>626</v>
-      </c>
-      <c r="D221" t="s">
-        <v>627</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8498,10 +8498,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>627</v>
+      </c>
+      <c r="C222" t="s">
         <v>628</v>
-      </c>
-      <c r="C222" t="s">
-        <v>629</v>
       </c>
       <c r="D222" t="s">
         <v>375</v>
@@ -8518,13 +8518,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>629</v>
+      </c>
+      <c r="C223" t="s">
         <v>630</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>631</v>
-      </c>
-      <c r="D223" t="s">
-        <v>632</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C224" t="s">
         <v>197</v>
       </c>
       <c r="D224" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8558,13 +8558,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>634</v>
+      </c>
+      <c r="C225" t="s">
         <v>635</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>636</v>
-      </c>
-      <c r="D225" t="s">
-        <v>637</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -8578,13 +8578,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>637</v>
+      </c>
+      <c r="C226" t="s">
         <v>638</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>639</v>
-      </c>
-      <c r="D226" t="s">
-        <v>640</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -8598,13 +8598,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>640</v>
+      </c>
+      <c r="C227" t="s">
         <v>641</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>642</v>
-      </c>
-      <c r="D227" t="s">
-        <v>643</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8618,13 +8618,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>643</v>
+      </c>
+      <c r="C228" t="s">
         <v>644</v>
       </c>
-      <c r="C228" t="s">
-        <v>645</v>
-      </c>
       <c r="D228" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8638,13 +8638,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>645</v>
+      </c>
+      <c r="C229" t="s">
         <v>646</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>647</v>
-      </c>
-      <c r="D229" t="s">
-        <v>648</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -8658,13 +8658,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>648</v>
+      </c>
+      <c r="C230" t="s">
         <v>649</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>650</v>
-      </c>
-      <c r="D230" t="s">
-        <v>651</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -8678,13 +8678,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>651</v>
+      </c>
+      <c r="C231" t="s">
         <v>652</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>653</v>
-      </c>
-      <c r="D231" t="s">
-        <v>654</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>654</v>
+      </c>
+      <c r="C232" t="s">
         <v>655</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>656</v>
-      </c>
-      <c r="D232" t="s">
-        <v>657</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -8718,13 +8718,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>657</v>
+      </c>
+      <c r="C233" t="s">
         <v>658</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>659</v>
-      </c>
-      <c r="D233" t="s">
-        <v>660</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -8738,7 +8738,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C234" t="s">
         <v>356</v>
@@ -8758,10 +8758,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>661</v>
+      </c>
+      <c r="C235" t="s">
         <v>662</v>
-      </c>
-      <c r="C235" t="s">
-        <v>663</v>
       </c>
       <c r="D235" t="s">
         <v>165</v>
@@ -8778,13 +8778,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>663</v>
+      </c>
+      <c r="C236" t="s">
         <v>664</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>665</v>
-      </c>
-      <c r="D236" t="s">
-        <v>666</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -8798,13 +8798,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>666</v>
+      </c>
+      <c r="C237" t="s">
         <v>667</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>668</v>
-      </c>
-      <c r="D237" t="s">
-        <v>669</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -8818,13 +8818,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>669</v>
+      </c>
+      <c r="C238" t="s">
         <v>670</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>671</v>
-      </c>
-      <c r="D238" t="s">
-        <v>672</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -8838,13 +8838,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>672</v>
+      </c>
+      <c r="C239" t="s">
         <v>673</v>
       </c>
-      <c r="C239" t="s">
-        <v>674</v>
-      </c>
       <c r="D239" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -8858,13 +8858,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
+        <v>674</v>
+      </c>
+      <c r="C240" t="s">
         <v>675</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>676</v>
-      </c>
-      <c r="D240" t="s">
-        <v>677</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -8878,13 +8878,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>677</v>
+      </c>
+      <c r="C241" t="s">
         <v>678</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>679</v>
-      </c>
-      <c r="D241" t="s">
-        <v>680</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -8898,13 +8898,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>680</v>
+      </c>
+      <c r="C242" t="s">
         <v>681</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>682</v>
-      </c>
-      <c r="D242" t="s">
-        <v>683</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -8918,13 +8918,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>683</v>
+      </c>
+      <c r="C243" t="s">
         <v>684</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>685</v>
-      </c>
-      <c r="D243" t="s">
-        <v>686</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>686</v>
+      </c>
+      <c r="C244" t="s">
         <v>687</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>688</v>
-      </c>
-      <c r="D244" t="s">
-        <v>689</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -8958,13 +8958,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>689</v>
+      </c>
+      <c r="C245" t="s">
         <v>690</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>691</v>
-      </c>
-      <c r="D245" t="s">
-        <v>692</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -8978,13 +8978,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>692</v>
+      </c>
+      <c r="C246" t="s">
         <v>693</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>694</v>
-      </c>
-      <c r="D246" t="s">
-        <v>695</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>695</v>
+      </c>
+      <c r="C247" t="s">
         <v>696</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>697</v>
-      </c>
-      <c r="D247" t="s">
-        <v>698</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>698</v>
+      </c>
+      <c r="C248" t="s">
         <v>699</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>700</v>
-      </c>
-      <c r="D248" t="s">
-        <v>701</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9038,13 +9038,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>701</v>
+      </c>
+      <c r="C249" t="s">
         <v>702</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>703</v>
-      </c>
-      <c r="D249" t="s">
-        <v>704</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9058,13 +9058,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>704</v>
+      </c>
+      <c r="C250" t="s">
         <v>705</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>706</v>
-      </c>
-      <c r="D250" t="s">
-        <v>707</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9078,13 +9078,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>707</v>
+      </c>
+      <c r="C251" t="s">
         <v>708</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>709</v>
-      </c>
-      <c r="D251" t="s">
-        <v>710</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9098,13 +9098,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>710</v>
+      </c>
+      <c r="C252" t="s">
         <v>711</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>712</v>
-      </c>
-      <c r="D252" t="s">
-        <v>713</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9118,13 +9118,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>713</v>
+      </c>
+      <c r="C253" t="s">
         <v>714</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>715</v>
-      </c>
-      <c r="D253" t="s">
-        <v>716</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9138,13 +9138,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>716</v>
+      </c>
+      <c r="C254" t="s">
         <v>717</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>718</v>
-      </c>
-      <c r="D254" t="s">
-        <v>719</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9158,13 +9158,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>719</v>
+      </c>
+      <c r="C255" t="s">
         <v>720</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>721</v>
-      </c>
-      <c r="D255" t="s">
-        <v>722</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>722</v>
+      </c>
+      <c r="C256" t="s">
         <v>723</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>724</v>
-      </c>
-      <c r="D256" t="s">
-        <v>725</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9198,13 +9198,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>725</v>
+      </c>
+      <c r="C257" t="s">
         <v>726</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>727</v>
-      </c>
-      <c r="D257" t="s">
-        <v>728</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9218,13 +9218,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>728</v>
+      </c>
+      <c r="C258" t="s">
         <v>729</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>730</v>
-      </c>
-      <c r="D258" t="s">
-        <v>731</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9238,13 +9238,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>731</v>
+      </c>
+      <c r="C259" t="s">
         <v>732</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>733</v>
-      </c>
-      <c r="D259" t="s">
-        <v>734</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>734</v>
+      </c>
+      <c r="C260" t="s">
         <v>735</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>736</v>
-      </c>
-      <c r="D260" t="s">
-        <v>737</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9278,13 +9278,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>737</v>
+      </c>
+      <c r="C261" t="s">
         <v>738</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>739</v>
-      </c>
-      <c r="D261" t="s">
-        <v>740</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9298,10 +9298,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>740</v>
+      </c>
+      <c r="C262" t="s">
         <v>741</v>
-      </c>
-      <c r="C262" t="s">
-        <v>742</v>
       </c>
       <c r="D262" t="s">
         <v>561</v>
@@ -9318,13 +9318,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
+        <v>742</v>
+      </c>
+      <c r="C263" t="s">
         <v>743</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>744</v>
-      </c>
-      <c r="D263" t="s">
-        <v>745</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9338,13 +9338,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
+        <v>745</v>
+      </c>
+      <c r="C264" t="s">
         <v>746</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>747</v>
-      </c>
-      <c r="D264" t="s">
-        <v>748</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9358,13 +9358,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>748</v>
+      </c>
+      <c r="C265" t="s">
         <v>749</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>750</v>
-      </c>
-      <c r="D265" t="s">
-        <v>751</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9378,13 +9378,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>751</v>
+      </c>
+      <c r="C266" t="s">
         <v>752</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>753</v>
-      </c>
-      <c r="D266" t="s">
-        <v>754</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>754</v>
+      </c>
+      <c r="C267" t="s">
         <v>755</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>756</v>
-      </c>
-      <c r="D267" t="s">
-        <v>757</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>757</v>
+      </c>
+      <c r="C268" t="s">
         <v>758</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>759</v>
-      </c>
-      <c r="D268" t="s">
-        <v>760</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9438,10 +9438,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>760</v>
+      </c>
+      <c r="C269" t="s">
         <v>761</v>
-      </c>
-      <c r="C269" t="s">
-        <v>762</v>
       </c>
       <c r="D269" t="s">
         <v>507</v>
@@ -9458,13 +9458,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
+        <v>762</v>
+      </c>
+      <c r="C270" t="s">
         <v>763</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>764</v>
-      </c>
-      <c r="D270" t="s">
-        <v>765</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9478,13 +9478,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>765</v>
+      </c>
+      <c r="C271" t="s">
         <v>766</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>767</v>
-      </c>
-      <c r="D271" t="s">
-        <v>768</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9498,13 +9498,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>768</v>
+      </c>
+      <c r="C272" t="s">
         <v>769</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>770</v>
-      </c>
-      <c r="D272" t="s">
-        <v>771</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9518,13 +9518,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
+        <v>771</v>
+      </c>
+      <c r="C273" t="s">
         <v>772</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>773</v>
-      </c>
-      <c r="D273" t="s">
-        <v>774</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9538,13 +9538,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
+        <v>774</v>
+      </c>
+      <c r="C274" t="s">
         <v>775</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>776</v>
-      </c>
-      <c r="D274" t="s">
-        <v>777</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
+        <v>777</v>
+      </c>
+      <c r="C275" t="s">
         <v>778</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>779</v>
-      </c>
-      <c r="D275" t="s">
-        <v>780</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>780</v>
+      </c>
+      <c r="C276" t="s">
         <v>781</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>782</v>
-      </c>
-      <c r="D276" t="s">
-        <v>783</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -9598,13 +9598,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
+        <v>783</v>
+      </c>
+      <c r="C277" t="s">
         <v>784</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>785</v>
-      </c>
-      <c r="D277" t="s">
-        <v>786</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -9618,13 +9618,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C278" t="s">
+        <v>786</v>
+      </c>
+      <c r="D278" t="s">
         <v>787</v>
-      </c>
-      <c r="D278" t="s">
-        <v>788</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
+        <v>788</v>
+      </c>
+      <c r="C279" t="s">
         <v>789</v>
-      </c>
-      <c r="C279" t="s">
-        <v>790</v>
       </c>
       <c r="D279" t="s">
         <v>455</v>
@@ -9658,13 +9658,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
+        <v>790</v>
+      </c>
+      <c r="C280" t="s">
         <v>791</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>792</v>
-      </c>
-      <c r="D280" t="s">
-        <v>793</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -9678,13 +9678,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
+        <v>793</v>
+      </c>
+      <c r="C281" t="s">
         <v>794</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>795</v>
-      </c>
-      <c r="D281" t="s">
-        <v>796</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -9701,10 +9701,10 @@
         <v>27</v>
       </c>
       <c r="C282" t="s">
+        <v>796</v>
+      </c>
+      <c r="D282" t="s">
         <v>797</v>
-      </c>
-      <c r="D282" t="s">
-        <v>798</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9718,13 +9718,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
+        <v>798</v>
+      </c>
+      <c r="C283" t="s">
         <v>799</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>800</v>
-      </c>
-      <c r="D283" t="s">
-        <v>801</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -9738,13 +9738,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
+        <v>801</v>
+      </c>
+      <c r="C284" t="s">
         <v>802</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>803</v>
-      </c>
-      <c r="D284" t="s">
-        <v>804</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9758,13 +9758,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
+        <v>804</v>
+      </c>
+      <c r="C285" t="s">
         <v>805</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>806</v>
-      </c>
-      <c r="D285" t="s">
-        <v>807</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9778,13 +9778,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
+        <v>807</v>
+      </c>
+      <c r="C286" t="s">
         <v>808</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>809</v>
-      </c>
-      <c r="D286" t="s">
-        <v>810</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
+        <v>810</v>
+      </c>
+      <c r="C287" t="s">
         <v>811</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>812</v>
-      </c>
-      <c r="D287" t="s">
-        <v>813</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
+        <v>813</v>
+      </c>
+      <c r="C288" t="s">
         <v>814</v>
-      </c>
-      <c r="C288" t="s">
-        <v>815</v>
       </c>
       <c r="D288" t="s">
         <v>481</v>
@@ -9838,13 +9838,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
+        <v>815</v>
+      </c>
+      <c r="C289" t="s">
         <v>816</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>817</v>
-      </c>
-      <c r="D289" t="s">
-        <v>818</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -9858,13 +9858,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
+        <v>818</v>
+      </c>
+      <c r="C290" t="s">
         <v>819</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>820</v>
-      </c>
-      <c r="D290" t="s">
-        <v>821</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>821</v>
+      </c>
+      <c r="C291" t="s">
         <v>822</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>823</v>
-      </c>
-      <c r="D291" t="s">
-        <v>824</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -9898,13 +9898,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>824</v>
+      </c>
+      <c r="C292" t="s">
         <v>825</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>826</v>
-      </c>
-      <c r="D292" t="s">
-        <v>827</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -9918,13 +9918,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
+        <v>827</v>
+      </c>
+      <c r="C293" t="s">
         <v>828</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>829</v>
-      </c>
-      <c r="D293" t="s">
-        <v>830</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -9938,13 +9938,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
+        <v>830</v>
+      </c>
+      <c r="C294" t="s">
         <v>831</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>832</v>
-      </c>
-      <c r="D294" t="s">
-        <v>833</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -9958,13 +9958,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
+        <v>833</v>
+      </c>
+      <c r="C295" t="s">
         <v>834</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>835</v>
-      </c>
-      <c r="D295" t="s">
-        <v>836</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -9978,13 +9978,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
+        <v>836</v>
+      </c>
+      <c r="C296" t="s">
         <v>837</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>838</v>
-      </c>
-      <c r="D296" t="s">
-        <v>839</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -9998,13 +9998,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
+        <v>839</v>
+      </c>
+      <c r="C297" t="s">
         <v>840</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>841</v>
-      </c>
-      <c r="D297" t="s">
-        <v>842</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10018,13 +10018,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
+        <v>842</v>
+      </c>
+      <c r="C298" t="s">
         <v>843</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>844</v>
-      </c>
-      <c r="D298" t="s">
-        <v>845</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
+        <v>845</v>
+      </c>
+      <c r="C299" t="s">
         <v>846</v>
-      </c>
-      <c r="C299" t="s">
-        <v>847</v>
       </c>
       <c r="D299" t="s">
         <v>254</v>
@@ -10058,13 +10058,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
+        <v>847</v>
+      </c>
+      <c r="C300" t="s">
         <v>848</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>849</v>
-      </c>
-      <c r="D300" t="s">
-        <v>850</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10078,13 +10078,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>850</v>
+      </c>
+      <c r="C301" t="s">
         <v>851</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>852</v>
-      </c>
-      <c r="D301" t="s">
-        <v>853</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10098,13 +10098,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>853</v>
+      </c>
+      <c r="C302" t="s">
         <v>854</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>855</v>
-      </c>
-      <c r="D302" t="s">
-        <v>856</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
+        <v>856</v>
+      </c>
+      <c r="C303" t="s">
         <v>857</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>858</v>
-      </c>
-      <c r="D303" t="s">
-        <v>859</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10138,13 +10138,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>859</v>
+      </c>
+      <c r="C304" t="s">
         <v>860</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>861</v>
-      </c>
-      <c r="D304" t="s">
-        <v>862</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
+        <v>862</v>
+      </c>
+      <c r="C305" t="s">
         <v>863</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>864</v>
-      </c>
-      <c r="D305" t="s">
-        <v>865</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
+        <v>865</v>
+      </c>
+      <c r="C306" t="s">
         <v>866</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>867</v>
-      </c>
-      <c r="D306" t="s">
-        <v>868</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10198,10 +10198,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
+        <v>868</v>
+      </c>
+      <c r="C307" t="s">
         <v>869</v>
-      </c>
-      <c r="C307" t="s">
-        <v>870</v>
       </c>
       <c r="D307" t="s">
         <v>254</v>
@@ -10221,10 +10221,10 @@
         <v>148</v>
       </c>
       <c r="C308" t="s">
+        <v>870</v>
+      </c>
+      <c r="D308" t="s">
         <v>871</v>
-      </c>
-      <c r="D308" t="s">
-        <v>872</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10238,13 +10238,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
+        <v>872</v>
+      </c>
+      <c r="C309" t="s">
         <v>873</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>874</v>
-      </c>
-      <c r="D309" t="s">
-        <v>875</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10258,13 +10258,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
+        <v>875</v>
+      </c>
+      <c r="C310" t="s">
         <v>876</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>877</v>
-      </c>
-      <c r="D310" t="s">
-        <v>878</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
+        <v>878</v>
+      </c>
+      <c r="C311" t="s">
         <v>879</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>880</v>
-      </c>
-      <c r="D311" t="s">
-        <v>881</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10298,13 +10298,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
+        <v>881</v>
+      </c>
+      <c r="C312" t="s">
         <v>882</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>883</v>
-      </c>
-      <c r="D312" t="s">
-        <v>884</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10318,10 +10318,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
+        <v>884</v>
+      </c>
+      <c r="C313" t="s">
         <v>885</v>
-      </c>
-      <c r="C313" t="s">
-        <v>886</v>
       </c>
       <c r="D313" t="s">
         <v>189</v>
@@ -10338,13 +10338,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
+        <v>886</v>
+      </c>
+      <c r="C314" t="s">
         <v>887</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
         <v>888</v>
-      </c>
-      <c r="D314" t="s">
-        <v>889</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
+        <v>889</v>
+      </c>
+      <c r="C315" t="s">
         <v>890</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>891</v>
-      </c>
-      <c r="D315" t="s">
-        <v>892</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10378,13 +10378,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
+        <v>892</v>
+      </c>
+      <c r="C316" t="s">
         <v>893</v>
       </c>
-      <c r="C316" t="s">
-        <v>894</v>
-      </c>
       <c r="D316" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E316">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29D49B4-18C9-462A-9450-1FABAAFBC37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE97D3-FCCF-45CA-8ECC-A065F92FC1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4063,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215:XFD215"/>
+    <sheetView tabSelected="1" topLeftCell="D199" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE97D3-FCCF-45CA-8ECC-A065F92FC1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CAFA5-7FAB-40BC-BBE6-5B18DCB07C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,9 +546,6 @@
 Transparency</t>
   </si>
   <si>
-    <t xml:space="preserve"> Respect for people and culture</t>
-  </si>
-  <si>
     <t>What is the main value of the Backlog Refinement?</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
 Team commits to a set of goals to be delivered in the Iteration
 Team reviews and improves its process before the next Iteration
 Team prepares requirements for Iteration Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Team prepares requirements for Iteration Planning</t>
   </si>
   <si>
     <t>What is one goal of the Iteration Review?</t>
@@ -2556,9 +2550,6 @@
 By creating a hierarchy to provide stability</t>
   </si>
   <si>
-    <t>Focus on customers/products</t>
-  </si>
-  <si>
     <t>What is one of the inputs to the Portfolio canvas?</t>
   </si>
   <si>
@@ -3696,6 +3687,15 @@
   </si>
   <si>
     <t>Teams align the start and end dates of their Iterations</t>
+  </si>
+  <si>
+    <t>By focusing on customers, products, innovation, and growth</t>
+  </si>
+  <si>
+    <t>Respect for people and culture</t>
+  </si>
+  <si>
+    <t>Team prepares requirements for Iteration Planning</t>
   </si>
 </sst>
 </file>
@@ -4063,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D199" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4924,7 +4924,7 @@
         <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>909</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -4938,13 +4938,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
         <v>132</v>
       </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>910</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -4958,13 +4958,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
         <v>135</v>
-      </c>
-      <c r="C45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" t="s">
-        <v>137</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4978,13 +4978,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4998,13 +4998,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" t="s">
         <v>139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5018,13 +5018,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" t="s">
         <v>142</v>
-      </c>
-      <c r="C48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" t="s">
-        <v>144</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5038,13 +5038,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
         <v>145</v>
-      </c>
-      <c r="C49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
         <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" t="s">
-        <v>150</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5078,13 +5078,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
         <v>151</v>
-      </c>
-      <c r="C51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" t="s">
-        <v>153</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5098,13 +5098,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s">
         <v>154</v>
-      </c>
-      <c r="C52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" t="s">
-        <v>156</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5118,13 +5118,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" t="s">
         <v>157</v>
-      </c>
-      <c r="C53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" t="s">
-        <v>159</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5138,13 +5138,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" t="s">
         <v>160</v>
-      </c>
-      <c r="C54" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" t="s">
-        <v>162</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5158,13 +5158,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
         <v>163</v>
-      </c>
-      <c r="C55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" t="s">
-        <v>165</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5178,13 +5178,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" t="s">
         <v>166</v>
-      </c>
-      <c r="C56" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" t="s">
-        <v>168</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5198,13 +5198,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" t="s">
         <v>169</v>
-      </c>
-      <c r="C57" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" t="s">
-        <v>171</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
         <v>172</v>
-      </c>
-      <c r="C58" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" t="s">
-        <v>174</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -5238,13 +5238,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" t="s">
         <v>175</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" t="s">
-        <v>177</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5258,13 +5258,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" t="s">
         <v>178</v>
-      </c>
-      <c r="C60" t="s">
-        <v>179</v>
-      </c>
-      <c r="D60" t="s">
-        <v>180</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5278,13 +5278,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" t="s">
         <v>181</v>
-      </c>
-      <c r="C61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" t="s">
-        <v>183</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5298,13 +5298,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" t="s">
         <v>184</v>
-      </c>
-      <c r="C62" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" t="s">
-        <v>186</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5318,13 +5318,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" t="s">
         <v>187</v>
-      </c>
-      <c r="C63" t="s">
-        <v>188</v>
-      </c>
-      <c r="D63" t="s">
-        <v>189</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5338,13 +5338,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" t="s">
         <v>190</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" t="s">
-        <v>192</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5358,13 +5358,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" t="s">
         <v>193</v>
-      </c>
-      <c r="C65" t="s">
-        <v>194</v>
-      </c>
-      <c r="D65" t="s">
-        <v>195</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5378,13 +5378,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" t="s">
         <v>196</v>
-      </c>
-      <c r="C66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D66" t="s">
-        <v>198</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5398,13 +5398,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" t="s">
         <v>199</v>
-      </c>
-      <c r="C67" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" t="s">
-        <v>201</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5418,13 +5418,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
         <v>202</v>
-      </c>
-      <c r="C68" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" t="s">
-        <v>204</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5438,13 +5438,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5458,13 +5458,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" t="s">
         <v>207</v>
-      </c>
-      <c r="C70" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" t="s">
-        <v>209</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5478,13 +5478,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" t="s">
         <v>210</v>
-      </c>
-      <c r="C71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" t="s">
-        <v>212</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5498,13 +5498,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" t="s">
         <v>213</v>
-      </c>
-      <c r="C72" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" t="s">
-        <v>215</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5518,13 +5518,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" t="s">
         <v>216</v>
-      </c>
-      <c r="C73" t="s">
-        <v>217</v>
-      </c>
-      <c r="D73" t="s">
-        <v>218</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5538,13 +5538,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" t="s">
         <v>219</v>
-      </c>
-      <c r="C74" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" t="s">
-        <v>221</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5558,13 +5558,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" t="s">
         <v>222</v>
-      </c>
-      <c r="C75" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" t="s">
-        <v>224</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5578,13 +5578,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" t="s">
         <v>225</v>
-      </c>
-      <c r="C76" t="s">
-        <v>226</v>
-      </c>
-      <c r="D76" t="s">
-        <v>227</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" t="s">
         <v>228</v>
-      </c>
-      <c r="C77" t="s">
-        <v>229</v>
-      </c>
-      <c r="D77" t="s">
-        <v>230</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5618,13 +5618,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" t="s">
         <v>231</v>
-      </c>
-      <c r="C78" t="s">
-        <v>232</v>
-      </c>
-      <c r="D78" t="s">
-        <v>233</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5638,13 +5638,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79" t="s">
         <v>234</v>
-      </c>
-      <c r="C79" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79" t="s">
-        <v>236</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5658,13 +5658,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" t="s">
         <v>237</v>
-      </c>
-      <c r="C80" t="s">
-        <v>238</v>
-      </c>
-      <c r="D80" t="s">
-        <v>239</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5678,13 +5678,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" t="s">
         <v>240</v>
-      </c>
-      <c r="C81" t="s">
-        <v>241</v>
-      </c>
-      <c r="D81" t="s">
-        <v>242</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5698,13 +5698,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" t="s">
         <v>243</v>
-      </c>
-      <c r="C82" t="s">
-        <v>244</v>
-      </c>
-      <c r="D82" t="s">
-        <v>245</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5718,13 +5718,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" t="s">
         <v>246</v>
-      </c>
-      <c r="C83" t="s">
-        <v>247</v>
-      </c>
-      <c r="D83" t="s">
-        <v>248</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5738,13 +5738,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
+        <v>248</v>
+      </c>
+      <c r="D84" t="s">
         <v>249</v>
-      </c>
-      <c r="C84" t="s">
-        <v>250</v>
-      </c>
-      <c r="D84" t="s">
-        <v>251</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5758,13 +5758,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" t="s">
         <v>252</v>
-      </c>
-      <c r="C85" t="s">
-        <v>253</v>
-      </c>
-      <c r="D85" t="s">
-        <v>254</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5778,13 +5778,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" t="s">
         <v>255</v>
-      </c>
-      <c r="C86" t="s">
-        <v>256</v>
-      </c>
-      <c r="D86" t="s">
-        <v>257</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" t="s">
         <v>258</v>
-      </c>
-      <c r="C87" t="s">
-        <v>259</v>
-      </c>
-      <c r="D87" t="s">
-        <v>260</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5818,13 +5818,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" t="s">
         <v>261</v>
-      </c>
-      <c r="C88" t="s">
-        <v>262</v>
-      </c>
-      <c r="D88" t="s">
-        <v>263</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5838,13 +5838,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" t="s">
         <v>264</v>
-      </c>
-      <c r="C89" t="s">
-        <v>265</v>
-      </c>
-      <c r="D89" t="s">
-        <v>266</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5858,13 +5858,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" t="s">
+        <v>266</v>
+      </c>
+      <c r="D90" t="s">
         <v>267</v>
-      </c>
-      <c r="C90" t="s">
-        <v>268</v>
-      </c>
-      <c r="D90" t="s">
-        <v>269</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5878,13 +5878,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" t="s">
         <v>270</v>
-      </c>
-      <c r="C91" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91" t="s">
-        <v>272</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5898,13 +5898,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" t="s">
         <v>273</v>
-      </c>
-      <c r="C92" t="s">
-        <v>274</v>
-      </c>
-      <c r="D92" t="s">
-        <v>275</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5918,13 +5918,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D93" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5938,13 +5938,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" t="s">
         <v>278</v>
-      </c>
-      <c r="C94" t="s">
-        <v>279</v>
-      </c>
-      <c r="D94" t="s">
-        <v>280</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -5958,13 +5958,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" t="s">
         <v>281</v>
-      </c>
-      <c r="C95" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" t="s">
-        <v>283</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -5978,13 +5978,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" t="s">
         <v>284</v>
-      </c>
-      <c r="C96" t="s">
-        <v>285</v>
-      </c>
-      <c r="D96" t="s">
-        <v>286</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -5998,13 +5998,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" t="s">
         <v>287</v>
-      </c>
-      <c r="C97" t="s">
-        <v>288</v>
-      </c>
-      <c r="D97" t="s">
-        <v>289</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6018,13 +6018,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" t="s">
+        <v>289</v>
+      </c>
+      <c r="D98" t="s">
         <v>290</v>
-      </c>
-      <c r="C98" t="s">
-        <v>291</v>
-      </c>
-      <c r="D98" t="s">
-        <v>292</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6038,13 +6038,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" t="s">
+        <v>292</v>
+      </c>
+      <c r="D99" t="s">
         <v>293</v>
-      </c>
-      <c r="C99" t="s">
-        <v>294</v>
-      </c>
-      <c r="D99" t="s">
-        <v>295</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6058,13 +6058,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" t="s">
         <v>296</v>
-      </c>
-      <c r="C100" t="s">
-        <v>297</v>
-      </c>
-      <c r="D100" t="s">
-        <v>298</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6078,13 +6078,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" t="s">
         <v>299</v>
-      </c>
-      <c r="C101" t="s">
-        <v>300</v>
-      </c>
-      <c r="D101" t="s">
-        <v>301</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6098,13 +6098,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" t="s">
+        <v>301</v>
+      </c>
+      <c r="D102" t="s">
         <v>302</v>
-      </c>
-      <c r="C102" t="s">
-        <v>303</v>
-      </c>
-      <c r="D102" t="s">
-        <v>304</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6118,13 +6118,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" t="s">
+        <v>304</v>
+      </c>
+      <c r="D103" t="s">
         <v>305</v>
-      </c>
-      <c r="C103" t="s">
-        <v>306</v>
-      </c>
-      <c r="D103" t="s">
-        <v>307</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" t="s">
+        <v>307</v>
+      </c>
+      <c r="D104" t="s">
         <v>308</v>
-      </c>
-      <c r="C104" t="s">
-        <v>309</v>
-      </c>
-      <c r="D104" t="s">
-        <v>310</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6158,13 +6158,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" t="s">
+        <v>310</v>
+      </c>
+      <c r="D105" t="s">
         <v>311</v>
-      </c>
-      <c r="C105" t="s">
-        <v>312</v>
-      </c>
-      <c r="D105" t="s">
-        <v>313</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6178,13 +6178,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" t="s">
+        <v>313</v>
+      </c>
+      <c r="D106" t="s">
         <v>314</v>
-      </c>
-      <c r="C106" t="s">
-        <v>315</v>
-      </c>
-      <c r="D106" t="s">
-        <v>316</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6198,13 +6198,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D107" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6218,13 +6218,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C108" t="s">
+        <v>318</v>
+      </c>
+      <c r="D108" t="s">
         <v>319</v>
-      </c>
-      <c r="C108" t="s">
-        <v>320</v>
-      </c>
-      <c r="D108" t="s">
-        <v>321</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6238,13 +6238,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>320</v>
+      </c>
+      <c r="C109" t="s">
+        <v>321</v>
+      </c>
+      <c r="D109" t="s">
         <v>322</v>
-      </c>
-      <c r="C109" t="s">
-        <v>323</v>
-      </c>
-      <c r="D109" t="s">
-        <v>324</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6258,13 +6258,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" t="s">
         <v>325</v>
-      </c>
-      <c r="C110" t="s">
-        <v>326</v>
-      </c>
-      <c r="D110" t="s">
-        <v>327</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -6278,13 +6278,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" t="s">
+        <v>327</v>
+      </c>
+      <c r="D111" t="s">
         <v>328</v>
-      </c>
-      <c r="C111" t="s">
-        <v>329</v>
-      </c>
-      <c r="D111" t="s">
-        <v>330</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -6298,13 +6298,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>329</v>
+      </c>
+      <c r="C112" t="s">
+        <v>330</v>
+      </c>
+      <c r="D112" t="s">
         <v>331</v>
-      </c>
-      <c r="C112" t="s">
-        <v>332</v>
-      </c>
-      <c r="D112" t="s">
-        <v>333</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -6318,13 +6318,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" t="s">
+        <v>333</v>
+      </c>
+      <c r="D113" t="s">
         <v>334</v>
-      </c>
-      <c r="C113" t="s">
-        <v>335</v>
-      </c>
-      <c r="D113" t="s">
-        <v>336</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6338,13 +6338,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>335</v>
+      </c>
+      <c r="C114" t="s">
+        <v>336</v>
+      </c>
+      <c r="D114" t="s">
         <v>337</v>
-      </c>
-      <c r="C114" t="s">
-        <v>338</v>
-      </c>
-      <c r="D114" t="s">
-        <v>339</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -6358,13 +6358,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C115" t="s">
+        <v>339</v>
+      </c>
+      <c r="D115" t="s">
         <v>340</v>
-      </c>
-      <c r="C115" t="s">
-        <v>341</v>
-      </c>
-      <c r="D115" t="s">
-        <v>342</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>341</v>
+      </c>
+      <c r="C116" t="s">
+        <v>342</v>
+      </c>
+      <c r="D116" t="s">
         <v>343</v>
-      </c>
-      <c r="C116" t="s">
-        <v>344</v>
-      </c>
-      <c r="D116" t="s">
-        <v>345</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6398,13 +6398,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>344</v>
+      </c>
+      <c r="C117" t="s">
+        <v>345</v>
+      </c>
+      <c r="D117" t="s">
         <v>346</v>
-      </c>
-      <c r="C117" t="s">
-        <v>347</v>
-      </c>
-      <c r="D117" t="s">
-        <v>348</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6418,13 +6418,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>347</v>
+      </c>
+      <c r="C118" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118" t="s">
         <v>349</v>
-      </c>
-      <c r="C118" t="s">
-        <v>350</v>
-      </c>
-      <c r="D118" t="s">
-        <v>351</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -6438,13 +6438,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>350</v>
+      </c>
+      <c r="C119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D119" t="s">
         <v>352</v>
-      </c>
-      <c r="C119" t="s">
-        <v>353</v>
-      </c>
-      <c r="D119" t="s">
-        <v>354</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6458,13 +6458,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>353</v>
+      </c>
+      <c r="C120" t="s">
+        <v>354</v>
+      </c>
+      <c r="D120" t="s">
         <v>355</v>
-      </c>
-      <c r="C120" t="s">
-        <v>356</v>
-      </c>
-      <c r="D120" t="s">
-        <v>357</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6478,13 +6478,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>356</v>
+      </c>
+      <c r="C121" t="s">
+        <v>357</v>
+      </c>
+      <c r="D121" t="s">
         <v>358</v>
-      </c>
-      <c r="C121" t="s">
-        <v>359</v>
-      </c>
-      <c r="D121" t="s">
-        <v>360</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6498,13 +6498,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C122" t="s">
+        <v>360</v>
+      </c>
+      <c r="D122" t="s">
         <v>361</v>
-      </c>
-      <c r="C122" t="s">
-        <v>362</v>
-      </c>
-      <c r="D122" t="s">
-        <v>363</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -6518,13 +6518,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>362</v>
+      </c>
+      <c r="C123" t="s">
+        <v>363</v>
+      </c>
+      <c r="D123" t="s">
         <v>364</v>
-      </c>
-      <c r="C123" t="s">
-        <v>365</v>
-      </c>
-      <c r="D123" t="s">
-        <v>366</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6538,13 +6538,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>365</v>
+      </c>
+      <c r="C124" t="s">
+        <v>366</v>
+      </c>
+      <c r="D124" t="s">
         <v>367</v>
-      </c>
-      <c r="C124" t="s">
-        <v>368</v>
-      </c>
-      <c r="D124" t="s">
-        <v>369</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -6558,13 +6558,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>368</v>
+      </c>
+      <c r="C125" t="s">
+        <v>369</v>
+      </c>
+      <c r="D125" t="s">
         <v>370</v>
-      </c>
-      <c r="C125" t="s">
-        <v>371</v>
-      </c>
-      <c r="D125" t="s">
-        <v>372</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -6578,13 +6578,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>371</v>
+      </c>
+      <c r="C126" t="s">
+        <v>372</v>
+      </c>
+      <c r="D126" t="s">
         <v>373</v>
-      </c>
-      <c r="C126" t="s">
-        <v>374</v>
-      </c>
-      <c r="D126" t="s">
-        <v>375</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -6598,13 +6598,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>374</v>
+      </c>
+      <c r="C127" t="s">
+        <v>375</v>
+      </c>
+      <c r="D127" t="s">
         <v>376</v>
-      </c>
-      <c r="C127" t="s">
-        <v>377</v>
-      </c>
-      <c r="D127" t="s">
-        <v>378</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -6618,13 +6618,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" t="s">
+        <v>378</v>
+      </c>
+      <c r="D128" t="s">
         <v>379</v>
-      </c>
-      <c r="C128" t="s">
-        <v>380</v>
-      </c>
-      <c r="D128" t="s">
-        <v>381</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6638,13 +6638,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>380</v>
+      </c>
+      <c r="C129" t="s">
+        <v>381</v>
+      </c>
+      <c r="D129" t="s">
         <v>382</v>
-      </c>
-      <c r="C129" t="s">
-        <v>383</v>
-      </c>
-      <c r="D129" t="s">
-        <v>384</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6658,13 +6658,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C130" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D130" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6678,13 +6678,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>385</v>
+      </c>
+      <c r="C131" t="s">
+        <v>386</v>
+      </c>
+      <c r="D131" t="s">
         <v>387</v>
-      </c>
-      <c r="C131" t="s">
-        <v>388</v>
-      </c>
-      <c r="D131" t="s">
-        <v>389</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6698,13 +6698,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>388</v>
+      </c>
+      <c r="C132" t="s">
+        <v>389</v>
+      </c>
+      <c r="D132" t="s">
         <v>390</v>
-      </c>
-      <c r="C132" t="s">
-        <v>391</v>
-      </c>
-      <c r="D132" t="s">
-        <v>392</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6718,10 +6718,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C133" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -6738,13 +6738,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" t="s">
+        <v>394</v>
+      </c>
+      <c r="D134" t="s">
         <v>395</v>
-      </c>
-      <c r="C134" t="s">
-        <v>396</v>
-      </c>
-      <c r="D134" t="s">
-        <v>397</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6758,13 +6758,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>396</v>
+      </c>
+      <c r="C135" t="s">
+        <v>397</v>
+      </c>
+      <c r="D135" t="s">
         <v>398</v>
-      </c>
-      <c r="C135" t="s">
-        <v>399</v>
-      </c>
-      <c r="D135" t="s">
-        <v>400</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -6778,13 +6778,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C136" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D136" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6798,13 +6798,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>401</v>
+      </c>
+      <c r="C137" t="s">
+        <v>402</v>
+      </c>
+      <c r="D137" t="s">
         <v>403</v>
-      </c>
-      <c r="C137" t="s">
-        <v>404</v>
-      </c>
-      <c r="D137" t="s">
-        <v>405</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6818,13 +6818,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>404</v>
+      </c>
+      <c r="C138" t="s">
+        <v>405</v>
+      </c>
+      <c r="D138" t="s">
         <v>406</v>
-      </c>
-      <c r="C138" t="s">
-        <v>407</v>
-      </c>
-      <c r="D138" t="s">
-        <v>408</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -6838,13 +6838,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>407</v>
+      </c>
+      <c r="C139" t="s">
+        <v>408</v>
+      </c>
+      <c r="D139" t="s">
         <v>409</v>
-      </c>
-      <c r="C139" t="s">
-        <v>410</v>
-      </c>
-      <c r="D139" t="s">
-        <v>411</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6858,13 +6858,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>410</v>
+      </c>
+      <c r="C140" t="s">
+        <v>411</v>
+      </c>
+      <c r="D140" t="s">
         <v>412</v>
-      </c>
-      <c r="C140" t="s">
-        <v>413</v>
-      </c>
-      <c r="D140" t="s">
-        <v>414</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -6878,13 +6878,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>413</v>
+      </c>
+      <c r="C141" t="s">
+        <v>414</v>
+      </c>
+      <c r="D141" t="s">
         <v>415</v>
-      </c>
-      <c r="C141" t="s">
-        <v>416</v>
-      </c>
-      <c r="D141" t="s">
-        <v>417</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -6898,13 +6898,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>416</v>
+      </c>
+      <c r="C142" t="s">
+        <v>417</v>
+      </c>
+      <c r="D142" t="s">
         <v>418</v>
-      </c>
-      <c r="C142" t="s">
-        <v>419</v>
-      </c>
-      <c r="D142" t="s">
-        <v>420</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6918,13 +6918,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>419</v>
+      </c>
+      <c r="C143" t="s">
+        <v>420</v>
+      </c>
+      <c r="D143" t="s">
         <v>421</v>
-      </c>
-      <c r="C143" t="s">
-        <v>422</v>
-      </c>
-      <c r="D143" t="s">
-        <v>423</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -6938,13 +6938,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C144" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D144" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>424</v>
+      </c>
+      <c r="C145" t="s">
+        <v>425</v>
+      </c>
+      <c r="D145" t="s">
         <v>426</v>
-      </c>
-      <c r="C145" t="s">
-        <v>427</v>
-      </c>
-      <c r="D145" t="s">
-        <v>428</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -6978,13 +6978,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>427</v>
+      </c>
+      <c r="C146" t="s">
+        <v>428</v>
+      </c>
+      <c r="D146" t="s">
         <v>429</v>
-      </c>
-      <c r="C146" t="s">
-        <v>430</v>
-      </c>
-      <c r="D146" t="s">
-        <v>431</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -6998,13 +6998,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>430</v>
+      </c>
+      <c r="C147" t="s">
+        <v>431</v>
+      </c>
+      <c r="D147" t="s">
         <v>432</v>
-      </c>
-      <c r="C147" t="s">
-        <v>433</v>
-      </c>
-      <c r="D147" t="s">
-        <v>434</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7018,13 +7018,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>433</v>
+      </c>
+      <c r="C148" t="s">
+        <v>434</v>
+      </c>
+      <c r="D148" t="s">
         <v>435</v>
-      </c>
-      <c r="C148" t="s">
-        <v>436</v>
-      </c>
-      <c r="D148" t="s">
-        <v>437</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7038,13 +7038,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>436</v>
+      </c>
+      <c r="C149" t="s">
+        <v>437</v>
+      </c>
+      <c r="D149" t="s">
         <v>438</v>
-      </c>
-      <c r="C149" t="s">
-        <v>439</v>
-      </c>
-      <c r="D149" t="s">
-        <v>440</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7058,13 +7058,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>439</v>
+      </c>
+      <c r="C150" t="s">
+        <v>440</v>
+      </c>
+      <c r="D150" t="s">
         <v>441</v>
-      </c>
-      <c r="C150" t="s">
-        <v>442</v>
-      </c>
-      <c r="D150" t="s">
-        <v>443</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7078,13 +7078,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>442</v>
+      </c>
+      <c r="C151" t="s">
+        <v>443</v>
+      </c>
+      <c r="D151" t="s">
         <v>444</v>
-      </c>
-      <c r="C151" t="s">
-        <v>445</v>
-      </c>
-      <c r="D151" t="s">
-        <v>446</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7098,13 +7098,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>445</v>
+      </c>
+      <c r="C152" t="s">
+        <v>446</v>
+      </c>
+      <c r="D152" t="s">
         <v>447</v>
-      </c>
-      <c r="C152" t="s">
-        <v>448</v>
-      </c>
-      <c r="D152" t="s">
-        <v>449</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7118,13 +7118,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>448</v>
+      </c>
+      <c r="C153" t="s">
+        <v>449</v>
+      </c>
+      <c r="D153" t="s">
         <v>450</v>
-      </c>
-      <c r="C153" t="s">
-        <v>451</v>
-      </c>
-      <c r="D153" t="s">
-        <v>452</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -7138,13 +7138,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>451</v>
+      </c>
+      <c r="C154" t="s">
+        <v>452</v>
+      </c>
+      <c r="D154" t="s">
         <v>453</v>
-      </c>
-      <c r="C154" t="s">
-        <v>454</v>
-      </c>
-      <c r="D154" t="s">
-        <v>455</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7158,13 +7158,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>454</v>
+      </c>
+      <c r="C155" t="s">
+        <v>455</v>
+      </c>
+      <c r="D155" t="s">
         <v>456</v>
-      </c>
-      <c r="C155" t="s">
-        <v>457</v>
-      </c>
-      <c r="D155" t="s">
-        <v>458</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7178,13 +7178,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>457</v>
+      </c>
+      <c r="C156" t="s">
+        <v>458</v>
+      </c>
+      <c r="D156" t="s">
         <v>459</v>
-      </c>
-      <c r="C156" t="s">
-        <v>460</v>
-      </c>
-      <c r="D156" t="s">
-        <v>461</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7198,13 +7198,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>460</v>
+      </c>
+      <c r="C157" t="s">
+        <v>461</v>
+      </c>
+      <c r="D157" t="s">
         <v>462</v>
-      </c>
-      <c r="C157" t="s">
-        <v>463</v>
-      </c>
-      <c r="D157" t="s">
-        <v>464</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7218,13 +7218,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>463</v>
+      </c>
+      <c r="C158" t="s">
+        <v>464</v>
+      </c>
+      <c r="D158" t="s">
         <v>465</v>
-      </c>
-      <c r="C158" t="s">
-        <v>466</v>
-      </c>
-      <c r="D158" t="s">
-        <v>467</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7238,13 +7238,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>466</v>
+      </c>
+      <c r="C159" t="s">
+        <v>467</v>
+      </c>
+      <c r="D159" t="s">
         <v>468</v>
-      </c>
-      <c r="C159" t="s">
-        <v>469</v>
-      </c>
-      <c r="D159" t="s">
-        <v>470</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7258,13 +7258,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C160" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D160" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7278,13 +7278,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>471</v>
+      </c>
+      <c r="C161" t="s">
+        <v>472</v>
+      </c>
+      <c r="D161" t="s">
         <v>473</v>
-      </c>
-      <c r="C161" t="s">
-        <v>474</v>
-      </c>
-      <c r="D161" t="s">
-        <v>475</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -7298,13 +7298,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>474</v>
+      </c>
+      <c r="C162" t="s">
+        <v>475</v>
+      </c>
+      <c r="D162" t="s">
         <v>476</v>
-      </c>
-      <c r="C162" t="s">
-        <v>477</v>
-      </c>
-      <c r="D162" t="s">
-        <v>478</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7318,13 +7318,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>477</v>
+      </c>
+      <c r="C163" t="s">
+        <v>478</v>
+      </c>
+      <c r="D163" t="s">
         <v>479</v>
-      </c>
-      <c r="C163" t="s">
-        <v>480</v>
-      </c>
-      <c r="D163" t="s">
-        <v>481</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -7338,13 +7338,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>480</v>
+      </c>
+      <c r="C164" t="s">
+        <v>481</v>
+      </c>
+      <c r="D164" t="s">
         <v>482</v>
-      </c>
-      <c r="C164" t="s">
-        <v>483</v>
-      </c>
-      <c r="D164" t="s">
-        <v>484</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -7358,13 +7358,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C165" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D165" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7378,13 +7378,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C166" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D166" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7398,13 +7398,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>486</v>
+      </c>
+      <c r="C167" t="s">
+        <v>487</v>
+      </c>
+      <c r="D167" t="s">
         <v>488</v>
-      </c>
-      <c r="C167" t="s">
-        <v>489</v>
-      </c>
-      <c r="D167" t="s">
-        <v>490</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7418,13 +7418,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>489</v>
+      </c>
+      <c r="C168" t="s">
+        <v>490</v>
+      </c>
+      <c r="D168" t="s">
         <v>491</v>
-      </c>
-      <c r="C168" t="s">
-        <v>492</v>
-      </c>
-      <c r="D168" t="s">
-        <v>493</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7438,10 +7438,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C169" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
@@ -7458,13 +7458,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>494</v>
+      </c>
+      <c r="C170" t="s">
+        <v>495</v>
+      </c>
+      <c r="D170" t="s">
         <v>496</v>
-      </c>
-      <c r="C170" t="s">
-        <v>497</v>
-      </c>
-      <c r="D170" t="s">
-        <v>498</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7478,13 +7478,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>497</v>
+      </c>
+      <c r="C171" t="s">
+        <v>498</v>
+      </c>
+      <c r="D171" t="s">
         <v>499</v>
-      </c>
-      <c r="C171" t="s">
-        <v>500</v>
-      </c>
-      <c r="D171" t="s">
-        <v>501</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7498,13 +7498,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>500</v>
+      </c>
+      <c r="C172" t="s">
+        <v>501</v>
+      </c>
+      <c r="D172" t="s">
         <v>502</v>
-      </c>
-      <c r="C172" t="s">
-        <v>503</v>
-      </c>
-      <c r="D172" t="s">
-        <v>504</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7518,13 +7518,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>503</v>
+      </c>
+      <c r="C173" t="s">
+        <v>504</v>
+      </c>
+      <c r="D173" t="s">
         <v>505</v>
-      </c>
-      <c r="C173" t="s">
-        <v>506</v>
-      </c>
-      <c r="D173" t="s">
-        <v>507</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>506</v>
+      </c>
+      <c r="C174" t="s">
+        <v>507</v>
+      </c>
+      <c r="D174" t="s">
         <v>508</v>
-      </c>
-      <c r="C174" t="s">
-        <v>509</v>
-      </c>
-      <c r="D174" t="s">
-        <v>510</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7558,13 +7558,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C175" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D175" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -7578,13 +7578,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>511</v>
+      </c>
+      <c r="C176" t="s">
+        <v>512</v>
+      </c>
+      <c r="D176" t="s">
         <v>513</v>
-      </c>
-      <c r="C176" t="s">
-        <v>514</v>
-      </c>
-      <c r="D176" t="s">
-        <v>515</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -7598,13 +7598,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C177" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D177" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7618,13 +7618,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C178" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D178" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7638,13 +7638,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>518</v>
+      </c>
+      <c r="C179" t="s">
+        <v>519</v>
+      </c>
+      <c r="D179" t="s">
         <v>520</v>
-      </c>
-      <c r="C179" t="s">
-        <v>521</v>
-      </c>
-      <c r="D179" t="s">
-        <v>522</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -7658,13 +7658,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>521</v>
+      </c>
+      <c r="C180" t="s">
+        <v>522</v>
+      </c>
+      <c r="D180" t="s">
         <v>523</v>
-      </c>
-      <c r="C180" t="s">
-        <v>524</v>
-      </c>
-      <c r="D180" t="s">
-        <v>525</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7678,13 +7678,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>524</v>
+      </c>
+      <c r="C181" t="s">
+        <v>525</v>
+      </c>
+      <c r="D181" t="s">
         <v>526</v>
-      </c>
-      <c r="C181" t="s">
-        <v>527</v>
-      </c>
-      <c r="D181" t="s">
-        <v>528</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -7698,13 +7698,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>527</v>
+      </c>
+      <c r="C182" t="s">
+        <v>528</v>
+      </c>
+      <c r="D182" t="s">
         <v>529</v>
-      </c>
-      <c r="C182" t="s">
-        <v>530</v>
-      </c>
-      <c r="D182" t="s">
-        <v>531</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7718,13 +7718,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>530</v>
+      </c>
+      <c r="C183" t="s">
+        <v>531</v>
+      </c>
+      <c r="D183" t="s">
         <v>532</v>
-      </c>
-      <c r="C183" t="s">
-        <v>533</v>
-      </c>
-      <c r="D183" t="s">
-        <v>534</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>533</v>
+      </c>
+      <c r="C184" t="s">
+        <v>534</v>
+      </c>
+      <c r="D184" t="s">
         <v>535</v>
-      </c>
-      <c r="C184" t="s">
-        <v>536</v>
-      </c>
-      <c r="D184" t="s">
-        <v>537</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>536</v>
+      </c>
+      <c r="C185" t="s">
+        <v>537</v>
+      </c>
+      <c r="D185" t="s">
         <v>538</v>
-      </c>
-      <c r="C185" t="s">
-        <v>539</v>
-      </c>
-      <c r="D185" t="s">
-        <v>540</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -7778,13 +7778,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>539</v>
+      </c>
+      <c r="C186" t="s">
+        <v>540</v>
+      </c>
+      <c r="D186" t="s">
         <v>541</v>
-      </c>
-      <c r="C186" t="s">
-        <v>542</v>
-      </c>
-      <c r="D186" t="s">
-        <v>543</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7798,13 +7798,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>542</v>
+      </c>
+      <c r="C187" t="s">
+        <v>543</v>
+      </c>
+      <c r="D187" t="s">
         <v>544</v>
-      </c>
-      <c r="C187" t="s">
-        <v>545</v>
-      </c>
-      <c r="D187" t="s">
-        <v>546</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7818,13 +7818,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>545</v>
+      </c>
+      <c r="C188" t="s">
+        <v>546</v>
+      </c>
+      <c r="D188" t="s">
         <v>547</v>
-      </c>
-      <c r="C188" t="s">
-        <v>548</v>
-      </c>
-      <c r="D188" t="s">
-        <v>549</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -7838,13 +7838,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C189" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D189" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7858,13 +7858,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C190" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D190" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -7878,13 +7878,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C191" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D191" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -7898,13 +7898,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>554</v>
+      </c>
+      <c r="C192" t="s">
+        <v>555</v>
+      </c>
+      <c r="D192" t="s">
         <v>556</v>
-      </c>
-      <c r="C192" t="s">
-        <v>557</v>
-      </c>
-      <c r="D192" t="s">
-        <v>558</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -7918,13 +7918,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>557</v>
+      </c>
+      <c r="C193" t="s">
+        <v>558</v>
+      </c>
+      <c r="D193" t="s">
         <v>559</v>
-      </c>
-      <c r="C193" t="s">
-        <v>560</v>
-      </c>
-      <c r="D193" t="s">
-        <v>561</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -7938,13 +7938,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C194" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D194" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -7958,13 +7958,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>562</v>
+      </c>
+      <c r="C195" t="s">
+        <v>563</v>
+      </c>
+      <c r="D195" t="s">
         <v>564</v>
-      </c>
-      <c r="C195" t="s">
-        <v>565</v>
-      </c>
-      <c r="D195" t="s">
-        <v>566</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -7978,13 +7978,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C196" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D196" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -7998,13 +7998,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C197" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D197" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8018,13 +8018,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C198" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D198" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8038,13 +8038,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C199" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D199" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C200" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D200" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8078,13 +8078,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C201" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D201" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -8098,13 +8098,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>576</v>
+      </c>
+      <c r="C202" t="s">
+        <v>577</v>
+      </c>
+      <c r="D202" t="s">
         <v>578</v>
-      </c>
-      <c r="C202" t="s">
-        <v>579</v>
-      </c>
-      <c r="D202" t="s">
-        <v>580</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>579</v>
+      </c>
+      <c r="C203" t="s">
+        <v>580</v>
+      </c>
+      <c r="D203" t="s">
         <v>581</v>
-      </c>
-      <c r="C203" t="s">
-        <v>582</v>
-      </c>
-      <c r="D203" t="s">
-        <v>583</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8138,13 +8138,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>582</v>
+      </c>
+      <c r="C204" t="s">
+        <v>583</v>
+      </c>
+      <c r="D204" t="s">
         <v>584</v>
-      </c>
-      <c r="C204" t="s">
-        <v>585</v>
-      </c>
-      <c r="D204" t="s">
-        <v>586</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8158,13 +8158,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>585</v>
+      </c>
+      <c r="C205" t="s">
+        <v>586</v>
+      </c>
+      <c r="D205" t="s">
         <v>587</v>
-      </c>
-      <c r="C205" t="s">
-        <v>588</v>
-      </c>
-      <c r="D205" t="s">
-        <v>589</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -8178,13 +8178,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
+        <v>588</v>
+      </c>
+      <c r="C206" t="s">
+        <v>589</v>
+      </c>
+      <c r="D206" t="s">
         <v>590</v>
-      </c>
-      <c r="C206" t="s">
-        <v>591</v>
-      </c>
-      <c r="D206" t="s">
-        <v>592</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -8198,13 +8198,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C207" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D207" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C208" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D208" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -8238,13 +8238,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>595</v>
+      </c>
+      <c r="C209" t="s">
+        <v>596</v>
+      </c>
+      <c r="D209" t="s">
         <v>597</v>
-      </c>
-      <c r="C209" t="s">
-        <v>598</v>
-      </c>
-      <c r="D209" t="s">
-        <v>599</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -8258,13 +8258,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>244</v>
+      </c>
+      <c r="C210" t="s">
+        <v>598</v>
+      </c>
+      <c r="D210" t="s">
         <v>246</v>
-      </c>
-      <c r="C210" t="s">
-        <v>600</v>
-      </c>
-      <c r="D210" t="s">
-        <v>248</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -8278,13 +8278,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>599</v>
+      </c>
+      <c r="C211" t="s">
+        <v>600</v>
+      </c>
+      <c r="D211" t="s">
         <v>601</v>
-      </c>
-      <c r="C211" t="s">
-        <v>602</v>
-      </c>
-      <c r="D211" t="s">
-        <v>603</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C212" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D212" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8318,13 +8318,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C213" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D213" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8338,13 +8338,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C214" t="s">
         <v>43</v>
       </c>
       <c r="D214" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -8358,13 +8358,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C215" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D215" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8378,13 +8378,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>609</v>
+      </c>
+      <c r="C216" t="s">
+        <v>610</v>
+      </c>
+      <c r="D216" t="s">
         <v>611</v>
-      </c>
-      <c r="C216" t="s">
-        <v>612</v>
-      </c>
-      <c r="D216" t="s">
-        <v>613</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8398,13 +8398,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>612</v>
+      </c>
+      <c r="C217" t="s">
+        <v>613</v>
+      </c>
+      <c r="D217" t="s">
         <v>614</v>
-      </c>
-      <c r="C217" t="s">
-        <v>615</v>
-      </c>
-      <c r="D217" t="s">
-        <v>616</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8418,13 +8418,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>615</v>
+      </c>
+      <c r="C218" t="s">
+        <v>616</v>
+      </c>
+      <c r="D218" t="s">
         <v>617</v>
-      </c>
-      <c r="C218" t="s">
-        <v>618</v>
-      </c>
-      <c r="D218" t="s">
-        <v>619</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8438,13 +8438,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>265</v>
+      </c>
+      <c r="C219" t="s">
+        <v>618</v>
+      </c>
+      <c r="D219" t="s">
         <v>267</v>
-      </c>
-      <c r="C219" t="s">
-        <v>620</v>
-      </c>
-      <c r="D219" t="s">
-        <v>269</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -8458,13 +8458,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>619</v>
+      </c>
+      <c r="C220" t="s">
+        <v>620</v>
+      </c>
+      <c r="D220" t="s">
         <v>621</v>
-      </c>
-      <c r="C220" t="s">
-        <v>622</v>
-      </c>
-      <c r="D220" t="s">
-        <v>623</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8478,13 +8478,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C221" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D221" t="s">
-        <v>626</v>
+        <v>908</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8498,13 +8498,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C222" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D222" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -8518,13 +8518,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C223" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D223" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C224" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D224" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8558,13 +8558,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C225" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D225" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -8578,13 +8578,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C226" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D226" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -8598,13 +8598,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C227" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D227" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8618,13 +8618,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C228" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D228" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8638,13 +8638,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C229" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D229" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -8658,13 +8658,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C230" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D230" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -8678,13 +8678,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C231" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D231" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C232" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D232" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -8718,13 +8718,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C233" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D233" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -8738,13 +8738,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C234" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D234" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -8758,13 +8758,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C235" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D235" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -8778,13 +8778,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C236" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D236" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -8798,13 +8798,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C237" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D237" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -8818,13 +8818,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C238" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D238" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -8838,13 +8838,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C239" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D239" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -8858,13 +8858,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C240" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D240" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -8878,13 +8878,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C241" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D241" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -8898,13 +8898,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C242" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D242" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -8918,13 +8918,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C243" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D243" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C244" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D244" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -8958,13 +8958,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C245" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D245" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -8978,13 +8978,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C246" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D246" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C247" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D247" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C248" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D248" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9038,13 +9038,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C249" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D249" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9058,13 +9058,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C250" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D250" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9078,13 +9078,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C251" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D251" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9098,13 +9098,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C252" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D252" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9118,13 +9118,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C253" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D253" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9138,13 +9138,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C254" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D254" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9158,13 +9158,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C255" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D255" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C256" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D256" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9198,13 +9198,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C257" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D257" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9218,13 +9218,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C258" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D258" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9238,13 +9238,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C259" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D259" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C260" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D260" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9278,13 +9278,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C261" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D261" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9298,13 +9298,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C262" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D262" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -9318,13 +9318,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C263" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D263" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9338,13 +9338,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C264" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D264" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9358,13 +9358,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C265" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D265" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9378,13 +9378,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C266" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D266" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C267" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D267" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C268" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D268" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9438,13 +9438,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C269" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D269" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -9458,13 +9458,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C270" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D270" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9478,13 +9478,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C271" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D271" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9498,13 +9498,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C272" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D272" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9518,13 +9518,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C273" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D273" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9538,13 +9538,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C274" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D274" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C275" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D275" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C276" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D276" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -9598,13 +9598,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C277" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D277" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -9618,13 +9618,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C278" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D278" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C279" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D279" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -9658,13 +9658,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C280" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D280" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -9678,13 +9678,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C281" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D281" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -9701,10 +9701,10 @@
         <v>27</v>
       </c>
       <c r="C282" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D282" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9718,13 +9718,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C283" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D283" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -9738,13 +9738,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C284" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D284" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9758,13 +9758,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C285" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D285" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9778,13 +9778,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C286" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D286" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C287" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D287" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -9818,13 +9818,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C288" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D288" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -9838,13 +9838,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C289" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D289" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -9858,13 +9858,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C290" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D290" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C291" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D291" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -9898,13 +9898,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C292" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D292" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -9918,13 +9918,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C293" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D293" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -9938,13 +9938,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C294" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D294" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -9958,13 +9958,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C295" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D295" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -9978,13 +9978,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C296" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D296" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -9998,13 +9998,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C297" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D297" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10018,13 +10018,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C298" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D298" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10038,13 +10038,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C299" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D299" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -10058,13 +10058,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C300" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D300" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10078,13 +10078,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C301" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D301" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10098,13 +10098,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C302" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D302" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C303" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D303" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10138,13 +10138,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C304" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D304" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C305" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D305" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C306" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D306" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10198,13 +10198,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C307" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D307" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -10218,13 +10218,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C308" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D308" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10238,13 +10238,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C309" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D309" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10258,13 +10258,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C310" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D310" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C311" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D311" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10298,13 +10298,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C312" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D312" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10318,13 +10318,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C313" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D313" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -10338,13 +10338,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C314" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D314" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C315" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D315" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10378,13 +10378,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C316" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D316" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E316">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CAFA5-7FAB-40BC-BBE6-5B18DCB07C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE36161-BFB2-4C32-B50C-991245F4C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="970">
   <si>
     <t>Nº</t>
   </si>
@@ -3696,6 +3696,183 @@
   </si>
   <si>
     <t>Team prepares requirements for Iteration Planning</t>
+  </si>
+  <si>
+    <t>Which of the following is the primary focus of Lean Portfolio Management?</t>
+  </si>
+  <si>
+    <t>Define the enterprise strategy; Establish lean budgets; Align strategy and execution; Ensure program and portfolio execution</t>
+  </si>
+  <si>
+    <t>Align strategy and execution</t>
+  </si>
+  <si>
+    <t>What is the primary purpose of Strategic Themes?</t>
+  </si>
+  <si>
+    <t>Determine the order in which Epics should be executed; Drive incremental implementation across the enterprise; Define the sequence of steps used to deliver value to the customer; Connect the portfolio to the enterprise business strategy</t>
+  </si>
+  <si>
+    <t>Connect the portfolio to the enterprise business strategy</t>
+  </si>
+  <si>
+    <t>What is one fundamental difference between Agile Software Engineering and Waterfall?</t>
+  </si>
+  <si>
+    <t>Agile delivers every single requested requirement.; Waterfall has no fixed schedule.; Agile supports test-first development.; Waterfall concentrates on code quality.</t>
+  </si>
+  <si>
+    <t>Agile supports test-first development.</t>
+  </si>
+  <si>
+    <t>What is the purpose of having deployment decoupled from release?</t>
+  </si>
+  <si>
+    <t>To enable deploying upon demand.; To remove the need to respond quickly to product issues.; To enable releasing upon demand.; To make deploying a business decision.</t>
+  </si>
+  <si>
+    <t>To enable releasing upon demand.</t>
+  </si>
+  <si>
+    <t>Which of the following is a Lean Budget Guardrail?</t>
+  </si>
+  <si>
+    <t>Participatory budgeting; Investment horizons; Centralized decision-making; Lean startup cycle</t>
+  </si>
+  <si>
+    <t>Investment horizons</t>
+  </si>
+  <si>
+    <t>What is BDD?</t>
+  </si>
+  <si>
+    <t>Business-Driven Development; Benchmark-Driven Development; Behavior-Driven Development; Backlog-Driven Development</t>
+  </si>
+  <si>
+    <t>Behavior-Driven Development</t>
+  </si>
+  <si>
+    <t>Which two actions can slow the delivery of value?</t>
+  </si>
+  <si>
+    <t>Shortened Architectural Runway; Loopbacks; System delays; Team swarming</t>
+  </si>
+  <si>
+    <t>Loopbacks; System delays</t>
+  </si>
+  <si>
+    <t>Which two statements best describe a cross-functional Agile Team?</t>
+  </si>
+  <si>
+    <t>They are optimized for communication and delivery of value.; They can define, build, and test a Feature or component.; They deliver value every six weeks.; They release customer products to production continuously.; They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
+  </si>
+  <si>
+    <t>They are optimized for communication and delivery of value.; They can define, build, and test a Feature or component.</t>
+  </si>
+  <si>
+    <t>The role of the Product Manager is most similar to what other role in SAFe?</t>
+  </si>
+  <si>
+    <t>Development Manager; Solution Manager; Release Train Engineer; Business Manager</t>
+  </si>
+  <si>
+    <t>Solution Manager</t>
+  </si>
+  <si>
+    <t>What is the foundation of Lean?</t>
+  </si>
+  <si>
+    <t>Innovation; Lean-Agile development; Leadership; Lean-thinking</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>What is a benefit of continuously deploying using a DevOps model?</t>
+  </si>
+  <si>
+    <t>It alleviates the reliance on the skill sets of Agile Teams.; It ensures that changes deployed to production are always immediately available to end-users.; It lessens the severity and frequency of release failures.; It increases the transaction cost.</t>
+  </si>
+  <si>
+    <t>It lessens the severity and frequency of release failures.</t>
+  </si>
+  <si>
+    <t>What are three practices for building large Solutions?</t>
+  </si>
+  <si>
+    <t>Employ and improve the Continuous Development Pipeline.; Employ multiple Solution Teams.; Build Solution components and capabilities with ARTs.; Build and integrate the Solution with a Solution Train.; Ensure value stream consistency.; Capture and refine system specifications as fixed/variable Solution Intent.</t>
+  </si>
+  <si>
+    <t>Build and integrate the Solution with a Solution Train.; Build Solution components and capabilities with ARTs.; Capture and refine system specifications as fixed/variable Solution Intent.</t>
+  </si>
+  <si>
+    <t>What is the ultimate goal of DevOps in SAFe?</t>
+  </si>
+  <si>
+    <t>To enable Agile Release Trains to deliver value more frequently.; To combine Development and Operations groups into one team.; To clarify program and team roles.; To automate the integration, testing, and deployment of features.</t>
+  </si>
+  <si>
+    <t>To enable Agile Release Trains to deliver value more frequently.</t>
+  </si>
+  <si>
+    <t>In which event are the PI Objectives created?</t>
+  </si>
+  <si>
+    <t>Post PI-Planning; PI Planning; Iteration Planning; PI System Demo</t>
+  </si>
+  <si>
+    <t>PI Planning</t>
+  </si>
+  <si>
+    <t>Which statement is most accurate about the Solution Vision?</t>
+  </si>
+  <si>
+    <t>It summarizes the team PI Objectives for the current Program Increment.; It provides an outline of the Features for the next three Program Increments.; It expresses the strategic intent of the Program.; It drives the allocation of budget for the Agile Release Train.</t>
+  </si>
+  <si>
+    <t>It expresses the strategic intent of the Program.</t>
+  </si>
+  <si>
+    <t>What does Solution Intent describe?</t>
+  </si>
+  <si>
+    <t>The customer or consumer of the solution.; The behavior of the solution.; The platform architecture.; Where the solution operates.</t>
+  </si>
+  <si>
+    <t>The behavior of the solution.</t>
+  </si>
+  <si>
+    <t>Which of the following is a key purpose of DevOps?</t>
+  </si>
+  <si>
+    <t>DevOps joins development and operations to enable continuous delivery.; DevOps focuses on automating the delivery pipeline to reduce transaction cost.; DevOps enables continuous release by building a scalable Continuous Delivery Pipeline.; DevOps focuses on a set of practices applied to large systems.</t>
+  </si>
+  <si>
+    <t>DevOps joins development and operations to enable continuous delivery.</t>
+  </si>
+  <si>
+    <t>What is the purpose of dynamic models?</t>
+  </si>
+  <si>
+    <t>They are used when there are numerous and complex interactions.; They are used when there are a set of parallel interactions related to a scenario.; They are used when there are a specific number of interactions that are less complex.; They are used to sequence a set of interactions related to a scenario.</t>
+  </si>
+  <si>
+    <t>They are used when there are numerous and complex interactions.</t>
+  </si>
+  <si>
+    <t>At what level of the SAFe Big Picture do Strategic Themes reside?</t>
+  </si>
+  <si>
+    <t>Essential Level.; Team Level.; Portfolio Level.; Large Solution Level.</t>
+  </si>
+  <si>
+    <t>Portfolio Level</t>
+  </si>
+  <si>
+    <t>Which of the following is responsible for managing the Portfolio Kanban?</t>
+  </si>
+  <si>
+    <t>Lean Portfolio Management.; Release Train Engineer.; Product Management.; Solution Management.</t>
   </si>
 </sst>
 </file>
@@ -4061,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10390,6 +10567,406 @@
         <v>0</v>
       </c>
       <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>911</v>
+      </c>
+      <c r="C317" t="s">
+        <v>912</v>
+      </c>
+      <c r="D317" t="s">
+        <v>913</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>914</v>
+      </c>
+      <c r="C318" t="s">
+        <v>915</v>
+      </c>
+      <c r="D318" t="s">
+        <v>916</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>917</v>
+      </c>
+      <c r="C319" t="s">
+        <v>918</v>
+      </c>
+      <c r="D319" t="s">
+        <v>919</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>920</v>
+      </c>
+      <c r="C320" t="s">
+        <v>921</v>
+      </c>
+      <c r="D320" t="s">
+        <v>922</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>923</v>
+      </c>
+      <c r="C321" t="s">
+        <v>924</v>
+      </c>
+      <c r="D321" t="s">
+        <v>925</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>926</v>
+      </c>
+      <c r="C322" t="s">
+        <v>927</v>
+      </c>
+      <c r="D322" t="s">
+        <v>928</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>929</v>
+      </c>
+      <c r="C323" t="s">
+        <v>930</v>
+      </c>
+      <c r="D323" t="s">
+        <v>931</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>932</v>
+      </c>
+      <c r="C324" t="s">
+        <v>933</v>
+      </c>
+      <c r="D324" t="s">
+        <v>934</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>935</v>
+      </c>
+      <c r="C325" t="s">
+        <v>936</v>
+      </c>
+      <c r="D325" t="s">
+        <v>937</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>938</v>
+      </c>
+      <c r="C326" t="s">
+        <v>939</v>
+      </c>
+      <c r="D326" t="s">
+        <v>940</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>941</v>
+      </c>
+      <c r="C327" t="s">
+        <v>942</v>
+      </c>
+      <c r="D327" t="s">
+        <v>943</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>944</v>
+      </c>
+      <c r="C328" t="s">
+        <v>945</v>
+      </c>
+      <c r="D328" t="s">
+        <v>946</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>947</v>
+      </c>
+      <c r="C329" t="s">
+        <v>948</v>
+      </c>
+      <c r="D329" t="s">
+        <v>949</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>950</v>
+      </c>
+      <c r="C330" t="s">
+        <v>951</v>
+      </c>
+      <c r="D330" t="s">
+        <v>952</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>953</v>
+      </c>
+      <c r="C331" t="s">
+        <v>954</v>
+      </c>
+      <c r="D331" t="s">
+        <v>955</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>956</v>
+      </c>
+      <c r="C332" t="s">
+        <v>957</v>
+      </c>
+      <c r="D332" t="s">
+        <v>958</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>959</v>
+      </c>
+      <c r="C333" t="s">
+        <v>960</v>
+      </c>
+      <c r="D333" t="s">
+        <v>961</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>962</v>
+      </c>
+      <c r="C334" t="s">
+        <v>963</v>
+      </c>
+      <c r="D334" t="s">
+        <v>964</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>965</v>
+      </c>
+      <c r="C335" t="s">
+        <v>966</v>
+      </c>
+      <c r="D335" t="s">
+        <v>967</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>968</v>
+      </c>
+      <c r="C336" t="s">
+        <v>969</v>
+      </c>
+      <c r="D336" t="s">
+        <v>578</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
         <v>0</v>
       </c>
     </row>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE36161-BFB2-4C32-B50C-991245F4C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ABCF23-78E9-4B4F-8822-487A44B4D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4240,12 +4240,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="C287" sqref="C287"/>
+    <sheetView tabSelected="1" topLeftCell="B320" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="165.7265625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ABCF23-78E9-4B4F-8822-487A44B4D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751AEB8F-E6CA-415E-9DAE-0DAC27F8A7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3701,178 +3701,178 @@
     <t>Which of the following is the primary focus of Lean Portfolio Management?</t>
   </si>
   <si>
-    <t>Define the enterprise strategy; Establish lean budgets; Align strategy and execution; Ensure program and portfolio execution</t>
-  </si>
-  <si>
     <t>Align strategy and execution</t>
   </si>
   <si>
     <t>What is the primary purpose of Strategic Themes?</t>
   </si>
   <si>
-    <t>Determine the order in which Epics should be executed; Drive incremental implementation across the enterprise; Define the sequence of steps used to deliver value to the customer; Connect the portfolio to the enterprise business strategy</t>
-  </si>
-  <si>
     <t>Connect the portfolio to the enterprise business strategy</t>
   </si>
   <si>
     <t>What is one fundamental difference between Agile Software Engineering and Waterfall?</t>
   </si>
   <si>
-    <t>Agile delivers every single requested requirement.; Waterfall has no fixed schedule.; Agile supports test-first development.; Waterfall concentrates on code quality.</t>
-  </si>
-  <si>
     <t>Agile supports test-first development.</t>
   </si>
   <si>
     <t>What is the purpose of having deployment decoupled from release?</t>
   </si>
   <si>
-    <t>To enable deploying upon demand.; To remove the need to respond quickly to product issues.; To enable releasing upon demand.; To make deploying a business decision.</t>
-  </si>
-  <si>
     <t>To enable releasing upon demand.</t>
   </si>
   <si>
     <t>Which of the following is a Lean Budget Guardrail?</t>
   </si>
   <si>
-    <t>Participatory budgeting; Investment horizons; Centralized decision-making; Lean startup cycle</t>
-  </si>
-  <si>
     <t>Investment horizons</t>
   </si>
   <si>
     <t>What is BDD?</t>
   </si>
   <si>
-    <t>Business-Driven Development; Benchmark-Driven Development; Behavior-Driven Development; Backlog-Driven Development</t>
-  </si>
-  <si>
     <t>Behavior-Driven Development</t>
   </si>
   <si>
     <t>Which two actions can slow the delivery of value?</t>
   </si>
   <si>
-    <t>Shortened Architectural Runway; Loopbacks; System delays; Team swarming</t>
-  </si>
-  <si>
     <t>Loopbacks; System delays</t>
   </si>
   <si>
     <t>Which two statements best describe a cross-functional Agile Team?</t>
   </si>
   <si>
-    <t>They are optimized for communication and delivery of value.; They can define, build, and test a Feature or component.; They deliver value every six weeks.; They release customer products to production continuously.; They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
-  </si>
-  <si>
     <t>They are optimized for communication and delivery of value.; They can define, build, and test a Feature or component.</t>
   </si>
   <si>
     <t>The role of the Product Manager is most similar to what other role in SAFe?</t>
   </si>
   <si>
-    <t>Development Manager; Solution Manager; Release Train Engineer; Business Manager</t>
-  </si>
-  <si>
     <t>Solution Manager</t>
   </si>
   <si>
     <t>What is the foundation of Lean?</t>
   </si>
   <si>
-    <t>Innovation; Lean-Agile development; Leadership; Lean-thinking</t>
-  </si>
-  <si>
     <t>Leadership</t>
   </si>
   <si>
     <t>What is a benefit of continuously deploying using a DevOps model?</t>
   </si>
   <si>
-    <t>It alleviates the reliance on the skill sets of Agile Teams.; It ensures that changes deployed to production are always immediately available to end-users.; It lessens the severity and frequency of release failures.; It increases the transaction cost.</t>
-  </si>
-  <si>
     <t>It lessens the severity and frequency of release failures.</t>
   </si>
   <si>
     <t>What are three practices for building large Solutions?</t>
   </si>
   <si>
-    <t>Employ and improve the Continuous Development Pipeline.; Employ multiple Solution Teams.; Build Solution components and capabilities with ARTs.; Build and integrate the Solution with a Solution Train.; Ensure value stream consistency.; Capture and refine system specifications as fixed/variable Solution Intent.</t>
-  </si>
-  <si>
     <t>Build and integrate the Solution with a Solution Train.; Build Solution components and capabilities with ARTs.; Capture and refine system specifications as fixed/variable Solution Intent.</t>
   </si>
   <si>
     <t>What is the ultimate goal of DevOps in SAFe?</t>
   </si>
   <si>
-    <t>To enable Agile Release Trains to deliver value more frequently.; To combine Development and Operations groups into one team.; To clarify program and team roles.; To automate the integration, testing, and deployment of features.</t>
-  </si>
-  <si>
     <t>To enable Agile Release Trains to deliver value more frequently.</t>
   </si>
   <si>
     <t>In which event are the PI Objectives created?</t>
   </si>
   <si>
-    <t>Post PI-Planning; PI Planning; Iteration Planning; PI System Demo</t>
-  </si>
-  <si>
     <t>PI Planning</t>
   </si>
   <si>
     <t>Which statement is most accurate about the Solution Vision?</t>
   </si>
   <si>
-    <t>It summarizes the team PI Objectives for the current Program Increment.; It provides an outline of the Features for the next three Program Increments.; It expresses the strategic intent of the Program.; It drives the allocation of budget for the Agile Release Train.</t>
-  </si>
-  <si>
     <t>It expresses the strategic intent of the Program.</t>
   </si>
   <si>
     <t>What does Solution Intent describe?</t>
   </si>
   <si>
-    <t>The customer or consumer of the solution.; The behavior of the solution.; The platform architecture.; Where the solution operates.</t>
-  </si>
-  <si>
     <t>The behavior of the solution.</t>
   </si>
   <si>
     <t>Which of the following is a key purpose of DevOps?</t>
   </si>
   <si>
-    <t>DevOps joins development and operations to enable continuous delivery.; DevOps focuses on automating the delivery pipeline to reduce transaction cost.; DevOps enables continuous release by building a scalable Continuous Delivery Pipeline.; DevOps focuses on a set of practices applied to large systems.</t>
-  </si>
-  <si>
     <t>DevOps joins development and operations to enable continuous delivery.</t>
   </si>
   <si>
     <t>What is the purpose of dynamic models?</t>
   </si>
   <si>
-    <t>They are used when there are numerous and complex interactions.; They are used when there are a set of parallel interactions related to a scenario.; They are used when there are a specific number of interactions that are less complex.; They are used to sequence a set of interactions related to a scenario.</t>
-  </si>
-  <si>
     <t>They are used when there are numerous and complex interactions.</t>
   </si>
   <si>
     <t>At what level of the SAFe Big Picture do Strategic Themes reside?</t>
   </si>
   <si>
-    <t>Essential Level.; Team Level.; Portfolio Level.; Large Solution Level.</t>
-  </si>
-  <si>
     <t>Portfolio Level</t>
   </si>
   <si>
     <t>Which of the following is responsible for managing the Portfolio Kanban?</t>
   </si>
   <si>
-    <t>Lean Portfolio Management.; Release Train Engineer.; Product Management.; Solution Management.</t>
+    <t>Define the enterprise strategy Establish lean budgets Align strategy and execution Ensure program and portfolio execution</t>
+  </si>
+  <si>
+    <t>Determine the order in which Epics should be executed Drive incremental implementation across the enterprise Define the sequence of steps used to deliver value to the customer Connect the portfolio to the enterprise business strategy</t>
+  </si>
+  <si>
+    <t>Agile delivers every single requested requirement. Waterfall has no fixed schedule. Agile supports test-first development. Waterfall concentrates on code quality.</t>
+  </si>
+  <si>
+    <t>To enable deploying upon demand. To remove the need to respond quickly to product issues. To enable releasing upon demand. To make deploying a business decision.</t>
+  </si>
+  <si>
+    <t>Participatory budgeting Investment horizons Centralized decision-making Lean startup cycle</t>
+  </si>
+  <si>
+    <t>Business-Driven Development Benchmark-Driven Development Behavior-Driven Development Backlog-Driven Development</t>
+  </si>
+  <si>
+    <t>Shortened Architectural Runway Loopbacks System delays Team swarming</t>
+  </si>
+  <si>
+    <t>They are optimized for communication and delivery of value. They can define, build, and test a Feature or component. They deliver value every six weeks. They release customer products to production continuously. They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
+  </si>
+  <si>
+    <t>Development Manager Solution Manager Release Train Engineer Business Manager</t>
+  </si>
+  <si>
+    <t>Innovation Lean-Agile development Leadership Lean-thinking</t>
+  </si>
+  <si>
+    <t>It alleviates the reliance on the skill sets of Agile Teams. It ensures that changes deployed to production are always immediately available to end-users. It lessens the severity and frequency of release failures. It increases the transaction cost.</t>
+  </si>
+  <si>
+    <t>Employ and improve the Continuous Development Pipeline. Employ multiple Solution Teams. Build Solution components and capabilities with ARTs. Build and integrate the Solution with a Solution Train. Ensure value stream consistency. Capture and refine system specifications as fixed/variable Solution Intent.</t>
+  </si>
+  <si>
+    <t>To enable Agile Release Trains to deliver value more frequently. To combine Development and Operations groups into one team. To clarify program and team roles. To automate the integration, testing, and deployment of features.</t>
+  </si>
+  <si>
+    <t>Post PI-Planning PI Planning Iteration Planning PI System Demo</t>
+  </si>
+  <si>
+    <t>It summarizes the team PI Objectives for the current Program Increment. It provides an outline of the Features for the next three Program Increments. It expresses the strategic intent of the Program. It drives the allocation of budget for the Agile Release Train.</t>
+  </si>
+  <si>
+    <t>The customer or consumer of the solution. The behavior of the solution. The platform architecture. Where the solution operates.</t>
+  </si>
+  <si>
+    <t>DevOps joins development and operations to enable continuous delivery. DevOps focuses on automating the delivery pipeline to reduce transaction cost. DevOps enables continuous release by building a scalable Continuous Delivery Pipeline. DevOps focuses on a set of practices applied to large systems.</t>
+  </si>
+  <si>
+    <t>They are used when there are numerous and complex interactions. They are used when there are a set of parallel interactions related to a scenario. They are used when there are a specific number of interactions that are less complex. They are used to sequence a set of interactions related to a scenario.</t>
+  </si>
+  <si>
+    <t>Essential Level. Team Level. Portfolio Level. Large Solution Level.</t>
+  </si>
+  <si>
+    <t>Lean Portfolio Management. Release Train Engineer. Product Management. Solution Management.</t>
   </si>
 </sst>
 </file>
@@ -3928,13 +3928,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4240,8 +4237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B320" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5161,7 +5158,7 @@
       <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>902</v>
       </c>
       <c r="E46">
@@ -10579,10 +10576,10 @@
         <v>911</v>
       </c>
       <c r="C317" t="s">
+        <v>950</v>
+      </c>
+      <c r="D317" t="s">
         <v>912</v>
-      </c>
-      <c r="D317" t="s">
-        <v>913</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -10596,13 +10593,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
+        <v>913</v>
+      </c>
+      <c r="C318" t="s">
+        <v>951</v>
+      </c>
+      <c r="D318" t="s">
         <v>914</v>
-      </c>
-      <c r="C318" t="s">
-        <v>915</v>
-      </c>
-      <c r="D318" t="s">
-        <v>916</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -10616,13 +10613,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C319" t="s">
-        <v>918</v>
+        <v>952</v>
       </c>
       <c r="D319" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -10636,13 +10633,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C320" t="s">
-        <v>921</v>
+        <v>953</v>
       </c>
       <c r="D320" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -10656,13 +10653,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C321" t="s">
-        <v>924</v>
+        <v>954</v>
       </c>
       <c r="D321" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -10676,13 +10673,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C322" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="D322" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -10696,13 +10693,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C323" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
       <c r="D323" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -10716,13 +10713,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="C324" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
       <c r="D324" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -10736,13 +10733,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C325" t="s">
-        <v>936</v>
+        <v>958</v>
       </c>
       <c r="D325" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -10756,13 +10753,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="C326" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="D326" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -10776,13 +10773,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="C327" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="D327" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -10796,13 +10793,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="C328" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="D328" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -10816,13 +10813,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="C329" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
       <c r="D329" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -10836,13 +10833,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="C330" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="D330" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -10856,13 +10853,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="C331" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="D331" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -10876,13 +10873,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="C332" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="D332" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -10896,13 +10893,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="C333" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="D333" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -10916,13 +10913,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="C334" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="D334" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -10936,13 +10933,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
       <c r="C335" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D335" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -10956,7 +10953,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="C336" t="s">
         <v>969</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1E2F2F-578A-45B0-A21F-585B5DAC4C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="970">
   <si>
     <t>Nº</t>
   </si>
@@ -2898,66 +2904,6 @@
 3 Hours</t>
   </si>
   <si>
-    <t>Define the enterprise strategy Establish lean budgets Align strategy and execution Ensure program and portfolio execution</t>
-  </si>
-  <si>
-    <t>Determine the order in which Epics should be executed Drive incremental implementation across the enterprise Define the sequence of steps used to deliver value to the customer Connect the portfolio to the enterprise business strategy</t>
-  </si>
-  <si>
-    <t>Agile delivers every single requested requirement. Waterfall has no fixed schedule. Agile supports test-first development. Waterfall concentrates on code quality.</t>
-  </si>
-  <si>
-    <t>To enable deploying upon demand. To remove the need to respond quickly to product issues. To enable releasing upon demand. To make deploying a business decision.</t>
-  </si>
-  <si>
-    <t>Participatory budgeting Investment horizons Centralized decision-making Lean startup cycle</t>
-  </si>
-  <si>
-    <t>Business-Driven Development Benchmark-Driven Development Behavior-Driven Development Backlog-Driven Development</t>
-  </si>
-  <si>
-    <t>Shortened Architectural Runway Loopbacks System delays Team swarming</t>
-  </si>
-  <si>
-    <t>They are optimized for communication and delivery of value. They can define, build, and test a Feature or component. They deliver value every six weeks. They release customer products to production continuously. They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
-  </si>
-  <si>
-    <t>Development Manager Solution Manager Release Train Engineer Business Manager</t>
-  </si>
-  <si>
-    <t>Innovation Lean-Agile development Leadership Lean-thinking</t>
-  </si>
-  <si>
-    <t>It alleviates the reliance on the skill sets of Agile Teams. It ensures that changes deployed to production are always immediately available to end-users. It lessens the severity and frequency of release failures. It increases the transaction cost.</t>
-  </si>
-  <si>
-    <t>Employ and improve the Continuous Development Pipeline. Employ multiple Solution Teams. Build Solution components and capabilities with ARTs. Build and integrate the Solution with a Solution Train. Ensure value stream consistency. Capture and refine system specifications as fixed/variable Solution Intent.</t>
-  </si>
-  <si>
-    <t>To enable Agile Release Trains to deliver value more frequently. To combine Development and Operations groups into one team. To clarify program and team roles. To automate the integration, testing, and deployment of features.</t>
-  </si>
-  <si>
-    <t>Post PI-Planning PI Planning Iteration Planning PI System Demo</t>
-  </si>
-  <si>
-    <t>It summarizes the team PI Objectives for the current Program Increment. It provides an outline of the Features for the next three Program Increments. It expresses the strategic intent of the Program. It drives the allocation of budget for the Agile Release Train.</t>
-  </si>
-  <si>
-    <t>The customer or consumer of the solution. The behavior of the solution. The platform architecture. Where the solution operates.</t>
-  </si>
-  <si>
-    <t>DevOps joins development and operations to enable continuous delivery. DevOps focuses on automating the delivery pipeline to reduce transaction cost. DevOps enables continuous release by building a scalable Continuous Delivery Pipeline. DevOps focuses on a set of practices applied to large systems.</t>
-  </si>
-  <si>
-    <t>They are used when there are numerous and complex interactions. They are used when there are a set of parallel interactions related to a scenario. They are used when there are a specific number of interactions that are less complex. They are used to sequence a set of interactions related to a scenario.</t>
-  </si>
-  <si>
-    <t>Essential Level. Team Level. Portfolio Level. Large Solution Level.</t>
-  </si>
-  <si>
-    <t>Lean Portfolio Management. Release Train Engineer. Product Management. Solution Management.</t>
-  </si>
-  <si>
     <t>T-Shirt Sizing</t>
   </si>
   <si>
@@ -3862,13 +3808,73 @@
   </si>
   <si>
     <t>Portfolio Level</t>
+  </si>
+  <si>
+    <t>Define the enterprise strategy; Establish lean budgets; Align strategy and execution; Ensure program and portfolio execution</t>
+  </si>
+  <si>
+    <t>Determine the order in which Epics should be executed; Drive incremental implementation across the enterprise; Define the sequence of steps used to deliver value to the customer; Connect the portfolio to the enterprise business strategy</t>
+  </si>
+  <si>
+    <t>Agile delivers every single requested requirement.; Waterfall has no fixed schedule.; Agile supports test-first development.; Waterfall concentrates on code quality.</t>
+  </si>
+  <si>
+    <t>To enable deploying upon demand.; To remove the need to respond quickly to product issues.; To enable releasing upon demand.; To make deploying a business decision.</t>
+  </si>
+  <si>
+    <t>Participatory budgeting; Investment horizons; Centralized decision-making; Lean startup cycle</t>
+  </si>
+  <si>
+    <t>Business-Driven Development; Benchmark-Driven Development; Behavior-Driven Development; Backlog-Driven Development</t>
+  </si>
+  <si>
+    <t>Shortened Architectural Runway; Loopbacks; System delays; Team swarming</t>
+  </si>
+  <si>
+    <t>They are optimized for communication and delivery of value.; They can define, build, and test a Feature or component.; They deliver value every six weeks.; They release customer products to production continuously.; They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
+  </si>
+  <si>
+    <t>Development Manager; Solution Manager; Release Train Engineer; Business Manager</t>
+  </si>
+  <si>
+    <t>Innovation; Lean-Agile development; Leadership; Lean-thinking</t>
+  </si>
+  <si>
+    <t>It alleviates the reliance on the skill sets of Agile Teams.; It ensures that changes deployed to production are always immediately available to end-users.; It lessens the severity and frequency of release failures.; It increases the transaction cost.</t>
+  </si>
+  <si>
+    <t>Employ and improve the Continuous Development Pipeline.; Employ multiple Solution Teams.; Build Solution components and capabilities with ARTs.; Build and integrate the Solution with a Solution Train.; Ensure value stream consistency.; Capture and refine system specifications as fixed/variable Solution Intent.</t>
+  </si>
+  <si>
+    <t>To enable Agile Release Trains to deliver value more frequently.; To combine Development and Operations groups into one team.; To clarify program and team roles.; To automate the integration, testing, and deployment of features.</t>
+  </si>
+  <si>
+    <t>Post PI-Planning; PI Planning; Iteration Planning; PI System Demo</t>
+  </si>
+  <si>
+    <t>It summarizes the team PI Objectives for the current Program Increment.; It provides an outline of the Features for the next three Program Increments.; It expresses the strategic intent of the Program.; It drives the allocation of budget for the Agile Release Train.</t>
+  </si>
+  <si>
+    <t>The customer or consumer of the solution.; The behavior of the solution.; The platform architecture.; Where the solution operates.</t>
+  </si>
+  <si>
+    <t>DevOps joins development and operations to enable continuous delivery.; DevOps focuses on automating the delivery pipeline to reduce transaction cost.; DevOps enables continuous release by building a scalable Continuous Delivery Pipeline.; DevOps focuses on a set of practices applied to large systems.</t>
+  </si>
+  <si>
+    <t>They are used when there are numerous and complex interactions.; They are used when there are a set of parallel interactions related to a scenario.; They are used when there are a specific number of interactions that are less complex.; They are used to sequence a set of interactions related to a scenario.</t>
+  </si>
+  <si>
+    <t>Essential Level.; Team Level.; Portfolio Level.; Large Solution Level.</t>
+  </si>
+  <si>
+    <t>Lean Portfolio Management.; Release Train Engineer.; Product Management.; Solution Management.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3931,13 +3937,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3975,7 +3989,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4009,6 +4023,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4043,9 +4058,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4218,14 +4234,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F356"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="160.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4256,7 +4278,7 @@
         <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4265,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4276,7 +4298,7 @@
         <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4285,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4296,7 +4318,7 @@
         <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4305,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4316,7 +4338,7 @@
         <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4325,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4336,7 +4358,7 @@
         <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4345,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4356,7 +4378,7 @@
         <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4365,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4376,7 +4398,7 @@
         <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4385,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4396,7 +4418,7 @@
         <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4405,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4416,7 +4438,7 @@
         <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4425,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4436,7 +4458,7 @@
         <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4445,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4456,7 +4478,7 @@
         <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4465,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4476,7 +4498,7 @@
         <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4485,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4496,7 +4518,7 @@
         <v>348</v>
       </c>
       <c r="D14" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4505,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4516,7 +4538,7 @@
         <v>349</v>
       </c>
       <c r="D15" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4525,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4536,7 +4558,7 @@
         <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4545,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4556,7 +4578,7 @@
         <v>351</v>
       </c>
       <c r="D17" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4565,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4576,7 +4598,7 @@
         <v>352</v>
       </c>
       <c r="D18" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4585,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4596,7 +4618,7 @@
         <v>353</v>
       </c>
       <c r="D19" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4605,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4616,7 +4638,7 @@
         <v>354</v>
       </c>
       <c r="D20" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4625,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4636,7 +4658,7 @@
         <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4645,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4656,7 +4678,7 @@
         <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4665,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4676,7 +4698,7 @@
         <v>357</v>
       </c>
       <c r="D23" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4685,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4696,7 +4718,7 @@
         <v>358</v>
       </c>
       <c r="D24" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4705,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4716,7 +4738,7 @@
         <v>359</v>
       </c>
       <c r="D25" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4725,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4736,7 +4758,7 @@
         <v>360</v>
       </c>
       <c r="D26" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4745,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4756,7 +4778,7 @@
         <v>361</v>
       </c>
       <c r="D27" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4765,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4776,7 +4798,7 @@
         <v>362</v>
       </c>
       <c r="D28" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4785,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4796,7 +4818,7 @@
         <v>363</v>
       </c>
       <c r="D29" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4805,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4816,7 +4838,7 @@
         <v>364</v>
       </c>
       <c r="D30" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4825,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4836,7 +4858,7 @@
         <v>365</v>
       </c>
       <c r="D31" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4845,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4856,7 +4878,7 @@
         <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4865,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4876,7 +4898,7 @@
         <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4885,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4896,7 +4918,7 @@
         <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4905,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4916,7 +4938,7 @@
         <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4925,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4936,7 +4958,7 @@
         <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4945,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4956,7 +4978,7 @@
         <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4965,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4976,7 +4998,7 @@
         <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4985,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4996,7 +5018,7 @@
         <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5005,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5016,7 +5038,7 @@
         <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5025,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5036,7 +5058,7 @@
         <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5045,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5056,7 +5078,7 @@
         <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5065,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5076,7 +5098,7 @@
         <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5085,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5096,7 +5118,7 @@
         <v>378</v>
       </c>
       <c r="D44" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5105,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5116,7 +5138,7 @@
         <v>379</v>
       </c>
       <c r="D45" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5125,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5136,7 +5158,7 @@
         <v>380</v>
       </c>
       <c r="D46" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5145,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5156,7 +5178,7 @@
         <v>381</v>
       </c>
       <c r="D47" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5165,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5176,7 +5198,7 @@
         <v>382</v>
       </c>
       <c r="D48" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5185,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5196,7 +5218,7 @@
         <v>383</v>
       </c>
       <c r="D49" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5205,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5216,7 +5238,7 @@
         <v>384</v>
       </c>
       <c r="D50" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5225,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5236,7 +5258,7 @@
         <v>385</v>
       </c>
       <c r="D51" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5245,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5256,7 +5278,7 @@
         <v>386</v>
       </c>
       <c r="D52" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5265,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5276,7 +5298,7 @@
         <v>387</v>
       </c>
       <c r="D53" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5285,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5296,7 +5318,7 @@
         <v>388</v>
       </c>
       <c r="D54" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5305,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5316,7 +5338,7 @@
         <v>389</v>
       </c>
       <c r="D55" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5325,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5336,7 +5358,7 @@
         <v>390</v>
       </c>
       <c r="D56" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5345,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5356,7 +5378,7 @@
         <v>391</v>
       </c>
       <c r="D57" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5365,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5376,7 +5398,7 @@
         <v>392</v>
       </c>
       <c r="D58" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -5385,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5396,7 +5418,7 @@
         <v>393</v>
       </c>
       <c r="D59" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5405,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5416,7 +5438,7 @@
         <v>394</v>
       </c>
       <c r="D60" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5425,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5436,7 +5458,7 @@
         <v>395</v>
       </c>
       <c r="D61" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5445,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5456,7 +5478,7 @@
         <v>396</v>
       </c>
       <c r="D62" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5465,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5476,7 +5498,7 @@
         <v>397</v>
       </c>
       <c r="D63" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5485,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5496,7 +5518,7 @@
         <v>398</v>
       </c>
       <c r="D64" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5505,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5516,7 +5538,7 @@
         <v>399</v>
       </c>
       <c r="D65" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5525,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5536,7 +5558,7 @@
         <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5545,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5556,7 +5578,7 @@
         <v>401</v>
       </c>
       <c r="D67" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5565,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5576,7 +5598,7 @@
         <v>402</v>
       </c>
       <c r="D68" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5585,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5596,7 +5618,7 @@
         <v>403</v>
       </c>
       <c r="D69" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5605,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5616,7 +5638,7 @@
         <v>404</v>
       </c>
       <c r="D70" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5625,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5636,7 +5658,7 @@
         <v>405</v>
       </c>
       <c r="D71" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5645,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5656,7 +5678,7 @@
         <v>406</v>
       </c>
       <c r="D72" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5665,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5676,7 +5698,7 @@
         <v>407</v>
       </c>
       <c r="D73" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5685,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5696,7 +5718,7 @@
         <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5705,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5716,7 +5738,7 @@
         <v>409</v>
       </c>
       <c r="D75" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5725,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5736,7 +5758,7 @@
         <v>410</v>
       </c>
       <c r="D76" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5745,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5756,7 +5778,7 @@
         <v>411</v>
       </c>
       <c r="D77" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5765,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5776,7 +5798,7 @@
         <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5785,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5796,7 +5818,7 @@
         <v>413</v>
       </c>
       <c r="D79" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5805,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5816,7 +5838,7 @@
         <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5825,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5836,7 +5858,7 @@
         <v>415</v>
       </c>
       <c r="D81" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5845,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5856,7 +5878,7 @@
         <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5865,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5876,7 +5898,7 @@
         <v>417</v>
       </c>
       <c r="D83" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5885,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5896,7 +5918,7 @@
         <v>418</v>
       </c>
       <c r="D84" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5905,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5916,7 +5938,7 @@
         <v>419</v>
       </c>
       <c r="D85" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5925,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5936,7 +5958,7 @@
         <v>420</v>
       </c>
       <c r="D86" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5945,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5956,7 +5978,7 @@
         <v>421</v>
       </c>
       <c r="D87" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5965,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5976,7 +5998,7 @@
         <v>422</v>
       </c>
       <c r="D88" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5985,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5996,7 +6018,7 @@
         <v>423</v>
       </c>
       <c r="D89" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -6005,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6016,7 +6038,7 @@
         <v>424</v>
       </c>
       <c r="D90" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6025,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6036,7 +6058,7 @@
         <v>425</v>
       </c>
       <c r="D91" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6045,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6056,7 +6078,7 @@
         <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6065,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6076,7 +6098,7 @@
         <v>427</v>
       </c>
       <c r="D93" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6085,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6096,7 +6118,7 @@
         <v>428</v>
       </c>
       <c r="D94" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6105,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6116,7 +6138,7 @@
         <v>429</v>
       </c>
       <c r="D95" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6125,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6136,7 +6158,7 @@
         <v>430</v>
       </c>
       <c r="D96" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6145,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6156,7 +6178,7 @@
         <v>431</v>
       </c>
       <c r="D97" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6165,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6176,7 +6198,7 @@
         <v>432</v>
       </c>
       <c r="D98" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6185,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6196,7 +6218,7 @@
         <v>433</v>
       </c>
       <c r="D99" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6205,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6216,7 +6238,7 @@
         <v>434</v>
       </c>
       <c r="D100" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6225,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6236,7 +6258,7 @@
         <v>435</v>
       </c>
       <c r="D101" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6245,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6256,7 +6278,7 @@
         <v>436</v>
       </c>
       <c r="D102" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6265,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6276,7 +6298,7 @@
         <v>437</v>
       </c>
       <c r="D103" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6285,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6296,7 +6318,7 @@
         <v>438</v>
       </c>
       <c r="D104" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6305,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6316,7 +6338,7 @@
         <v>439</v>
       </c>
       <c r="D105" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6325,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6336,7 +6358,7 @@
         <v>440</v>
       </c>
       <c r="D106" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6345,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6356,7 +6378,7 @@
         <v>441</v>
       </c>
       <c r="D107" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6365,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6376,7 +6398,7 @@
         <v>442</v>
       </c>
       <c r="D108" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6385,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6396,7 +6418,7 @@
         <v>443</v>
       </c>
       <c r="D109" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6405,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6416,7 +6438,7 @@
         <v>444</v>
       </c>
       <c r="D110" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -6425,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6436,7 +6458,7 @@
         <v>445</v>
       </c>
       <c r="D111" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -6445,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6456,7 +6478,7 @@
         <v>446</v>
       </c>
       <c r="D112" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -6465,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6476,7 +6498,7 @@
         <v>447</v>
       </c>
       <c r="D113" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6485,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6496,7 +6518,7 @@
         <v>448</v>
       </c>
       <c r="D114" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -6505,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6516,7 +6538,7 @@
         <v>449</v>
       </c>
       <c r="D115" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6525,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6536,7 +6558,7 @@
         <v>450</v>
       </c>
       <c r="D116" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6545,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6556,7 +6578,7 @@
         <v>451</v>
       </c>
       <c r="D117" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6565,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6576,7 +6598,7 @@
         <v>452</v>
       </c>
       <c r="D118" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -6585,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6596,7 +6618,7 @@
         <v>453</v>
       </c>
       <c r="D119" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6605,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6616,7 +6638,7 @@
         <v>454</v>
       </c>
       <c r="D120" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6625,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6636,7 +6658,7 @@
         <v>455</v>
       </c>
       <c r="D121" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6645,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6656,7 +6678,7 @@
         <v>456</v>
       </c>
       <c r="D122" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -6665,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6676,7 +6698,7 @@
         <v>457</v>
       </c>
       <c r="D123" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6685,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6696,7 +6718,7 @@
         <v>458</v>
       </c>
       <c r="D124" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -6705,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6716,7 +6738,7 @@
         <v>459</v>
       </c>
       <c r="D125" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -6725,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6736,7 +6758,7 @@
         <v>460</v>
       </c>
       <c r="D126" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -6745,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6756,7 +6778,7 @@
         <v>461</v>
       </c>
       <c r="D127" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -6765,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6776,7 +6798,7 @@
         <v>462</v>
       </c>
       <c r="D128" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6785,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6796,7 +6818,7 @@
         <v>463</v>
       </c>
       <c r="D129" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6805,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6816,7 +6838,7 @@
         <v>464</v>
       </c>
       <c r="D130" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6825,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6836,7 +6858,7 @@
         <v>465</v>
       </c>
       <c r="D131" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6845,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6856,7 +6878,7 @@
         <v>466</v>
       </c>
       <c r="D132" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6865,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6876,7 +6898,7 @@
         <v>467</v>
       </c>
       <c r="D133" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -6885,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6896,7 +6918,7 @@
         <v>468</v>
       </c>
       <c r="D134" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6905,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6916,7 +6938,7 @@
         <v>469</v>
       </c>
       <c r="D135" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -6925,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6936,7 +6958,7 @@
         <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6945,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6956,7 +6978,7 @@
         <v>471</v>
       </c>
       <c r="D137" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6965,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6976,7 +6998,7 @@
         <v>472</v>
       </c>
       <c r="D138" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -6985,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6996,7 +7018,7 @@
         <v>473</v>
       </c>
       <c r="D139" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7005,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7016,7 +7038,7 @@
         <v>474</v>
       </c>
       <c r="D140" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7025,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7036,7 +7058,7 @@
         <v>475</v>
       </c>
       <c r="D141" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7045,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7056,7 +7078,7 @@
         <v>476</v>
       </c>
       <c r="D142" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -7065,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7076,7 +7098,7 @@
         <v>477</v>
       </c>
       <c r="D143" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -7085,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7096,7 +7118,7 @@
         <v>478</v>
       </c>
       <c r="D144" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -7105,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7116,7 +7138,7 @@
         <v>479</v>
       </c>
       <c r="D145" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7125,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7136,7 +7158,7 @@
         <v>480</v>
       </c>
       <c r="D146" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7145,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7156,7 +7178,7 @@
         <v>481</v>
       </c>
       <c r="D147" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7165,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7176,7 +7198,7 @@
         <v>482</v>
       </c>
       <c r="D148" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7185,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7196,7 +7218,7 @@
         <v>483</v>
       </c>
       <c r="D149" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7205,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7216,7 +7238,7 @@
         <v>484</v>
       </c>
       <c r="D150" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7225,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7236,7 +7258,7 @@
         <v>485</v>
       </c>
       <c r="D151" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7245,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7256,7 +7278,7 @@
         <v>486</v>
       </c>
       <c r="D152" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7265,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7276,7 +7298,7 @@
         <v>487</v>
       </c>
       <c r="D153" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -7285,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7296,7 +7318,7 @@
         <v>488</v>
       </c>
       <c r="D154" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7305,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7316,7 +7338,7 @@
         <v>489</v>
       </c>
       <c r="D155" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7325,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7336,7 +7358,7 @@
         <v>490</v>
       </c>
       <c r="D156" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7345,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7356,7 +7378,7 @@
         <v>491</v>
       </c>
       <c r="D157" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7365,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7376,7 +7398,7 @@
         <v>492</v>
       </c>
       <c r="D158" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7385,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7396,7 +7418,7 @@
         <v>493</v>
       </c>
       <c r="D159" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7405,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7416,7 +7438,7 @@
         <v>494</v>
       </c>
       <c r="D160" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7425,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7436,7 +7458,7 @@
         <v>495</v>
       </c>
       <c r="D161" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -7445,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7456,7 +7478,7 @@
         <v>496</v>
       </c>
       <c r="D162" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7465,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7476,7 +7498,7 @@
         <v>497</v>
       </c>
       <c r="D163" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -7485,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7496,7 +7518,7 @@
         <v>498</v>
       </c>
       <c r="D164" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -7505,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7516,7 +7538,7 @@
         <v>499</v>
       </c>
       <c r="D165" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7525,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7536,7 +7558,7 @@
         <v>500</v>
       </c>
       <c r="D166" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7545,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7556,7 +7578,7 @@
         <v>501</v>
       </c>
       <c r="D167" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7565,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7576,7 +7598,7 @@
         <v>502</v>
       </c>
       <c r="D168" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7585,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7596,7 +7618,7 @@
         <v>503</v>
       </c>
       <c r="D169" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7605,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7616,7 +7638,7 @@
         <v>504</v>
       </c>
       <c r="D170" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7625,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7636,7 +7658,7 @@
         <v>505</v>
       </c>
       <c r="D171" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7645,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7656,7 +7678,7 @@
         <v>506</v>
       </c>
       <c r="D172" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7665,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7676,7 +7698,7 @@
         <v>507</v>
       </c>
       <c r="D173" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7685,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7696,7 +7718,7 @@
         <v>508</v>
       </c>
       <c r="D174" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7705,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7716,7 +7738,7 @@
         <v>509</v>
       </c>
       <c r="D175" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -7725,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7736,7 +7758,7 @@
         <v>510</v>
       </c>
       <c r="D176" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -7745,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7756,7 +7778,7 @@
         <v>511</v>
       </c>
       <c r="D177" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7765,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7776,7 +7798,7 @@
         <v>512</v>
       </c>
       <c r="D178" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7785,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7796,7 +7818,7 @@
         <v>513</v>
       </c>
       <c r="D179" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -7805,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7816,7 +7838,7 @@
         <v>514</v>
       </c>
       <c r="D180" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7825,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7836,7 +7858,7 @@
         <v>515</v>
       </c>
       <c r="D181" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -7845,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7856,7 +7878,7 @@
         <v>516</v>
       </c>
       <c r="D182" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7865,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7876,7 +7898,7 @@
         <v>517</v>
       </c>
       <c r="D183" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -7885,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7896,7 +7918,7 @@
         <v>518</v>
       </c>
       <c r="D184" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7905,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7916,7 +7938,7 @@
         <v>519</v>
       </c>
       <c r="D185" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -7925,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7936,7 +7958,7 @@
         <v>520</v>
       </c>
       <c r="D186" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7945,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7956,7 +7978,7 @@
         <v>521</v>
       </c>
       <c r="D187" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7965,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7976,7 +7998,7 @@
         <v>522</v>
       </c>
       <c r="D188" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -7985,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7996,7 +8018,7 @@
         <v>523</v>
       </c>
       <c r="D189" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -8005,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8016,7 +8038,7 @@
         <v>524</v>
       </c>
       <c r="D190" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -8025,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8036,7 +8058,7 @@
         <v>525</v>
       </c>
       <c r="D191" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -8045,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8056,7 +8078,7 @@
         <v>526</v>
       </c>
       <c r="D192" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -8065,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8076,7 +8098,7 @@
         <v>527</v>
       </c>
       <c r="D193" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -8085,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8096,7 +8118,7 @@
         <v>528</v>
       </c>
       <c r="D194" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -8105,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8116,7 +8138,7 @@
         <v>529</v>
       </c>
       <c r="D195" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -8125,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8136,7 +8158,7 @@
         <v>530</v>
       </c>
       <c r="D196" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8145,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8156,7 +8178,7 @@
         <v>531</v>
       </c>
       <c r="D197" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8165,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8176,7 +8198,7 @@
         <v>532</v>
       </c>
       <c r="D198" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8185,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8196,7 +8218,7 @@
         <v>533</v>
       </c>
       <c r="D199" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8205,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8216,7 +8238,7 @@
         <v>534</v>
       </c>
       <c r="D200" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8225,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8236,7 +8258,7 @@
         <v>535</v>
       </c>
       <c r="D201" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -8245,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8256,7 +8278,7 @@
         <v>536</v>
       </c>
       <c r="D202" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8265,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8276,7 +8298,7 @@
         <v>537</v>
       </c>
       <c r="D203" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8285,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8296,7 +8318,7 @@
         <v>538</v>
       </c>
       <c r="D204" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8305,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8316,7 +8338,7 @@
         <v>539</v>
       </c>
       <c r="D205" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -8325,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8336,7 +8358,7 @@
         <v>540</v>
       </c>
       <c r="D206" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -8345,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8356,7 +8378,7 @@
         <v>541</v>
       </c>
       <c r="D207" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -8365,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8376,7 +8398,7 @@
         <v>542</v>
       </c>
       <c r="D208" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -8385,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8396,7 +8418,7 @@
         <v>543</v>
       </c>
       <c r="D209" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -8405,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8416,7 +8438,7 @@
         <v>544</v>
       </c>
       <c r="D210" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -8425,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8436,7 +8458,7 @@
         <v>545</v>
       </c>
       <c r="D211" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8445,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8456,7 +8478,7 @@
         <v>546</v>
       </c>
       <c r="D212" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8465,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8476,7 +8498,7 @@
         <v>547</v>
       </c>
       <c r="D213" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8485,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8496,7 +8518,7 @@
         <v>348</v>
       </c>
       <c r="D214" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -8505,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8516,7 +8538,7 @@
         <v>548</v>
       </c>
       <c r="D215" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8525,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8536,7 +8558,7 @@
         <v>549</v>
       </c>
       <c r="D216" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8545,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8556,7 +8578,7 @@
         <v>550</v>
       </c>
       <c r="D217" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8565,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8576,7 +8598,7 @@
         <v>551</v>
       </c>
       <c r="D218" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8585,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8596,7 +8618,7 @@
         <v>552</v>
       </c>
       <c r="D219" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -8605,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8616,7 +8638,7 @@
         <v>553</v>
       </c>
       <c r="D220" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8625,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8636,7 +8658,7 @@
         <v>554</v>
       </c>
       <c r="D221" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8645,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8656,7 +8678,7 @@
         <v>555</v>
       </c>
       <c r="D222" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -8665,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8676,7 +8698,7 @@
         <v>556</v>
       </c>
       <c r="D223" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8685,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8696,7 +8718,7 @@
         <v>400</v>
       </c>
       <c r="D224" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8705,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8716,7 +8738,7 @@
         <v>557</v>
       </c>
       <c r="D225" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -8725,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8736,7 +8758,7 @@
         <v>558</v>
       </c>
       <c r="D226" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -8745,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8756,7 +8778,7 @@
         <v>559</v>
       </c>
       <c r="D227" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8765,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -8776,7 +8798,7 @@
         <v>560</v>
       </c>
       <c r="D228" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8785,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8796,7 +8818,7 @@
         <v>561</v>
       </c>
       <c r="D229" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -8805,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8816,7 +8838,7 @@
         <v>562</v>
       </c>
       <c r="D230" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -8825,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8836,7 +8858,7 @@
         <v>563</v>
       </c>
       <c r="D231" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -8845,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8856,7 +8878,7 @@
         <v>564</v>
       </c>
       <c r="D232" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -8865,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8876,7 +8898,7 @@
         <v>565</v>
       </c>
       <c r="D233" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -8885,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8896,7 +8918,7 @@
         <v>454</v>
       </c>
       <c r="D234" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -8905,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8916,7 +8938,7 @@
         <v>566</v>
       </c>
       <c r="D235" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -8925,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8936,7 +8958,7 @@
         <v>567</v>
       </c>
       <c r="D236" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -8945,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8956,7 +8978,7 @@
         <v>568</v>
       </c>
       <c r="D237" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -8965,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8976,7 +8998,7 @@
         <v>569</v>
       </c>
       <c r="D238" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -8985,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8996,7 +9018,7 @@
         <v>570</v>
       </c>
       <c r="D239" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -9005,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9016,7 +9038,7 @@
         <v>571</v>
       </c>
       <c r="D240" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -9025,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9036,7 +9058,7 @@
         <v>572</v>
       </c>
       <c r="D241" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -9045,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9056,7 +9078,7 @@
         <v>573</v>
       </c>
       <c r="D242" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -9065,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9076,7 +9098,7 @@
         <v>574</v>
       </c>
       <c r="D243" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -9085,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9096,7 +9118,7 @@
         <v>575</v>
       </c>
       <c r="D244" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -9105,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9116,7 +9138,7 @@
         <v>576</v>
       </c>
       <c r="D245" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -9125,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9136,7 +9158,7 @@
         <v>577</v>
       </c>
       <c r="D246" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -9145,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9156,7 +9178,7 @@
         <v>578</v>
       </c>
       <c r="D247" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9165,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9176,7 +9198,7 @@
         <v>579</v>
       </c>
       <c r="D248" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9185,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9196,7 +9218,7 @@
         <v>580</v>
       </c>
       <c r="D249" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9205,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9216,7 +9238,7 @@
         <v>581</v>
       </c>
       <c r="D250" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9225,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9236,7 +9258,7 @@
         <v>582</v>
       </c>
       <c r="D251" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9245,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9256,7 +9278,7 @@
         <v>583</v>
       </c>
       <c r="D252" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9265,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9276,7 +9298,7 @@
         <v>584</v>
       </c>
       <c r="D253" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9285,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9296,7 +9318,7 @@
         <v>585</v>
       </c>
       <c r="D254" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9305,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9316,7 +9338,7 @@
         <v>586</v>
       </c>
       <c r="D255" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9325,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9336,7 +9358,7 @@
         <v>587</v>
       </c>
       <c r="D256" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9345,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9356,7 +9378,7 @@
         <v>588</v>
       </c>
       <c r="D257" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9365,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9376,7 +9398,7 @@
         <v>589</v>
       </c>
       <c r="D258" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9385,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -9396,7 +9418,7 @@
         <v>590</v>
       </c>
       <c r="D259" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9405,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -9416,7 +9438,7 @@
         <v>591</v>
       </c>
       <c r="D260" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9425,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -9436,7 +9458,7 @@
         <v>592</v>
       </c>
       <c r="D261" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9445,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -9456,7 +9478,7 @@
         <v>593</v>
       </c>
       <c r="D262" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -9465,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -9476,7 +9498,7 @@
         <v>594</v>
       </c>
       <c r="D263" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9485,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -9496,7 +9518,7 @@
         <v>595</v>
       </c>
       <c r="D264" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9505,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -9516,7 +9538,7 @@
         <v>596</v>
       </c>
       <c r="D265" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9525,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -9536,7 +9558,7 @@
         <v>597</v>
       </c>
       <c r="D266" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9545,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -9556,7 +9578,7 @@
         <v>598</v>
       </c>
       <c r="D267" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9565,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -9576,7 +9598,7 @@
         <v>599</v>
       </c>
       <c r="D268" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9585,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -9596,7 +9618,7 @@
         <v>600</v>
       </c>
       <c r="D269" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -9605,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -9616,7 +9638,7 @@
         <v>601</v>
       </c>
       <c r="D270" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9625,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -9636,7 +9658,7 @@
         <v>602</v>
       </c>
       <c r="D271" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9645,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -9656,7 +9678,7 @@
         <v>603</v>
       </c>
       <c r="D272" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9665,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -9676,7 +9698,7 @@
         <v>604</v>
       </c>
       <c r="D273" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9685,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9696,7 +9718,7 @@
         <v>605</v>
       </c>
       <c r="D274" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9705,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9716,7 +9738,7 @@
         <v>606</v>
       </c>
       <c r="D275" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -9725,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -9736,7 +9758,7 @@
         <v>607</v>
       </c>
       <c r="D276" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -9745,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -9756,7 +9778,7 @@
         <v>608</v>
       </c>
       <c r="D277" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -9765,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -9776,7 +9798,7 @@
         <v>609</v>
       </c>
       <c r="D278" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9785,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9796,7 +9818,7 @@
         <v>610</v>
       </c>
       <c r="D279" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -9805,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -9816,7 +9838,7 @@
         <v>611</v>
       </c>
       <c r="D280" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -9825,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -9836,7 +9858,7 @@
         <v>612</v>
       </c>
       <c r="D281" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -9845,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9856,7 +9878,7 @@
         <v>613</v>
       </c>
       <c r="D282" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9865,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9876,7 +9898,7 @@
         <v>614</v>
       </c>
       <c r="D283" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -9885,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -9896,7 +9918,7 @@
         <v>615</v>
       </c>
       <c r="D284" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9905,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -9916,7 +9938,7 @@
         <v>616</v>
       </c>
       <c r="D285" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9925,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -9936,7 +9958,7 @@
         <v>617</v>
       </c>
       <c r="D286" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -9945,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9956,7 +9978,7 @@
         <v>618</v>
       </c>
       <c r="D287" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -9965,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -9976,7 +9998,7 @@
         <v>619</v>
       </c>
       <c r="D288" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -9985,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9996,7 +10018,7 @@
         <v>620</v>
       </c>
       <c r="D289" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -10005,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -10016,7 +10038,7 @@
         <v>621</v>
       </c>
       <c r="D290" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -10025,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -10036,7 +10058,7 @@
         <v>622</v>
       </c>
       <c r="D291" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -10045,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -10056,7 +10078,7 @@
         <v>623</v>
       </c>
       <c r="D292" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -10065,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10076,7 +10098,7 @@
         <v>624</v>
       </c>
       <c r="D293" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -10085,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10096,7 +10118,7 @@
         <v>625</v>
       </c>
       <c r="D294" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -10105,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10116,7 +10138,7 @@
         <v>626</v>
       </c>
       <c r="D295" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -10125,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10136,7 +10158,7 @@
         <v>627</v>
       </c>
       <c r="D296" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -10145,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10156,7 +10178,7 @@
         <v>628</v>
       </c>
       <c r="D297" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10165,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10176,7 +10198,7 @@
         <v>629</v>
       </c>
       <c r="D298" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10185,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10196,7 +10218,7 @@
         <v>630</v>
       </c>
       <c r="D299" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -10205,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10216,7 +10238,7 @@
         <v>631</v>
       </c>
       <c r="D300" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10225,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -10236,7 +10258,7 @@
         <v>632</v>
       </c>
       <c r="D301" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10245,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -10256,7 +10278,7 @@
         <v>633</v>
       </c>
       <c r="D302" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10265,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10276,7 +10298,7 @@
         <v>634</v>
       </c>
       <c r="D303" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10285,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10296,7 +10318,7 @@
         <v>635</v>
       </c>
       <c r="D304" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10305,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10316,7 +10338,7 @@
         <v>636</v>
       </c>
       <c r="D305" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10325,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -10336,7 +10358,7 @@
         <v>637</v>
       </c>
       <c r="D306" t="s">
-        <v>943</v>
+        <v>923</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10345,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -10356,7 +10378,7 @@
         <v>638</v>
       </c>
       <c r="D307" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -10365,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10376,7 +10398,7 @@
         <v>639</v>
       </c>
       <c r="D308" t="s">
-        <v>944</v>
+        <v>924</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10385,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -10396,7 +10418,7 @@
         <v>640</v>
       </c>
       <c r="D309" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10405,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10416,7 +10438,7 @@
         <v>641</v>
       </c>
       <c r="D310" t="s">
-        <v>946</v>
+        <v>926</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10425,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -10436,7 +10458,7 @@
         <v>642</v>
       </c>
       <c r="D311" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10445,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10456,7 +10478,7 @@
         <v>643</v>
       </c>
       <c r="D312" t="s">
-        <v>948</v>
+        <v>928</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10465,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10476,7 +10498,7 @@
         <v>644</v>
       </c>
       <c r="D313" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -10485,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10496,7 +10518,7 @@
         <v>645</v>
       </c>
       <c r="D314" t="s">
-        <v>949</v>
+        <v>929</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10505,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10516,7 +10538,7 @@
         <v>646</v>
       </c>
       <c r="D315" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10525,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -10536,7 +10558,7 @@
         <v>647</v>
       </c>
       <c r="D316" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -10545,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10553,10 +10575,10 @@
         <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>648</v>
+        <v>950</v>
       </c>
       <c r="D317" t="s">
-        <v>951</v>
+        <v>931</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -10565,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10573,10 +10595,10 @@
         <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>649</v>
+        <v>951</v>
       </c>
       <c r="D318" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -10585,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10593,10 +10615,10 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>650</v>
+        <v>952</v>
       </c>
       <c r="D319" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -10605,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10613,10 +10635,10 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>651</v>
+        <v>953</v>
       </c>
       <c r="D320" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -10625,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -10633,10 +10655,10 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>652</v>
+        <v>954</v>
       </c>
       <c r="D321" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -10645,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10653,10 +10675,10 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>653</v>
+        <v>955</v>
       </c>
       <c r="D322" t="s">
-        <v>956</v>
+        <v>936</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -10665,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10673,10 +10695,10 @@
         <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>654</v>
+        <v>956</v>
       </c>
       <c r="D323" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -10685,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -10693,10 +10715,10 @@
         <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>655</v>
+        <v>957</v>
       </c>
       <c r="D324" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -10705,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -10713,10 +10735,10 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>656</v>
+        <v>958</v>
       </c>
       <c r="D325" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -10725,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -10733,10 +10755,10 @@
         <v>325</v>
       </c>
       <c r="C326" t="s">
-        <v>657</v>
+        <v>959</v>
       </c>
       <c r="D326" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -10745,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -10753,10 +10775,10 @@
         <v>326</v>
       </c>
       <c r="C327" t="s">
-        <v>658</v>
+        <v>960</v>
       </c>
       <c r="D327" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -10765,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -10773,10 +10795,10 @@
         <v>327</v>
       </c>
       <c r="C328" t="s">
-        <v>659</v>
+        <v>961</v>
       </c>
       <c r="D328" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -10785,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -10793,10 +10815,10 @@
         <v>328</v>
       </c>
       <c r="C329" t="s">
-        <v>660</v>
+        <v>962</v>
       </c>
       <c r="D329" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -10805,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -10813,10 +10835,10 @@
         <v>329</v>
       </c>
       <c r="C330" t="s">
-        <v>661</v>
+        <v>963</v>
       </c>
       <c r="D330" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -10825,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -10833,10 +10855,10 @@
         <v>330</v>
       </c>
       <c r="C331" t="s">
-        <v>662</v>
+        <v>964</v>
       </c>
       <c r="D331" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -10845,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -10853,10 +10875,10 @@
         <v>331</v>
       </c>
       <c r="C332" t="s">
-        <v>663</v>
+        <v>965</v>
       </c>
       <c r="D332" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -10865,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -10873,10 +10895,10 @@
         <v>332</v>
       </c>
       <c r="C333" t="s">
-        <v>664</v>
+        <v>966</v>
       </c>
       <c r="D333" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -10885,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -10893,10 +10915,10 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>665</v>
+        <v>967</v>
       </c>
       <c r="D334" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -10905,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -10913,10 +10935,10 @@
         <v>334</v>
       </c>
       <c r="C335" t="s">
-        <v>666</v>
+        <v>968</v>
       </c>
       <c r="D335" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -10925,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -10933,299 +10955,28 @@
         <v>335</v>
       </c>
       <c r="C336" t="s">
-        <v>667</v>
+        <v>969</v>
       </c>
       <c r="D336" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="E336">
         <v>0</v>
       </c>
       <c r="F336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="A337">
-        <v>316</v>
-      </c>
-      <c r="B337" t="s">
-        <v>316</v>
-      </c>
-      <c r="E337">
-        <v>0</v>
-      </c>
-      <c r="F337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="A338">
-        <v>317</v>
-      </c>
-      <c r="B338" t="s">
-        <v>317</v>
-      </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
-      <c r="F338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339">
-        <v>318</v>
-      </c>
-      <c r="B339" t="s">
-        <v>318</v>
-      </c>
-      <c r="E339">
-        <v>0</v>
-      </c>
-      <c r="F339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="A340">
-        <v>319</v>
-      </c>
-      <c r="B340" t="s">
-        <v>319</v>
-      </c>
-      <c r="E340">
-        <v>0</v>
-      </c>
-      <c r="F340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341">
-        <v>320</v>
-      </c>
-      <c r="B341" t="s">
-        <v>320</v>
-      </c>
-      <c r="E341">
-        <v>0</v>
-      </c>
-      <c r="F341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="A342">
-        <v>321</v>
-      </c>
-      <c r="B342" t="s">
-        <v>321</v>
-      </c>
-      <c r="E342">
-        <v>0</v>
-      </c>
-      <c r="F342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343">
-        <v>322</v>
-      </c>
-      <c r="B343" t="s">
-        <v>322</v>
-      </c>
-      <c r="E343">
-        <v>0</v>
-      </c>
-      <c r="F343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344">
-        <v>323</v>
-      </c>
-      <c r="B344" t="s">
-        <v>323</v>
-      </c>
-      <c r="E344">
-        <v>0</v>
-      </c>
-      <c r="F344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="A345">
-        <v>324</v>
-      </c>
-      <c r="B345" t="s">
-        <v>324</v>
-      </c>
-      <c r="E345">
-        <v>0</v>
-      </c>
-      <c r="F345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="A346">
-        <v>325</v>
-      </c>
-      <c r="B346" t="s">
-        <v>325</v>
-      </c>
-      <c r="E346">
-        <v>0</v>
-      </c>
-      <c r="F346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="A347">
-        <v>326</v>
-      </c>
-      <c r="B347" t="s">
-        <v>326</v>
-      </c>
-      <c r="E347">
-        <v>0</v>
-      </c>
-      <c r="F347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348">
-        <v>327</v>
-      </c>
-      <c r="B348" t="s">
-        <v>327</v>
-      </c>
-      <c r="E348">
-        <v>0</v>
-      </c>
-      <c r="F348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="A349">
-        <v>328</v>
-      </c>
-      <c r="B349" t="s">
-        <v>328</v>
-      </c>
-      <c r="E349">
-        <v>0</v>
-      </c>
-      <c r="F349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="A350">
-        <v>329</v>
-      </c>
-      <c r="B350" t="s">
-        <v>329</v>
-      </c>
-      <c r="E350">
-        <v>0</v>
-      </c>
-      <c r="F350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="A351">
-        <v>330</v>
-      </c>
-      <c r="B351" t="s">
-        <v>330</v>
-      </c>
-      <c r="E351">
-        <v>0</v>
-      </c>
-      <c r="F351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352">
-        <v>331</v>
-      </c>
-      <c r="B352" t="s">
-        <v>331</v>
-      </c>
-      <c r="E352">
-        <v>0</v>
-      </c>
-      <c r="F352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="A353">
-        <v>332</v>
-      </c>
-      <c r="B353" t="s">
-        <v>332</v>
-      </c>
-      <c r="E353">
-        <v>0</v>
-      </c>
-      <c r="F353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
-      <c r="A354">
-        <v>333</v>
-      </c>
-      <c r="B354" t="s">
-        <v>333</v>
-      </c>
-      <c r="E354">
-        <v>0</v>
-      </c>
-      <c r="F354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="A355">
-        <v>334</v>
-      </c>
-      <c r="B355" t="s">
-        <v>334</v>
-      </c>
-      <c r="E355">
-        <v>0</v>
-      </c>
-      <c r="F355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="A356">
-        <v>335</v>
-      </c>
-      <c r="B356" t="s">
-        <v>335</v>
-      </c>
-      <c r="E356">
-        <v>0</v>
-      </c>
-      <c r="F356">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{b1c9b508-7c6e-42bd-bedf-808292653d6c}" enabled="1" method="Standard" siteId="{2882be50-2012-4d88-ac86-544124e120c8}" contentBits="3" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1E2F2F-578A-45B0-A21F-585B5DAC4C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B7548-15B7-4372-B3B5-ECCA6BDD89E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3810,64 +3810,127 @@
     <t>Portfolio Level</t>
   </si>
   <si>
-    <t>Define the enterprise strategy; Establish lean budgets; Align strategy and execution; Ensure program and portfolio execution</t>
-  </si>
-  <si>
-    <t>Determine the order in which Epics should be executed; Drive incremental implementation across the enterprise; Define the sequence of steps used to deliver value to the customer; Connect the portfolio to the enterprise business strategy</t>
-  </si>
-  <si>
-    <t>Agile delivers every single requested requirement.; Waterfall has no fixed schedule.; Agile supports test-first development.; Waterfall concentrates on code quality.</t>
-  </si>
-  <si>
-    <t>To enable deploying upon demand.; To remove the need to respond quickly to product issues.; To enable releasing upon demand.; To make deploying a business decision.</t>
-  </si>
-  <si>
-    <t>Participatory budgeting; Investment horizons; Centralized decision-making; Lean startup cycle</t>
-  </si>
-  <si>
-    <t>Business-Driven Development; Benchmark-Driven Development; Behavior-Driven Development; Backlog-Driven Development</t>
-  </si>
-  <si>
-    <t>Shortened Architectural Runway; Loopbacks; System delays; Team swarming</t>
-  </si>
-  <si>
-    <t>They are optimized for communication and delivery of value.; They can define, build, and test a Feature or component.; They deliver value every six weeks.; They release customer products to production continuously.; They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
-  </si>
-  <si>
-    <t>Development Manager; Solution Manager; Release Train Engineer; Business Manager</t>
-  </si>
-  <si>
-    <t>Innovation; Lean-Agile development; Leadership; Lean-thinking</t>
-  </si>
-  <si>
-    <t>It alleviates the reliance on the skill sets of Agile Teams.; It ensures that changes deployed to production are always immediately available to end-users.; It lessens the severity and frequency of release failures.; It increases the transaction cost.</t>
-  </si>
-  <si>
-    <t>Employ and improve the Continuous Development Pipeline.; Employ multiple Solution Teams.; Build Solution components and capabilities with ARTs.; Build and integrate the Solution with a Solution Train.; Ensure value stream consistency.; Capture and refine system specifications as fixed/variable Solution Intent.</t>
-  </si>
-  <si>
-    <t>To enable Agile Release Trains to deliver value more frequently.; To combine Development and Operations groups into one team.; To clarify program and team roles.; To automate the integration, testing, and deployment of features.</t>
-  </si>
-  <si>
-    <t>Post PI-Planning; PI Planning; Iteration Planning; PI System Demo</t>
-  </si>
-  <si>
-    <t>It summarizes the team PI Objectives for the current Program Increment.; It provides an outline of the Features for the next three Program Increments.; It expresses the strategic intent of the Program.; It drives the allocation of budget for the Agile Release Train.</t>
-  </si>
-  <si>
-    <t>The customer or consumer of the solution.; The behavior of the solution.; The platform architecture.; Where the solution operates.</t>
-  </si>
-  <si>
-    <t>DevOps joins development and operations to enable continuous delivery.; DevOps focuses on automating the delivery pipeline to reduce transaction cost.; DevOps enables continuous release by building a scalable Continuous Delivery Pipeline.; DevOps focuses on a set of practices applied to large systems.</t>
-  </si>
-  <si>
-    <t>They are used when there are numerous and complex interactions.; They are used when there are a set of parallel interactions related to a scenario.; They are used when there are a specific number of interactions that are less complex.; They are used to sequence a set of interactions related to a scenario.</t>
-  </si>
-  <si>
-    <t>Essential Level.; Team Level.; Portfolio Level.; Large Solution Level.</t>
-  </si>
-  <si>
-    <t>Lean Portfolio Management.; Release Train Engineer.; Product Management.; Solution Management.</t>
+    <t>Define the enterprise strategy
+ Establish lean budgets
+ Align strategy and execution
+ Ensure program and portfolio execution</t>
+  </si>
+  <si>
+    <t>Determine the order in which Epics should be executed
+ Drive incremental implementation across the enterprise
+ Define the sequence of steps used to deliver value to the customer
+ Connect the portfolio to the enterprise business strategy</t>
+  </si>
+  <si>
+    <t>Agile delivers every single requested requirement.
+ Waterfall has no fixed schedule.
+ Agile supports test-first development.
+ Waterfall concentrates on code quality.</t>
+  </si>
+  <si>
+    <t>To enable deploying upon demand.
+ To remove the need to respond quickly to product issues.
+ To enable releasing upon demand.
+ To make deploying a business decision.</t>
+  </si>
+  <si>
+    <t>Participatory budgeting
+ Investment horizons
+ Centralized decision-making
+ Lean startup cycle</t>
+  </si>
+  <si>
+    <t>Business-Driven Development
+ Benchmark-Driven Development
+ Behavior-Driven Development
+ Backlog-Driven Development</t>
+  </si>
+  <si>
+    <t>Shortened Architectural Runway
+ Loopbacks
+ System delays
+ Team swarming</t>
+  </si>
+  <si>
+    <t>They are optimized for communication and delivery of value.
+ They can define, build, and test a Feature or component.
+ They deliver value every six weeks.
+ They release customer products to production continuously.
+ They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
+  </si>
+  <si>
+    <t>Development Manager
+ Solution Manager
+ Release Train Engineer
+ Business Manager</t>
+  </si>
+  <si>
+    <t>Innovation
+ Lean-Agile development
+ Leadership
+ Lean-thinking</t>
+  </si>
+  <si>
+    <t>It alleviates the reliance on the skill sets of Agile Teams.
+ It ensures that changes deployed to production are always immediately available to end-users.
+ It lessens the severity and frequency of release failures.
+ It increases the transaction cost.</t>
+  </si>
+  <si>
+    <t>Employ and improve the Continuous Development Pipeline.
+ Employ multiple Solution Teams.
+ Build Solution components and capabilities with ARTs.
+ Build and integrate the Solution with a Solution Train.
+ Ensure value stream consistency.
+ Capture and refine system specifications as fixed/variable Solution Intent.</t>
+  </si>
+  <si>
+    <t>To enable Agile Release Trains to deliver value more frequently.
+ To combine Development and Operations groups into one team.
+ To clarify program and team roles.
+ To automate the integration, testing, and deployment of features.</t>
+  </si>
+  <si>
+    <t>Post PI-Planning
+ PI Planning
+ Iteration Planning
+ PI System Demo</t>
+  </si>
+  <si>
+    <t>It summarizes the team PI Objectives for the current Program Increment.
+ It provides an outline of the Features for the next three Program Increments.
+ It expresses the strategic intent of the Program.
+ It drives the allocation of budget for the Agile Release Train.</t>
+  </si>
+  <si>
+    <t>The customer or consumer of the solution.
+ The behavior of the solution.
+ The platform architecture.
+ Where the solution operates.</t>
+  </si>
+  <si>
+    <t>DevOps joins development and operations to enable continuous delivery.
+ DevOps focuses on automating the delivery pipeline to reduce transaction cost.
+ DevOps enables continuous release by building a scalable Continuous Delivery Pipeline.
+ DevOps focuses on a set of practices applied to large systems.</t>
+  </si>
+  <si>
+    <t>They are used when there are numerous and complex interactions.
+ They are used when there are a set of parallel interactions related to a scenario.
+ They are used when there are a specific number of interactions that are less complex.
+ They are used to sequence a set of interactions related to a scenario.</t>
+  </si>
+  <si>
+    <t>Essential Level.
+ Team Level.
+ Portfolio Level.
+ Large Solution Level.</t>
+  </si>
+  <si>
+    <t>Lean Portfolio Management.
+ Release Train Engineer.
+ Product Management.
+ Solution Management.</t>
   </si>
 </sst>
 </file>
@@ -4237,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B7548-15B7-4372-B3B5-ECCA6BDD89E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E5403-A346-47ED-9E8A-3ACDF91F46A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="963">
   <si>
     <t>Nº</t>
   </si>
@@ -1028,24 +1028,6 @@
   </si>
   <si>
     <t>Which of the following is responsible for managing the Portfolio Kanban?</t>
-  </si>
-  <si>
-    <t>T-Shirt Sizing
-Ideal Days
-Affinity Mapping
-Planning Poker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey mapping
-Whole-product
-Persona development
-Feature storming </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What problem(s) will the Solution solve?
-How many Features have been released to the Customer?
-Which themes are on the Roadmap?
-What are the teams' skills? </t>
   </si>
   <si>
     <t>Compare the average Story points completed throughout the previous Iterations.
@@ -1066,12 +1048,6 @@
 Management Review and Problem-Solving session</t>
   </si>
   <si>
-    <t>Market dynamics
-Customer-centric Features
-ART capacity
-Value Streams</t>
-  </si>
-  <si>
     <t>Someone has taken the responsibility of the risk
 Nothing more can be done, so if a risk occurs, release may be compromised
 There is a strategy to adjust the plan as necessary
@@ -1102,12 +1078,6 @@
 As a..., When..., Then...</t>
   </si>
   <si>
-    <t>Alignment
-Respect for People
-Transparency
-Relentless Improvement</t>
-  </si>
-  <si>
     <t>Epics are in the Solution Train Backlog
 Features are in the ART Backlog
 Capabilities are in the ART Backlog
@@ -1198,12 +1168,6 @@
 To provide a high-level overview of the product or solution</t>
   </si>
   <si>
-    <t>Product Owner
-Development Manager
-Solution management
-System Architect</t>
-  </si>
-  <si>
     <t>Team demos are accepted in place of a System Demo to avoid redundancy
 System demo takes more than 15 minutes
 Different team members conduct the demo each Iteration
@@ -1228,18 +1192,6 @@
 Workshops are more engaging then document writting</t>
   </si>
   <si>
-    <t>Collaboration
-Compliance
-Leadership
-Separation of duties</t>
-  </si>
-  <si>
-    <t>Business Owners
-Portfolio Management
-Board Members
-Feature Owners</t>
-  </si>
-  <si>
     <t>Kanban System
 Operational Value Stream
 Dual Operating System
@@ -1258,12 +1210,6 @@
 To create Standardize work between all Agile Teams</t>
   </si>
   <si>
-    <t>PI Planning
-Iteration Planning
-PO Sync
-Coach Sync</t>
-  </si>
-  <si>
     <t>To align team members to a common purpose
 To define "the what, the how, and the how much"
 To set preliminary PI Objectives
@@ -1274,12 +1220,6 @@
 To add new work into the Iteration
 To clarify story intent
 To facilitate event</t>
-  </si>
-  <si>
-    <t>Relentless Improvment
-Respect for people and culture
-Alignement
-Transparency</t>
   </si>
   <si>
     <t>Team meets with stakeholders to review the deliverables and provide feedback
@@ -1379,48 +1319,18 @@
 System Demo</t>
   </si>
   <si>
-    <t>Soft launches
-Features toggles
-Non functional requirements
-Quite releases</t>
-  </si>
-  <si>
     <t>The importance of non-functional requirements
 The importance of Feature prioritizing
 The importance of Lean budget Guardrails
 The importance of empathy interviews</t>
   </si>
   <si>
-    <t>Iteration Planning
-Backlog refinement
-Iteration Review
-Iteration Retrospective</t>
-  </si>
-  <si>
-    <t>PI Planning
-PO Sync
-Inspect and Adapt
-Backlog Refinement</t>
-  </si>
-  <si>
-    <t>Test cases
-Solution Roadmap
-WIP limits
-ART Planning Board</t>
-  </si>
-  <si>
     <t>Customer Journey Value Stream
 Operational Value Stream
 Development Value Stream
 Claims processing Value Stream</t>
   </si>
   <si>
-    <t>Alignment
-Transparency
-Relentless Improvement
-Respect for People</t>
-  </si>
-  <si>
     <t>The accumulated value of team's work
 A burndown chart of work completed in the Iteration
 Where a team has too much work-in-process (WIP)
@@ -1461,12 +1371,6 @@
 Retrospective
 Confidence vote
 Management Review and Problem-Solving session</t>
-  </si>
-  <si>
-    <t>Compliance
-Capability
-Epic
-Non-Functional Requirement</t>
   </si>
   <si>
     <t>Welcome changing requirements, even late in development
@@ -1518,12 +1422,6 @@
 It satisfies the Definition of Done</t>
   </si>
   <si>
-    <t>Risks
-Capacity and load
-Epics
-Significant dependencies</t>
-  </si>
-  <si>
     <t>User Experience Design
 Team Kanban
 Continuous Delivery Pipeline
@@ -1548,12 +1446,6 @@
 Identify dependencies between Agile Teams</t>
   </si>
   <si>
-    <t>Product Managers
-Product Owners
-System Architects
-Scrum Masters/Team Coaches</t>
-  </si>
-  <si>
     <t>Features
 Spikes
 Stories
@@ -1590,12 +1482,6 @@
 20 to 24 weeks</t>
   </si>
   <si>
-    <t>Milestones
-ART PI Risks
-PI Objectives
-Dependencies</t>
-  </si>
-  <si>
     <t>Product Features
 Impact Mapping
 Business Model Canvas
@@ -1626,18 +1512,6 @@
 Decentralize decision-making</t>
   </si>
   <si>
-    <t>Spikes
-Hackathons
-Supplier showcases
-Design thinking</t>
-  </si>
-  <si>
-    <t>Improvement items
-Risks
-Impediments
-Adjustments</t>
-  </si>
-  <si>
     <t>Adjust work between teams or split Features and Stories
 Distribute work to other teams
 Sequence work to eliminate same Iteration dependencies
@@ -1660,12 +1534,6 @@
 The Product Owner should lead the Iteration Retrospective</t>
   </si>
   <si>
-    <t>Product Management
-System Architect
-Business Owner
-Product Owner</t>
-  </si>
-  <si>
     <t>Adjust the delivery of Features to meet market needs
 Improve PI Planning scheduling
 Improve Features prioritization
@@ -1696,12 +1564,6 @@
 To facilitate the event and keep it on track</t>
   </si>
   <si>
-    <t>PI Planning
-Backlog Refinement
-Iteration Planning
-Team Sync</t>
-  </si>
-  <si>
     <t>Developing solutions to recognized problems that blocked or slowed work
 Generating innovative approaches to common issues facing teams and ARTS
 Forming working groups to better understand issues from the PI
@@ -1714,12 +1576,6 @@
 Create a flow of value</t>
   </si>
   <si>
-    <t>Team topologies
-Portfolio Backlog
-Customer feedback
-Feature context</t>
-  </si>
-  <si>
     <t>To provide a high-level overview of the ART's progress
 To manage the ART's budget and financials
 To synchronize the activities of multiple Agile teams
@@ -1758,12 +1614,6 @@
 Release Train Engineers and Product Management
 Product Owners and Scrum Masters
 All the propositions</t>
-  </si>
-  <si>
-    <t>System Demo
-PI Planning
-Backlog Refinement
-Sprint Review</t>
   </si>
   <si>
     <t>The PO identifies market needs, the PM is solution, technology, and team facing
@@ -1833,18 +1683,6 @@
 Growth Mindset</t>
   </si>
   <si>
-    <t>Respect for people
-Relentless improvement
-Transparency
-Alignment</t>
-  </si>
-  <si>
-    <t>Customer Centricity
-Flow Acceleration
-Agile Quality
-Design Thinking</t>
-  </si>
-  <si>
     <t>Use the Built-In Estimation Buffer As Needed
 To conduct a retrospective
 To refine the Teams Backlogs
@@ -1875,12 +1713,6 @@
 Describe how the PI Roadmap supports key Epics and Milestones</t>
   </si>
   <si>
-    <t>Supplier showcase
-Hackathon
-Coach Sync
-PI Planning</t>
-  </si>
-  <si>
     <t>Apply cadence and synchronize with cross-domain planning
 Working software is the primary measure of progress
 Base Milestones on objective evaluation of working systems
@@ -1905,12 +1737,6 @@
 Opportunity to update the development value stream</t>
   </si>
   <si>
-    <t>Customer needs
-Solution performance
-Supplier proposals
-Release strategy</t>
-  </si>
-  <si>
     <t>Compliance
 Deployment
 Automation
@@ -2019,13 +1845,6 @@
 Inspect and Adapt (I&amp;A)</t>
   </si>
   <si>
-    <t>PI Objectives
-User Stories
-Enabler Stories
-Business Epics
-Epic Enablers</t>
-  </si>
-  <si>
     <t>System Team
 Scrum Master
 Product Owner
@@ -2080,18 +1899,6 @@
 Retrospective and Problem-solving Workshop</t>
   </si>
   <si>
-    <t>Product Owner
-Business Owner
-System Architect
-Product Management</t>
-  </si>
-  <si>
-    <t>Release Train Engineer
-Enterprise Architect
-Product Management
-Product Owner</t>
-  </si>
-  <si>
     <t>Iterations
 Days
 PIs
@@ -2110,12 +1917,6 @@
 Product management and Business Owners</t>
   </si>
   <si>
-    <t>Portfolio Canvas
-Portfolio Kanban
-Portfolio Vision
-Portfolio Backlog</t>
-  </si>
-  <si>
     <t>Decentralized decision-making
 Shift learning left
 Using non-functional requirements
@@ -2140,18 +1941,6 @@
 Optimizing a component does not optimize the system</t>
   </si>
   <si>
-    <t>Requests
-Delays
-Sunk costs
-Costs</t>
-  </si>
-  <si>
-    <t>Systems thinking
-Design thinking
-Lean thinking
-Customer-centric</t>
-  </si>
-  <si>
     <t>To prioritize the ART Backlog
 To facilitate backlog refinement
 To define Enablers
@@ -2176,12 +1965,6 @@
 Objective measurements</t>
   </si>
   <si>
-    <t>Relentless Improvement
-Transparency
-Alignment
-Respect for People</t>
-  </si>
-  <si>
     <t>Address the local problems
 Reduce the batch sizes of work
 Frequent context switching
@@ -2236,12 +2019,6 @@
 Team and Technical Agility</t>
   </si>
   <si>
-    <t>Courage
-Emotional competence
-Growing others
-Authenticity</t>
-  </si>
-  <si>
     <t>Solution Train Value Stream
 Business Agility Value Stream
 Lean Governance Value Stream
@@ -2260,30 +2037,12 @@
 Story points</t>
   </si>
   <si>
-    <t>Architectural Runway
-Features
-Milestones
-Enablers</t>
-  </si>
-  <si>
     <t>Activities that lack innovation
 Key performance indicators
 Delays
 Predictability issues of the train</t>
   </si>
   <si>
-    <t>Customer
-Journey
-Story
-Value Stream</t>
-  </si>
-  <si>
-    <t>Significant dependencies
-Risks
-Capacity and load
-Epics</t>
-  </si>
-  <si>
     <t>Reliability
 Sustainability
 Marketability
@@ -2296,24 +2055,12 @@
 Working software is the primary measure of progress</t>
   </si>
   <si>
-    <t>Portfolio Canvas
-Portfolio Backlog
-Portfolio Vision
-Portfolio Kanban</t>
-  </si>
-  <si>
     <t>Teams can only release new software on the same day
 Teams decide their own Iteration length
 Teams align the start and end dates of their Iterations
 Teams meet twice every PI to plan and schedule capacity</t>
   </si>
   <si>
-    <t>Continuous Exploration
-Continuous Planning
-Continuous Improvement
-Continuous Cadence</t>
-  </si>
-  <si>
     <t>Removes accountability from leaders
 Reduces delays
 Ensures strategic decisions are made collaboratively
@@ -2344,12 +2091,6 @@
 By creating a hierarchy to provide stability</t>
   </si>
   <si>
-    <t>Enterprise strategy
-Value Stream budgets
-Strategic Themes
-Portfolio Epics</t>
-  </si>
-  <si>
     <t>Each team has a Scrum Master/Team Coach and a Product Manager
 Managers direct their work
 Composed of 10 to 20 members
@@ -2368,18 +2109,6 @@
 Team and Technical Agility</t>
   </si>
   <si>
-    <t>Infrastructure
-Release on Demand
-DevOps
-Continuous Deployment</t>
-  </si>
-  <si>
-    <t>Respect for People
-Relentless Improvement
-Transparency
-Alignment</t>
-  </si>
-  <si>
     <t>The RTE or Product Management
 The Scrum Master or RTE
 The Scrum Master or Product Owner
@@ -2402,12 +2131,6 @@
 To address impediments raised by the team
 To provide feedback on the team's performance
 To listen to the team's progress and issues</t>
-  </si>
-  <si>
-    <t>ART Flow
-Team Flow
-Portfolio Flow
-Solution Train Flow</t>
   </si>
   <si>
     <t>Assume variability, preserve options
@@ -2435,12 +2158,6 @@
 Challenges between teams that talk with customers daily and those that meet with customers for research</t>
   </si>
   <si>
-    <t>External Customers
-Business partners
-Internal Customers
-Stakeholders</t>
-  </si>
-  <si>
     <t>Mitigate risks during the iteration planning meeting
 Address risks during ART PI Risks session
 Escalate all risks to senior management
@@ -2573,12 +2290,6 @@
 Provide user personas to illustrate how the Vision improves the experiences of your Customers</t>
   </si>
   <si>
-    <t>Alignment
-Relentless Improvement
-Respect for People
-Transparency</t>
-  </si>
-  <si>
     <t>Team skills
 Tasks to complete
 Variations in data
@@ -2589,12 +2300,6 @@
 Adjust work between teams or split Features and Stories
 Adjust work between teams based on forecasted capacity
 Adjust work sequencing to eliminate same Iteration dependencies</t>
-  </si>
-  <si>
-    <t>System Architecture Designs
-Development Manager
-Solution Roadmap
-ART Backlog</t>
   </si>
   <si>
     <t>Bottlenecks can be identified early by the teams
@@ -2640,18 +2345,6 @@
 Market rhythms are cyclical and predictable</t>
   </si>
   <si>
-    <t>System Architect
-Product Manager
-Development Team
-Solution management</t>
-  </si>
-  <si>
-    <t>Iteration Planning
-Iteration Review
-Iteration Retrospective
-Backlog Refinement</t>
-  </si>
-  <si>
     <t>Gather Feature requirements from stakeholders
 Modify Iteration Goals
 Demonstrate a working, tested team increment
@@ -2736,24 +2429,12 @@
 The right participants are present</t>
   </si>
   <si>
-    <t>Whole-product thinking
-Persona development
-Feature storming
-Journey mapping</t>
-  </si>
-  <si>
     <t>The team reviews and improves processes before the next Iteration
 The team is able to prepare requirements for Iteration Planning
 The team aligns on the progress of Iteration Goals
 The team is able to commit to a set of goals to be delivered in the Iteration</t>
   </si>
   <si>
-    <t>Develop
-Stage
-Test end-to-end
-Build</t>
-  </si>
-  <si>
     <t>By reviewing its processes before the next iteration
 By committing to a set of goals to be delivered
 By agreeing on a meeting timebox
@@ -2778,18 +2459,6 @@
 Use Features or Stories as PI Objectives</t>
   </si>
   <si>
-    <t>solidly built
-Strong
-solidly explained
-Small</t>
-  </si>
-  <si>
-    <t>Journey mapping
-Whole-product thinking
-Personas
-Feature storming</t>
-  </si>
-  <si>
     <t>The top ten Features
 The Team Backlog
 The ART planning boards
@@ -2808,12 +2477,6 @@
 Supporting the Team in Delivering Value</t>
   </si>
   <si>
-    <t>Capability
-Value Stream
-Epic
-Solution</t>
-  </si>
-  <si>
     <t>What Features and benefit hypotheses do we think it provides?
 How many Features have been released to the Customer?
 What are the teams' skills?
@@ -2844,24 +2507,12 @@
 Lack of collective ownership</t>
   </si>
   <si>
-    <t>Product Management
-RTE
-Business Owners
-Product Owner</t>
-  </si>
-  <si>
     <t>Let the Customer pull value from the producer
 customer collaboration over contract negotiation
 Assume variability, preserve options
 Deliver working software frequently</t>
   </si>
   <si>
-    <t>Affinity Mapping
-Historical data
-Ideal Days
-T-Shirt Sizing</t>
-  </si>
-  <si>
     <t>Continuous Integration and Release on Demand
 Continuous Exploration and Continuous Deployment
 Continuous Exploration and Release on Demand
@@ -2880,30 +2531,6 @@
 Months</t>
   </si>
   <si>
-    <t>Iteration Planning
-Backlog Refinement
-Inspect and Adapt
-PO Sync</t>
-  </si>
-  <si>
-    <t>Understand Customer needs
-Continuous Deployment
-Continuous Integration
-Feature Toggle</t>
-  </si>
-  <si>
-    <t>2 Hours
-1 Hour
-3 Hours
-As needed</t>
-  </si>
-  <si>
-    <t>As needed
-2 Hours
-1 Hour
-3 Hours</t>
-  </si>
-  <si>
     <t>T-Shirt Sizing</t>
   </si>
   <si>
@@ -2922,120 +2549,12 @@
     <t>ART Planning Board</t>
   </si>
   <si>
-    <t xml:space="preserve"> Market dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Someone has taken the responsibility of the risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Connecting with the Customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Confidence vote</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To assess progress of the Planning Interval (PI) and adjust scope and priorities as needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As a..., I want..., So that...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transparency</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Features are in the ART Backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Product Owners present all of the work in the PI System demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Describing the value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It prevents different types of backlog items from being compared against each another </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> They explore, integrate, deploy, and release new value during each Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Showcase completed features to stakeholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Continuously throughout the PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Establish capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Assigning them to a single team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Support Architectural Runway</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> All of the propositions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonstrate a working, tested team increment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Improvement items in the Team Backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It synchronizes alignment, collaboration, and delivery for large numbers of teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To provide a high-level overview of the product or solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> System Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Team demos are accepted in place of a System Demo to avoid redundancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To manage WIP limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Milestones, Features, Dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It makes improvements actionable through backlog item for the next PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Collaboration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Business Owners</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Operational Value Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To contribute with communicating the Product Vision and Roadmap to the Development Teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To create alignment on when stories are complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PI Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To align team members to a common purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To clarify story intent</t>
-  </si>
-  <si>
     <t>Respect for people and culture</t>
   </si>
   <si>
     <t>Team prepares requirements for Iteration Planning</t>
   </si>
   <si>
-    <t xml:space="preserve"> To receive feedback on the increment</t>
-  </si>
-  <si>
     <t>Customer collaboration over contract negotiation;Individual interactions over processes and tools</t>
   </si>
   <si>
@@ -3810,127 +3329,798 @@
     <t>Portfolio Level</t>
   </si>
   <si>
+    <t>T-Shirt
+Sizing
+Ideal
+Days
+Affinity
+Mapping
+Planning
+Poker</t>
+  </si>
+  <si>
+    <t>Journey
+mapping
+Whole-product
+Persona
+development
+Feature
+storming</t>
+  </si>
+  <si>
+    <t>What problem(s) will the Solution solve?
+How many Features have been released to the Customer?
+Which themes are on the Roadmap?
+What are the teams' skills?</t>
+  </si>
+  <si>
+    <t>Market
+dynamics
+Customer-centric
+Features
+ART
+capacity
+Value
+Streams</t>
+  </si>
+  <si>
+    <t>Market dynamics</t>
+  </si>
+  <si>
+    <t>Connecting with the Customer</t>
+  </si>
+  <si>
+    <t>To assess progress of the Planning Interval (PI) and adjust scope and priorities as needed</t>
+  </si>
+  <si>
+    <t>As a..., I want..., So that...</t>
+  </si>
+  <si>
+    <t>Alignment
+Respect
+for
+People
+Transparency
+Relentless
+Improvement</t>
+  </si>
+  <si>
+    <t>Features are in the ART Backlog</t>
+  </si>
+  <si>
+    <t>Product Owners present all of the work in the PI System demo</t>
+  </si>
+  <si>
+    <t>Describing the value</t>
+  </si>
+  <si>
+    <t>It prevents different types of backlog items from being compared against each another</t>
+  </si>
+  <si>
+    <t>They explore, integrate, deploy, and release new value during each Iteration</t>
+  </si>
+  <si>
+    <t>Showcase completed features to stakeholders</t>
+  </si>
+  <si>
+    <t>Continuously throughout the PI</t>
+  </si>
+  <si>
+    <t>Establish capacity</t>
+  </si>
+  <si>
+    <t>Assigning them to a single team.</t>
+  </si>
+  <si>
+    <t>Support Architectural Runway</t>
+  </si>
+  <si>
+    <t>Improvement items in the Team Backlog</t>
+  </si>
+  <si>
+    <t>It synchronizes alignment, collaboration, and delivery for large numbers of teams</t>
+  </si>
+  <si>
+    <t>To provide a high-level overview of the product or solution</t>
+  </si>
+  <si>
+    <t>Product
+Owner
+Development
+Manager
+Solution
+management
+System
+Architect</t>
+  </si>
+  <si>
+    <t>Team demos are accepted in place of a System Demo to avoid redundancy</t>
+  </si>
+  <si>
+    <t>To manage WIP limits</t>
+  </si>
+  <si>
+    <t>Milestones, Features, Dependencies</t>
+  </si>
+  <si>
+    <t>It makes improvements actionable through backlog item for the next PI</t>
+  </si>
+  <si>
+    <t>Collaboration
+Compliance
+Leadership
+Separation
+of
+duties</t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
+    <t>Business
+Owners
+Portfolio
+Management
+Board
+Members
+Feature
+Owners</t>
+  </si>
+  <si>
+    <t>Business Owners</t>
+  </si>
+  <si>
+    <t>Operational Value Stream</t>
+  </si>
+  <si>
+    <t>To contribute with communicating the Product Vision and Roadmap to the Development Teams</t>
+  </si>
+  <si>
+    <t>To create alignment on when stories are complete</t>
+  </si>
+  <si>
+    <t>PI
+Planning
+Iteration
+Planning
+PO
+Sync
+Coach
+Sync</t>
+  </si>
+  <si>
+    <t>To align team members to a common purpose</t>
+  </si>
+  <si>
+    <t>To clarify story intent</t>
+  </si>
+  <si>
+    <t>Relentless
+Improvment
+Respect
+for
+people
+and
+culture
+Alignement
+Transparency</t>
+  </si>
+  <si>
+    <t>To receive feedback on the increment</t>
+  </si>
+  <si>
+    <t>Soft
+launches
+Features
+toggles
+Non
+functional
+requirements
+Quite
+releases</t>
+  </si>
+  <si>
+    <t>Iteration
+Planning
+Backlog
+refinement
+Iteration
+Review
+Iteration
+Retrospective</t>
+  </si>
+  <si>
+    <t>PI
+Planning
+PO
+Sync
+Inspect
+and
+Adapt
+Backlog
+Refinement</t>
+  </si>
+  <si>
+    <t>Test
+cases
+Solution
+Roadmap
+WIP
+limits
+ART
+Planning
+Board</t>
+  </si>
+  <si>
+    <t>Alignment
+Transparency
+Relentless
+Improvement
+Respect
+for
+People</t>
+  </si>
+  <si>
+    <t>Compliance
+Capability
+Epic
+Non-Functional
+Requirement</t>
+  </si>
+  <si>
+    <t>Risks
+Capacity
+and
+load
+Epics
+Significant
+dependencies</t>
+  </si>
+  <si>
+    <t>Product
+Managers
+Product
+Owners
+System
+Architects
+Scrum
+Masters/Team
+Coaches</t>
+  </si>
+  <si>
+    <t>Milestones
+ART
+PI
+Risks
+PI
+Objectives
+Dependencies</t>
+  </si>
+  <si>
+    <t>Spikes
+Hackathons
+Supplier
+showcases
+Design
+thinking</t>
+  </si>
+  <si>
+    <t>Improvement
+items
+Risks
+Impediments
+Adjustments</t>
+  </si>
+  <si>
+    <t>Product
+Management
+System
+Architect
+Business
+Owner
+Product
+Owner</t>
+  </si>
+  <si>
+    <t>PI
+Planning
+Backlog
+Refinement
+Iteration
+Planning
+Team
+Sync</t>
+  </si>
+  <si>
+    <t>Team
+topologies
+Portfolio
+Backlog
+Customer
+feedback
+Feature
+context</t>
+  </si>
+  <si>
+    <t>System
+Demo
+PI
+Planning
+Backlog
+Refinement
+Sprint
+Review</t>
+  </si>
+  <si>
+    <t>Respect
+for
+people
+Relentless
+improvement
+Transparency
+Alignment</t>
+  </si>
+  <si>
+    <t>Customer
+Centricity
+Flow
+Acceleration
+Agile
+Quality
+Design
+Thinking</t>
+  </si>
+  <si>
+    <t>Supplier
+showcase
+Hackathon
+Coach
+Sync
+PI
+Planning</t>
+  </si>
+  <si>
+    <t>Customer
+needs
+Solution
+performance
+Supplier
+proposals
+Release
+strategy</t>
+  </si>
+  <si>
+    <t>PI
+Objectives
+User
+Stories
+Enabler
+Stories
+Business
+Epics
+Epic
+Enablers</t>
+  </si>
+  <si>
+    <t>Product
+Owner
+Business
+Owner
+System
+Architect
+Product
+Management</t>
+  </si>
+  <si>
+    <t>Release
+Train
+Engineer
+Enterprise
+Architect
+Product
+Management
+Product
+Owner</t>
+  </si>
+  <si>
+    <t>Portfolio
+Canvas
+Portfolio
+Kanban
+Portfolio
+Vision
+Portfolio
+Backlog</t>
+  </si>
+  <si>
+    <t>Requests
+Delays
+Sunk
+costs
+Costs</t>
+  </si>
+  <si>
+    <t>Systems
+thinking
+Design
+thinking
+Lean
+thinking
+Customer-centric</t>
+  </si>
+  <si>
+    <t>Relentless
+Improvement
+Transparency
+Alignment
+Respect
+for
+People</t>
+  </si>
+  <si>
+    <t>Courage
+Emotional
+competence
+Growing
+others
+Authenticity</t>
+  </si>
+  <si>
+    <t>Architectural
+Runway
+Features
+Milestones
+Enablers</t>
+  </si>
+  <si>
+    <t>Customer
+Journey
+Story
+Value
+Stream</t>
+  </si>
+  <si>
+    <t>Significant
+dependencies
+Risks
+Capacity
+and
+load
+Epics</t>
+  </si>
+  <si>
+    <t>Portfolio
+Canvas
+Portfolio
+Backlog
+Portfolio
+Vision
+Portfolio
+Kanban</t>
+  </si>
+  <si>
+    <t>Continuous
+Exploration
+Continuous
+Planning
+Continuous
+Improvement
+Continuous
+Cadence</t>
+  </si>
+  <si>
+    <t>Enterprise
+strategy
+Value
+Stream
+budgets
+Strategic
+Themes
+Portfolio
+Epics</t>
+  </si>
+  <si>
+    <t>Infrastructure
+Release
+on
+Demand
+DevOps
+Continuous
+Deployment</t>
+  </si>
+  <si>
+    <t>Respect
+for
+People
+Relentless
+Improvement
+Transparency
+Alignment</t>
+  </si>
+  <si>
+    <t>ART
+Flow
+Team
+Flow
+Portfolio
+Flow
+Solution
+Train
+Flow</t>
+  </si>
+  <si>
+    <t>External
+Customers
+Business
+partners
+Internal
+Customers
+Stakeholders</t>
+  </si>
+  <si>
+    <t>Alignment
+Relentless
+Improvement
+Respect
+for
+People
+Transparency</t>
+  </si>
+  <si>
+    <t>System
+Architecture
+Designs
+Development
+Manager
+Solution
+Roadmap
+ART
+Backlog</t>
+  </si>
+  <si>
+    <t>System
+Architect
+Product
+Manager
+Development
+Team
+Solution
+management</t>
+  </si>
+  <si>
+    <t>Iteration
+Planning
+Iteration
+Review
+Iteration
+Retrospective
+Backlog
+Refinement</t>
+  </si>
+  <si>
+    <t>Whole-product
+thinking
+Persona
+development
+Feature
+storming
+Journey
+mapping</t>
+  </si>
+  <si>
+    <t>Develop
+Stage
+Test
+end-to-end
+Build</t>
+  </si>
+  <si>
+    <t>solidly
+built
+Strong
+solidly
+explained
+Small</t>
+  </si>
+  <si>
+    <t>Journey
+mapping
+Whole-product
+thinking
+Personas
+Feature
+storming</t>
+  </si>
+  <si>
+    <t>Capability
+Value
+Stream
+Epic
+Solution</t>
+  </si>
+  <si>
+    <t>Product
+Management
+RTE
+Business
+Owners
+Product
+Owner</t>
+  </si>
+  <si>
+    <t>Affinity
+Mapping
+Historical
+data
+Ideal
+Days
+T-Shirt
+Sizing</t>
+  </si>
+  <si>
+    <t>Iteration
+Planning
+Backlog
+Refinement
+Inspect
+and
+Adapt
+PO
+Sync</t>
+  </si>
+  <si>
+    <t>Understand
+Customer
+needs
+Continuous
+Deployment
+Continuous
+Integration
+Feature
+Toggle</t>
+  </si>
+  <si>
+    <t>2
+Hours
+1
+Hour
+3
+Hours
+As
+needed</t>
+  </si>
+  <si>
+    <t>As
+needed
+2
+Hours
+1
+Hour
+3
+Hours</t>
+  </si>
+  <si>
     <t>Define the enterprise strategy
- Establish lean budgets
- Align strategy and execution
- Ensure program and portfolio execution</t>
+Establish lean budgets
+Align strategy and execution
+Ensure program and portfolio execution</t>
   </si>
   <si>
     <t>Determine the order in which Epics should be executed
- Drive incremental implementation across the enterprise
- Define the sequence of steps used to deliver value to the customer
- Connect the portfolio to the enterprise business strategy</t>
+Drive incremental implementation across the enterprise
+Define the sequence of steps used to deliver value to the customer
+Connect the portfolio to the enterprise business strategy</t>
   </si>
   <si>
     <t>Agile delivers every single requested requirement.
- Waterfall has no fixed schedule.
- Agile supports test-first development.
- Waterfall concentrates on code quality.</t>
+Waterfall has no fixed schedule.
+Agile supports test-first development.
+Waterfall concentrates on code quality.</t>
   </si>
   <si>
     <t>To enable deploying upon demand.
- To remove the need to respond quickly to product issues.
- To enable releasing upon demand.
- To make deploying a business decision.</t>
+To remove the need to respond quickly to product issues.
+To enable releasing upon demand.
+To make deploying a business decision.</t>
   </si>
   <si>
     <t>Participatory budgeting
- Investment horizons
- Centralized decision-making
- Lean startup cycle</t>
+Investment horizons
+Centralized decision-making
+Lean startup cycle</t>
   </si>
   <si>
     <t>Business-Driven Development
- Benchmark-Driven Development
- Behavior-Driven Development
- Backlog-Driven Development</t>
+Benchmark-Driven Development
+Behavior-Driven Development
+Backlog-Driven Development</t>
   </si>
   <si>
     <t>Shortened Architectural Runway
- Loopbacks
- System delays
- Team swarming</t>
+Loopbacks
+System delays
+Team swarming</t>
   </si>
   <si>
     <t>They are optimized for communication and delivery of value.
- They can define, build, and test a Feature or component.
- They deliver value every six weeks.
- They release customer products to production continuously.
- They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
+They can define, build, and test a Feature or component.
+They deliver value every six weeks.
+They release customer products to production continuously.
+They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
   </si>
   <si>
     <t>Development Manager
- Solution Manager
- Release Train Engineer
- Business Manager</t>
+Solution Manager
+Release Train Engineer
+Business Manager</t>
   </si>
   <si>
     <t>Innovation
- Lean-Agile development
- Leadership
- Lean-thinking</t>
+Lean-Agile development
+Leadership
+Lean-thinking</t>
   </si>
   <si>
     <t>It alleviates the reliance on the skill sets of Agile Teams.
- It ensures that changes deployed to production are always immediately available to end-users.
- It lessens the severity and frequency of release failures.
- It increases the transaction cost.</t>
+It ensures that changes deployed to production are always immediately available to end-users.
+It lessens the severity and frequency of release failures.
+It increases the transaction cost.</t>
   </si>
   <si>
     <t>Employ and improve the Continuous Development Pipeline.
- Employ multiple Solution Teams.
- Build Solution components and capabilities with ARTs.
- Build and integrate the Solution with a Solution Train.
- Ensure value stream consistency.
- Capture and refine system specifications as fixed/variable Solution Intent.</t>
+Employ multiple Solution Teams.
+Build Solution components and capabilities with ARTs.
+Build and integrate the Solution with a Solution Train.
+Ensure value stream consistency.
+Capture and refine system specifications as fixed/variable Solution Intent.</t>
   </si>
   <si>
     <t>To enable Agile Release Trains to deliver value more frequently.
- To combine Development and Operations groups into one team.
- To clarify program and team roles.
- To automate the integration, testing, and deployment of features.</t>
+To combine Development and Operations groups into one team.
+To clarify program and team roles.
+To automate the integration, testing, and deployment of features.</t>
   </si>
   <si>
     <t>Post PI-Planning
- PI Planning
- Iteration Planning
- PI System Demo</t>
+PI Planning
+Iteration Planning
+PI System Demo</t>
   </si>
   <si>
     <t>It summarizes the team PI Objectives for the current Program Increment.
- It provides an outline of the Features for the next three Program Increments.
- It expresses the strategic intent of the Program.
- It drives the allocation of budget for the Agile Release Train.</t>
+It provides an outline of the Features for the next three Program Increments.
+It expresses the strategic intent of the Program.
+It drives the allocation of budget for the Agile Release Train.</t>
   </si>
   <si>
     <t>The customer or consumer of the solution.
- The behavior of the solution.
- The platform architecture.
- Where the solution operates.</t>
+The behavior of the solution.
+The platform architecture.
+Where the solution operates.</t>
   </si>
   <si>
     <t>DevOps joins development and operations to enable continuous delivery.
- DevOps focuses on automating the delivery pipeline to reduce transaction cost.
- DevOps enables continuous release by building a scalable Continuous Delivery Pipeline.
- DevOps focuses on a set of practices applied to large systems.</t>
+DevOps focuses on automating the delivery pipeline to reduce transaction cost.
+DevOps enables continuous release by building a scalable Continuous Delivery Pipeline.
+DevOps focuses on a set of practices applied to large systems.</t>
   </si>
   <si>
     <t>They are used when there are numerous and complex interactions.
- They are used when there are a set of parallel interactions related to a scenario.
- They are used when there are a specific number of interactions that are less complex.
- They are used to sequence a set of interactions related to a scenario.</t>
+They are used when there are a set of parallel interactions related to a scenario.
+They are used when there are a specific number of interactions that are less complex.
+They are used to sequence a set of interactions related to a scenario.</t>
   </si>
   <si>
     <t>Essential Level.
- Team Level.
- Portfolio Level.
- Large Solution Level.</t>
+Team Level.
+Portfolio Level.
+Large Solution Level.</t>
   </si>
   <si>
     <t>Lean Portfolio Management.
- Release Train Engineer.
- Product Management.
- Solution Management.</t>
+Release Train Engineer.
+Product Management.
+Solution Management.</t>
   </si>
 </sst>
 </file>
@@ -4300,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4338,10 +4528,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>852</v>
       </c>
       <c r="D2" t="s">
-        <v>648</v>
+        <v>586</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4358,10 +4548,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>853</v>
       </c>
       <c r="D3" t="s">
-        <v>649</v>
+        <v>587</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4378,10 +4568,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>338</v>
+        <v>854</v>
       </c>
       <c r="D4" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4398,10 +4588,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D5" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,10 +4608,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D6" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4438,10 +4628,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D7" t="s">
-        <v>653</v>
+        <v>591</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4458,10 +4648,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>855</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
+        <v>856</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4478,10 +4668,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D9" t="s">
-        <v>655</v>
+        <v>803</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4498,10 +4688,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>656</v>
+        <v>857</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4518,10 +4708,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D11" t="s">
-        <v>657</v>
+        <v>620</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4538,10 +4728,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>658</v>
+        <v>858</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4558,10 +4748,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D13" t="s">
-        <v>659</v>
+        <v>859</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4578,10 +4768,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>860</v>
       </c>
       <c r="D14" t="s">
-        <v>660</v>
+        <v>751</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4598,10 +4788,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4618,10 +4808,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>662</v>
+        <v>862</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4638,10 +4828,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D17" t="s">
-        <v>663</v>
+        <v>863</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4658,10 +4848,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D18" t="s">
-        <v>664</v>
+        <v>864</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4678,10 +4868,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D19" t="s">
-        <v>665</v>
+        <v>865</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4698,10 +4888,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D20" t="s">
-        <v>666</v>
+        <v>866</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4718,10 +4908,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4738,10 +4928,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D22" t="s">
-        <v>668</v>
+        <v>868</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4758,10 +4948,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D23" t="s">
-        <v>669</v>
+        <v>869</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4778,10 +4968,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D24" t="s">
-        <v>670</v>
+        <v>870</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4798,10 +4988,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D25" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4818,10 +5008,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D26" t="s">
-        <v>672</v>
+        <v>797</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4838,10 +5028,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D27" t="s">
-        <v>673</v>
+        <v>871</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4858,10 +5048,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D28" t="s">
-        <v>674</v>
+        <v>872</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4878,10 +5068,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D29" t="s">
-        <v>675</v>
+        <v>873</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4898,10 +5088,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>874</v>
       </c>
       <c r="D30" t="s">
-        <v>676</v>
+        <v>795</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4918,10 +5108,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D31" t="s">
-        <v>677</v>
+        <v>875</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4938,10 +5128,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D32" t="s">
-        <v>678</v>
+        <v>876</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4958,10 +5148,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D33" t="s">
-        <v>679</v>
+        <v>877</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4978,10 +5168,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D34" t="s">
-        <v>680</v>
+        <v>878</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4998,10 +5188,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>369</v>
+        <v>879</v>
       </c>
       <c r="D35" t="s">
-        <v>681</v>
+        <v>880</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5018,10 +5208,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>370</v>
+        <v>881</v>
       </c>
       <c r="D36" t="s">
-        <v>682</v>
+        <v>882</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5038,10 +5228,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D37" t="s">
-        <v>683</v>
+        <v>883</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5058,10 +5248,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D38" t="s">
-        <v>684</v>
+        <v>884</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5078,10 +5268,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D39" t="s">
-        <v>685</v>
+        <v>885</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5098,10 +5288,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>374</v>
+        <v>886</v>
       </c>
       <c r="D40" t="s">
-        <v>686</v>
+        <v>846</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5118,10 +5308,10 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D41" t="s">
-        <v>687</v>
+        <v>887</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5138,10 +5328,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D42" t="s">
-        <v>688</v>
+        <v>888</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5158,10 +5348,10 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>377</v>
+        <v>889</v>
       </c>
       <c r="D43" t="s">
-        <v>689</v>
+        <v>592</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5178,10 +5368,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D44" t="s">
-        <v>690</v>
+        <v>593</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5198,10 +5388,10 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D45" t="s">
-        <v>691</v>
+        <v>890</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5218,10 +5408,10 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D46" t="s">
-        <v>692</v>
+        <v>594</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5238,10 +5428,10 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D47" t="s">
-        <v>693</v>
+        <v>595</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5258,10 +5448,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D48" t="s">
-        <v>694</v>
+        <v>596</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5278,10 +5468,10 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D49" t="s">
-        <v>695</v>
+        <v>597</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5298,10 +5488,10 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D50" t="s">
-        <v>696</v>
+        <v>598</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5318,10 +5508,10 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D51" t="s">
-        <v>697</v>
+        <v>599</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5338,10 +5528,10 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D52" t="s">
-        <v>698</v>
+        <v>600</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5358,10 +5548,10 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D53" t="s">
-        <v>699</v>
+        <v>601</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5378,10 +5568,10 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D54" t="s">
-        <v>700</v>
+        <v>602</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5398,10 +5588,10 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D55" t="s">
-        <v>701</v>
+        <v>603</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5418,10 +5608,10 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D56" t="s">
-        <v>702</v>
+        <v>604</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5438,10 +5628,10 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D57" t="s">
-        <v>703</v>
+        <v>605</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5458,10 +5648,10 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D58" t="s">
-        <v>704</v>
+        <v>606</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -5478,10 +5668,10 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D59" t="s">
-        <v>705</v>
+        <v>607</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5498,10 +5688,10 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>394</v>
+        <v>891</v>
       </c>
       <c r="D60" t="s">
-        <v>706</v>
+        <v>608</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5518,10 +5708,10 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D61" t="s">
-        <v>707</v>
+        <v>609</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5538,10 +5728,10 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>396</v>
+        <v>892</v>
       </c>
       <c r="D62" t="s">
-        <v>708</v>
+        <v>610</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5558,10 +5748,10 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>397</v>
+        <v>893</v>
       </c>
       <c r="D63" t="s">
-        <v>709</v>
+        <v>611</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5578,10 +5768,10 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>398</v>
+        <v>894</v>
       </c>
       <c r="D64" t="s">
-        <v>710</v>
+        <v>612</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5598,10 +5788,10 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D65" t="s">
-        <v>711</v>
+        <v>613</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5618,10 +5808,10 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>400</v>
+        <v>895</v>
       </c>
       <c r="D66" t="s">
-        <v>712</v>
+        <v>614</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5638,10 +5828,10 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="D67" t="s">
-        <v>713</v>
+        <v>615</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5658,10 +5848,10 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D68" t="s">
-        <v>714</v>
+        <v>616</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5678,10 +5868,10 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D69" t="s">
-        <v>694</v>
+        <v>596</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5698,10 +5888,10 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D70" t="s">
-        <v>715</v>
+        <v>617</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5718,10 +5908,10 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D71" t="s">
-        <v>716</v>
+        <v>618</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5738,10 +5928,10 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D72" t="s">
-        <v>717</v>
+        <v>619</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5758,10 +5948,10 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D73" t="s">
-        <v>718</v>
+        <v>620</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5778,10 +5968,10 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>408</v>
+        <v>896</v>
       </c>
       <c r="D74" t="s">
-        <v>719</v>
+        <v>621</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5798,10 +5988,10 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D75" t="s">
-        <v>720</v>
+        <v>622</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5818,10 +6008,10 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D76" t="s">
-        <v>721</v>
+        <v>623</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5838,10 +6028,10 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D77" t="s">
-        <v>722</v>
+        <v>624</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5858,10 +6048,10 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D78" t="s">
-        <v>723</v>
+        <v>625</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5878,10 +6068,10 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D79" t="s">
-        <v>724</v>
+        <v>626</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5898,10 +6088,10 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D80" t="s">
-        <v>725</v>
+        <v>627</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5918,10 +6108,10 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D81" t="s">
-        <v>726</v>
+        <v>628</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5938,10 +6128,10 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D82" t="s">
-        <v>727</v>
+        <v>629</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5958,10 +6148,10 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>417</v>
+        <v>897</v>
       </c>
       <c r="D83" t="s">
-        <v>728</v>
+        <v>630</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5978,10 +6168,10 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="D84" t="s">
-        <v>729</v>
+        <v>631</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5998,10 +6188,10 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D85" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -6018,10 +6208,10 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D86" t="s">
-        <v>731</v>
+        <v>633</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -6038,10 +6228,10 @@
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D87" t="s">
-        <v>732</v>
+        <v>634</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -6058,10 +6248,10 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>422</v>
+        <v>898</v>
       </c>
       <c r="D88" t="s">
-        <v>733</v>
+        <v>635</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6078,10 +6268,10 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D89" t="s">
-        <v>734</v>
+        <v>636</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -6098,10 +6288,10 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D90" t="s">
-        <v>735</v>
+        <v>637</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6118,10 +6308,10 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D91" t="s">
-        <v>736</v>
+        <v>638</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6138,10 +6328,10 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D92" t="s">
-        <v>737</v>
+        <v>639</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6158,10 +6348,10 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D93" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6178,10 +6368,10 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D94" t="s">
-        <v>738</v>
+        <v>640</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6198,10 +6388,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>429</v>
+        <v>899</v>
       </c>
       <c r="D95" t="s">
-        <v>739</v>
+        <v>641</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6218,10 +6408,10 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D96" t="s">
-        <v>740</v>
+        <v>642</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6238,10 +6428,10 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D97" t="s">
-        <v>741</v>
+        <v>643</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6258,10 +6448,10 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D98" t="s">
-        <v>742</v>
+        <v>644</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6278,10 +6468,10 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D99" t="s">
-        <v>743</v>
+        <v>645</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6298,10 +6488,10 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="D100" t="s">
-        <v>744</v>
+        <v>646</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6318,10 +6508,10 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>435</v>
+        <v>900</v>
       </c>
       <c r="D101" t="s">
-        <v>745</v>
+        <v>647</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6338,10 +6528,10 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>436</v>
+        <v>901</v>
       </c>
       <c r="D102" t="s">
-        <v>746</v>
+        <v>648</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6358,10 +6548,10 @@
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D103" t="s">
-        <v>747</v>
+        <v>649</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6378,10 +6568,10 @@
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D104" t="s">
-        <v>748</v>
+        <v>650</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6398,10 +6588,10 @@
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="D105" t="s">
-        <v>749</v>
+        <v>651</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6418,10 +6608,10 @@
         <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="D106" t="s">
-        <v>750</v>
+        <v>652</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6438,10 +6628,10 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>441</v>
+        <v>902</v>
       </c>
       <c r="D107" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6458,10 +6648,10 @@
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="D108" t="s">
-        <v>751</v>
+        <v>653</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6478,10 +6668,10 @@
         <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="D109" t="s">
-        <v>752</v>
+        <v>654</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6498,10 +6688,10 @@
         <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="D110" t="s">
-        <v>753</v>
+        <v>655</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -6518,10 +6708,10 @@
         <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="D111" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -6538,10 +6728,10 @@
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="D112" t="s">
-        <v>755</v>
+        <v>657</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -6558,10 +6748,10 @@
         <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>447</v>
+        <v>903</v>
       </c>
       <c r="D113" t="s">
-        <v>756</v>
+        <v>658</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6578,10 +6768,10 @@
         <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="D114" t="s">
-        <v>757</v>
+        <v>659</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -6598,10 +6788,10 @@
         <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D115" t="s">
-        <v>758</v>
+        <v>660</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6618,10 +6808,10 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>450</v>
+        <v>904</v>
       </c>
       <c r="D116" t="s">
-        <v>759</v>
+        <v>661</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6638,10 +6828,10 @@
         <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="D117" t="s">
-        <v>760</v>
+        <v>662</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6658,10 +6848,10 @@
         <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="D118" t="s">
-        <v>761</v>
+        <v>663</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -6678,10 +6868,10 @@
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="D119" t="s">
-        <v>762</v>
+        <v>664</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6698,10 +6888,10 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="D120" t="s">
-        <v>763</v>
+        <v>665</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6718,10 +6908,10 @@
         <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="D121" t="s">
-        <v>764</v>
+        <v>666</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6738,10 +6928,10 @@
         <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="D122" t="s">
-        <v>765</v>
+        <v>667</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -6758,10 +6948,10 @@
         <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="D123" t="s">
-        <v>766</v>
+        <v>668</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6778,10 +6968,10 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>458</v>
+        <v>905</v>
       </c>
       <c r="D124" t="s">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -6798,10 +6988,10 @@
         <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="D125" t="s">
-        <v>768</v>
+        <v>670</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -6818,10 +7008,10 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="D126" t="s">
-        <v>769</v>
+        <v>671</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -6838,10 +7028,10 @@
         <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D127" t="s">
-        <v>770</v>
+        <v>672</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -6858,10 +7048,10 @@
         <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="D128" t="s">
-        <v>771</v>
+        <v>673</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6878,10 +7068,10 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="D129" t="s">
-        <v>772</v>
+        <v>674</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6898,10 +7088,10 @@
         <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D130" t="s">
-        <v>722</v>
+        <v>624</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6918,10 +7108,10 @@
         <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="D131" t="s">
-        <v>773</v>
+        <v>675</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6938,10 +7128,10 @@
         <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="D132" t="s">
-        <v>774</v>
+        <v>676</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6958,10 +7148,10 @@
         <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D133" t="s">
-        <v>653</v>
+        <v>591</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -6978,10 +7168,10 @@
         <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="D134" t="s">
-        <v>775</v>
+        <v>677</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6998,10 +7188,10 @@
         <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="D135" t="s">
-        <v>776</v>
+        <v>678</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -7018,10 +7208,10 @@
         <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>470</v>
+        <v>906</v>
       </c>
       <c r="D136" t="s">
-        <v>712</v>
+        <v>614</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -7038,10 +7228,10 @@
         <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>471</v>
+        <v>907</v>
       </c>
       <c r="D137" t="s">
-        <v>777</v>
+        <v>679</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7058,10 +7248,10 @@
         <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="D138" t="s">
-        <v>778</v>
+        <v>680</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7078,10 +7268,10 @@
         <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="D139" t="s">
-        <v>779</v>
+        <v>681</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7098,10 +7288,10 @@
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="D140" t="s">
-        <v>780</v>
+        <v>682</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7118,10 +7308,10 @@
         <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="D141" t="s">
-        <v>781</v>
+        <v>683</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7138,10 +7328,10 @@
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="D142" t="s">
-        <v>782</v>
+        <v>684</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -7158,10 +7348,10 @@
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>477</v>
+        <v>908</v>
       </c>
       <c r="D143" t="s">
-        <v>783</v>
+        <v>685</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -7178,10 +7368,10 @@
         <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="D144" t="s">
-        <v>697</v>
+        <v>599</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -7198,10 +7388,10 @@
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="D145" t="s">
-        <v>784</v>
+        <v>686</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7218,10 +7408,10 @@
         <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="D146" t="s">
-        <v>785</v>
+        <v>687</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7238,10 +7428,10 @@
         <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="D147" t="s">
-        <v>786</v>
+        <v>688</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7258,10 +7448,10 @@
         <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>482</v>
+        <v>909</v>
       </c>
       <c r="D148" t="s">
-        <v>787</v>
+        <v>689</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7278,10 +7468,10 @@
         <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="D149" t="s">
-        <v>788</v>
+        <v>690</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7298,10 +7488,10 @@
         <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="D150" t="s">
-        <v>789</v>
+        <v>691</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7318,10 +7508,10 @@
         <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="D151" t="s">
-        <v>790</v>
+        <v>692</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7338,10 +7528,10 @@
         <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="D152" t="s">
-        <v>791</v>
+        <v>693</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7358,10 +7548,10 @@
         <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="D153" t="s">
-        <v>792</v>
+        <v>694</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -7378,10 +7568,10 @@
         <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="D154" t="s">
-        <v>793</v>
+        <v>695</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7398,10 +7588,10 @@
         <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="D155" t="s">
-        <v>794</v>
+        <v>696</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7418,10 +7608,10 @@
         <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="D156" t="s">
-        <v>795</v>
+        <v>697</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7438,10 +7628,10 @@
         <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="D157" t="s">
-        <v>796</v>
+        <v>698</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7458,10 +7648,10 @@
         <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="D158" t="s">
-        <v>797</v>
+        <v>699</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7478,10 +7668,10 @@
         <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="D159" t="s">
-        <v>798</v>
+        <v>700</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7498,10 +7688,10 @@
         <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="D160" t="s">
-        <v>734</v>
+        <v>636</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7518,10 +7708,10 @@
         <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="D161" t="s">
-        <v>799</v>
+        <v>701</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -7538,10 +7728,10 @@
         <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="D162" t="s">
-        <v>800</v>
+        <v>702</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7558,10 +7748,10 @@
         <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="D163" t="s">
-        <v>801</v>
+        <v>703</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -7578,10 +7768,10 @@
         <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="D164" t="s">
-        <v>802</v>
+        <v>704</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -7598,10 +7788,10 @@
         <v>169</v>
       </c>
       <c r="C165" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="D165" t="s">
-        <v>803</v>
+        <v>705</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7618,10 +7808,10 @@
         <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="D166" t="s">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7638,10 +7828,10 @@
         <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>501</v>
+        <v>910</v>
       </c>
       <c r="D167" t="s">
-        <v>804</v>
+        <v>706</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7658,10 +7848,10 @@
         <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="D168" t="s">
-        <v>805</v>
+        <v>707</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7678,10 +7868,10 @@
         <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="D169" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7698,10 +7888,10 @@
         <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="D170" t="s">
-        <v>806</v>
+        <v>708</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7718,10 +7908,10 @@
         <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="D171" t="s">
-        <v>807</v>
+        <v>709</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7738,10 +7928,10 @@
         <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="D172" t="s">
-        <v>808</v>
+        <v>710</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7758,10 +7948,10 @@
         <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="D173" t="s">
-        <v>809</v>
+        <v>711</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7778,10 +7968,10 @@
         <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D174" t="s">
-        <v>810</v>
+        <v>712</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7798,10 +7988,10 @@
         <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D175" t="s">
-        <v>776</v>
+        <v>678</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -7818,10 +8008,10 @@
         <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="D176" t="s">
-        <v>811</v>
+        <v>713</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -7838,10 +8028,10 @@
         <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>511</v>
+        <v>911</v>
       </c>
       <c r="D177" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7858,10 +8048,10 @@
         <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>512</v>
+        <v>912</v>
       </c>
       <c r="D178" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7878,10 +8068,10 @@
         <v>183</v>
       </c>
       <c r="C179" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="D179" t="s">
-        <v>812</v>
+        <v>714</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -7898,10 +8088,10 @@
         <v>184</v>
       </c>
       <c r="C180" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="D180" t="s">
-        <v>813</v>
+        <v>715</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7918,10 +8108,10 @@
         <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="D181" t="s">
-        <v>814</v>
+        <v>716</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -7938,10 +8128,10 @@
         <v>186</v>
       </c>
       <c r="C182" t="s">
-        <v>516</v>
+        <v>913</v>
       </c>
       <c r="D182" t="s">
-        <v>815</v>
+        <v>717</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7958,10 +8148,10 @@
         <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="D183" t="s">
-        <v>816</v>
+        <v>718</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -7978,10 +8168,10 @@
         <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="D184" t="s">
-        <v>817</v>
+        <v>719</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7998,10 +8188,10 @@
         <v>189</v>
       </c>
       <c r="C185" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="D185" t="s">
-        <v>818</v>
+        <v>720</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -8018,10 +8208,10 @@
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="D186" t="s">
-        <v>819</v>
+        <v>721</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -8038,10 +8228,10 @@
         <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>521</v>
+        <v>914</v>
       </c>
       <c r="D187" t="s">
-        <v>820</v>
+        <v>722</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -8058,10 +8248,10 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>522</v>
+        <v>915</v>
       </c>
       <c r="D188" t="s">
-        <v>821</v>
+        <v>723</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -8078,10 +8268,10 @@
         <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="D189" t="s">
-        <v>822</v>
+        <v>724</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -8098,10 +8288,10 @@
         <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="D190" t="s">
-        <v>823</v>
+        <v>725</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -8118,10 +8308,10 @@
         <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="D191" t="s">
-        <v>824</v>
+        <v>726</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -8138,10 +8328,10 @@
         <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="D192" t="s">
-        <v>825</v>
+        <v>727</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -8158,10 +8348,10 @@
         <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>527</v>
+        <v>916</v>
       </c>
       <c r="D193" t="s">
-        <v>826</v>
+        <v>728</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -8178,10 +8368,10 @@
         <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="D194" t="s">
-        <v>827</v>
+        <v>729</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -8198,10 +8388,10 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="D195" t="s">
-        <v>828</v>
+        <v>730</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -8218,10 +8408,10 @@
         <v>200</v>
       </c>
       <c r="C196" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="D196" t="s">
-        <v>829</v>
+        <v>731</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8238,10 +8428,10 @@
         <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="D197" t="s">
-        <v>830</v>
+        <v>732</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8258,10 +8448,10 @@
         <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="D198" t="s">
-        <v>805</v>
+        <v>707</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8278,10 +8468,10 @@
         <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="D199" t="s">
-        <v>831</v>
+        <v>733</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8298,10 +8488,10 @@
         <v>204</v>
       </c>
       <c r="C200" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="D200" t="s">
-        <v>832</v>
+        <v>734</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8318,10 +8508,10 @@
         <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="D201" t="s">
-        <v>696</v>
+        <v>598</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -8338,10 +8528,10 @@
         <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="D202" t="s">
-        <v>833</v>
+        <v>735</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8358,10 +8548,10 @@
         <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>537</v>
+        <v>917</v>
       </c>
       <c r="D203" t="s">
-        <v>834</v>
+        <v>736</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8378,10 +8568,10 @@
         <v>208</v>
       </c>
       <c r="C204" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
       <c r="D204" t="s">
-        <v>835</v>
+        <v>737</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8398,10 +8588,10 @@
         <v>209</v>
       </c>
       <c r="C205" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="D205" t="s">
-        <v>836</v>
+        <v>738</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -8418,10 +8608,10 @@
         <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="D206" t="s">
-        <v>837</v>
+        <v>739</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -8438,10 +8628,10 @@
         <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>541</v>
+        <v>918</v>
       </c>
       <c r="D207" t="s">
-        <v>734</v>
+        <v>636</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -8458,10 +8648,10 @@
         <v>212</v>
       </c>
       <c r="C208" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="D208" t="s">
-        <v>820</v>
+        <v>722</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -8478,10 +8668,10 @@
         <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>543</v>
+        <v>919</v>
       </c>
       <c r="D209" t="s">
-        <v>838</v>
+        <v>740</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -8498,10 +8688,10 @@
         <v>87</v>
       </c>
       <c r="C210" t="s">
-        <v>544</v>
+        <v>920</v>
       </c>
       <c r="D210" t="s">
-        <v>728</v>
+        <v>630</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -8518,10 +8708,10 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="D211" t="s">
-        <v>839</v>
+        <v>741</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8538,10 +8728,10 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="D212" t="s">
-        <v>840</v>
+        <v>742</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8558,10 +8748,10 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>547</v>
+        <v>921</v>
       </c>
       <c r="D213" t="s">
-        <v>841</v>
+        <v>743</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8578,10 +8768,10 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>348</v>
+        <v>860</v>
       </c>
       <c r="D214" t="s">
-        <v>712</v>
+        <v>614</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -8598,10 +8788,10 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="D215" t="s">
-        <v>842</v>
+        <v>744</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8618,10 +8808,10 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>549</v>
+        <v>922</v>
       </c>
       <c r="D216" t="s">
-        <v>843</v>
+        <v>745</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8638,10 +8828,10 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="D217" t="s">
-        <v>844</v>
+        <v>746</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8658,10 +8848,10 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="D218" t="s">
-        <v>845</v>
+        <v>747</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8678,10 +8868,10 @@
         <v>94</v>
       </c>
       <c r="C219" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
       <c r="D219" t="s">
-        <v>735</v>
+        <v>637</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -8698,10 +8888,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>553</v>
+        <v>511</v>
       </c>
       <c r="D220" t="s">
-        <v>846</v>
+        <v>748</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8718,10 +8908,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="D221" t="s">
-        <v>847</v>
+        <v>749</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8738,10 +8928,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>555</v>
+        <v>923</v>
       </c>
       <c r="D222" t="s">
-        <v>769</v>
+        <v>671</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -8758,10 +8948,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="D223" t="s">
-        <v>848</v>
+        <v>750</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8778,10 +8968,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>400</v>
+        <v>895</v>
       </c>
       <c r="D224" t="s">
-        <v>849</v>
+        <v>751</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8798,10 +8988,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="D225" t="s">
-        <v>850</v>
+        <v>752</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -8818,10 +9008,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="D226" t="s">
-        <v>851</v>
+        <v>753</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -8838,10 +9028,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>559</v>
+        <v>924</v>
       </c>
       <c r="D227" t="s">
-        <v>852</v>
+        <v>754</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8858,10 +9048,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>560</v>
+        <v>925</v>
       </c>
       <c r="D228" t="s">
-        <v>849</v>
+        <v>751</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8878,10 +9068,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="D229" t="s">
-        <v>853</v>
+        <v>755</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -8898,10 +9088,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>562</v>
+        <v>517</v>
       </c>
       <c r="D230" t="s">
-        <v>854</v>
+        <v>756</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -8918,10 +9108,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="D231" t="s">
-        <v>855</v>
+        <v>757</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -8938,10 +9128,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="D232" t="s">
-        <v>856</v>
+        <v>758</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -8958,10 +9148,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>565</v>
+        <v>926</v>
       </c>
       <c r="D233" t="s">
-        <v>857</v>
+        <v>759</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -8978,10 +9168,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="D234" t="s">
-        <v>748</v>
+        <v>650</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -8998,10 +9188,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="D235" t="s">
-        <v>701</v>
+        <v>603</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -9018,10 +9208,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
       <c r="D236" t="s">
-        <v>858</v>
+        <v>760</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -9038,10 +9228,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="D237" t="s">
-        <v>859</v>
+        <v>761</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -9058,10 +9248,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
       <c r="D238" t="s">
-        <v>860</v>
+        <v>762</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -9078,10 +9268,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>570</v>
+        <v>927</v>
       </c>
       <c r="D239" t="s">
-        <v>861</v>
+        <v>763</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -9098,10 +9288,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="D240" t="s">
-        <v>862</v>
+        <v>764</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -9118,10 +9308,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="D241" t="s">
-        <v>863</v>
+        <v>765</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -9138,10 +9328,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="D242" t="s">
-        <v>864</v>
+        <v>766</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -9158,10 +9348,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="D243" t="s">
-        <v>865</v>
+        <v>767</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -9178,10 +9368,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="D244" t="s">
-        <v>866</v>
+        <v>768</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -9198,10 +9388,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
       <c r="D245" t="s">
-        <v>867</v>
+        <v>769</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -9218,10 +9408,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="D246" t="s">
-        <v>868</v>
+        <v>770</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -9238,10 +9428,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="D247" t="s">
-        <v>869</v>
+        <v>771</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9258,10 +9448,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="D248" t="s">
-        <v>870</v>
+        <v>772</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9278,10 +9468,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="D249" t="s">
-        <v>871</v>
+        <v>773</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9298,10 +9488,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="D250" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9318,10 +9508,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="D251" t="s">
-        <v>873</v>
+        <v>775</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9338,10 +9528,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="D252" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9358,10 +9548,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="D253" t="s">
-        <v>875</v>
+        <v>777</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9378,10 +9568,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
       <c r="D254" t="s">
-        <v>876</v>
+        <v>778</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9398,10 +9588,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
       <c r="D255" t="s">
-        <v>877</v>
+        <v>779</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9418,10 +9608,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="D256" t="s">
-        <v>878</v>
+        <v>780</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9438,10 +9628,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>588</v>
+        <v>541</v>
       </c>
       <c r="D257" t="s">
-        <v>879</v>
+        <v>781</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9458,10 +9648,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="D258" t="s">
-        <v>880</v>
+        <v>782</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9478,10 +9668,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>590</v>
+        <v>543</v>
       </c>
       <c r="D259" t="s">
-        <v>881</v>
+        <v>783</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9498,10 +9688,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="D260" t="s">
-        <v>882</v>
+        <v>784</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9518,10 +9708,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="D261" t="s">
-        <v>883</v>
+        <v>785</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9538,10 +9728,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>593</v>
+        <v>928</v>
       </c>
       <c r="D262" t="s">
-        <v>826</v>
+        <v>728</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -9558,10 +9748,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="D263" t="s">
-        <v>884</v>
+        <v>786</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9578,10 +9768,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="D264" t="s">
-        <v>885</v>
+        <v>787</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9598,10 +9788,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>596</v>
+        <v>929</v>
       </c>
       <c r="D265" t="s">
-        <v>886</v>
+        <v>788</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9618,10 +9808,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="D266" t="s">
-        <v>887</v>
+        <v>789</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9638,10 +9828,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="D267" t="s">
-        <v>888</v>
+        <v>790</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9658,10 +9848,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="D268" t="s">
-        <v>889</v>
+        <v>791</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9678,10 +9868,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="D269" t="s">
-        <v>809</v>
+        <v>711</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -9698,10 +9888,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="D270" t="s">
-        <v>890</v>
+        <v>792</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9718,10 +9908,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="D271" t="s">
-        <v>891</v>
+        <v>793</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9738,10 +9928,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="D272" t="s">
-        <v>892</v>
+        <v>794</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9758,10 +9948,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>604</v>
+        <v>930</v>
       </c>
       <c r="D273" t="s">
-        <v>893</v>
+        <v>795</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9778,10 +9968,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>605</v>
+        <v>931</v>
       </c>
       <c r="D274" t="s">
-        <v>894</v>
+        <v>796</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9798,10 +9988,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="D275" t="s">
-        <v>895</v>
+        <v>797</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -9818,10 +10008,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="D276" t="s">
-        <v>896</v>
+        <v>798</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -9838,10 +10028,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
       <c r="D277" t="s">
-        <v>897</v>
+        <v>799</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -9858,10 +10048,10 @@
         <v>265</v>
       </c>
       <c r="C278" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
       <c r="D278" t="s">
-        <v>898</v>
+        <v>800</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9878,10 +10068,10 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="D279" t="s">
-        <v>793</v>
+        <v>695</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -9898,10 +10088,10 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>611</v>
+        <v>560</v>
       </c>
       <c r="D280" t="s">
-        <v>899</v>
+        <v>801</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -9918,10 +10108,10 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>612</v>
+        <v>561</v>
       </c>
       <c r="D281" t="s">
-        <v>900</v>
+        <v>802</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -9938,10 +10128,10 @@
         <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="D282" t="s">
-        <v>901</v>
+        <v>803</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9958,10 +10148,10 @@
         <v>283</v>
       </c>
       <c r="C283" t="s">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="D283" t="s">
-        <v>902</v>
+        <v>804</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -9978,10 +10168,10 @@
         <v>284</v>
       </c>
       <c r="C284" t="s">
-        <v>615</v>
+        <v>564</v>
       </c>
       <c r="D284" t="s">
-        <v>903</v>
+        <v>805</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9998,10 +10188,10 @@
         <v>285</v>
       </c>
       <c r="C285" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="D285" t="s">
-        <v>904</v>
+        <v>806</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -10018,10 +10208,10 @@
         <v>286</v>
       </c>
       <c r="C286" t="s">
-        <v>617</v>
+        <v>566</v>
       </c>
       <c r="D286" t="s">
-        <v>905</v>
+        <v>807</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -10038,10 +10228,10 @@
         <v>287</v>
       </c>
       <c r="C287" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="D287" t="s">
-        <v>906</v>
+        <v>808</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -10058,10 +10248,10 @@
         <v>288</v>
       </c>
       <c r="C288" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="D288" t="s">
-        <v>801</v>
+        <v>703</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -10078,10 +10268,10 @@
         <v>289</v>
       </c>
       <c r="C289" t="s">
-        <v>620</v>
+        <v>932</v>
       </c>
       <c r="D289" t="s">
-        <v>907</v>
+        <v>809</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -10098,10 +10288,10 @@
         <v>290</v>
       </c>
       <c r="C290" t="s">
-        <v>621</v>
+        <v>569</v>
       </c>
       <c r="D290" t="s">
-        <v>908</v>
+        <v>810</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -10118,10 +10308,10 @@
         <v>291</v>
       </c>
       <c r="C291" t="s">
-        <v>622</v>
+        <v>933</v>
       </c>
       <c r="D291" t="s">
-        <v>909</v>
+        <v>811</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -10138,10 +10328,10 @@
         <v>292</v>
       </c>
       <c r="C292" t="s">
-        <v>623</v>
+        <v>570</v>
       </c>
       <c r="D292" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -10158,10 +10348,10 @@
         <v>293</v>
       </c>
       <c r="C293" t="s">
-        <v>624</v>
+        <v>571</v>
       </c>
       <c r="D293" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -10178,10 +10368,10 @@
         <v>294</v>
       </c>
       <c r="C294" t="s">
-        <v>625</v>
+        <v>572</v>
       </c>
       <c r="D294" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -10198,10 +10388,10 @@
         <v>295</v>
       </c>
       <c r="C295" t="s">
-        <v>626</v>
+        <v>573</v>
       </c>
       <c r="D295" t="s">
-        <v>913</v>
+        <v>815</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -10218,10 +10408,10 @@
         <v>296</v>
       </c>
       <c r="C296" t="s">
-        <v>627</v>
+        <v>934</v>
       </c>
       <c r="D296" t="s">
-        <v>914</v>
+        <v>816</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -10238,10 +10428,10 @@
         <v>297</v>
       </c>
       <c r="C297" t="s">
-        <v>628</v>
+        <v>935</v>
       </c>
       <c r="D297" t="s">
-        <v>915</v>
+        <v>817</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10258,10 +10448,10 @@
         <v>298</v>
       </c>
       <c r="C298" t="s">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="D298" t="s">
-        <v>916</v>
+        <v>818</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10278,10 +10468,10 @@
         <v>299</v>
       </c>
       <c r="C299" t="s">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="D299" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -10298,10 +10488,10 @@
         <v>300</v>
       </c>
       <c r="C300" t="s">
-        <v>631</v>
+        <v>576</v>
       </c>
       <c r="D300" t="s">
-        <v>917</v>
+        <v>819</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10318,10 +10508,10 @@
         <v>301</v>
       </c>
       <c r="C301" t="s">
-        <v>632</v>
+        <v>936</v>
       </c>
       <c r="D301" t="s">
-        <v>918</v>
+        <v>820</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10338,10 +10528,10 @@
         <v>302</v>
       </c>
       <c r="C302" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
       <c r="D302" t="s">
-        <v>919</v>
+        <v>821</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10358,10 +10548,10 @@
         <v>303</v>
       </c>
       <c r="C303" t="s">
-        <v>634</v>
+        <v>578</v>
       </c>
       <c r="D303" t="s">
-        <v>920</v>
+        <v>822</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10378,10 +10568,10 @@
         <v>304</v>
       </c>
       <c r="C304" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
       <c r="D304" t="s">
-        <v>921</v>
+        <v>823</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10398,10 +10588,10 @@
         <v>305</v>
       </c>
       <c r="C305" t="s">
-        <v>636</v>
+        <v>580</v>
       </c>
       <c r="D305" t="s">
-        <v>922</v>
+        <v>824</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10418,10 +10608,10 @@
         <v>306</v>
       </c>
       <c r="C306" t="s">
-        <v>637</v>
+        <v>581</v>
       </c>
       <c r="D306" t="s">
-        <v>923</v>
+        <v>825</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10438,10 +10628,10 @@
         <v>307</v>
       </c>
       <c r="C307" t="s">
-        <v>638</v>
+        <v>937</v>
       </c>
       <c r="D307" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -10458,10 +10648,10 @@
         <v>54</v>
       </c>
       <c r="C308" t="s">
-        <v>639</v>
+        <v>582</v>
       </c>
       <c r="D308" t="s">
-        <v>924</v>
+        <v>826</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10478,10 +10668,10 @@
         <v>308</v>
       </c>
       <c r="C309" t="s">
-        <v>640</v>
+        <v>938</v>
       </c>
       <c r="D309" t="s">
-        <v>925</v>
+        <v>827</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10498,10 +10688,10 @@
         <v>309</v>
       </c>
       <c r="C310" t="s">
-        <v>641</v>
+        <v>583</v>
       </c>
       <c r="D310" t="s">
-        <v>926</v>
+        <v>828</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10518,10 +10708,10 @@
         <v>310</v>
       </c>
       <c r="C311" t="s">
-        <v>642</v>
+        <v>584</v>
       </c>
       <c r="D311" t="s">
-        <v>927</v>
+        <v>829</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10538,10 +10728,10 @@
         <v>311</v>
       </c>
       <c r="C312" t="s">
-        <v>643</v>
+        <v>585</v>
       </c>
       <c r="D312" t="s">
-        <v>928</v>
+        <v>830</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10558,10 +10748,10 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>644</v>
+        <v>939</v>
       </c>
       <c r="D313" t="s">
-        <v>709</v>
+        <v>611</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -10578,10 +10768,10 @@
         <v>313</v>
       </c>
       <c r="C314" t="s">
-        <v>645</v>
+        <v>940</v>
       </c>
       <c r="D314" t="s">
-        <v>929</v>
+        <v>831</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10598,10 +10788,10 @@
         <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>646</v>
+        <v>941</v>
       </c>
       <c r="D315" t="s">
-        <v>930</v>
+        <v>832</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10618,10 +10808,10 @@
         <v>315</v>
       </c>
       <c r="C316" t="s">
-        <v>647</v>
+        <v>942</v>
       </c>
       <c r="D316" t="s">
-        <v>930</v>
+        <v>832</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -10638,10 +10828,10 @@
         <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="D317" t="s">
-        <v>931</v>
+        <v>833</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -10658,10 +10848,10 @@
         <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="D318" t="s">
-        <v>932</v>
+        <v>834</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -10678,10 +10868,10 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="D319" t="s">
-        <v>933</v>
+        <v>835</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -10698,10 +10888,10 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="D320" t="s">
-        <v>934</v>
+        <v>836</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -10718,10 +10908,10 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="D321" t="s">
-        <v>935</v>
+        <v>837</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -10738,10 +10928,10 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="D322" t="s">
-        <v>936</v>
+        <v>838</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -10758,10 +10948,10 @@
         <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="D323" t="s">
-        <v>937</v>
+        <v>839</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -10778,10 +10968,10 @@
         <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="D324" t="s">
-        <v>938</v>
+        <v>840</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -10798,10 +10988,10 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="D325" t="s">
-        <v>939</v>
+        <v>841</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -10818,10 +11008,10 @@
         <v>325</v>
       </c>
       <c r="C326" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="D326" t="s">
-        <v>940</v>
+        <v>842</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -10838,10 +11028,10 @@
         <v>326</v>
       </c>
       <c r="C327" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="D327" t="s">
-        <v>941</v>
+        <v>843</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -10858,10 +11048,10 @@
         <v>327</v>
       </c>
       <c r="C328" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="D328" t="s">
-        <v>942</v>
+        <v>844</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -10878,10 +11068,10 @@
         <v>328</v>
       </c>
       <c r="C329" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D329" t="s">
-        <v>943</v>
+        <v>845</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -10898,10 +11088,10 @@
         <v>329</v>
       </c>
       <c r="C330" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="D330" t="s">
-        <v>944</v>
+        <v>846</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -10918,10 +11108,10 @@
         <v>330</v>
       </c>
       <c r="C331" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="D331" t="s">
-        <v>945</v>
+        <v>847</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -10938,10 +11128,10 @@
         <v>331</v>
       </c>
       <c r="C332" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D332" t="s">
-        <v>946</v>
+        <v>848</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -10958,10 +11148,10 @@
         <v>332</v>
       </c>
       <c r="C333" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D333" t="s">
-        <v>947</v>
+        <v>849</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -10978,10 +11168,10 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D334" t="s">
-        <v>948</v>
+        <v>850</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -10998,10 +11188,10 @@
         <v>334</v>
       </c>
       <c r="C335" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="D335" t="s">
-        <v>949</v>
+        <v>851</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11018,10 +11208,10 @@
         <v>335</v>
       </c>
       <c r="C336" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="D336" t="s">
-        <v>833</v>
+        <v>735</v>
       </c>
       <c r="E336">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E5403-A346-47ED-9E8A-3ACDF91F46A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A5B415-8E8F-4D46-A05A-61DC3A904D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:F336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:F336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A5B415-8E8F-4D46-A05A-61DC3A904D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E8850-295B-495C-8DA9-F3D1EE0BE96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3029,9 +3029,6 @@
     <t>Transparency</t>
   </si>
   <si>
-    <t>Improve predictability</t>
-  </si>
-  <si>
     <t>Team and Technical Agility</t>
   </si>
   <si>
@@ -4121,6 +4118,9 @@
 Release Train Engineer.
 Product Management.
 Solution Management.</t>
+  </si>
+  <si>
+    <t>They help improve predictability</t>
   </si>
 </sst>
 </file>
@@ -4490,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F336"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4528,7 +4528,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D2" t="s">
         <v>586</v>
@@ -4548,7 +4548,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D3" t="s">
         <v>587</v>
@@ -4568,7 +4568,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D4" t="s">
         <v>588</v>
@@ -4648,10 +4648,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>854</v>
+      </c>
+      <c r="D8" t="s">
         <v>855</v>
-      </c>
-      <c r="D8" t="s">
-        <v>856</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>339</v>
       </c>
       <c r="D9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>343</v>
       </c>
       <c r="D13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D14" t="s">
         <v>751</v>
@@ -4791,7 +4791,7 @@
         <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>346</v>
       </c>
       <c r="D17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>347</v>
       </c>
       <c r="D18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>348</v>
       </c>
       <c r="D19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>349</v>
       </c>
       <c r="D20" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>350</v>
       </c>
       <c r="D21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>351</v>
       </c>
       <c r="D22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>352</v>
       </c>
       <c r="D23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>353</v>
       </c>
       <c r="D24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>355</v>
       </c>
       <c r="D26" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>356</v>
       </c>
       <c r="D27" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>357</v>
       </c>
       <c r="D28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5071,7 +5071,7 @@
         <v>358</v>
       </c>
       <c r="D29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5088,10 +5088,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>359</v>
       </c>
       <c r="D31" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>360</v>
       </c>
       <c r="D32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         <v>361</v>
       </c>
       <c r="D33" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>362</v>
       </c>
       <c r="D34" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5188,10 +5188,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
+        <v>878</v>
+      </c>
+      <c r="D35" t="s">
         <v>879</v>
-      </c>
-      <c r="D35" t="s">
-        <v>880</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5208,10 +5208,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
+        <v>880</v>
+      </c>
+      <c r="D36" t="s">
         <v>881</v>
-      </c>
-      <c r="D36" t="s">
-        <v>882</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>363</v>
       </c>
       <c r="D37" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>364</v>
       </c>
       <c r="D38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5271,7 +5271,7 @@
         <v>365</v>
       </c>
       <c r="D39" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5288,10 +5288,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D40" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>366</v>
       </c>
       <c r="D41" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>367</v>
       </c>
       <c r="D42" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D43" t="s">
         <v>592</v>
@@ -5391,7 +5391,7 @@
         <v>369</v>
       </c>
       <c r="D45" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D60" t="s">
         <v>608</v>
@@ -5728,7 +5728,7 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D62" t="s">
         <v>610</v>
@@ -5748,7 +5748,7 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D63" t="s">
         <v>611</v>
@@ -5768,7 +5768,7 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D64" t="s">
         <v>612</v>
@@ -5808,7 +5808,7 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D66" t="s">
         <v>614</v>
@@ -5968,7 +5968,7 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D74" t="s">
         <v>621</v>
@@ -6148,7 +6148,7 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D83" t="s">
         <v>630</v>
@@ -6248,7 +6248,7 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D88" t="s">
         <v>635</v>
@@ -6388,7 +6388,7 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D95" t="s">
         <v>641</v>
@@ -6508,7 +6508,7 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D101" t="s">
         <v>647</v>
@@ -6528,7 +6528,7 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D102" t="s">
         <v>648</v>
@@ -6628,7 +6628,7 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D107" t="s">
         <v>632</v>
@@ -6748,7 +6748,7 @@
         <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D113" t="s">
         <v>658</v>
@@ -6808,7 +6808,7 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D116" t="s">
         <v>661</v>
@@ -6968,7 +6968,7 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D124" t="s">
         <v>669</v>
@@ -7208,7 +7208,7 @@
         <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D136" t="s">
         <v>614</v>
@@ -7228,7 +7228,7 @@
         <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D137" t="s">
         <v>679</v>
@@ -7348,7 +7348,7 @@
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D143" t="s">
         <v>685</v>
@@ -7448,7 +7448,7 @@
         <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D148" t="s">
         <v>689</v>
@@ -7828,7 +7828,7 @@
         <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D167" t="s">
         <v>706</v>
@@ -8028,7 +8028,7 @@
         <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D177" t="s">
         <v>632</v>
@@ -8048,7 +8048,7 @@
         <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D178" t="s">
         <v>632</v>
@@ -8128,7 +8128,7 @@
         <v>186</v>
       </c>
       <c r="C182" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D182" t="s">
         <v>717</v>
@@ -8228,7 +8228,7 @@
         <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D187" t="s">
         <v>722</v>
@@ -8248,7 +8248,7 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D188" t="s">
         <v>723</v>
@@ -8348,7 +8348,7 @@
         <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D193" t="s">
         <v>728</v>
@@ -8548,7 +8548,7 @@
         <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D203" t="s">
         <v>736</v>
@@ -8628,7 +8628,7 @@
         <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D207" t="s">
         <v>636</v>
@@ -8668,7 +8668,7 @@
         <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D209" t="s">
         <v>740</v>
@@ -8688,7 +8688,7 @@
         <v>87</v>
       </c>
       <c r="C210" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D210" t="s">
         <v>630</v>
@@ -8748,7 +8748,7 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D213" t="s">
         <v>743</v>
@@ -8768,7 +8768,7 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D214" t="s">
         <v>614</v>
@@ -8808,7 +8808,7 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D216" t="s">
         <v>745</v>
@@ -8928,7 +8928,7 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D222" t="s">
         <v>671</v>
@@ -8968,7 +8968,7 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D224" t="s">
         <v>751</v>
@@ -8991,7 +8991,7 @@
         <v>514</v>
       </c>
       <c r="D225" t="s">
-        <v>752</v>
+        <v>962</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>515</v>
       </c>
       <c r="D226" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -9028,10 +9028,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D227" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -9048,7 +9048,7 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D228" t="s">
         <v>751</v>
@@ -9071,7 +9071,7 @@
         <v>516</v>
       </c>
       <c r="D229" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>517</v>
       </c>
       <c r="D230" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -9111,7 +9111,7 @@
         <v>518</v>
       </c>
       <c r="D231" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>519</v>
       </c>
       <c r="D232" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -9148,10 +9148,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D233" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -9211,7 +9211,7 @@
         <v>521</v>
       </c>
       <c r="D236" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>522</v>
       </c>
       <c r="D237" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>523</v>
       </c>
       <c r="D238" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -9268,10 +9268,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D239" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>524</v>
       </c>
       <c r="D240" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -9311,7 +9311,7 @@
         <v>525</v>
       </c>
       <c r="D241" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -9331,7 +9331,7 @@
         <v>526</v>
       </c>
       <c r="D242" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>527</v>
       </c>
       <c r="D243" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -9371,7 +9371,7 @@
         <v>528</v>
       </c>
       <c r="D244" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -9391,7 +9391,7 @@
         <v>529</v>
       </c>
       <c r="D245" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -9411,7 +9411,7 @@
         <v>530</v>
       </c>
       <c r="D246" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>531</v>
       </c>
       <c r="D247" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>532</v>
       </c>
       <c r="D248" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9471,7 +9471,7 @@
         <v>533</v>
       </c>
       <c r="D249" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>534</v>
       </c>
       <c r="D250" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9511,7 +9511,7 @@
         <v>535</v>
       </c>
       <c r="D251" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9531,7 +9531,7 @@
         <v>536</v>
       </c>
       <c r="D252" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>537</v>
       </c>
       <c r="D253" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>538</v>
       </c>
       <c r="D254" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9591,7 +9591,7 @@
         <v>539</v>
       </c>
       <c r="D255" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9611,7 +9611,7 @@
         <v>540</v>
       </c>
       <c r="D256" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9631,7 +9631,7 @@
         <v>541</v>
       </c>
       <c r="D257" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9651,7 +9651,7 @@
         <v>542</v>
       </c>
       <c r="D258" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9671,7 +9671,7 @@
         <v>543</v>
       </c>
       <c r="D259" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>544</v>
       </c>
       <c r="D260" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>545</v>
       </c>
       <c r="D261" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D262" t="s">
         <v>728</v>
@@ -9751,7 +9751,7 @@
         <v>546</v>
       </c>
       <c r="D263" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>547</v>
       </c>
       <c r="D264" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D265" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9811,7 +9811,7 @@
         <v>548</v>
       </c>
       <c r="D266" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>549</v>
       </c>
       <c r="D267" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>550</v>
       </c>
       <c r="D268" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>552</v>
       </c>
       <c r="D270" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>553</v>
       </c>
       <c r="D271" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9931,7 +9931,7 @@
         <v>554</v>
       </c>
       <c r="D272" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D273" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D274" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>555</v>
       </c>
       <c r="D275" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>556</v>
       </c>
       <c r="D276" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>557</v>
       </c>
       <c r="D277" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -10051,7 +10051,7 @@
         <v>558</v>
       </c>
       <c r="D278" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>560</v>
       </c>
       <c r="D280" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>561</v>
       </c>
       <c r="D281" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>562</v>
       </c>
       <c r="D282" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>563</v>
       </c>
       <c r="D283" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>564</v>
       </c>
       <c r="D284" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>565</v>
       </c>
       <c r="D285" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>566</v>
       </c>
       <c r="D286" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -10231,7 +10231,7 @@
         <v>567</v>
       </c>
       <c r="D287" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -10268,10 +10268,10 @@
         <v>289</v>
       </c>
       <c r="C289" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D289" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>569</v>
       </c>
       <c r="D290" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -10308,10 +10308,10 @@
         <v>291</v>
       </c>
       <c r="C291" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D291" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -10331,7 +10331,7 @@
         <v>570</v>
       </c>
       <c r="D292" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>571</v>
       </c>
       <c r="D293" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -10371,7 +10371,7 @@
         <v>572</v>
       </c>
       <c r="D294" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         <v>573</v>
       </c>
       <c r="D295" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -10408,10 +10408,10 @@
         <v>296</v>
       </c>
       <c r="C296" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D296" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>297</v>
       </c>
       <c r="C297" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D297" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>574</v>
       </c>
       <c r="D298" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>576</v>
       </c>
       <c r="D300" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10508,10 +10508,10 @@
         <v>301</v>
       </c>
       <c r="C301" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D301" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10531,7 +10531,7 @@
         <v>577</v>
       </c>
       <c r="D302" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>578</v>
       </c>
       <c r="D303" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10571,7 +10571,7 @@
         <v>579</v>
       </c>
       <c r="D304" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>580</v>
       </c>
       <c r="D305" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>581</v>
       </c>
       <c r="D306" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10628,7 +10628,7 @@
         <v>307</v>
       </c>
       <c r="C307" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D307" t="s">
         <v>632</v>
@@ -10651,7 +10651,7 @@
         <v>582</v>
       </c>
       <c r="D308" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10668,10 +10668,10 @@
         <v>308</v>
       </c>
       <c r="C309" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D309" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>583</v>
       </c>
       <c r="D310" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10711,7 +10711,7 @@
         <v>584</v>
       </c>
       <c r="D311" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10731,7 +10731,7 @@
         <v>585</v>
       </c>
       <c r="D312" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D313" t="s">
         <v>611</v>
@@ -10768,10 +10768,10 @@
         <v>313</v>
       </c>
       <c r="C314" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D314" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10788,10 +10788,10 @@
         <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D315" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10808,10 +10808,10 @@
         <v>315</v>
       </c>
       <c r="C316" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D316" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D317" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -10848,10 +10848,10 @@
         <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D318" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -10868,10 +10868,10 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D319" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -10888,10 +10888,10 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D320" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -10908,10 +10908,10 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D321" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -10928,10 +10928,10 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D322" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -10948,10 +10948,10 @@
         <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D323" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -10968,10 +10968,10 @@
         <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D324" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -10988,10 +10988,10 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D325" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11008,10 +11008,10 @@
         <v>325</v>
       </c>
       <c r="C326" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D326" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11028,10 +11028,10 @@
         <v>326</v>
       </c>
       <c r="C327" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D327" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -11048,10 +11048,10 @@
         <v>327</v>
       </c>
       <c r="C328" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D328" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>328</v>
       </c>
       <c r="C329" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D329" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -11088,10 +11088,10 @@
         <v>329</v>
       </c>
       <c r="C330" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D330" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -11108,10 +11108,10 @@
         <v>330</v>
       </c>
       <c r="C331" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D331" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11128,10 +11128,10 @@
         <v>331</v>
       </c>
       <c r="C332" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D332" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11148,10 +11148,10 @@
         <v>332</v>
       </c>
       <c r="C333" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D333" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11168,10 +11168,10 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D334" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11188,10 +11188,10 @@
         <v>334</v>
       </c>
       <c r="C335" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D335" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>335</v>
       </c>
       <c r="C336" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D336" t="s">
         <v>735</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E8850-295B-495C-8DA9-F3D1EE0BE96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB788D28-62B9-4A56-90B6-061729D7C4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4490,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+    <sheetView tabSelected="1" topLeftCell="D202" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB788D28-62B9-4A56-90B6-061729D7C4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="970">
   <si>
     <t>Nº</t>
   </si>
@@ -1028,6 +1022,24 @@
   </si>
   <si>
     <t>Which of the following is responsible for managing the Portfolio Kanban?</t>
+  </si>
+  <si>
+    <t>T-Shirt Sizing
+Ideal Days
+Affinity Mapping
+Planning Poker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journey mapping
+Whole-product
+Persona development
+Feature storming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What problem(s) will the Solution solve?
+How many Features have been released to the Customer?
+Which themes are on the Roadmap?
+What are the teams' skills? </t>
   </si>
   <si>
     <t>Compare the average Story points completed throughout the previous Iterations.
@@ -1048,6 +1060,12 @@
 Management Review and Problem-Solving session</t>
   </si>
   <si>
+    <t>Market dynamics
+Customer-centric Features
+ART capacity
+Value Streams</t>
+  </si>
+  <si>
     <t>Someone has taken the responsibility of the risk
 Nothing more can be done, so if a risk occurs, release may be compromised
 There is a strategy to adjust the plan as necessary
@@ -1078,6 +1096,12 @@
 As a..., When..., Then...</t>
   </si>
   <si>
+    <t>Alignment
+Respect for People
+Transparency
+Relentless Improvement</t>
+  </si>
+  <si>
     <t>Epics are in the Solution Train Backlog
 Features are in the ART Backlog
 Capabilities are in the ART Backlog
@@ -1168,6 +1192,12 @@
 To provide a high-level overview of the product or solution</t>
   </si>
   <si>
+    <t>Product Owner
+Development Manager
+Solution management
+System Architect</t>
+  </si>
+  <si>
     <t>Team demos are accepted in place of a System Demo to avoid redundancy
 System demo takes more than 15 minutes
 Different team members conduct the demo each Iteration
@@ -1192,6 +1222,18 @@
 Workshops are more engaging then document writting</t>
   </si>
   <si>
+    <t>Collaboration
+Compliance
+Leadership
+Separation of duties</t>
+  </si>
+  <si>
+    <t>Business Owners
+Portfolio Management
+Board Members
+Feature Owners</t>
+  </si>
+  <si>
     <t>Kanban System
 Operational Value Stream
 Dual Operating System
@@ -1210,6 +1252,12 @@
 To create Standardize work between all Agile Teams</t>
   </si>
   <si>
+    <t>PI Planning
+Iteration Planning
+PO Sync
+Coach Sync</t>
+  </si>
+  <si>
     <t>To align team members to a common purpose
 To define "the what, the how, and the how much"
 To set preliminary PI Objectives
@@ -1220,6 +1268,12 @@
 To add new work into the Iteration
 To clarify story intent
 To facilitate event</t>
+  </si>
+  <si>
+    <t>Relentless Improvment
+Respect for people and culture
+Alignement
+Transparency</t>
   </si>
   <si>
     <t>Team meets with stakeholders to review the deliverables and provide feedback
@@ -1319,18 +1373,48 @@
 System Demo</t>
   </si>
   <si>
+    <t>Soft launches
+Features toggles
+Non functional requirements
+Quite releases</t>
+  </si>
+  <si>
     <t>The importance of non-functional requirements
 The importance of Feature prioritizing
 The importance of Lean budget Guardrails
 The importance of empathy interviews</t>
   </si>
   <si>
+    <t>Iteration Planning
+Backlog refinement
+Iteration Review
+Iteration Retrospective</t>
+  </si>
+  <si>
+    <t>PI Planning
+PO Sync
+Inspect and Adapt
+Backlog Refinement</t>
+  </si>
+  <si>
+    <t>Test cases
+Solution Roadmap
+WIP limits
+ART Planning Board</t>
+  </si>
+  <si>
     <t>Customer Journey Value Stream
 Operational Value Stream
 Development Value Stream
 Claims processing Value Stream</t>
   </si>
   <si>
+    <t>Alignment
+Transparency
+Relentless Improvement
+Respect for People</t>
+  </si>
+  <si>
     <t>The accumulated value of team's work
 A burndown chart of work completed in the Iteration
 Where a team has too much work-in-process (WIP)
@@ -1371,6 +1455,12 @@
 Retrospective
 Confidence vote
 Management Review and Problem-Solving session</t>
+  </si>
+  <si>
+    <t>Compliance
+Capability
+Epic
+Non-Functional Requirement</t>
   </si>
   <si>
     <t>Welcome changing requirements, even late in development
@@ -1422,6 +1512,12 @@
 It satisfies the Definition of Done</t>
   </si>
   <si>
+    <t>Risks
+Capacity and load
+Epics
+Significant dependencies</t>
+  </si>
+  <si>
     <t>User Experience Design
 Team Kanban
 Continuous Delivery Pipeline
@@ -1446,6 +1542,12 @@
 Identify dependencies between Agile Teams</t>
   </si>
   <si>
+    <t>Product Managers
+Product Owners
+System Architects
+Scrum Masters/Team Coaches</t>
+  </si>
+  <si>
     <t>Features
 Spikes
 Stories
@@ -1482,6 +1584,12 @@
 20 to 24 weeks</t>
   </si>
   <si>
+    <t>Milestones
+ART PI Risks
+PI Objectives
+Dependencies</t>
+  </si>
+  <si>
     <t>Product Features
 Impact Mapping
 Business Model Canvas
@@ -1512,6 +1620,18 @@
 Decentralize decision-making</t>
   </si>
   <si>
+    <t>Spikes
+Hackathons
+Supplier showcases
+Design thinking</t>
+  </si>
+  <si>
+    <t>Improvement items
+Risks
+Impediments
+Adjustments</t>
+  </si>
+  <si>
     <t>Adjust work between teams or split Features and Stories
 Distribute work to other teams
 Sequence work to eliminate same Iteration dependencies
@@ -1534,6 +1654,12 @@
 The Product Owner should lead the Iteration Retrospective</t>
   </si>
   <si>
+    <t>Product Management
+System Architect
+Business Owner
+Product Owner</t>
+  </si>
+  <si>
     <t>Adjust the delivery of Features to meet market needs
 Improve PI Planning scheduling
 Improve Features prioritization
@@ -1564,6 +1690,12 @@
 To facilitate the event and keep it on track</t>
   </si>
   <si>
+    <t>PI Planning
+Backlog Refinement
+Iteration Planning
+Team Sync</t>
+  </si>
+  <si>
     <t>Developing solutions to recognized problems that blocked or slowed work
 Generating innovative approaches to common issues facing teams and ARTS
 Forming working groups to better understand issues from the PI
@@ -1576,6 +1708,12 @@
 Create a flow of value</t>
   </si>
   <si>
+    <t>Team topologies
+Portfolio Backlog
+Customer feedback
+Feature context</t>
+  </si>
+  <si>
     <t>To provide a high-level overview of the ART's progress
 To manage the ART's budget and financials
 To synchronize the activities of multiple Agile teams
@@ -1614,6 +1752,12 @@
 Release Train Engineers and Product Management
 Product Owners and Scrum Masters
 All the propositions</t>
+  </si>
+  <si>
+    <t>System Demo
+PI Planning
+Backlog Refinement
+Sprint Review</t>
   </si>
   <si>
     <t>The PO identifies market needs, the PM is solution, technology, and team facing
@@ -1683,6 +1827,18 @@
 Growth Mindset</t>
   </si>
   <si>
+    <t>Respect for people
+Relentless improvement
+Transparency
+Alignment</t>
+  </si>
+  <si>
+    <t>Customer Centricity
+Flow Acceleration
+Agile Quality
+Design Thinking</t>
+  </si>
+  <si>
     <t>Use the Built-In Estimation Buffer As Needed
 To conduct a retrospective
 To refine the Teams Backlogs
@@ -1713,6 +1869,12 @@
 Describe how the PI Roadmap supports key Epics and Milestones</t>
   </si>
   <si>
+    <t>Supplier showcase
+Hackathon
+Coach Sync
+PI Planning</t>
+  </si>
+  <si>
     <t>Apply cadence and synchronize with cross-domain planning
 Working software is the primary measure of progress
 Base Milestones on objective evaluation of working systems
@@ -1737,6 +1899,12 @@
 Opportunity to update the development value stream</t>
   </si>
   <si>
+    <t>Customer needs
+Solution performance
+Supplier proposals
+Release strategy</t>
+  </si>
+  <si>
     <t>Compliance
 Deployment
 Automation
@@ -1845,6 +2013,13 @@
 Inspect and Adapt (I&amp;A)</t>
   </si>
   <si>
+    <t>PI Objectives
+User Stories
+Enabler Stories
+Business Epics
+Epic Enablers</t>
+  </si>
+  <si>
     <t>System Team
 Scrum Master
 Product Owner
@@ -1899,6 +2074,18 @@
 Retrospective and Problem-solving Workshop</t>
   </si>
   <si>
+    <t>Product Owner
+Business Owner
+System Architect
+Product Management</t>
+  </si>
+  <si>
+    <t>Release Train Engineer
+Enterprise Architect
+Product Management
+Product Owner</t>
+  </si>
+  <si>
     <t>Iterations
 Days
 PIs
@@ -1917,6 +2104,12 @@
 Product management and Business Owners</t>
   </si>
   <si>
+    <t>Portfolio Canvas
+Portfolio Kanban
+Portfolio Vision
+Portfolio Backlog</t>
+  </si>
+  <si>
     <t>Decentralized decision-making
 Shift learning left
 Using non-functional requirements
@@ -1941,6 +2134,18 @@
 Optimizing a component does not optimize the system</t>
   </si>
   <si>
+    <t>Requests
+Delays
+Sunk costs
+Costs</t>
+  </si>
+  <si>
+    <t>Systems thinking
+Design thinking
+Lean thinking
+Customer-centric</t>
+  </si>
+  <si>
     <t>To prioritize the ART Backlog
 To facilitate backlog refinement
 To define Enablers
@@ -1965,6 +2170,12 @@
 Objective measurements</t>
   </si>
   <si>
+    <t>Relentless Improvement
+Transparency
+Alignment
+Respect for People</t>
+  </si>
+  <si>
     <t>Address the local problems
 Reduce the batch sizes of work
 Frequent context switching
@@ -2019,6 +2230,12 @@
 Team and Technical Agility</t>
   </si>
   <si>
+    <t>Courage
+Emotional competence
+Growing others
+Authenticity</t>
+  </si>
+  <si>
     <t>Solution Train Value Stream
 Business Agility Value Stream
 Lean Governance Value Stream
@@ -2037,12 +2254,30 @@
 Story points</t>
   </si>
   <si>
+    <t>Architectural Runway
+Features
+Milestones
+Enablers</t>
+  </si>
+  <si>
     <t>Activities that lack innovation
 Key performance indicators
 Delays
 Predictability issues of the train</t>
   </si>
   <si>
+    <t>Customer
+Journey
+Story
+Value Stream</t>
+  </si>
+  <si>
+    <t>Significant dependencies
+Risks
+Capacity and load
+Epics</t>
+  </si>
+  <si>
     <t>Reliability
 Sustainability
 Marketability
@@ -2055,12 +2290,24 @@
 Working software is the primary measure of progress</t>
   </si>
   <si>
+    <t>Portfolio Canvas
+Portfolio Backlog
+Portfolio Vision
+Portfolio Kanban</t>
+  </si>
+  <si>
     <t>Teams can only release new software on the same day
 Teams decide their own Iteration length
 Teams align the start and end dates of their Iterations
 Teams meet twice every PI to plan and schedule capacity</t>
   </si>
   <si>
+    <t>Continuous Exploration
+Continuous Planning
+Continuous Improvement
+Continuous Cadence</t>
+  </si>
+  <si>
     <t>Removes accountability from leaders
 Reduces delays
 Ensures strategic decisions are made collaboratively
@@ -2091,6 +2338,12 @@
 By creating a hierarchy to provide stability</t>
   </si>
   <si>
+    <t>Enterprise strategy
+Value Stream budgets
+Strategic Themes
+Portfolio Epics</t>
+  </si>
+  <si>
     <t>Each team has a Scrum Master/Team Coach and a Product Manager
 Managers direct their work
 Composed of 10 to 20 members
@@ -2109,6 +2362,18 @@
 Team and Technical Agility</t>
   </si>
   <si>
+    <t>Infrastructure
+Release on Demand
+DevOps
+Continuous Deployment</t>
+  </si>
+  <si>
+    <t>Respect for People
+Relentless Improvement
+Transparency
+Alignment</t>
+  </si>
+  <si>
     <t>The RTE or Product Management
 The Scrum Master or RTE
 The Scrum Master or Product Owner
@@ -2131,6 +2396,12 @@
 To address impediments raised by the team
 To provide feedback on the team's performance
 To listen to the team's progress and issues</t>
+  </si>
+  <si>
+    <t>ART Flow
+Team Flow
+Portfolio Flow
+Solution Train Flow</t>
   </si>
   <si>
     <t>Assume variability, preserve options
@@ -2158,6 +2429,12 @@
 Challenges between teams that talk with customers daily and those that meet with customers for research</t>
   </si>
   <si>
+    <t>External Customers
+Business partners
+Internal Customers
+Stakeholders</t>
+  </si>
+  <si>
     <t>Mitigate risks during the iteration planning meeting
 Address risks during ART PI Risks session
 Escalate all risks to senior management
@@ -2290,6 +2567,12 @@
 Provide user personas to illustrate how the Vision improves the experiences of your Customers</t>
   </si>
   <si>
+    <t>Alignment
+Relentless Improvement
+Respect for People
+Transparency</t>
+  </si>
+  <si>
     <t>Team skills
 Tasks to complete
 Variations in data
@@ -2300,6 +2583,12 @@
 Adjust work between teams or split Features and Stories
 Adjust work between teams based on forecasted capacity
 Adjust work sequencing to eliminate same Iteration dependencies</t>
+  </si>
+  <si>
+    <t>System Architecture Designs
+Development Manager
+Solution Roadmap
+ART Backlog</t>
   </si>
   <si>
     <t>Bottlenecks can be identified early by the teams
@@ -2345,6 +2634,18 @@
 Market rhythms are cyclical and predictable</t>
   </si>
   <si>
+    <t>System Architect
+Product Manager
+Development Team
+Solution management</t>
+  </si>
+  <si>
+    <t>Iteration Planning
+Iteration Review
+Iteration Retrospective
+Backlog Refinement</t>
+  </si>
+  <si>
     <t>Gather Feature requirements from stakeholders
 Modify Iteration Goals
 Demonstrate a working, tested team increment
@@ -2429,12 +2730,24 @@
 The right participants are present</t>
   </si>
   <si>
+    <t>Whole-product thinking
+Persona development
+Feature storming
+Journey mapping</t>
+  </si>
+  <si>
     <t>The team reviews and improves processes before the next Iteration
 The team is able to prepare requirements for Iteration Planning
 The team aligns on the progress of Iteration Goals
 The team is able to commit to a set of goals to be delivered in the Iteration</t>
   </si>
   <si>
+    <t>Develop
+Stage
+Test end-to-end
+Build</t>
+  </si>
+  <si>
     <t>By reviewing its processes before the next iteration
 By committing to a set of goals to be delivered
 By agreeing on a meeting timebox
@@ -2459,6 +2772,18 @@
 Use Features or Stories as PI Objectives</t>
   </si>
   <si>
+    <t>solidly built
+Strong
+solidly explained
+Small</t>
+  </si>
+  <si>
+    <t>Journey mapping
+Whole-product thinking
+Personas
+Feature storming</t>
+  </si>
+  <si>
     <t>The top ten Features
 The Team Backlog
 The ART planning boards
@@ -2477,6 +2802,12 @@
 Supporting the Team in Delivering Value</t>
   </si>
   <si>
+    <t>Capability
+Value Stream
+Epic
+Solution</t>
+  </si>
+  <si>
     <t>What Features and benefit hypotheses do we think it provides?
 How many Features have been released to the Customer?
 What are the teams' skills?
@@ -2507,12 +2838,24 @@
 Lack of collective ownership</t>
   </si>
   <si>
+    <t>Product Management
+RTE
+Business Owners
+Product Owner</t>
+  </si>
+  <si>
     <t>Let the Customer pull value from the producer
 customer collaboration over contract negotiation
 Assume variability, preserve options
 Deliver working software frequently</t>
   </si>
   <si>
+    <t>Affinity Mapping
+Historical data
+Ideal Days
+T-Shirt Sizing</t>
+  </si>
+  <si>
     <t>Continuous Integration and Release on Demand
 Continuous Exploration and Continuous Deployment
 Continuous Exploration and Release on Demand
@@ -2531,6 +2874,90 @@
 Months</t>
   </si>
   <si>
+    <t>Iteration Planning
+Backlog Refinement
+Inspect and Adapt
+PO Sync</t>
+  </si>
+  <si>
+    <t>Understand Customer needs
+Continuous Deployment
+Continuous Integration
+Feature Toggle</t>
+  </si>
+  <si>
+    <t>2 Hours
+1 Hour
+3 Hours
+As needed</t>
+  </si>
+  <si>
+    <t>As needed
+2 Hours
+1 Hour
+3 Hours</t>
+  </si>
+  <si>
+    <t>Define the enterprise strategy Establish lean budgets Align strategy and execution Ensure program and portfolio execution</t>
+  </si>
+  <si>
+    <t>Determine the order in which Epics should be executed Drive incremental implementation across the enterprise Define the sequence of steps used to deliver value to the customer Connect the portfolio to the enterprise business strategy</t>
+  </si>
+  <si>
+    <t>Agile delivers every single requested requirement. Waterfall has no fixed schedule. Agile supports test-first development. Waterfall concentrates on code quality.</t>
+  </si>
+  <si>
+    <t>To enable deploying upon demand. To remove the need to respond quickly to product issues. To enable releasing upon demand. To make deploying a business decision.</t>
+  </si>
+  <si>
+    <t>Participatory budgeting Investment horizons Centralized decision-making Lean startup cycle</t>
+  </si>
+  <si>
+    <t>Business-Driven Development Benchmark-Driven Development Behavior-Driven Development Backlog-Driven Development</t>
+  </si>
+  <si>
+    <t>Shortened Architectural Runway Loopbacks System delays Team swarming</t>
+  </si>
+  <si>
+    <t>They are optimized for communication and delivery of value. They can define, build, and test a Feature or component. They deliver value every six weeks. They release customer products to production continuously. They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
+  </si>
+  <si>
+    <t>Development Manager Solution Manager Release Train Engineer Business Manager</t>
+  </si>
+  <si>
+    <t>Innovation Lean-Agile development Leadership Lean-thinking</t>
+  </si>
+  <si>
+    <t>It alleviates the reliance on the skill sets of Agile Teams. It ensures that changes deployed to production are always immediately available to end-users. It lessens the severity and frequency of release failures. It increases the transaction cost.</t>
+  </si>
+  <si>
+    <t>Employ and improve the Continuous Development Pipeline. Employ multiple Solution Teams. Build Solution components and capabilities with ARTs. Build and integrate the Solution with a Solution Train. Ensure value stream consistency. Capture and refine system specifications as fixed/variable Solution Intent.</t>
+  </si>
+  <si>
+    <t>To enable Agile Release Trains to deliver value more frequently. To combine Development and Operations groups into one team. To clarify program and team roles. To automate the integration, testing, and deployment of features.</t>
+  </si>
+  <si>
+    <t>Post PI-Planning PI Planning Iteration Planning PI System Demo</t>
+  </si>
+  <si>
+    <t>It summarizes the team PI Objectives for the current Program Increment. It provides an outline of the Features for the next three Program Increments. It expresses the strategic intent of the Program. It drives the allocation of budget for the Agile Release Train.</t>
+  </si>
+  <si>
+    <t>The customer or consumer of the solution. The behavior of the solution. The platform architecture. Where the solution operates.</t>
+  </si>
+  <si>
+    <t>DevOps joins development and operations to enable continuous delivery. DevOps focuses on automating the delivery pipeline to reduce transaction cost. DevOps enables continuous release by building a scalable Continuous Delivery Pipeline. DevOps focuses on a set of practices applied to large systems.</t>
+  </si>
+  <si>
+    <t>They are used when there are numerous and complex interactions. They are used when there are a set of parallel interactions related to a scenario. They are used when there are a specific number of interactions that are less complex. They are used to sequence a set of interactions related to a scenario.</t>
+  </si>
+  <si>
+    <t>Essential Level. Team Level. Portfolio Level. Large Solution Level.</t>
+  </si>
+  <si>
+    <t>Lean Portfolio Management. Release Train Engineer. Product Management. Solution Management.</t>
+  </si>
+  <si>
     <t>T-Shirt Sizing</t>
   </si>
   <si>
@@ -2549,12 +2976,120 @@
     <t>ART Planning Board</t>
   </si>
   <si>
+    <t xml:space="preserve"> Market dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Someone has taken the responsibility of the risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Connecting with the Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confidence vote</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To assess progress of the Planning Interval (PI) and adjust scope and priorities as needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As a..., I want..., So that...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transparency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Features are in the ART Backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product Owners present all of the work in the PI System demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describing the value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It prevents different types of backlog items from being compared against each another </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They explore, integrate, deploy, and release new value during each Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Showcase completed features to stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Continuously throughout the PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Establish capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assigning them to a single team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Support Architectural Runway</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All of the propositions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonstrate a working, tested team increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Improvement items in the Team Backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It synchronizes alignment, collaboration, and delivery for large numbers of teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To provide a high-level overview of the product or solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team demos are accepted in place of a System Demo to avoid redundancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To manage WIP limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Milestones, Features, Dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It makes improvements actionable through backlog item for the next PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Collaboration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Business Owners</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operational Value Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To contribute with communicating the Product Vision and Roadmap to the Development Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To create alignment on when stories are complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PI Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To align team members to a common purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To clarify story intent</t>
+  </si>
+  <si>
     <t>Respect for people and culture</t>
   </si>
   <si>
     <t>Team prepares requirements for Iteration Planning</t>
   </si>
   <si>
+    <t xml:space="preserve"> To receive feedback on the increment</t>
+  </si>
+  <si>
     <t>Customer collaboration over contract negotiation;Individual interactions over processes and tools</t>
   </si>
   <si>
@@ -3029,6 +3564,9 @@
     <t>Transparency</t>
   </si>
   <si>
+    <t>Improve predictability</t>
+  </si>
+  <si>
     <t>Team and Technical Agility</t>
   </si>
   <si>
@@ -3324,810 +3862,13 @@
   </si>
   <si>
     <t>Portfolio Level</t>
-  </si>
-  <si>
-    <t>T-Shirt
-Sizing
-Ideal
-Days
-Affinity
-Mapping
-Planning
-Poker</t>
-  </si>
-  <si>
-    <t>Journey
-mapping
-Whole-product
-Persona
-development
-Feature
-storming</t>
-  </si>
-  <si>
-    <t>What problem(s) will the Solution solve?
-How many Features have been released to the Customer?
-Which themes are on the Roadmap?
-What are the teams' skills?</t>
-  </si>
-  <si>
-    <t>Market
-dynamics
-Customer-centric
-Features
-ART
-capacity
-Value
-Streams</t>
-  </si>
-  <si>
-    <t>Market dynamics</t>
-  </si>
-  <si>
-    <t>Connecting with the Customer</t>
-  </si>
-  <si>
-    <t>To assess progress of the Planning Interval (PI) and adjust scope and priorities as needed</t>
-  </si>
-  <si>
-    <t>As a..., I want..., So that...</t>
-  </si>
-  <si>
-    <t>Alignment
-Respect
-for
-People
-Transparency
-Relentless
-Improvement</t>
-  </si>
-  <si>
-    <t>Features are in the ART Backlog</t>
-  </si>
-  <si>
-    <t>Product Owners present all of the work in the PI System demo</t>
-  </si>
-  <si>
-    <t>Describing the value</t>
-  </si>
-  <si>
-    <t>It prevents different types of backlog items from being compared against each another</t>
-  </si>
-  <si>
-    <t>They explore, integrate, deploy, and release new value during each Iteration</t>
-  </si>
-  <si>
-    <t>Showcase completed features to stakeholders</t>
-  </si>
-  <si>
-    <t>Continuously throughout the PI</t>
-  </si>
-  <si>
-    <t>Establish capacity</t>
-  </si>
-  <si>
-    <t>Assigning them to a single team.</t>
-  </si>
-  <si>
-    <t>Support Architectural Runway</t>
-  </si>
-  <si>
-    <t>Improvement items in the Team Backlog</t>
-  </si>
-  <si>
-    <t>It synchronizes alignment, collaboration, and delivery for large numbers of teams</t>
-  </si>
-  <si>
-    <t>To provide a high-level overview of the product or solution</t>
-  </si>
-  <si>
-    <t>Product
-Owner
-Development
-Manager
-Solution
-management
-System
-Architect</t>
-  </si>
-  <si>
-    <t>Team demos are accepted in place of a System Demo to avoid redundancy</t>
-  </si>
-  <si>
-    <t>To manage WIP limits</t>
-  </si>
-  <si>
-    <t>Milestones, Features, Dependencies</t>
-  </si>
-  <si>
-    <t>It makes improvements actionable through backlog item for the next PI</t>
-  </si>
-  <si>
-    <t>Collaboration
-Compliance
-Leadership
-Separation
-of
-duties</t>
-  </si>
-  <si>
-    <t>Collaboration</t>
-  </si>
-  <si>
-    <t>Business
-Owners
-Portfolio
-Management
-Board
-Members
-Feature
-Owners</t>
-  </si>
-  <si>
-    <t>Business Owners</t>
-  </si>
-  <si>
-    <t>Operational Value Stream</t>
-  </si>
-  <si>
-    <t>To contribute with communicating the Product Vision and Roadmap to the Development Teams</t>
-  </si>
-  <si>
-    <t>To create alignment on when stories are complete</t>
-  </si>
-  <si>
-    <t>PI
-Planning
-Iteration
-Planning
-PO
-Sync
-Coach
-Sync</t>
-  </si>
-  <si>
-    <t>To align team members to a common purpose</t>
-  </si>
-  <si>
-    <t>To clarify story intent</t>
-  </si>
-  <si>
-    <t>Relentless
-Improvment
-Respect
-for
-people
-and
-culture
-Alignement
-Transparency</t>
-  </si>
-  <si>
-    <t>To receive feedback on the increment</t>
-  </si>
-  <si>
-    <t>Soft
-launches
-Features
-toggles
-Non
-functional
-requirements
-Quite
-releases</t>
-  </si>
-  <si>
-    <t>Iteration
-Planning
-Backlog
-refinement
-Iteration
-Review
-Iteration
-Retrospective</t>
-  </si>
-  <si>
-    <t>PI
-Planning
-PO
-Sync
-Inspect
-and
-Adapt
-Backlog
-Refinement</t>
-  </si>
-  <si>
-    <t>Test
-cases
-Solution
-Roadmap
-WIP
-limits
-ART
-Planning
-Board</t>
-  </si>
-  <si>
-    <t>Alignment
-Transparency
-Relentless
-Improvement
-Respect
-for
-People</t>
-  </si>
-  <si>
-    <t>Compliance
-Capability
-Epic
-Non-Functional
-Requirement</t>
-  </si>
-  <si>
-    <t>Risks
-Capacity
-and
-load
-Epics
-Significant
-dependencies</t>
-  </si>
-  <si>
-    <t>Product
-Managers
-Product
-Owners
-System
-Architects
-Scrum
-Masters/Team
-Coaches</t>
-  </si>
-  <si>
-    <t>Milestones
-ART
-PI
-Risks
-PI
-Objectives
-Dependencies</t>
-  </si>
-  <si>
-    <t>Spikes
-Hackathons
-Supplier
-showcases
-Design
-thinking</t>
-  </si>
-  <si>
-    <t>Improvement
-items
-Risks
-Impediments
-Adjustments</t>
-  </si>
-  <si>
-    <t>Product
-Management
-System
-Architect
-Business
-Owner
-Product
-Owner</t>
-  </si>
-  <si>
-    <t>PI
-Planning
-Backlog
-Refinement
-Iteration
-Planning
-Team
-Sync</t>
-  </si>
-  <si>
-    <t>Team
-topologies
-Portfolio
-Backlog
-Customer
-feedback
-Feature
-context</t>
-  </si>
-  <si>
-    <t>System
-Demo
-PI
-Planning
-Backlog
-Refinement
-Sprint
-Review</t>
-  </si>
-  <si>
-    <t>Respect
-for
-people
-Relentless
-improvement
-Transparency
-Alignment</t>
-  </si>
-  <si>
-    <t>Customer
-Centricity
-Flow
-Acceleration
-Agile
-Quality
-Design
-Thinking</t>
-  </si>
-  <si>
-    <t>Supplier
-showcase
-Hackathon
-Coach
-Sync
-PI
-Planning</t>
-  </si>
-  <si>
-    <t>Customer
-needs
-Solution
-performance
-Supplier
-proposals
-Release
-strategy</t>
-  </si>
-  <si>
-    <t>PI
-Objectives
-User
-Stories
-Enabler
-Stories
-Business
-Epics
-Epic
-Enablers</t>
-  </si>
-  <si>
-    <t>Product
-Owner
-Business
-Owner
-System
-Architect
-Product
-Management</t>
-  </si>
-  <si>
-    <t>Release
-Train
-Engineer
-Enterprise
-Architect
-Product
-Management
-Product
-Owner</t>
-  </si>
-  <si>
-    <t>Portfolio
-Canvas
-Portfolio
-Kanban
-Portfolio
-Vision
-Portfolio
-Backlog</t>
-  </si>
-  <si>
-    <t>Requests
-Delays
-Sunk
-costs
-Costs</t>
-  </si>
-  <si>
-    <t>Systems
-thinking
-Design
-thinking
-Lean
-thinking
-Customer-centric</t>
-  </si>
-  <si>
-    <t>Relentless
-Improvement
-Transparency
-Alignment
-Respect
-for
-People</t>
-  </si>
-  <si>
-    <t>Courage
-Emotional
-competence
-Growing
-others
-Authenticity</t>
-  </si>
-  <si>
-    <t>Architectural
-Runway
-Features
-Milestones
-Enablers</t>
-  </si>
-  <si>
-    <t>Customer
-Journey
-Story
-Value
-Stream</t>
-  </si>
-  <si>
-    <t>Significant
-dependencies
-Risks
-Capacity
-and
-load
-Epics</t>
-  </si>
-  <si>
-    <t>Portfolio
-Canvas
-Portfolio
-Backlog
-Portfolio
-Vision
-Portfolio
-Kanban</t>
-  </si>
-  <si>
-    <t>Continuous
-Exploration
-Continuous
-Planning
-Continuous
-Improvement
-Continuous
-Cadence</t>
-  </si>
-  <si>
-    <t>Enterprise
-strategy
-Value
-Stream
-budgets
-Strategic
-Themes
-Portfolio
-Epics</t>
-  </si>
-  <si>
-    <t>Infrastructure
-Release
-on
-Demand
-DevOps
-Continuous
-Deployment</t>
-  </si>
-  <si>
-    <t>Respect
-for
-People
-Relentless
-Improvement
-Transparency
-Alignment</t>
-  </si>
-  <si>
-    <t>ART
-Flow
-Team
-Flow
-Portfolio
-Flow
-Solution
-Train
-Flow</t>
-  </si>
-  <si>
-    <t>External
-Customers
-Business
-partners
-Internal
-Customers
-Stakeholders</t>
-  </si>
-  <si>
-    <t>Alignment
-Relentless
-Improvement
-Respect
-for
-People
-Transparency</t>
-  </si>
-  <si>
-    <t>System
-Architecture
-Designs
-Development
-Manager
-Solution
-Roadmap
-ART
-Backlog</t>
-  </si>
-  <si>
-    <t>System
-Architect
-Product
-Manager
-Development
-Team
-Solution
-management</t>
-  </si>
-  <si>
-    <t>Iteration
-Planning
-Iteration
-Review
-Iteration
-Retrospective
-Backlog
-Refinement</t>
-  </si>
-  <si>
-    <t>Whole-product
-thinking
-Persona
-development
-Feature
-storming
-Journey
-mapping</t>
-  </si>
-  <si>
-    <t>Develop
-Stage
-Test
-end-to-end
-Build</t>
-  </si>
-  <si>
-    <t>solidly
-built
-Strong
-solidly
-explained
-Small</t>
-  </si>
-  <si>
-    <t>Journey
-mapping
-Whole-product
-thinking
-Personas
-Feature
-storming</t>
-  </si>
-  <si>
-    <t>Capability
-Value
-Stream
-Epic
-Solution</t>
-  </si>
-  <si>
-    <t>Product
-Management
-RTE
-Business
-Owners
-Product
-Owner</t>
-  </si>
-  <si>
-    <t>Affinity
-Mapping
-Historical
-data
-Ideal
-Days
-T-Shirt
-Sizing</t>
-  </si>
-  <si>
-    <t>Iteration
-Planning
-Backlog
-Refinement
-Inspect
-and
-Adapt
-PO
-Sync</t>
-  </si>
-  <si>
-    <t>Understand
-Customer
-needs
-Continuous
-Deployment
-Continuous
-Integration
-Feature
-Toggle</t>
-  </si>
-  <si>
-    <t>2
-Hours
-1
-Hour
-3
-Hours
-As
-needed</t>
-  </si>
-  <si>
-    <t>As
-needed
-2
-Hours
-1
-Hour
-3
-Hours</t>
-  </si>
-  <si>
-    <t>Define the enterprise strategy
-Establish lean budgets
-Align strategy and execution
-Ensure program and portfolio execution</t>
-  </si>
-  <si>
-    <t>Determine the order in which Epics should be executed
-Drive incremental implementation across the enterprise
-Define the sequence of steps used to deliver value to the customer
-Connect the portfolio to the enterprise business strategy</t>
-  </si>
-  <si>
-    <t>Agile delivers every single requested requirement.
-Waterfall has no fixed schedule.
-Agile supports test-first development.
-Waterfall concentrates on code quality.</t>
-  </si>
-  <si>
-    <t>To enable deploying upon demand.
-To remove the need to respond quickly to product issues.
-To enable releasing upon demand.
-To make deploying a business decision.</t>
-  </si>
-  <si>
-    <t>Participatory budgeting
-Investment horizons
-Centralized decision-making
-Lean startup cycle</t>
-  </si>
-  <si>
-    <t>Business-Driven Development
-Benchmark-Driven Development
-Behavior-Driven Development
-Backlog-Driven Development</t>
-  </si>
-  <si>
-    <t>Shortened Architectural Runway
-Loopbacks
-System delays
-Team swarming</t>
-  </si>
-  <si>
-    <t>They are optimized for communication and delivery of value.
-They can define, build, and test a Feature or component.
-They deliver value every six weeks.
-They release customer products to production continuously.
-They are made up of members, each of whom can define, develop, test, and deploy the system.</t>
-  </si>
-  <si>
-    <t>Development Manager
-Solution Manager
-Release Train Engineer
-Business Manager</t>
-  </si>
-  <si>
-    <t>Innovation
-Lean-Agile development
-Leadership
-Lean-thinking</t>
-  </si>
-  <si>
-    <t>It alleviates the reliance on the skill sets of Agile Teams.
-It ensures that changes deployed to production are always immediately available to end-users.
-It lessens the severity and frequency of release failures.
-It increases the transaction cost.</t>
-  </si>
-  <si>
-    <t>Employ and improve the Continuous Development Pipeline.
-Employ multiple Solution Teams.
-Build Solution components and capabilities with ARTs.
-Build and integrate the Solution with a Solution Train.
-Ensure value stream consistency.
-Capture and refine system specifications as fixed/variable Solution Intent.</t>
-  </si>
-  <si>
-    <t>To enable Agile Release Trains to deliver value more frequently.
-To combine Development and Operations groups into one team.
-To clarify program and team roles.
-To automate the integration, testing, and deployment of features.</t>
-  </si>
-  <si>
-    <t>Post PI-Planning
-PI Planning
-Iteration Planning
-PI System Demo</t>
-  </si>
-  <si>
-    <t>It summarizes the team PI Objectives for the current Program Increment.
-It provides an outline of the Features for the next three Program Increments.
-It expresses the strategic intent of the Program.
-It drives the allocation of budget for the Agile Release Train.</t>
-  </si>
-  <si>
-    <t>The customer or consumer of the solution.
-The behavior of the solution.
-The platform architecture.
-Where the solution operates.</t>
-  </si>
-  <si>
-    <t>DevOps joins development and operations to enable continuous delivery.
-DevOps focuses on automating the delivery pipeline to reduce transaction cost.
-DevOps enables continuous release by building a scalable Continuous Delivery Pipeline.
-DevOps focuses on a set of practices applied to large systems.</t>
-  </si>
-  <si>
-    <t>They are used when there are numerous and complex interactions.
-They are used when there are a set of parallel interactions related to a scenario.
-They are used when there are a specific number of interactions that are less complex.
-They are used to sequence a set of interactions related to a scenario.</t>
-  </si>
-  <si>
-    <t>Essential Level.
-Team Level.
-Portfolio Level.
-Large Solution Level.</t>
-  </si>
-  <si>
-    <t>Lean Portfolio Management.
-Release Train Engineer.
-Product Management.
-Solution Management.</t>
-  </si>
-  <si>
-    <t>They help improve predictability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4190,21 +3931,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4242,7 +3975,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4276,7 +4009,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4311,10 +4043,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4487,20 +4218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F336"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D202" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="160.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4520,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4528,10 +4253,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>851</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4540,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4548,10 +4273,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>852</v>
+        <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4560,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4568,10 +4293,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>853</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4580,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4588,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4600,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4608,10 +4333,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4620,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4628,10 +4353,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4640,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4648,10 +4373,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>854</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>855</v>
+        <v>674</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4660,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4668,10 +4393,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>802</v>
+        <v>675</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4680,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4688,10 +4413,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>856</v>
+        <v>676</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4700,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4708,10 +4433,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>620</v>
+        <v>677</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4720,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4728,10 +4453,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>857</v>
+        <v>678</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4740,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4748,10 +4473,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>858</v>
+        <v>679</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4760,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4768,10 +4493,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>859</v>
+        <v>348</v>
       </c>
       <c r="D14" t="s">
-        <v>751</v>
+        <v>680</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4780,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4788,10 +4513,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D15" t="s">
-        <v>860</v>
+        <v>681</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4800,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4808,10 +4533,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>861</v>
+        <v>682</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4820,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4828,10 +4553,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D17" t="s">
-        <v>862</v>
+        <v>683</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4840,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4848,10 +4573,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D18" t="s">
-        <v>863</v>
+        <v>684</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4860,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4868,10 +4593,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D19" t="s">
-        <v>864</v>
+        <v>685</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4880,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4888,10 +4613,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D20" t="s">
-        <v>865</v>
+        <v>686</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4900,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4908,10 +4633,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>866</v>
+        <v>687</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4920,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4928,10 +4653,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>867</v>
+        <v>688</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4940,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4948,10 +4673,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D23" t="s">
-        <v>868</v>
+        <v>689</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4960,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4968,10 +4693,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D24" t="s">
-        <v>869</v>
+        <v>690</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4980,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4988,10 +4713,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D25" t="s">
-        <v>624</v>
+        <v>691</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5000,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5008,10 +4733,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D26" t="s">
-        <v>796</v>
+        <v>692</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5020,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5028,10 +4753,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D27" t="s">
-        <v>870</v>
+        <v>693</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5040,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5048,10 +4773,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D28" t="s">
-        <v>871</v>
+        <v>694</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5060,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5068,10 +4793,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D29" t="s">
-        <v>872</v>
+        <v>695</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5080,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5088,10 +4813,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>873</v>
+        <v>364</v>
       </c>
       <c r="D30" t="s">
-        <v>794</v>
+        <v>696</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5100,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5108,10 +4833,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D31" t="s">
-        <v>874</v>
+        <v>697</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5120,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5128,10 +4853,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>875</v>
+        <v>698</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5140,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5148,10 +4873,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>876</v>
+        <v>699</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5160,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5168,10 +4893,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>877</v>
+        <v>700</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5180,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5188,10 +4913,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>878</v>
+        <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>879</v>
+        <v>701</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5200,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5208,10 +4933,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>880</v>
+        <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>881</v>
+        <v>702</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5220,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5228,10 +4953,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>882</v>
+        <v>703</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5240,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5248,10 +4973,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>883</v>
+        <v>704</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5260,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5268,10 +4993,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>884</v>
+        <v>705</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5280,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5288,10 +5013,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>885</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>845</v>
+        <v>706</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5300,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5308,10 +5033,10 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>886</v>
+        <v>707</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5320,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5328,10 +5053,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>887</v>
+        <v>708</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5340,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5348,10 +5073,10 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>888</v>
+        <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>592</v>
+        <v>709</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5360,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5368,10 +5093,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D44" t="s">
-        <v>593</v>
+        <v>710</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5380,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5388,10 +5113,10 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D45" t="s">
-        <v>889</v>
+        <v>711</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5400,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5408,10 +5133,10 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D46" t="s">
-        <v>594</v>
+        <v>712</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5420,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5428,10 +5153,10 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D47" t="s">
-        <v>595</v>
+        <v>713</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5440,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5448,10 +5173,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D48" t="s">
-        <v>596</v>
+        <v>714</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5460,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5468,10 +5193,10 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D49" t="s">
-        <v>597</v>
+        <v>715</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5480,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5488,10 +5213,10 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D50" t="s">
-        <v>598</v>
+        <v>716</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5500,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5508,10 +5233,10 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D51" t="s">
-        <v>599</v>
+        <v>717</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5520,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5528,10 +5253,10 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D52" t="s">
-        <v>600</v>
+        <v>718</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5540,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5548,10 +5273,10 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D53" t="s">
-        <v>601</v>
+        <v>719</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5560,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5568,10 +5293,10 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D54" t="s">
-        <v>602</v>
+        <v>720</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5580,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5588,10 +5313,10 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D55" t="s">
-        <v>603</v>
+        <v>721</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5600,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5608,10 +5333,10 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D56" t="s">
-        <v>604</v>
+        <v>722</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5620,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5628,10 +5353,10 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D57" t="s">
-        <v>605</v>
+        <v>723</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5640,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5648,10 +5373,10 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D58" t="s">
-        <v>606</v>
+        <v>724</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -5660,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5668,10 +5393,10 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D59" t="s">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5680,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5688,10 +5413,10 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>890</v>
+        <v>394</v>
       </c>
       <c r="D60" t="s">
-        <v>608</v>
+        <v>726</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5700,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5708,10 +5433,10 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D61" t="s">
-        <v>609</v>
+        <v>727</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5720,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5728,10 +5453,10 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>891</v>
+        <v>396</v>
       </c>
       <c r="D62" t="s">
-        <v>610</v>
+        <v>728</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5740,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5748,10 +5473,10 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>892</v>
+        <v>397</v>
       </c>
       <c r="D63" t="s">
-        <v>611</v>
+        <v>729</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5760,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5768,10 +5493,10 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>893</v>
+        <v>398</v>
       </c>
       <c r="D64" t="s">
-        <v>612</v>
+        <v>730</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5780,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5788,10 +5513,10 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D65" t="s">
-        <v>613</v>
+        <v>731</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5800,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5808,10 +5533,10 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>894</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>614</v>
+        <v>732</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5820,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5828,10 +5553,10 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D67" t="s">
-        <v>615</v>
+        <v>733</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5840,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5848,10 +5573,10 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D68" t="s">
-        <v>616</v>
+        <v>734</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5860,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5868,10 +5593,10 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D69" t="s">
-        <v>596</v>
+        <v>714</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5880,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5888,10 +5613,10 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D70" t="s">
-        <v>617</v>
+        <v>735</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5900,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5908,10 +5633,10 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D71" t="s">
-        <v>618</v>
+        <v>736</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5920,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5928,10 +5653,10 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D72" t="s">
-        <v>619</v>
+        <v>737</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5940,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5948,10 +5673,10 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D73" t="s">
-        <v>620</v>
+        <v>738</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5960,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5968,10 +5693,10 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>895</v>
+        <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>621</v>
+        <v>739</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5980,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5988,10 +5713,10 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="D75" t="s">
-        <v>622</v>
+        <v>740</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -6000,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6008,10 +5733,10 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D76" t="s">
-        <v>623</v>
+        <v>741</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6020,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6028,10 +5753,10 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="D77" t="s">
-        <v>624</v>
+        <v>742</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6040,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6048,10 +5773,10 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>625</v>
+        <v>743</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6060,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6068,10 +5793,10 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D79" t="s">
-        <v>626</v>
+        <v>744</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6080,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6088,10 +5813,10 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>627</v>
+        <v>745</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6100,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6108,10 +5833,10 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D81" t="s">
-        <v>628</v>
+        <v>746</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6120,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6128,10 +5853,10 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>629</v>
+        <v>747</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6140,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6148,10 +5873,10 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>896</v>
+        <v>417</v>
       </c>
       <c r="D83" t="s">
-        <v>630</v>
+        <v>748</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -6160,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6168,10 +5893,10 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="D84" t="s">
-        <v>631</v>
+        <v>749</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -6180,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6188,10 +5913,10 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="D85" t="s">
-        <v>632</v>
+        <v>750</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -6200,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6208,10 +5933,10 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="D86" t="s">
-        <v>633</v>
+        <v>751</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -6220,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6228,10 +5953,10 @@
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="D87" t="s">
-        <v>634</v>
+        <v>752</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -6240,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6248,10 +5973,10 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>897</v>
+        <v>422</v>
       </c>
       <c r="D88" t="s">
-        <v>635</v>
+        <v>753</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6260,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6268,10 +5993,10 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D89" t="s">
-        <v>636</v>
+        <v>754</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -6280,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6288,10 +6013,10 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="D90" t="s">
-        <v>637</v>
+        <v>755</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6300,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6308,10 +6033,10 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="D91" t="s">
-        <v>638</v>
+        <v>756</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6320,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6328,10 +6053,10 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>639</v>
+        <v>757</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6340,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6348,10 +6073,10 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="D93" t="s">
-        <v>632</v>
+        <v>750</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6360,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6368,10 +6093,10 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="D94" t="s">
-        <v>640</v>
+        <v>758</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6380,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6388,10 +6113,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>898</v>
+        <v>429</v>
       </c>
       <c r="D95" t="s">
-        <v>641</v>
+        <v>759</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6400,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6408,10 +6133,10 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="D96" t="s">
-        <v>642</v>
+        <v>760</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6420,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6428,10 +6153,10 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="D97" t="s">
-        <v>643</v>
+        <v>761</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6440,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6448,10 +6173,10 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="D98" t="s">
-        <v>644</v>
+        <v>762</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6460,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6468,10 +6193,10 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D99" t="s">
-        <v>645</v>
+        <v>763</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6480,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6488,10 +6213,10 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D100" t="s">
-        <v>646</v>
+        <v>764</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6500,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6508,10 +6233,10 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>899</v>
+        <v>435</v>
       </c>
       <c r="D101" t="s">
-        <v>647</v>
+        <v>765</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6520,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6528,10 +6253,10 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>900</v>
+        <v>436</v>
       </c>
       <c r="D102" t="s">
-        <v>648</v>
+        <v>766</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6540,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6548,10 +6273,10 @@
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="D103" t="s">
-        <v>649</v>
+        <v>767</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6560,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6568,10 +6293,10 @@
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="D104" t="s">
-        <v>650</v>
+        <v>768</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6580,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6588,10 +6313,10 @@
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="D105" t="s">
-        <v>651</v>
+        <v>769</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6600,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6608,10 +6333,10 @@
         <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="D106" t="s">
-        <v>652</v>
+        <v>770</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6620,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6628,10 +6353,10 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>901</v>
+        <v>441</v>
       </c>
       <c r="D107" t="s">
-        <v>632</v>
+        <v>750</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6640,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6648,10 +6373,10 @@
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="D108" t="s">
-        <v>653</v>
+        <v>771</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6660,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6668,10 +6393,10 @@
         <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="D109" t="s">
-        <v>654</v>
+        <v>772</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6680,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6688,10 +6413,10 @@
         <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="D110" t="s">
-        <v>655</v>
+        <v>773</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -6700,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6708,10 +6433,10 @@
         <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="D111" t="s">
-        <v>656</v>
+        <v>774</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -6720,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6728,10 +6453,10 @@
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="D112" t="s">
-        <v>657</v>
+        <v>775</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -6740,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6748,10 +6473,10 @@
         <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>902</v>
+        <v>447</v>
       </c>
       <c r="D113" t="s">
-        <v>658</v>
+        <v>776</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6760,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6768,10 +6493,10 @@
         <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="D114" t="s">
-        <v>659</v>
+        <v>777</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -6780,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6788,10 +6513,10 @@
         <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="D115" t="s">
-        <v>660</v>
+        <v>778</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6800,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6808,10 +6533,10 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>903</v>
+        <v>450</v>
       </c>
       <c r="D116" t="s">
-        <v>661</v>
+        <v>779</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6820,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6828,10 +6553,10 @@
         <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="D117" t="s">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6840,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6848,10 +6573,10 @@
         <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="D118" t="s">
-        <v>663</v>
+        <v>781</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -6860,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6868,10 +6593,10 @@
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D119" t="s">
-        <v>664</v>
+        <v>782</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6880,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6888,10 +6613,10 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="D120" t="s">
-        <v>665</v>
+        <v>783</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6900,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6908,10 +6633,10 @@
         <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="D121" t="s">
-        <v>666</v>
+        <v>784</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6920,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6928,10 +6653,10 @@
         <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="D122" t="s">
-        <v>667</v>
+        <v>785</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -6940,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6948,10 +6673,10 @@
         <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="D123" t="s">
-        <v>668</v>
+        <v>786</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6960,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6968,10 +6693,10 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>904</v>
+        <v>458</v>
       </c>
       <c r="D124" t="s">
-        <v>669</v>
+        <v>787</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -6980,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6988,10 +6713,10 @@
         <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="D125" t="s">
-        <v>670</v>
+        <v>788</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -7000,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7008,10 +6733,10 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="D126" t="s">
-        <v>671</v>
+        <v>789</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -7020,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7028,10 +6753,10 @@
         <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="D127" t="s">
-        <v>672</v>
+        <v>790</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -7040,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7048,10 +6773,10 @@
         <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="D128" t="s">
-        <v>673</v>
+        <v>791</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -7060,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7068,10 +6793,10 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="D129" t="s">
-        <v>674</v>
+        <v>792</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -7080,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7088,10 +6813,10 @@
         <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="D130" t="s">
-        <v>624</v>
+        <v>742</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -7100,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7108,10 +6833,10 @@
         <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="D131" t="s">
-        <v>675</v>
+        <v>793</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -7120,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7128,10 +6853,10 @@
         <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D132" t="s">
-        <v>676</v>
+        <v>794</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -7140,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7148,10 +6873,10 @@
         <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="D133" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7160,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7168,10 +6893,10 @@
         <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="D134" t="s">
-        <v>677</v>
+        <v>795</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7180,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7188,10 +6913,10 @@
         <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="D135" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -7200,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7208,10 +6933,10 @@
         <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>905</v>
+        <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>614</v>
+        <v>732</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -7220,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7228,10 +6953,10 @@
         <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>906</v>
+        <v>471</v>
       </c>
       <c r="D137" t="s">
-        <v>679</v>
+        <v>797</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7240,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7248,10 +6973,10 @@
         <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="D138" t="s">
-        <v>680</v>
+        <v>798</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7260,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7268,10 +6993,10 @@
         <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="D139" t="s">
-        <v>681</v>
+        <v>799</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7280,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7288,10 +7013,10 @@
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="D140" t="s">
-        <v>682</v>
+        <v>800</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7300,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7308,10 +7033,10 @@
         <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="D141" t="s">
-        <v>683</v>
+        <v>801</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7320,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7328,10 +7053,10 @@
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="D142" t="s">
-        <v>684</v>
+        <v>802</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -7340,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7348,10 +7073,10 @@
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>907</v>
+        <v>477</v>
       </c>
       <c r="D143" t="s">
-        <v>685</v>
+        <v>803</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -7360,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7368,10 +7093,10 @@
         <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D144" t="s">
-        <v>599</v>
+        <v>717</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -7380,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7388,10 +7113,10 @@
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="D145" t="s">
-        <v>686</v>
+        <v>804</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7400,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7408,10 +7133,10 @@
         <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="D146" t="s">
-        <v>687</v>
+        <v>805</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7420,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7428,10 +7153,10 @@
         <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="D147" t="s">
-        <v>688</v>
+        <v>806</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7440,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7448,10 +7173,10 @@
         <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>908</v>
+        <v>482</v>
       </c>
       <c r="D148" t="s">
-        <v>689</v>
+        <v>807</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7460,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7468,10 +7193,10 @@
         <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="D149" t="s">
-        <v>690</v>
+        <v>808</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7480,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7488,10 +7213,10 @@
         <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="D150" t="s">
-        <v>691</v>
+        <v>809</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7500,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7508,10 +7233,10 @@
         <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="D151" t="s">
-        <v>692</v>
+        <v>810</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7520,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7528,10 +7253,10 @@
         <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="D152" t="s">
-        <v>693</v>
+        <v>811</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7540,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7548,10 +7273,10 @@
         <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="D153" t="s">
-        <v>694</v>
+        <v>812</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -7560,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7568,10 +7293,10 @@
         <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="D154" t="s">
-        <v>695</v>
+        <v>813</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7580,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7588,10 +7313,10 @@
         <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="D155" t="s">
-        <v>696</v>
+        <v>814</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7600,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7608,10 +7333,10 @@
         <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="D156" t="s">
-        <v>697</v>
+        <v>815</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7620,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7628,10 +7353,10 @@
         <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="D157" t="s">
-        <v>698</v>
+        <v>816</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7640,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7648,10 +7373,10 @@
         <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="D158" t="s">
-        <v>699</v>
+        <v>817</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7660,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7668,10 +7393,10 @@
         <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="D159" t="s">
-        <v>700</v>
+        <v>818</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7680,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7688,10 +7413,10 @@
         <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="D160" t="s">
-        <v>636</v>
+        <v>754</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7700,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7708,10 +7433,10 @@
         <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="D161" t="s">
-        <v>701</v>
+        <v>819</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -7720,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7728,10 +7453,10 @@
         <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="D162" t="s">
-        <v>702</v>
+        <v>820</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7740,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7748,10 +7473,10 @@
         <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="D163" t="s">
-        <v>703</v>
+        <v>821</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -7760,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7768,10 +7493,10 @@
         <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="D164" t="s">
-        <v>704</v>
+        <v>822</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -7780,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7788,10 +7513,10 @@
         <v>169</v>
       </c>
       <c r="C165" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="D165" t="s">
-        <v>705</v>
+        <v>823</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7800,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7808,10 +7533,10 @@
         <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D166" t="s">
-        <v>669</v>
+        <v>787</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7820,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7828,10 +7553,10 @@
         <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>909</v>
+        <v>501</v>
       </c>
       <c r="D167" t="s">
-        <v>706</v>
+        <v>824</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7840,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7848,10 +7573,10 @@
         <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="D168" t="s">
-        <v>707</v>
+        <v>825</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7860,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7868,10 +7593,10 @@
         <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="D169" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7880,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7888,10 +7613,10 @@
         <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="D170" t="s">
-        <v>708</v>
+        <v>826</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7900,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7908,10 +7633,10 @@
         <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="D171" t="s">
-        <v>709</v>
+        <v>827</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7920,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7928,10 +7653,10 @@
         <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="D172" t="s">
-        <v>710</v>
+        <v>828</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7940,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7948,10 +7673,10 @@
         <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="D173" t="s">
-        <v>711</v>
+        <v>829</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7960,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7968,10 +7693,10 @@
         <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="D174" t="s">
-        <v>712</v>
+        <v>830</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7980,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7988,10 +7713,10 @@
         <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="D175" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -8000,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8008,10 +7733,10 @@
         <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D176" t="s">
-        <v>713</v>
+        <v>831</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -8020,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8028,10 +7753,10 @@
         <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>910</v>
+        <v>511</v>
       </c>
       <c r="D177" t="s">
-        <v>632</v>
+        <v>750</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -8040,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8048,10 +7773,10 @@
         <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>911</v>
+        <v>512</v>
       </c>
       <c r="D178" t="s">
-        <v>632</v>
+        <v>750</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -8060,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8068,10 +7793,10 @@
         <v>183</v>
       </c>
       <c r="C179" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="D179" t="s">
-        <v>714</v>
+        <v>832</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -8080,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8088,10 +7813,10 @@
         <v>184</v>
       </c>
       <c r="C180" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="D180" t="s">
-        <v>715</v>
+        <v>833</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -8100,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8108,10 +7833,10 @@
         <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="D181" t="s">
-        <v>716</v>
+        <v>834</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -8120,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8128,10 +7853,10 @@
         <v>186</v>
       </c>
       <c r="C182" t="s">
-        <v>912</v>
+        <v>516</v>
       </c>
       <c r="D182" t="s">
-        <v>717</v>
+        <v>835</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -8140,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8148,10 +7873,10 @@
         <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="D183" t="s">
-        <v>718</v>
+        <v>836</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -8160,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8168,10 +7893,10 @@
         <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="D184" t="s">
-        <v>719</v>
+        <v>837</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -8180,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8188,10 +7913,10 @@
         <v>189</v>
       </c>
       <c r="C185" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="D185" t="s">
-        <v>720</v>
+        <v>838</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -8200,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8208,10 +7933,10 @@
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="D186" t="s">
-        <v>721</v>
+        <v>839</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -8220,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8228,10 +7953,10 @@
         <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>913</v>
+        <v>521</v>
       </c>
       <c r="D187" t="s">
-        <v>722</v>
+        <v>840</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -8240,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8248,10 +7973,10 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>914</v>
+        <v>522</v>
       </c>
       <c r="D188" t="s">
-        <v>723</v>
+        <v>841</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -8260,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8268,10 +7993,10 @@
         <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="D189" t="s">
-        <v>724</v>
+        <v>842</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -8280,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8288,10 +8013,10 @@
         <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="D190" t="s">
-        <v>725</v>
+        <v>843</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -8300,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8308,10 +8033,10 @@
         <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="D191" t="s">
-        <v>726</v>
+        <v>844</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -8320,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8328,10 +8053,10 @@
         <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="D192" t="s">
-        <v>727</v>
+        <v>845</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -8340,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8348,10 +8073,10 @@
         <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>915</v>
+        <v>527</v>
       </c>
       <c r="D193" t="s">
-        <v>728</v>
+        <v>846</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -8360,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8368,10 +8093,10 @@
         <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="D194" t="s">
-        <v>729</v>
+        <v>847</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -8380,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8388,10 +8113,10 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="D195" t="s">
-        <v>730</v>
+        <v>848</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -8400,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8408,10 +8133,10 @@
         <v>200</v>
       </c>
       <c r="C196" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="D196" t="s">
-        <v>731</v>
+        <v>849</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8420,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8428,10 +8153,10 @@
         <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="D197" t="s">
-        <v>732</v>
+        <v>850</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8440,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8448,10 +8173,10 @@
         <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="D198" t="s">
-        <v>707</v>
+        <v>825</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8460,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8468,10 +8193,10 @@
         <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="D199" t="s">
-        <v>733</v>
+        <v>851</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8480,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8488,10 +8213,10 @@
         <v>204</v>
       </c>
       <c r="C200" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="D200" t="s">
-        <v>734</v>
+        <v>852</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8500,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8508,10 +8233,10 @@
         <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="D201" t="s">
-        <v>598</v>
+        <v>716</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -8520,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8528,10 +8253,10 @@
         <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="D202" t="s">
-        <v>735</v>
+        <v>853</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8540,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8548,10 +8273,10 @@
         <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>916</v>
+        <v>537</v>
       </c>
       <c r="D203" t="s">
-        <v>736</v>
+        <v>854</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8560,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8568,10 +8293,10 @@
         <v>208</v>
       </c>
       <c r="C204" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="D204" t="s">
-        <v>737</v>
+        <v>855</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8580,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8588,10 +8313,10 @@
         <v>209</v>
       </c>
       <c r="C205" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="D205" t="s">
-        <v>738</v>
+        <v>856</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -8600,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8608,10 +8333,10 @@
         <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="D206" t="s">
-        <v>739</v>
+        <v>857</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -8620,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8628,10 +8353,10 @@
         <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>917</v>
+        <v>541</v>
       </c>
       <c r="D207" t="s">
-        <v>636</v>
+        <v>754</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -8640,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8648,10 +8373,10 @@
         <v>212</v>
       </c>
       <c r="C208" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="D208" t="s">
-        <v>722</v>
+        <v>840</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -8660,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8668,10 +8393,10 @@
         <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>918</v>
+        <v>543</v>
       </c>
       <c r="D209" t="s">
-        <v>740</v>
+        <v>858</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -8680,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8688,10 +8413,10 @@
         <v>87</v>
       </c>
       <c r="C210" t="s">
-        <v>919</v>
+        <v>544</v>
       </c>
       <c r="D210" t="s">
-        <v>630</v>
+        <v>748</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -8700,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8708,10 +8433,10 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="D211" t="s">
-        <v>741</v>
+        <v>859</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8720,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8728,10 +8453,10 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="D212" t="s">
-        <v>742</v>
+        <v>860</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8740,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8748,10 +8473,10 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>920</v>
+        <v>547</v>
       </c>
       <c r="D213" t="s">
-        <v>743</v>
+        <v>861</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8760,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8768,10 +8493,10 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>859</v>
+        <v>348</v>
       </c>
       <c r="D214" t="s">
-        <v>614</v>
+        <v>732</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -8780,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8788,10 +8513,10 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="D215" t="s">
-        <v>744</v>
+        <v>862</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8800,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8808,10 +8533,10 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>921</v>
+        <v>549</v>
       </c>
       <c r="D216" t="s">
-        <v>745</v>
+        <v>863</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8820,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8828,10 +8553,10 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="D217" t="s">
-        <v>746</v>
+        <v>864</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8840,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8848,10 +8573,10 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="D218" t="s">
-        <v>747</v>
+        <v>865</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8860,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8868,10 +8593,10 @@
         <v>94</v>
       </c>
       <c r="C219" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="D219" t="s">
-        <v>637</v>
+        <v>755</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -8880,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8888,10 +8613,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="D220" t="s">
-        <v>748</v>
+        <v>866</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8900,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8908,10 +8633,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="D221" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8920,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8928,10 +8653,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>922</v>
+        <v>555</v>
       </c>
       <c r="D222" t="s">
-        <v>671</v>
+        <v>789</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -8940,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8948,10 +8673,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="D223" t="s">
-        <v>750</v>
+        <v>868</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8960,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8968,10 +8693,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>894</v>
+        <v>400</v>
       </c>
       <c r="D224" t="s">
-        <v>751</v>
+        <v>869</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8980,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8988,10 +8713,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="D225" t="s">
-        <v>962</v>
+        <v>870</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -9000,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9008,10 +8733,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="D226" t="s">
-        <v>752</v>
+        <v>871</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -9020,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9028,10 +8753,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>923</v>
+        <v>559</v>
       </c>
       <c r="D227" t="s">
-        <v>753</v>
+        <v>872</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -9040,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9048,10 +8773,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>924</v>
+        <v>560</v>
       </c>
       <c r="D228" t="s">
-        <v>751</v>
+        <v>869</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -9060,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9068,10 +8793,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>516</v>
+        <v>561</v>
       </c>
       <c r="D229" t="s">
-        <v>754</v>
+        <v>873</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -9080,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9088,10 +8813,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="D230" t="s">
-        <v>755</v>
+        <v>874</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -9100,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9108,10 +8833,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="D231" t="s">
-        <v>756</v>
+        <v>875</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -9120,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9128,10 +8853,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="D232" t="s">
-        <v>757</v>
+        <v>876</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -9140,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9148,10 +8873,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>925</v>
+        <v>565</v>
       </c>
       <c r="D233" t="s">
-        <v>758</v>
+        <v>877</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -9160,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9168,10 +8893,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="D234" t="s">
-        <v>650</v>
+        <v>768</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -9180,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9188,10 +8913,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>520</v>
+        <v>566</v>
       </c>
       <c r="D235" t="s">
-        <v>603</v>
+        <v>721</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -9200,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9208,10 +8933,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
       <c r="D236" t="s">
-        <v>759</v>
+        <v>878</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -9220,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9228,10 +8953,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="D237" t="s">
-        <v>760</v>
+        <v>879</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -9240,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9248,10 +8973,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
       <c r="D238" t="s">
-        <v>761</v>
+        <v>880</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -9260,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9268,10 +8993,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>926</v>
+        <v>570</v>
       </c>
       <c r="D239" t="s">
-        <v>762</v>
+        <v>881</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -9280,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9288,10 +9013,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="D240" t="s">
-        <v>763</v>
+        <v>882</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -9300,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9308,10 +9033,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="D241" t="s">
-        <v>764</v>
+        <v>883</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -9320,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9328,10 +9053,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
       <c r="D242" t="s">
-        <v>765</v>
+        <v>884</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -9340,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9348,10 +9073,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>527</v>
+        <v>574</v>
       </c>
       <c r="D243" t="s">
-        <v>766</v>
+        <v>885</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -9360,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9368,10 +9093,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="D244" t="s">
-        <v>767</v>
+        <v>886</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -9380,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9388,10 +9113,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="D245" t="s">
-        <v>768</v>
+        <v>887</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -9400,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9408,10 +9133,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="D246" t="s">
-        <v>769</v>
+        <v>888</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -9420,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9428,10 +9153,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="D247" t="s">
-        <v>770</v>
+        <v>889</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9440,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9448,10 +9173,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>532</v>
+        <v>579</v>
       </c>
       <c r="D248" t="s">
-        <v>771</v>
+        <v>890</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9460,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9468,10 +9193,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="D249" t="s">
-        <v>772</v>
+        <v>891</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9480,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9488,10 +9213,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>534</v>
+        <v>581</v>
       </c>
       <c r="D250" t="s">
-        <v>773</v>
+        <v>892</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9500,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9508,10 +9233,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="D251" t="s">
-        <v>774</v>
+        <v>893</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9520,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9528,10 +9253,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>536</v>
+        <v>583</v>
       </c>
       <c r="D252" t="s">
-        <v>775</v>
+        <v>894</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9540,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9548,10 +9273,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="D253" t="s">
-        <v>776</v>
+        <v>895</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9560,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9568,10 +9293,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="D254" t="s">
-        <v>777</v>
+        <v>896</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9580,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9588,10 +9313,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="D255" t="s">
-        <v>778</v>
+        <v>897</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9600,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9608,10 +9333,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="D256" t="s">
-        <v>779</v>
+        <v>898</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9620,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9628,10 +9353,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>541</v>
+        <v>588</v>
       </c>
       <c r="D257" t="s">
-        <v>780</v>
+        <v>899</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9640,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9648,10 +9373,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>542</v>
+        <v>589</v>
       </c>
       <c r="D258" t="s">
-        <v>781</v>
+        <v>900</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9660,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>258</v>
       </c>
@@ -9668,10 +9393,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>543</v>
+        <v>590</v>
       </c>
       <c r="D259" t="s">
-        <v>782</v>
+        <v>901</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9680,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>259</v>
       </c>
@@ -9688,10 +9413,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="D260" t="s">
-        <v>783</v>
+        <v>902</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9700,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>260</v>
       </c>
@@ -9708,10 +9433,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>545</v>
+        <v>592</v>
       </c>
       <c r="D261" t="s">
-        <v>784</v>
+        <v>903</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9720,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>261</v>
       </c>
@@ -9728,10 +9453,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>927</v>
+        <v>593</v>
       </c>
       <c r="D262" t="s">
-        <v>728</v>
+        <v>846</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -9740,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>262</v>
       </c>
@@ -9748,10 +9473,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="D263" t="s">
-        <v>785</v>
+        <v>904</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9760,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>263</v>
       </c>
@@ -9768,10 +9493,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="D264" t="s">
-        <v>786</v>
+        <v>905</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9780,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>264</v>
       </c>
@@ -9788,10 +9513,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>928</v>
+        <v>596</v>
       </c>
       <c r="D265" t="s">
-        <v>787</v>
+        <v>906</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9800,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>265</v>
       </c>
@@ -9808,10 +9533,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="D266" t="s">
-        <v>788</v>
+        <v>907</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9820,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>266</v>
       </c>
@@ -9828,10 +9553,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="D267" t="s">
-        <v>789</v>
+        <v>908</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9840,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>267</v>
       </c>
@@ -9848,10 +9573,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="D268" t="s">
-        <v>790</v>
+        <v>909</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9860,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>268</v>
       </c>
@@ -9868,10 +9593,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="D269" t="s">
-        <v>711</v>
+        <v>829</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -9880,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>269</v>
       </c>
@@ -9888,10 +9613,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
       <c r="D270" t="s">
-        <v>791</v>
+        <v>910</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9900,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>270</v>
       </c>
@@ -9908,10 +9633,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="D271" t="s">
-        <v>792</v>
+        <v>911</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9920,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>271</v>
       </c>
@@ -9928,10 +9653,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>554</v>
+        <v>603</v>
       </c>
       <c r="D272" t="s">
-        <v>793</v>
+        <v>912</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9940,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>272</v>
       </c>
@@ -9948,10 +9673,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>929</v>
+        <v>604</v>
       </c>
       <c r="D273" t="s">
-        <v>794</v>
+        <v>913</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9960,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9968,10 +9693,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>930</v>
+        <v>605</v>
       </c>
       <c r="D274" t="s">
-        <v>795</v>
+        <v>914</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9980,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9988,10 +9713,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="D275" t="s">
-        <v>796</v>
+        <v>915</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -10000,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10008,10 +9733,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="D276" t="s">
-        <v>797</v>
+        <v>916</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -10020,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10028,10 +9753,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="D277" t="s">
-        <v>798</v>
+        <v>917</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -10040,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10048,10 +9773,10 @@
         <v>265</v>
       </c>
       <c r="C278" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="D278" t="s">
-        <v>799</v>
+        <v>918</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -10060,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10068,10 +9793,10 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="D279" t="s">
-        <v>695</v>
+        <v>813</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -10080,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10088,10 +9813,10 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="D280" t="s">
-        <v>800</v>
+        <v>919</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -10100,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10108,10 +9833,10 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="D281" t="s">
-        <v>801</v>
+        <v>920</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -10120,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10128,10 +9853,10 @@
         <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
       <c r="D282" t="s">
-        <v>802</v>
+        <v>921</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -10140,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10148,10 +9873,10 @@
         <v>283</v>
       </c>
       <c r="C283" t="s">
-        <v>563</v>
+        <v>614</v>
       </c>
       <c r="D283" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -10160,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>283</v>
       </c>
@@ -10168,10 +9893,10 @@
         <v>284</v>
       </c>
       <c r="C284" t="s">
-        <v>564</v>
+        <v>615</v>
       </c>
       <c r="D284" t="s">
-        <v>804</v>
+        <v>923</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -10180,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>284</v>
       </c>
@@ -10188,10 +9913,10 @@
         <v>285</v>
       </c>
       <c r="C285" t="s">
-        <v>565</v>
+        <v>616</v>
       </c>
       <c r="D285" t="s">
-        <v>805</v>
+        <v>924</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -10200,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>285</v>
       </c>
@@ -10208,10 +9933,10 @@
         <v>286</v>
       </c>
       <c r="C286" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="D286" t="s">
-        <v>806</v>
+        <v>925</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -10220,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>286</v>
       </c>
@@ -10228,10 +9953,10 @@
         <v>287</v>
       </c>
       <c r="C287" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="D287" t="s">
-        <v>807</v>
+        <v>926</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -10240,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>287</v>
       </c>
@@ -10248,10 +9973,10 @@
         <v>288</v>
       </c>
       <c r="C288" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="D288" t="s">
-        <v>703</v>
+        <v>821</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -10260,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>288</v>
       </c>
@@ -10268,10 +9993,10 @@
         <v>289</v>
       </c>
       <c r="C289" t="s">
-        <v>931</v>
+        <v>620</v>
       </c>
       <c r="D289" t="s">
-        <v>808</v>
+        <v>927</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -10280,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>289</v>
       </c>
@@ -10288,10 +10013,10 @@
         <v>290</v>
       </c>
       <c r="C290" t="s">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="D290" t="s">
-        <v>809</v>
+        <v>928</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -10300,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>290</v>
       </c>
@@ -10308,10 +10033,10 @@
         <v>291</v>
       </c>
       <c r="C291" t="s">
-        <v>932</v>
+        <v>622</v>
       </c>
       <c r="D291" t="s">
-        <v>810</v>
+        <v>929</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -10320,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>291</v>
       </c>
@@ -10328,10 +10053,10 @@
         <v>292</v>
       </c>
       <c r="C292" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
       <c r="D292" t="s">
-        <v>811</v>
+        <v>930</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -10340,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10348,10 +10073,10 @@
         <v>293</v>
       </c>
       <c r="C293" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
       <c r="D293" t="s">
-        <v>812</v>
+        <v>931</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -10360,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10368,10 +10093,10 @@
         <v>294</v>
       </c>
       <c r="C294" t="s">
-        <v>572</v>
+        <v>625</v>
       </c>
       <c r="D294" t="s">
-        <v>813</v>
+        <v>932</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -10380,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10388,10 +10113,10 @@
         <v>295</v>
       </c>
       <c r="C295" t="s">
-        <v>573</v>
+        <v>626</v>
       </c>
       <c r="D295" t="s">
-        <v>814</v>
+        <v>933</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -10400,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10408,10 +10133,10 @@
         <v>296</v>
       </c>
       <c r="C296" t="s">
-        <v>933</v>
+        <v>627</v>
       </c>
       <c r="D296" t="s">
-        <v>815</v>
+        <v>934</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -10420,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10428,10 +10153,10 @@
         <v>297</v>
       </c>
       <c r="C297" t="s">
-        <v>934</v>
+        <v>628</v>
       </c>
       <c r="D297" t="s">
-        <v>816</v>
+        <v>935</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10440,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10448,10 +10173,10 @@
         <v>298</v>
       </c>
       <c r="C298" t="s">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="D298" t="s">
-        <v>817</v>
+        <v>936</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10460,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10468,10 +10193,10 @@
         <v>299</v>
       </c>
       <c r="C299" t="s">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="D299" t="s">
-        <v>632</v>
+        <v>750</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -10480,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10488,10 +10213,10 @@
         <v>300</v>
       </c>
       <c r="C300" t="s">
-        <v>576</v>
+        <v>631</v>
       </c>
       <c r="D300" t="s">
-        <v>818</v>
+        <v>937</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10500,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>300</v>
       </c>
@@ -10508,10 +10233,10 @@
         <v>301</v>
       </c>
       <c r="C301" t="s">
-        <v>935</v>
+        <v>632</v>
       </c>
       <c r="D301" t="s">
-        <v>819</v>
+        <v>938</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10520,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>301</v>
       </c>
@@ -10528,10 +10253,10 @@
         <v>302</v>
       </c>
       <c r="C302" t="s">
-        <v>577</v>
+        <v>633</v>
       </c>
       <c r="D302" t="s">
-        <v>820</v>
+        <v>939</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10540,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10548,10 +10273,10 @@
         <v>303</v>
       </c>
       <c r="C303" t="s">
-        <v>578</v>
+        <v>634</v>
       </c>
       <c r="D303" t="s">
-        <v>821</v>
+        <v>940</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10560,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10568,10 +10293,10 @@
         <v>304</v>
       </c>
       <c r="C304" t="s">
-        <v>579</v>
+        <v>635</v>
       </c>
       <c r="D304" t="s">
-        <v>822</v>
+        <v>941</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10580,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10588,10 +10313,10 @@
         <v>305</v>
       </c>
       <c r="C305" t="s">
-        <v>580</v>
+        <v>636</v>
       </c>
       <c r="D305" t="s">
-        <v>823</v>
+        <v>942</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10600,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>305</v>
       </c>
@@ -10608,10 +10333,10 @@
         <v>306</v>
       </c>
       <c r="C306" t="s">
-        <v>581</v>
+        <v>637</v>
       </c>
       <c r="D306" t="s">
-        <v>824</v>
+        <v>943</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10620,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>306</v>
       </c>
@@ -10628,10 +10353,10 @@
         <v>307</v>
       </c>
       <c r="C307" t="s">
-        <v>936</v>
+        <v>638</v>
       </c>
       <c r="D307" t="s">
-        <v>632</v>
+        <v>750</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -10640,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10648,10 +10373,10 @@
         <v>54</v>
       </c>
       <c r="C308" t="s">
-        <v>582</v>
+        <v>639</v>
       </c>
       <c r="D308" t="s">
-        <v>825</v>
+        <v>944</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10660,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>308</v>
       </c>
@@ -10668,10 +10393,10 @@
         <v>308</v>
       </c>
       <c r="C309" t="s">
-        <v>937</v>
+        <v>640</v>
       </c>
       <c r="D309" t="s">
-        <v>826</v>
+        <v>945</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10680,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10688,10 +10413,10 @@
         <v>309</v>
       </c>
       <c r="C310" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="D310" t="s">
-        <v>827</v>
+        <v>946</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10700,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>310</v>
       </c>
@@ -10708,10 +10433,10 @@
         <v>310</v>
       </c>
       <c r="C311" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="D311" t="s">
-        <v>828</v>
+        <v>947</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10720,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10728,10 +10453,10 @@
         <v>311</v>
       </c>
       <c r="C312" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="D312" t="s">
-        <v>829</v>
+        <v>948</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10740,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10748,10 +10473,10 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>938</v>
+        <v>644</v>
       </c>
       <c r="D313" t="s">
-        <v>611</v>
+        <v>729</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -10760,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10768,10 +10493,10 @@
         <v>313</v>
       </c>
       <c r="C314" t="s">
-        <v>939</v>
+        <v>645</v>
       </c>
       <c r="D314" t="s">
-        <v>830</v>
+        <v>949</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10780,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10788,10 +10513,10 @@
         <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>940</v>
+        <v>646</v>
       </c>
       <c r="D315" t="s">
-        <v>831</v>
+        <v>950</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10800,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>315</v>
       </c>
@@ -10808,10 +10533,10 @@
         <v>315</v>
       </c>
       <c r="C316" t="s">
-        <v>941</v>
+        <v>647</v>
       </c>
       <c r="D316" t="s">
-        <v>831</v>
+        <v>950</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -10820,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10828,10 +10553,10 @@
         <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>942</v>
+        <v>648</v>
       </c>
       <c r="D317" t="s">
-        <v>832</v>
+        <v>951</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -10840,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10848,10 +10573,10 @@
         <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>943</v>
+        <v>649</v>
       </c>
       <c r="D318" t="s">
-        <v>833</v>
+        <v>952</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -10860,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10868,10 +10593,10 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>944</v>
+        <v>650</v>
       </c>
       <c r="D319" t="s">
-        <v>834</v>
+        <v>953</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -10880,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10888,10 +10613,10 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>945</v>
+        <v>651</v>
       </c>
       <c r="D320" t="s">
-        <v>835</v>
+        <v>954</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -10900,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>320</v>
       </c>
@@ -10908,10 +10633,10 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>946</v>
+        <v>652</v>
       </c>
       <c r="D321" t="s">
-        <v>836</v>
+        <v>955</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -10920,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10928,10 +10653,10 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>947</v>
+        <v>653</v>
       </c>
       <c r="D322" t="s">
-        <v>837</v>
+        <v>956</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -10940,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10948,10 +10673,10 @@
         <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>948</v>
+        <v>654</v>
       </c>
       <c r="D323" t="s">
-        <v>838</v>
+        <v>957</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -10960,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>323</v>
       </c>
@@ -10968,10 +10693,10 @@
         <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>949</v>
+        <v>655</v>
       </c>
       <c r="D324" t="s">
-        <v>839</v>
+        <v>958</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -10980,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>324</v>
       </c>
@@ -10988,10 +10713,10 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>950</v>
+        <v>656</v>
       </c>
       <c r="D325" t="s">
-        <v>840</v>
+        <v>959</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11000,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>325</v>
       </c>
@@ -11008,10 +10733,10 @@
         <v>325</v>
       </c>
       <c r="C326" t="s">
-        <v>951</v>
+        <v>657</v>
       </c>
       <c r="D326" t="s">
-        <v>841</v>
+        <v>960</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11020,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>326</v>
       </c>
@@ -11028,10 +10753,10 @@
         <v>326</v>
       </c>
       <c r="C327" t="s">
-        <v>952</v>
+        <v>658</v>
       </c>
       <c r="D327" t="s">
-        <v>842</v>
+        <v>961</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -11040,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>327</v>
       </c>
@@ -11048,10 +10773,10 @@
         <v>327</v>
       </c>
       <c r="C328" t="s">
-        <v>953</v>
+        <v>659</v>
       </c>
       <c r="D328" t="s">
-        <v>843</v>
+        <v>962</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -11060,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>328</v>
       </c>
@@ -11068,10 +10793,10 @@
         <v>328</v>
       </c>
       <c r="C329" t="s">
-        <v>954</v>
+        <v>660</v>
       </c>
       <c r="D329" t="s">
-        <v>844</v>
+        <v>963</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -11080,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>329</v>
       </c>
@@ -11088,10 +10813,10 @@
         <v>329</v>
       </c>
       <c r="C330" t="s">
-        <v>955</v>
+        <v>661</v>
       </c>
       <c r="D330" t="s">
-        <v>845</v>
+        <v>964</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -11100,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>330</v>
       </c>
@@ -11108,10 +10833,10 @@
         <v>330</v>
       </c>
       <c r="C331" t="s">
-        <v>956</v>
+        <v>662</v>
       </c>
       <c r="D331" t="s">
-        <v>846</v>
+        <v>965</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11120,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>331</v>
       </c>
@@ -11128,10 +10853,10 @@
         <v>331</v>
       </c>
       <c r="C332" t="s">
-        <v>957</v>
+        <v>663</v>
       </c>
       <c r="D332" t="s">
-        <v>847</v>
+        <v>966</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11140,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>332</v>
       </c>
@@ -11148,10 +10873,10 @@
         <v>332</v>
       </c>
       <c r="C333" t="s">
-        <v>958</v>
+        <v>664</v>
       </c>
       <c r="D333" t="s">
-        <v>848</v>
+        <v>967</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11160,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>333</v>
       </c>
@@ -11168,10 +10893,10 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>959</v>
+        <v>665</v>
       </c>
       <c r="D334" t="s">
-        <v>849</v>
+        <v>968</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11180,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>334</v>
       </c>
@@ -11188,10 +10913,10 @@
         <v>334</v>
       </c>
       <c r="C335" t="s">
-        <v>960</v>
+        <v>666</v>
       </c>
       <c r="D335" t="s">
-        <v>850</v>
+        <v>969</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11200,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>335</v>
       </c>
@@ -11208,28 +10933,299 @@
         <v>335</v>
       </c>
       <c r="C336" t="s">
-        <v>961</v>
+        <v>667</v>
       </c>
       <c r="D336" t="s">
-        <v>735</v>
+        <v>853</v>
       </c>
       <c r="E336">
         <v>0</v>
       </c>
       <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337">
+        <v>316</v>
+      </c>
+      <c r="B337" t="s">
+        <v>316</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338">
+        <v>317</v>
+      </c>
+      <c r="B338" t="s">
+        <v>317</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339">
+        <v>318</v>
+      </c>
+      <c r="B339" t="s">
+        <v>318</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340">
+        <v>319</v>
+      </c>
+      <c r="B340" t="s">
+        <v>319</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341">
+        <v>320</v>
+      </c>
+      <c r="B341" t="s">
+        <v>320</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342">
+        <v>321</v>
+      </c>
+      <c r="B342" t="s">
+        <v>321</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343">
+        <v>322</v>
+      </c>
+      <c r="B343" t="s">
+        <v>322</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344">
+        <v>323</v>
+      </c>
+      <c r="B344" t="s">
+        <v>323</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345">
+        <v>324</v>
+      </c>
+      <c r="B345" t="s">
+        <v>324</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346">
+        <v>325</v>
+      </c>
+      <c r="B346" t="s">
+        <v>325</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347">
+        <v>326</v>
+      </c>
+      <c r="B347" t="s">
+        <v>326</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348">
+        <v>327</v>
+      </c>
+      <c r="B348" t="s">
+        <v>327</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349">
+        <v>328</v>
+      </c>
+      <c r="B349" t="s">
+        <v>328</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350">
+        <v>329</v>
+      </c>
+      <c r="B350" t="s">
+        <v>329</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351">
+        <v>330</v>
+      </c>
+      <c r="B351" t="s">
+        <v>330</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352">
+        <v>331</v>
+      </c>
+      <c r="B352" t="s">
+        <v>331</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353">
+        <v>332</v>
+      </c>
+      <c r="B353" t="s">
+        <v>332</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354">
+        <v>333</v>
+      </c>
+      <c r="B354" t="s">
+        <v>333</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355">
+        <v>334</v>
+      </c>
+      <c r="B355" t="s">
+        <v>334</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356">
+        <v>335</v>
+      </c>
+      <c r="B356" t="s">
+        <v>335</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{b1c9b508-7c6e-42bd-bedf-808292653d6c}" enabled="1" method="Standard" siteId="{2882be50-2012-4d88-ac86-544124e120c8}" contentBits="3" removed="0"/>
-</clbl:labelList>
 </file>
--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B11695-4C21-424B-8950-F7431AFAC199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -166,9 +172,6 @@
     <t>What is one goal of the Iteration Review?</t>
   </si>
   <si>
-    <t>The Product Manager makes weekly visits to a customer's site. Which two Agile Manifesto Values support this behavior? (Choose two)</t>
-  </si>
-  <si>
     <t>What is the primary goal of the Innovation and Planning (IP) iteration in SAFe?</t>
   </si>
   <si>
@@ -3081,18 +3084,9 @@
     <t xml:space="preserve"> To clarify story intent</t>
   </si>
   <si>
-    <t>Respect for people and culture</t>
-  </si>
-  <si>
-    <t>Team prepares requirements for Iteration Planning</t>
-  </si>
-  <si>
     <t xml:space="preserve"> To receive feedback on the increment</t>
   </si>
   <si>
-    <t>Customer collaboration over contract negotiation;Individual interactions over processes and tools</t>
-  </si>
-  <si>
     <t>Provide dedicated time for exploration and innovation</t>
   </si>
   <si>
@@ -3501,9 +3495,6 @@
     <t>Make value flow without interruptions</t>
   </si>
   <si>
-    <t>All PI Objectives are given a business value of 10</t>
-  </si>
-  <si>
     <t>To ensure large queues are not forming</t>
   </si>
   <si>
@@ -3534,15 +3525,9 @@
     <t>Sustainability</t>
   </si>
   <si>
-    <t>Responding to change over following a plan</t>
-  </si>
-  <si>
     <t>Portfolio Kanban</t>
   </si>
   <si>
-    <t>Teams align the start and end dates of their Iterations</t>
-  </si>
-  <si>
     <t>Continuous Exploration</t>
   </si>
   <si>
@@ -3555,9 +3540,6 @@
     <t>Provide autonomy</t>
   </si>
   <si>
-    <t>By focusing on customers, products, innovation, and growth</t>
-  </si>
-  <si>
     <t>Cross-functional</t>
   </si>
   <si>
@@ -3597,9 +3579,6 @@
     <t>Challenges between teams that build Solutions and those who operate the Solutions</t>
   </si>
   <si>
-    <t>External Customers;Internal Customers</t>
-  </si>
-  <si>
     <t>Address risks during ART PI Risks session</t>
   </si>
   <si>
@@ -3862,13 +3841,41 @@
   </si>
   <si>
     <t>Portfolio Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Respect for people and culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team prepares requirements for Iteration Planning</t>
+  </si>
+  <si>
+    <t>The Product Manager makes weekly visits to a customer's site. Which two Agile Manifesto Values support this behavior? (Choose two.)</t>
+  </si>
+  <si>
+    <t>Customer collaboration over contract negotiation
+Individual interactions over processes and tools</t>
+  </si>
+  <si>
+    <t>All PI Objectives get value 10</t>
+  </si>
+  <si>
+    <t>Responding to change</t>
+  </si>
+  <si>
+    <t>Align iteration dates</t>
+  </si>
+  <si>
+    <t>Focus on customers/products</t>
+  </si>
+  <si>
+    <t>External Customers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3931,13 +3938,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3975,7 +3990,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4009,6 +4024,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4043,9 +4059,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4218,14 +4235,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="D344" sqref="D344"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +4264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4253,10 +4272,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4265,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4273,10 +4292,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4285,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4293,10 +4312,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4305,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4313,10 +4332,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4325,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4333,10 +4352,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4345,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4353,10 +4372,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4365,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4373,10 +4392,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4385,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4393,10 +4412,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4405,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4413,10 +4432,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4425,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4433,10 +4452,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4445,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4453,10 +4472,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4465,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4473,10 +4492,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4485,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4493,10 +4512,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4505,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4513,10 +4532,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4525,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4533,10 +4552,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4545,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4553,10 +4572,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4565,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4573,10 +4592,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4585,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4593,10 +4612,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4605,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4613,10 +4632,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4625,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4633,10 +4652,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4645,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4653,10 +4672,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4665,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4673,10 +4692,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4685,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4693,10 +4712,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4705,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4713,10 +4732,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4725,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4733,10 +4752,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4745,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4753,10 +4772,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4765,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4773,10 +4792,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4785,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4793,10 +4812,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4805,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4813,10 +4832,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4825,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4833,10 +4852,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4845,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4853,10 +4872,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4865,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4873,10 +4892,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D33" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4885,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4893,10 +4912,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4905,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4913,10 +4932,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D35" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4925,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4933,10 +4952,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4945,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4953,10 +4972,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D37" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4965,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4973,10 +4992,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4985,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4993,10 +5012,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5005,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5013,10 +5032,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D40" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5025,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5033,10 +5052,10 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5045,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5053,10 +5072,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D42" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5065,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5073,10 +5092,10 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D43" t="s">
-        <v>709</v>
+        <v>961</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5085,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5093,10 +5112,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D44" t="s">
-        <v>710</v>
+        <v>962</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5105,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5113,10 +5132,10 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D45" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5125,18 +5144,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>963</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D46" t="s">
-        <v>712</v>
+        <v>964</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5145,18 +5164,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D47" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5165,18 +5184,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D48" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5185,18 +5204,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D49" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5205,18 +5224,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5225,18 +5244,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D51" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5245,18 +5264,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D52" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5265,18 +5284,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D53" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5285,18 +5304,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D54" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5305,18 +5324,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D55" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5325,18 +5344,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D56" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5345,18 +5364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D57" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5365,18 +5384,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D58" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -5385,18 +5404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D59" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5405,18 +5424,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D60" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5425,18 +5444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D61" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5445,18 +5464,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D62" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5465,18 +5484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D63" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5485,18 +5504,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D64" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5505,18 +5524,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D65" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5525,18 +5544,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D66" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5545,18 +5564,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D67" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5565,18 +5584,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D68" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5585,18 +5604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D69" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5605,18 +5624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D70" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5625,18 +5644,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D71" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5645,18 +5664,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D72" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5665,18 +5684,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D73" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5685,18 +5704,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D74" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5705,18 +5724,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D75" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5725,18 +5744,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D76" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5745,18 +5764,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D77" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5765,18 +5784,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D78" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5785,18 +5804,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D79" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5805,18 +5824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D80" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5825,18 +5844,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D81" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5845,18 +5864,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D82" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5865,18 +5884,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D83" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5885,18 +5904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D84" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5905,18 +5924,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D85" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5925,18 +5944,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D86" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5945,18 +5964,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D87" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5965,18 +5984,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D88" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5985,18 +6004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D89" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -6005,18 +6024,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D90" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6025,18 +6044,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D91" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6045,18 +6064,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D92" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6065,18 +6084,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D93" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6085,18 +6104,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D94" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6105,18 +6124,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D95" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6125,18 +6144,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D96" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6145,18 +6164,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D97" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6165,18 +6184,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D98" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6185,18 +6204,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D99" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6205,18 +6224,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D100" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6225,18 +6244,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D101" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6245,18 +6264,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D102" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6265,18 +6284,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D103" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6285,18 +6304,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D104" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6305,18 +6324,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D105" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6325,18 +6344,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D106" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6345,18 +6364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D107" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6365,18 +6384,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D108" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6385,18 +6404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D109" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6405,18 +6424,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D110" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -6425,18 +6444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D111" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -6445,18 +6464,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D112" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -6465,18 +6484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D113" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6485,18 +6504,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D114" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -6505,18 +6524,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6525,18 +6544,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D116" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6545,18 +6564,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D117" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6565,18 +6584,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D118" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -6585,18 +6604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D119" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6605,18 +6624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D120" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6625,18 +6644,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D121" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6645,18 +6664,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D122" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -6665,18 +6684,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D123" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6685,18 +6704,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D124" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -6705,18 +6724,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D125" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -6725,18 +6744,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D126" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -6745,18 +6764,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D127" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -6765,18 +6784,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D128" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6785,18 +6804,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D129" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6805,18 +6824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D130" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6825,18 +6844,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D131" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6845,18 +6864,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D132" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6865,18 +6884,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D133" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -6885,18 +6904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D134" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6905,18 +6924,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D135" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -6925,18 +6944,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D136" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6945,18 +6964,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D137" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6965,18 +6984,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D138" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -6985,18 +7004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D139" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7005,18 +7024,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D140" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7025,18 +7044,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D141" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7045,18 +7064,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D142" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -7065,18 +7084,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D143" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -7085,18 +7104,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D144" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -7105,18 +7124,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D145" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7125,18 +7144,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D146" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7145,18 +7164,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D147" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7165,18 +7184,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D148" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7185,18 +7204,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D149" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7205,18 +7224,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D150" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7225,18 +7244,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D151" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7245,18 +7264,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D152" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7265,18 +7284,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D153" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -7285,18 +7304,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D154" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7305,18 +7324,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D155" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7325,18 +7344,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D156" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7345,18 +7364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D157" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7365,18 +7384,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D158" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7385,18 +7404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D159" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7405,18 +7424,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D160" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7425,18 +7444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D161" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -7445,18 +7464,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D162" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7465,18 +7484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D163" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -7485,18 +7504,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D164" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -7505,18 +7524,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D165" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7525,18 +7544,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D166" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7545,18 +7564,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D167" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7565,18 +7584,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D168" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7585,18 +7604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D169" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7605,18 +7624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D170" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7625,18 +7644,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D171" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7645,18 +7664,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D172" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7665,18 +7684,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D173" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7685,18 +7704,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D174" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7705,18 +7724,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D175" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -7725,18 +7744,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D176" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -7745,18 +7764,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D177" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7765,18 +7784,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D178" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7785,18 +7804,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D179" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -7805,18 +7824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D180" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7825,18 +7844,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D181" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -7845,18 +7864,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D182" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7865,18 +7884,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D183" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -7885,18 +7904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D184" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7905,18 +7924,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D185" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -7925,18 +7944,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D186" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7945,18 +7964,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D187" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7965,18 +7984,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D188" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -7985,18 +8004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D189" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -8005,18 +8024,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D190" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -8025,18 +8044,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D191" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -8045,18 +8064,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D192" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -8065,18 +8084,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D193" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -8085,18 +8104,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D194" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -8105,18 +8124,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D195" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -8125,18 +8144,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D196" t="s">
-        <v>849</v>
+        <v>965</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8145,18 +8164,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D197" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8165,18 +8184,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D198" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8185,18 +8204,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D199" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8205,18 +8224,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D200" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8225,18 +8244,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D201" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -8245,18 +8264,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D202" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8265,18 +8284,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D203" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8285,18 +8304,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D204" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8305,18 +8324,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D205" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -8325,18 +8344,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D206" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -8345,18 +8364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D207" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -8365,18 +8384,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D208" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -8385,18 +8404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D209" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -8405,18 +8424,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C210" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D210" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -8425,18 +8444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D211" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8445,18 +8464,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D212" t="s">
-        <v>860</v>
+        <v>966</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8465,18 +8484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D213" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8485,18 +8504,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D214" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -8505,18 +8524,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D215" t="s">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8525,18 +8544,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D216" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8545,18 +8564,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D217" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8565,18 +8584,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D218" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8585,18 +8604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C219" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D219" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -8605,18 +8624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D220" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8625,18 +8644,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D221" t="s">
-        <v>867</v>
+        <v>968</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8645,18 +8664,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D222" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -8665,18 +8684,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D223" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8685,18 +8704,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D224" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8705,18 +8724,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D225" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -8725,18 +8744,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D226" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -8745,18 +8764,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D227" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8765,18 +8784,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D228" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8785,18 +8804,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D229" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -8805,18 +8824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D230" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -8825,18 +8844,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D231" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -8845,18 +8864,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D232" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -8865,18 +8884,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D233" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -8885,18 +8904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D234" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -8905,18 +8924,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D235" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -8925,18 +8944,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D236" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -8945,18 +8964,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D237" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -8965,18 +8984,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D238" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -8985,18 +9004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D239" t="s">
-        <v>881</v>
+        <v>969</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -9005,18 +9024,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D240" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -9025,18 +9044,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D241" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -9045,18 +9064,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D242" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -9065,18 +9084,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D243" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -9085,18 +9104,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D244" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -9105,18 +9124,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D245" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -9125,18 +9144,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D246" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -9145,18 +9164,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D247" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9165,18 +9184,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D248" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9185,18 +9204,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D249" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9205,18 +9224,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D250" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9225,18 +9244,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D251" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9245,18 +9264,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D252" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9265,18 +9284,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D253" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9285,18 +9304,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D254" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9305,18 +9324,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D255" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9325,18 +9344,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D256" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9345,18 +9364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D257" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9365,18 +9384,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D258" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9385,18 +9404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D259" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9405,18 +9424,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D260" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9425,18 +9444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D261" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9445,18 +9464,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D262" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -9465,18 +9484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D263" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9485,18 +9504,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D264" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9505,18 +9524,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D265" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9525,18 +9544,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D266" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9545,18 +9564,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D267" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9565,18 +9584,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D268" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9585,18 +9604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D269" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -9605,18 +9624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D270" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9625,18 +9644,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D271" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9645,18 +9664,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D272" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9665,18 +9684,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D273" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9685,18 +9704,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D274" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9705,18 +9724,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D275" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -9725,18 +9744,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D276" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -9745,18 +9764,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D277" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -9765,18 +9784,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C278" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D278" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9785,18 +9804,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C279" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D279" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -9805,18 +9824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C280" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D280" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -9825,18 +9844,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C281" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D281" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -9845,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9853,10 +9872,10 @@
         <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D282" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9865,18 +9884,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C283" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D283" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -9885,18 +9904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C284" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D284" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9905,18 +9924,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C285" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D285" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9925,18 +9944,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C286" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D286" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -9945,18 +9964,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C287" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D287" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -9965,18 +9984,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C288" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D288" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -9985,18 +10004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C289" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D289" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -10005,18 +10024,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C290" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D290" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -10025,18 +10044,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C291" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D291" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -10045,18 +10064,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C292" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D292" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -10065,18 +10084,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C293" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D293" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -10085,18 +10104,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C294" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D294" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -10105,18 +10124,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C295" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D295" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -10125,18 +10144,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C296" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D296" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -10145,18 +10164,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C297" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D297" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10165,18 +10184,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C298" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D298" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10185,18 +10204,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C299" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D299" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -10205,18 +10224,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C300" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D300" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10225,18 +10244,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C301" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D301" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10245,18 +10264,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D302" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10265,18 +10284,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C303" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D303" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10285,18 +10304,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C304" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D304" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10305,18 +10324,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C305" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D305" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10325,18 +10344,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C306" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D306" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10345,18 +10364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C307" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D307" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -10365,18 +10384,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C308" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D308" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10385,18 +10404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C309" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D309" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10405,18 +10424,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C310" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D310" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10425,18 +10444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C311" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D311" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10445,18 +10464,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C312" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D312" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10465,18 +10484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C313" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D313" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -10485,18 +10504,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C314" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D314" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10505,18 +10524,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C315" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D315" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10525,18 +10544,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C316" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D316" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -10545,18 +10564,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C317" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D317" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -10565,18 +10584,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C318" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D318" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -10585,18 +10604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C319" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D319" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -10605,18 +10624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C320" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D320" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -10625,18 +10644,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C321" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D321" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -10645,18 +10664,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C322" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D322" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -10665,18 +10684,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C323" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D323" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -10685,18 +10704,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C324" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D324" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -10705,18 +10724,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C325" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D325" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -10725,18 +10744,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C326" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D326" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -10745,18 +10764,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C327" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D327" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -10765,18 +10784,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C328" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D328" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -10785,18 +10804,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C329" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D329" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -10805,18 +10824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C330" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D330" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -10825,18 +10844,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C331" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D331" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -10845,18 +10864,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C332" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D332" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -10865,18 +10884,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C333" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D333" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -10885,18 +10904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C334" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D334" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -10905,18 +10924,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C335" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D335" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -10925,18 +10944,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C336" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D336" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -10945,12 +10964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>316</v>
       </c>
       <c r="B337" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -10959,12 +10978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>317</v>
       </c>
       <c r="B338" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -10973,12 +10992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>318</v>
       </c>
       <c r="B339" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -10987,12 +11006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>319</v>
       </c>
       <c r="B340" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11001,12 +11020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>320</v>
       </c>
       <c r="B341" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11015,12 +11034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>321</v>
       </c>
       <c r="B342" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11029,12 +11048,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>322</v>
       </c>
       <c r="B343" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11043,12 +11062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>323</v>
       </c>
       <c r="B344" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11057,12 +11076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>324</v>
       </c>
       <c r="B345" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11071,12 +11090,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>325</v>
       </c>
       <c r="B346" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -11085,12 +11104,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>326</v>
       </c>
       <c r="B347" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11099,12 +11118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>327</v>
       </c>
       <c r="B348" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11113,12 +11132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>328</v>
       </c>
       <c r="B349" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11127,12 +11146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>329</v>
       </c>
       <c r="B350" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11141,12 +11160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>330</v>
       </c>
       <c r="B351" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11155,12 +11174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>331</v>
       </c>
       <c r="B352" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11169,12 +11188,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>332</v>
       </c>
       <c r="B353" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11183,12 +11202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>333</v>
       </c>
       <c r="B354" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -11197,12 +11216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>334</v>
       </c>
       <c r="B355" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11211,12 +11230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>335</v>
       </c>
       <c r="B356" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -11227,5 +11246,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{b1c9b508-7c6e-42bd-bedf-808292653d6c}" enabled="1" method="Standard" siteId="{2882be50-2012-4d88-ac86-544124e120c8}" contentBits="3" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B11695-4C21-424B-8950-F7431AFAC199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98602850-05EC-40E0-91E4-F06922C48861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="971">
   <si>
     <t>Nº</t>
   </si>
@@ -3330,9 +3330,6 @@
     <t>They are created collaboratively by the Agile teams and communicated to the ART during PI Planning</t>
   </si>
   <si>
-    <t>To assign planned Business Value</t>
-  </si>
-  <si>
     <t>Continue to support the team's decision on sizing</t>
   </si>
   <si>
@@ -3420,9 +3417,6 @@
     <t>Release Stories that have been included in the team demo</t>
   </si>
   <si>
-    <t>User Stories</t>
-  </si>
-  <si>
     <t>Product Owner</t>
   </si>
   <si>
@@ -3571,9 +3565,6 @@
   </si>
   <si>
     <t>Apply design thinking</t>
-  </si>
-  <si>
-    <t>Exploration</t>
   </si>
   <si>
     <t>Challenges between teams that build Solutions and those who operate the Solutions</t>
@@ -3868,7 +3859,19 @@
     <t>Focus on customers/products</t>
   </si>
   <si>
-    <t>External Customers</t>
+    <t>User Stories; Enabler Stories</t>
+  </si>
+  <si>
+    <t>External Customers; Internal Customers</t>
+  </si>
+  <si>
+    <t>Team Sync; Backlog refinement</t>
+  </si>
+  <si>
+    <t>Exploration; Infrastructure</t>
+  </si>
+  <si>
+    <t>To assign planned Business Value; To present the Business Context and Vision</t>
   </si>
 </sst>
 </file>
@@ -4238,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="D344" sqref="D344"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5095,7 +5098,7 @@
         <v>376</v>
       </c>
       <c r="D43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5115,7 +5118,7 @@
         <v>377</v>
       </c>
       <c r="D44" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5149,13 +5152,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C46" t="s">
         <v>379</v>
       </c>
       <c r="D46" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -6875,7 +6878,7 @@
         <v>465</v>
       </c>
       <c r="D132" t="s">
-        <v>790</v>
+        <v>970</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6915,7 +6918,7 @@
         <v>467</v>
       </c>
       <c r="D134" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6935,7 +6938,7 @@
         <v>468</v>
       </c>
       <c r="D135" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -6975,7 +6978,7 @@
         <v>470</v>
       </c>
       <c r="D137" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6995,7 +6998,7 @@
         <v>471</v>
       </c>
       <c r="D138" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7015,7 +7018,7 @@
         <v>472</v>
       </c>
       <c r="D139" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7035,7 +7038,7 @@
         <v>473</v>
       </c>
       <c r="D140" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7055,7 +7058,7 @@
         <v>474</v>
       </c>
       <c r="D141" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7075,7 +7078,7 @@
         <v>475</v>
       </c>
       <c r="D142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -7095,7 +7098,7 @@
         <v>476</v>
       </c>
       <c r="D143" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -7135,7 +7138,7 @@
         <v>478</v>
       </c>
       <c r="D145" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7155,7 +7158,7 @@
         <v>479</v>
       </c>
       <c r="D146" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7175,7 +7178,7 @@
         <v>480</v>
       </c>
       <c r="D147" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7195,7 +7198,7 @@
         <v>481</v>
       </c>
       <c r="D148" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7215,7 +7218,7 @@
         <v>482</v>
       </c>
       <c r="D149" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7235,7 +7238,7 @@
         <v>483</v>
       </c>
       <c r="D150" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7255,7 +7258,7 @@
         <v>484</v>
       </c>
       <c r="D151" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7275,7 +7278,7 @@
         <v>485</v>
       </c>
       <c r="D152" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7295,7 +7298,7 @@
         <v>486</v>
       </c>
       <c r="D153" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -7315,7 +7318,7 @@
         <v>487</v>
       </c>
       <c r="D154" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7335,7 +7338,7 @@
         <v>488</v>
       </c>
       <c r="D155" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7355,7 +7358,7 @@
         <v>489</v>
       </c>
       <c r="D156" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7375,7 +7378,7 @@
         <v>490</v>
       </c>
       <c r="D157" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7395,7 +7398,7 @@
         <v>491</v>
       </c>
       <c r="D158" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7415,7 +7418,7 @@
         <v>492</v>
       </c>
       <c r="D159" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7455,7 +7458,7 @@
         <v>494</v>
       </c>
       <c r="D161" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -7475,7 +7478,7 @@
         <v>495</v>
       </c>
       <c r="D162" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7495,7 +7498,7 @@
         <v>496</v>
       </c>
       <c r="D163" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -7515,7 +7518,7 @@
         <v>497</v>
       </c>
       <c r="D164" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -7535,7 +7538,7 @@
         <v>498</v>
       </c>
       <c r="D165" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7575,7 +7578,7 @@
         <v>500</v>
       </c>
       <c r="D167" t="s">
-        <v>820</v>
+        <v>966</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7595,7 +7598,7 @@
         <v>501</v>
       </c>
       <c r="D168" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7635,7 +7638,7 @@
         <v>503</v>
       </c>
       <c r="D170" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7655,7 +7658,7 @@
         <v>504</v>
       </c>
       <c r="D171" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7675,7 +7678,7 @@
         <v>505</v>
       </c>
       <c r="D172" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7695,7 +7698,7 @@
         <v>506</v>
       </c>
       <c r="D173" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7715,7 +7718,7 @@
         <v>507</v>
       </c>
       <c r="D174" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7735,7 +7738,7 @@
         <v>508</v>
       </c>
       <c r="D175" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -7755,7 +7758,7 @@
         <v>509</v>
       </c>
       <c r="D176" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -7815,7 +7818,7 @@
         <v>512</v>
       </c>
       <c r="D179" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -7835,7 +7838,7 @@
         <v>513</v>
       </c>
       <c r="D180" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7855,7 +7858,7 @@
         <v>514</v>
       </c>
       <c r="D181" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -7875,7 +7878,7 @@
         <v>515</v>
       </c>
       <c r="D182" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7895,7 +7898,7 @@
         <v>516</v>
       </c>
       <c r="D183" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -7915,7 +7918,7 @@
         <v>517</v>
       </c>
       <c r="D184" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7935,7 +7938,7 @@
         <v>518</v>
       </c>
       <c r="D185" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -7955,7 +7958,7 @@
         <v>519</v>
       </c>
       <c r="D186" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7975,7 +7978,7 @@
         <v>520</v>
       </c>
       <c r="D187" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7995,7 +7998,7 @@
         <v>521</v>
       </c>
       <c r="D188" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -8015,7 +8018,7 @@
         <v>522</v>
       </c>
       <c r="D189" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -8035,7 +8038,7 @@
         <v>523</v>
       </c>
       <c r="D190" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -8055,7 +8058,7 @@
         <v>524</v>
       </c>
       <c r="D191" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -8075,7 +8078,7 @@
         <v>525</v>
       </c>
       <c r="D192" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -8095,7 +8098,7 @@
         <v>526</v>
       </c>
       <c r="D193" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -8115,7 +8118,7 @@
         <v>527</v>
       </c>
       <c r="D194" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -8135,7 +8138,7 @@
         <v>528</v>
       </c>
       <c r="D195" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -8155,7 +8158,7 @@
         <v>529</v>
       </c>
       <c r="D196" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8175,7 +8178,7 @@
         <v>530</v>
       </c>
       <c r="D197" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8195,7 +8198,7 @@
         <v>531</v>
       </c>
       <c r="D198" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8215,7 +8218,7 @@
         <v>532</v>
       </c>
       <c r="D199" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8235,7 +8238,7 @@
         <v>533</v>
       </c>
       <c r="D200" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8275,7 +8278,7 @@
         <v>535</v>
       </c>
       <c r="D202" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8295,7 +8298,7 @@
         <v>536</v>
       </c>
       <c r="D203" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8315,7 +8318,7 @@
         <v>537</v>
       </c>
       <c r="D204" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8335,7 +8338,7 @@
         <v>538</v>
       </c>
       <c r="D205" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -8355,7 +8358,7 @@
         <v>539</v>
       </c>
       <c r="D206" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -8395,7 +8398,7 @@
         <v>541</v>
       </c>
       <c r="D208" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -8415,7 +8418,7 @@
         <v>542</v>
       </c>
       <c r="D209" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -8455,7 +8458,7 @@
         <v>544</v>
       </c>
       <c r="D211" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8475,7 +8478,7 @@
         <v>545</v>
       </c>
       <c r="D212" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8495,7 +8498,7 @@
         <v>546</v>
       </c>
       <c r="D213" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8535,7 +8538,7 @@
         <v>547</v>
       </c>
       <c r="D215" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8555,7 +8558,7 @@
         <v>548</v>
       </c>
       <c r="D216" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8575,7 +8578,7 @@
         <v>549</v>
       </c>
       <c r="D217" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8595,7 +8598,7 @@
         <v>550</v>
       </c>
       <c r="D218" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8635,7 +8638,7 @@
         <v>552</v>
       </c>
       <c r="D220" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8655,7 +8658,7 @@
         <v>553</v>
       </c>
       <c r="D221" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8695,7 +8698,7 @@
         <v>555</v>
       </c>
       <c r="D223" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8715,7 +8718,7 @@
         <v>399</v>
       </c>
       <c r="D224" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8735,7 +8738,7 @@
         <v>556</v>
       </c>
       <c r="D225" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -8755,7 +8758,7 @@
         <v>557</v>
       </c>
       <c r="D226" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -8775,7 +8778,7 @@
         <v>558</v>
       </c>
       <c r="D227" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8795,7 +8798,7 @@
         <v>559</v>
       </c>
       <c r="D228" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8815,7 +8818,7 @@
         <v>560</v>
       </c>
       <c r="D229" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -8835,7 +8838,7 @@
         <v>561</v>
       </c>
       <c r="D230" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -8855,7 +8858,7 @@
         <v>562</v>
       </c>
       <c r="D231" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -8875,7 +8878,7 @@
         <v>563</v>
       </c>
       <c r="D232" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -8895,7 +8898,7 @@
         <v>564</v>
       </c>
       <c r="D233" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -8955,7 +8958,7 @@
         <v>566</v>
       </c>
       <c r="D236" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -8975,7 +8978,7 @@
         <v>567</v>
       </c>
       <c r="D237" t="s">
-        <v>871</v>
+        <v>969</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -8995,7 +8998,7 @@
         <v>568</v>
       </c>
       <c r="D238" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -9015,7 +9018,7 @@
         <v>569</v>
       </c>
       <c r="D239" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -9035,7 +9038,7 @@
         <v>570</v>
       </c>
       <c r="D240" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -9055,7 +9058,7 @@
         <v>571</v>
       </c>
       <c r="D241" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -9075,7 +9078,7 @@
         <v>572</v>
       </c>
       <c r="D242" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -9095,7 +9098,7 @@
         <v>573</v>
       </c>
       <c r="D243" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -9115,7 +9118,7 @@
         <v>574</v>
       </c>
       <c r="D244" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -9135,7 +9138,7 @@
         <v>575</v>
       </c>
       <c r="D245" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -9155,7 +9158,7 @@
         <v>576</v>
       </c>
       <c r="D246" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -9175,7 +9178,7 @@
         <v>577</v>
       </c>
       <c r="D247" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9195,7 +9198,7 @@
         <v>578</v>
       </c>
       <c r="D248" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9215,7 +9218,7 @@
         <v>579</v>
       </c>
       <c r="D249" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9235,7 +9238,7 @@
         <v>580</v>
       </c>
       <c r="D250" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9255,7 +9258,7 @@
         <v>581</v>
       </c>
       <c r="D251" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9275,7 +9278,7 @@
         <v>582</v>
       </c>
       <c r="D252" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9295,7 +9298,7 @@
         <v>583</v>
       </c>
       <c r="D253" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9315,7 +9318,7 @@
         <v>584</v>
       </c>
       <c r="D254" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9335,7 +9338,7 @@
         <v>585</v>
       </c>
       <c r="D255" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9355,7 +9358,7 @@
         <v>586</v>
       </c>
       <c r="D256" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9375,7 +9378,7 @@
         <v>587</v>
       </c>
       <c r="D257" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9395,7 +9398,7 @@
         <v>588</v>
       </c>
       <c r="D258" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9415,7 +9418,7 @@
         <v>589</v>
       </c>
       <c r="D259" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9435,7 +9438,7 @@
         <v>590</v>
       </c>
       <c r="D260" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9455,7 +9458,7 @@
         <v>591</v>
       </c>
       <c r="D261" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9475,7 +9478,7 @@
         <v>592</v>
       </c>
       <c r="D262" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -9495,7 +9498,7 @@
         <v>593</v>
       </c>
       <c r="D263" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9515,7 +9518,7 @@
         <v>594</v>
       </c>
       <c r="D264" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -9535,7 +9538,7 @@
         <v>595</v>
       </c>
       <c r="D265" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9555,7 +9558,7 @@
         <v>596</v>
       </c>
       <c r="D266" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -9575,7 +9578,7 @@
         <v>597</v>
       </c>
       <c r="D267" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -9595,7 +9598,7 @@
         <v>598</v>
       </c>
       <c r="D268" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -9615,7 +9618,7 @@
         <v>599</v>
       </c>
       <c r="D269" t="s">
-        <v>825</v>
+        <v>968</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -9635,7 +9638,7 @@
         <v>600</v>
       </c>
       <c r="D270" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9655,7 +9658,7 @@
         <v>601</v>
       </c>
       <c r="D271" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9675,7 +9678,7 @@
         <v>602</v>
       </c>
       <c r="D272" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -9695,7 +9698,7 @@
         <v>603</v>
       </c>
       <c r="D273" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9715,7 +9718,7 @@
         <v>604</v>
       </c>
       <c r="D274" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -9735,7 +9738,7 @@
         <v>605</v>
       </c>
       <c r="D275" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -9755,7 +9758,7 @@
         <v>606</v>
       </c>
       <c r="D276" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -9775,7 +9778,7 @@
         <v>607</v>
       </c>
       <c r="D277" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -9795,7 +9798,7 @@
         <v>608</v>
       </c>
       <c r="D278" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9815,7 +9818,7 @@
         <v>609</v>
       </c>
       <c r="D279" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -9835,7 +9838,7 @@
         <v>610</v>
       </c>
       <c r="D280" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -9855,7 +9858,7 @@
         <v>611</v>
       </c>
       <c r="D281" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -9875,7 +9878,7 @@
         <v>612</v>
       </c>
       <c r="D282" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9895,7 +9898,7 @@
         <v>613</v>
       </c>
       <c r="D283" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -9915,7 +9918,7 @@
         <v>614</v>
       </c>
       <c r="D284" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9935,7 +9938,7 @@
         <v>615</v>
       </c>
       <c r="D285" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9955,7 +9958,7 @@
         <v>616</v>
       </c>
       <c r="D286" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -9975,7 +9978,7 @@
         <v>617</v>
       </c>
       <c r="D287" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -9995,7 +9998,7 @@
         <v>618</v>
       </c>
       <c r="D288" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -10015,7 +10018,7 @@
         <v>619</v>
       </c>
       <c r="D289" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -10035,7 +10038,7 @@
         <v>620</v>
       </c>
       <c r="D290" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -10055,7 +10058,7 @@
         <v>621</v>
       </c>
       <c r="D291" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -10075,7 +10078,7 @@
         <v>622</v>
       </c>
       <c r="D292" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -10095,7 +10098,7 @@
         <v>623</v>
       </c>
       <c r="D293" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -10115,7 +10118,7 @@
         <v>624</v>
       </c>
       <c r="D294" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -10135,7 +10138,7 @@
         <v>625</v>
       </c>
       <c r="D295" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -10155,7 +10158,7 @@
         <v>626</v>
       </c>
       <c r="D296" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -10175,7 +10178,7 @@
         <v>627</v>
       </c>
       <c r="D297" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10195,7 +10198,7 @@
         <v>628</v>
       </c>
       <c r="D298" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10235,7 +10238,7 @@
         <v>630</v>
       </c>
       <c r="D300" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10255,7 +10258,7 @@
         <v>631</v>
       </c>
       <c r="D301" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10275,7 +10278,7 @@
         <v>632</v>
       </c>
       <c r="D302" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10295,7 +10298,7 @@
         <v>633</v>
       </c>
       <c r="D303" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10315,7 +10318,7 @@
         <v>634</v>
       </c>
       <c r="D304" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10335,7 +10338,7 @@
         <v>635</v>
       </c>
       <c r="D305" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10355,7 +10358,7 @@
         <v>636</v>
       </c>
       <c r="D306" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10395,7 +10398,7 @@
         <v>638</v>
       </c>
       <c r="D308" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10415,7 +10418,7 @@
         <v>639</v>
       </c>
       <c r="D309" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10435,7 +10438,7 @@
         <v>640</v>
       </c>
       <c r="D310" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10455,7 +10458,7 @@
         <v>641</v>
       </c>
       <c r="D311" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10475,7 +10478,7 @@
         <v>642</v>
       </c>
       <c r="D312" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10515,7 +10518,7 @@
         <v>644</v>
       </c>
       <c r="D314" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10535,7 +10538,7 @@
         <v>645</v>
       </c>
       <c r="D315" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10555,7 +10558,7 @@
         <v>646</v>
       </c>
       <c r="D316" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -10575,7 +10578,7 @@
         <v>647</v>
       </c>
       <c r="D317" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -10595,7 +10598,7 @@
         <v>648</v>
       </c>
       <c r="D318" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -10615,7 +10618,7 @@
         <v>649</v>
       </c>
       <c r="D319" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -10635,7 +10638,7 @@
         <v>650</v>
       </c>
       <c r="D320" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -10655,7 +10658,7 @@
         <v>651</v>
       </c>
       <c r="D321" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -10675,7 +10678,7 @@
         <v>652</v>
       </c>
       <c r="D322" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -10695,7 +10698,7 @@
         <v>653</v>
       </c>
       <c r="D323" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -10715,7 +10718,7 @@
         <v>654</v>
       </c>
       <c r="D324" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -10735,7 +10738,7 @@
         <v>655</v>
       </c>
       <c r="D325" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -10755,7 +10758,7 @@
         <v>656</v>
       </c>
       <c r="D326" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -10775,7 +10778,7 @@
         <v>657</v>
       </c>
       <c r="D327" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -10795,7 +10798,7 @@
         <v>658</v>
       </c>
       <c r="D328" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -10815,7 +10818,7 @@
         <v>659</v>
       </c>
       <c r="D329" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -10835,7 +10838,7 @@
         <v>660</v>
       </c>
       <c r="D330" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -10855,7 +10858,7 @@
         <v>661</v>
       </c>
       <c r="D331" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -10875,7 +10878,7 @@
         <v>662</v>
       </c>
       <c r="D332" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -10895,7 +10898,7 @@
         <v>663</v>
       </c>
       <c r="D333" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -10915,7 +10918,7 @@
         <v>664</v>
       </c>
       <c r="D334" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -10935,7 +10938,7 @@
         <v>665</v>
       </c>
       <c r="D335" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -10955,7 +10958,7 @@
         <v>666</v>
       </c>
       <c r="D336" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E336">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98602850-05EC-40E0-91E4-F06922C48861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5F041C-394F-4A9B-A54B-10DEB5F9053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="971">
   <si>
     <t>Nº</t>
   </si>
@@ -3878,7 +3878,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3888,6 +3888,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3930,11 +3938,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4239,13 +4248,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F356"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="C327" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="160.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -8937,7 +8950,7 @@
       <c r="C235" t="s">
         <v>565</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="2" t="s">
         <v>717</v>
       </c>
       <c r="E235">
@@ -10967,288 +10980,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A337">
-        <v>316</v>
-      </c>
-      <c r="B337" t="s">
-        <v>315</v>
-      </c>
-      <c r="E337">
-        <v>0</v>
-      </c>
-      <c r="F337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A338">
-        <v>317</v>
-      </c>
-      <c r="B338" t="s">
-        <v>316</v>
-      </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
-      <c r="F338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A339">
-        <v>318</v>
-      </c>
-      <c r="B339" t="s">
-        <v>317</v>
-      </c>
-      <c r="E339">
-        <v>0</v>
-      </c>
-      <c r="F339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A340">
-        <v>319</v>
-      </c>
-      <c r="B340" t="s">
-        <v>318</v>
-      </c>
-      <c r="E340">
-        <v>0</v>
-      </c>
-      <c r="F340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A341">
-        <v>320</v>
-      </c>
-      <c r="B341" t="s">
-        <v>319</v>
-      </c>
-      <c r="E341">
-        <v>0</v>
-      </c>
-      <c r="F341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A342">
-        <v>321</v>
-      </c>
-      <c r="B342" t="s">
-        <v>320</v>
-      </c>
-      <c r="E342">
-        <v>0</v>
-      </c>
-      <c r="F342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A343">
-        <v>322</v>
-      </c>
-      <c r="B343" t="s">
-        <v>321</v>
-      </c>
-      <c r="E343">
-        <v>0</v>
-      </c>
-      <c r="F343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A344">
-        <v>323</v>
-      </c>
-      <c r="B344" t="s">
-        <v>322</v>
-      </c>
-      <c r="E344">
-        <v>0</v>
-      </c>
-      <c r="F344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A345">
-        <v>324</v>
-      </c>
-      <c r="B345" t="s">
-        <v>323</v>
-      </c>
-      <c r="E345">
-        <v>0</v>
-      </c>
-      <c r="F345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A346">
-        <v>325</v>
-      </c>
-      <c r="B346" t="s">
-        <v>324</v>
-      </c>
-      <c r="E346">
-        <v>0</v>
-      </c>
-      <c r="F346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A347">
-        <v>326</v>
-      </c>
-      <c r="B347" t="s">
-        <v>325</v>
-      </c>
-      <c r="E347">
-        <v>0</v>
-      </c>
-      <c r="F347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A348">
-        <v>327</v>
-      </c>
-      <c r="B348" t="s">
-        <v>326</v>
-      </c>
-      <c r="E348">
-        <v>0</v>
-      </c>
-      <c r="F348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A349">
-        <v>328</v>
-      </c>
-      <c r="B349" t="s">
-        <v>327</v>
-      </c>
-      <c r="E349">
-        <v>0</v>
-      </c>
-      <c r="F349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A350">
-        <v>329</v>
-      </c>
-      <c r="B350" t="s">
-        <v>328</v>
-      </c>
-      <c r="E350">
-        <v>0</v>
-      </c>
-      <c r="F350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A351">
-        <v>330</v>
-      </c>
-      <c r="B351" t="s">
-        <v>329</v>
-      </c>
-      <c r="E351">
-        <v>0</v>
-      </c>
-      <c r="F351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A352">
-        <v>331</v>
-      </c>
-      <c r="B352" t="s">
-        <v>330</v>
-      </c>
-      <c r="E352">
-        <v>0</v>
-      </c>
-      <c r="F352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A353">
-        <v>332</v>
-      </c>
-      <c r="B353" t="s">
-        <v>331</v>
-      </c>
-      <c r="E353">
-        <v>0</v>
-      </c>
-      <c r="F353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A354">
-        <v>333</v>
-      </c>
-      <c r="B354" t="s">
-        <v>332</v>
-      </c>
-      <c r="E354">
-        <v>0</v>
-      </c>
-      <c r="F354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A355">
-        <v>334</v>
-      </c>
-      <c r="B355" t="s">
-        <v>333</v>
-      </c>
-      <c r="E355">
-        <v>0</v>
-      </c>
-      <c r="F355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A356">
-        <v>335</v>
-      </c>
-      <c r="B356" t="s">
-        <v>334</v>
-      </c>
-      <c r="E356">
-        <v>0</v>
-      </c>
-      <c r="F356">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>
   </headerFooter>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C602483E-BA19-4CC5-8F1C-2F6FBE6B7A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD42FAE-4EC1-4145-9728-98509D885233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1036">
   <si>
     <t>Nº</t>
   </si>
@@ -4314,6 +4314,12 @@
   </si>
   <si>
     <t>SAFe Core Competencies</t>
+  </si>
+  <si>
+    <t>By modeling SAFe’s Lean-Agile Mindset values principles and practices
+By applying empathic design and focusing on Customer Centricity
+By using the SAFe Implementation Roadmap to script the path for change
+By mastering the Seven Core Competencies of the Lean Enterprise</t>
   </si>
 </sst>
 </file>
@@ -4678,8 +4684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F366"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11992,7 +11998,7 @@
         <v>1008</v>
       </c>
       <c r="C366" t="s">
-        <v>1009</v>
+        <v>1035</v>
       </c>
       <c r="D366" t="s">
         <v>1010</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD42FAE-4EC1-4145-9728-98509D885233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BFCAEC-E842-45DA-9BFE-69E39CB9994F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1038">
   <si>
     <t>Nº</t>
   </si>
@@ -3447,13 +3447,7 @@
     <t>Which of the following is the primary focus of Lean Portfolio Management?</t>
   </si>
   <si>
-    <t>Define the enterprise strategy Establish lean budgets Align strategy and execution Ensure program and portfolio execution</t>
-  </si>
-  <si>
     <t>What is the primary purpose of Strategic Themes?</t>
-  </si>
-  <si>
-    <t>Determine the order in which Epics should be executed Drive incremental implementation across the enterprise Define the sequence of steps used to deliver value to the customer Connect the portfolio to the enterprise business strategy</t>
   </si>
   <si>
     <t>What is one fundamental difference between Agile Software Engineering and Waterfall?</t>
@@ -4320,6 +4314,24 @@
 By applying empathic design and focusing on Customer Centricity
 By using the SAFe Implementation Roadmap to script the path for change
 By mastering the Seven Core Competencies of the Lean Enterprise</t>
+  </si>
+  <si>
+    <t>Define the enterprise strategy
+Establish lean budgets
+Align strategy and execution
+Ensure program and portfolio execution</t>
+  </si>
+  <si>
+    <t>Align strategy and execution</t>
+  </si>
+  <si>
+    <t>Determine the order in which Epics should be executed
+Drive incremental implementation across the enterprise
+Define the sequence of steps used to deliver value to the customer
+Connect the portfolio to the enterprise business strategy</t>
+  </si>
+  <si>
+    <t>Connect the portfolio to the enterprise business strategy</t>
   </si>
 </sst>
 </file>
@@ -4684,11 +4696,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="C366" sqref="C366"/>
+    <sheetView tabSelected="1" topLeftCell="C314" workbookViewId="0">
+      <selection activeCell="C342" sqref="C342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -4738,7 +4753,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4758,7 +4773,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4798,7 +4813,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -4858,7 +4873,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -4938,7 +4953,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -5058,7 +5073,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -5198,7 +5213,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -5238,7 +5253,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D28" t="s">
         <v>78</v>
@@ -5338,7 +5353,7 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -5498,7 +5513,7 @@
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
@@ -5658,7 +5673,7 @@
         <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -5698,7 +5713,7 @@
         <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D51" t="s">
         <v>143</v>
@@ -5778,7 +5793,7 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D55" t="s">
         <v>154</v>
@@ -6038,7 +6053,7 @@
         <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D68" t="s">
         <v>192</v>
@@ -6178,7 +6193,7 @@
         <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D75" t="s">
         <v>210</v>
@@ -6658,7 +6673,7 @@
         <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -6798,7 +6813,7 @@
         <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D106" t="s">
         <v>299</v>
@@ -6858,7 +6873,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D109" t="s">
         <v>306</v>
@@ -6878,7 +6893,7 @@
         <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D110" t="s">
         <v>308</v>
@@ -7098,7 +7113,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -7178,7 +7193,7 @@
         <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D125" t="s">
         <v>351</v>
@@ -7738,7 +7753,7 @@
         <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D153" t="s">
         <v>430</v>
@@ -7758,7 +7773,7 @@
         <v>431</v>
       </c>
       <c r="C154" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D154" t="s">
         <v>432</v>
@@ -7958,7 +7973,7 @@
         <v>459</v>
       </c>
       <c r="C164" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D164" t="s">
         <v>460</v>
@@ -8118,7 +8133,7 @@
         <v>480</v>
       </c>
       <c r="C172" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D172" t="s">
         <v>481</v>
@@ -8658,7 +8673,7 @@
         <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D199" t="s">
         <v>557</v>
@@ -8778,7 +8793,7 @@
         <v>572</v>
       </c>
       <c r="C205" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D205" t="s">
         <v>573</v>
@@ -8918,7 +8933,7 @@
         <v>588</v>
       </c>
       <c r="C212" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D212" t="s">
         <v>589</v>
@@ -9098,7 +9113,7 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D221" t="s">
         <v>611</v>
@@ -9298,7 +9313,7 @@
         <v>635</v>
       </c>
       <c r="C231" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D231" t="s">
         <v>636</v>
@@ -9378,7 +9393,7 @@
         <v>644</v>
       </c>
       <c r="C235" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D235" t="s">
         <v>154</v>
@@ -9498,7 +9513,7 @@
         <v>660</v>
       </c>
       <c r="C241" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D241" t="s">
         <v>661</v>
@@ -9778,7 +9793,7 @@
         <v>701</v>
       </c>
       <c r="C255" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D255" t="s">
         <v>702</v>
@@ -10178,7 +10193,7 @@
         <v>758</v>
       </c>
       <c r="C275" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D275" t="s">
         <v>73</v>
@@ -10258,7 +10273,7 @@
         <v>767</v>
       </c>
       <c r="C279" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D279" t="s">
         <v>432</v>
@@ -10318,7 +10333,7 @@
         <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D282" t="s">
         <v>25</v>
@@ -10378,7 +10393,7 @@
         <v>780</v>
       </c>
       <c r="C285" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D285" t="s">
         <v>781</v>
@@ -10738,7 +10753,7 @@
         <v>831</v>
       </c>
       <c r="C303" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D303" t="s">
         <v>832</v>
@@ -10838,7 +10853,7 @@
         <v>139</v>
       </c>
       <c r="C308" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D308" t="s">
         <v>844</v>
@@ -11018,10 +11033,10 @@
         <v>867</v>
       </c>
       <c r="C317" t="s">
-        <v>868</v>
+        <v>1034</v>
       </c>
       <c r="D317" t="s">
-        <v>868</v>
+        <v>1035</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11035,13 +11050,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C318" t="s">
-        <v>870</v>
+        <v>1036</v>
       </c>
       <c r="D318" t="s">
-        <v>870</v>
+        <v>1037</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11055,13 +11070,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
+        <v>869</v>
+      </c>
+      <c r="C319" t="s">
+        <v>870</v>
+      </c>
+      <c r="D319" t="s">
         <v>871</v>
-      </c>
-      <c r="C319" t="s">
-        <v>872</v>
-      </c>
-      <c r="D319" t="s">
-        <v>873</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -11075,13 +11090,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
+        <v>872</v>
+      </c>
+      <c r="C320" t="s">
+        <v>873</v>
+      </c>
+      <c r="D320" t="s">
         <v>874</v>
-      </c>
-      <c r="C320" t="s">
-        <v>875</v>
-      </c>
-      <c r="D320" t="s">
-        <v>876</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -11095,13 +11110,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C321" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D321" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -11115,13 +11130,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C322" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D322" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -11135,13 +11150,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
+        <v>879</v>
+      </c>
+      <c r="C323" t="s">
+        <v>880</v>
+      </c>
+      <c r="D323" t="s">
         <v>881</v>
-      </c>
-      <c r="C323" t="s">
-        <v>882</v>
-      </c>
-      <c r="D323" t="s">
-        <v>883</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -11155,13 +11170,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C324" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D324" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -11175,13 +11190,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C325" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D325" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11195,13 +11210,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C326" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D326" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11215,13 +11230,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
+        <v>888</v>
+      </c>
+      <c r="C327" t="s">
+        <v>889</v>
+      </c>
+      <c r="D327" t="s">
         <v>890</v>
-      </c>
-      <c r="C327" t="s">
-        <v>891</v>
-      </c>
-      <c r="D327" t="s">
-        <v>892</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -11235,13 +11250,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
+        <v>891</v>
+      </c>
+      <c r="C328" t="s">
+        <v>892</v>
+      </c>
+      <c r="D328" t="s">
         <v>893</v>
-      </c>
-      <c r="C328" t="s">
-        <v>894</v>
-      </c>
-      <c r="D328" t="s">
-        <v>895</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -11255,13 +11270,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C329" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D329" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -11275,13 +11290,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C330" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D330" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -11295,13 +11310,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
+        <v>898</v>
+      </c>
+      <c r="C331" t="s">
+        <v>899</v>
+      </c>
+      <c r="D331" t="s">
         <v>900</v>
-      </c>
-      <c r="C331" t="s">
-        <v>901</v>
-      </c>
-      <c r="D331" t="s">
-        <v>902</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11315,13 +11330,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
+        <v>901</v>
+      </c>
+      <c r="C332" t="s">
+        <v>902</v>
+      </c>
+      <c r="D332" t="s">
         <v>903</v>
-      </c>
-      <c r="C332" t="s">
-        <v>904</v>
-      </c>
-      <c r="D332" t="s">
-        <v>905</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11335,13 +11350,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
+        <v>904</v>
+      </c>
+      <c r="C333" t="s">
+        <v>905</v>
+      </c>
+      <c r="D333" t="s">
         <v>906</v>
-      </c>
-      <c r="C333" t="s">
-        <v>907</v>
-      </c>
-      <c r="D333" t="s">
-        <v>908</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11355,13 +11370,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
+        <v>907</v>
+      </c>
+      <c r="C334" t="s">
+        <v>908</v>
+      </c>
+      <c r="D334" t="s">
         <v>909</v>
-      </c>
-      <c r="C334" t="s">
-        <v>910</v>
-      </c>
-      <c r="D334" t="s">
-        <v>911</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11375,13 +11390,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
+        <v>910</v>
+      </c>
+      <c r="C335" t="s">
+        <v>911</v>
+      </c>
+      <c r="D335" t="s">
         <v>912</v>
-      </c>
-      <c r="C335" t="s">
-        <v>913</v>
-      </c>
-      <c r="D335" t="s">
-        <v>914</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11395,13 +11410,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
+        <v>913</v>
+      </c>
+      <c r="C336" t="s">
+        <v>914</v>
+      </c>
+      <c r="D336" t="s">
         <v>915</v>
-      </c>
-      <c r="C336" t="s">
-        <v>916</v>
-      </c>
-      <c r="D336" t="s">
-        <v>917</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -11415,13 +11430,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
+        <v>957</v>
+      </c>
+      <c r="C337" t="s">
+        <v>958</v>
+      </c>
+      <c r="D337" t="s">
         <v>959</v>
-      </c>
-      <c r="C337" t="s">
-        <v>960</v>
-      </c>
-      <c r="D337" t="s">
-        <v>961</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -11438,7 +11453,7 @@
         <v>588</v>
       </c>
       <c r="C338" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D338" t="s">
         <v>697</v>
@@ -11455,13 +11470,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
+        <v>961</v>
+      </c>
+      <c r="C339" t="s">
+        <v>962</v>
+      </c>
+      <c r="D339" t="s">
         <v>963</v>
-      </c>
-      <c r="C339" t="s">
-        <v>964</v>
-      </c>
-      <c r="D339" t="s">
-        <v>965</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -11475,13 +11490,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
+        <v>964</v>
+      </c>
+      <c r="C340" t="s">
+        <v>965</v>
+      </c>
+      <c r="D340" t="s">
         <v>966</v>
-      </c>
-      <c r="C340" t="s">
-        <v>967</v>
-      </c>
-      <c r="D340" t="s">
-        <v>968</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11495,13 +11510,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
+        <v>967</v>
+      </c>
+      <c r="C341" t="s">
+        <v>968</v>
+      </c>
+      <c r="D341" t="s">
         <v>969</v>
-      </c>
-      <c r="C341" t="s">
-        <v>970</v>
-      </c>
-      <c r="D341" t="s">
-        <v>971</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11515,13 +11530,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
+        <v>970</v>
+      </c>
+      <c r="C342" t="s">
+        <v>971</v>
+      </c>
+      <c r="D342" t="s">
         <v>972</v>
-      </c>
-      <c r="C342" t="s">
-        <v>973</v>
-      </c>
-      <c r="D342" t="s">
-        <v>974</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11535,13 +11550,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
+        <v>973</v>
+      </c>
+      <c r="C343" t="s">
+        <v>974</v>
+      </c>
+      <c r="D343" t="s">
         <v>975</v>
-      </c>
-      <c r="C343" t="s">
-        <v>976</v>
-      </c>
-      <c r="D343" t="s">
-        <v>977</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11555,13 +11570,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
+        <v>976</v>
+      </c>
+      <c r="C344" t="s">
+        <v>977</v>
+      </c>
+      <c r="D344" t="s">
         <v>978</v>
-      </c>
-      <c r="C344" t="s">
-        <v>979</v>
-      </c>
-      <c r="D344" t="s">
-        <v>980</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11575,13 +11590,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
+        <v>979</v>
+      </c>
+      <c r="C345" t="s">
+        <v>980</v>
+      </c>
+      <c r="D345" t="s">
         <v>981</v>
-      </c>
-      <c r="C345" t="s">
-        <v>982</v>
-      </c>
-      <c r="D345" t="s">
-        <v>983</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11598,7 +11613,7 @@
         <v>558</v>
       </c>
       <c r="C346" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D346" t="s">
         <v>560</v>
@@ -11615,13 +11630,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
+        <v>983</v>
+      </c>
+      <c r="C347" t="s">
+        <v>984</v>
+      </c>
+      <c r="D347" t="s">
         <v>985</v>
-      </c>
-      <c r="C347" t="s">
-        <v>986</v>
-      </c>
-      <c r="D347" t="s">
-        <v>987</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11635,13 +11650,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
+        <v>986</v>
+      </c>
+      <c r="C348" t="s">
+        <v>987</v>
+      </c>
+      <c r="D348" t="s">
         <v>988</v>
-      </c>
-      <c r="C348" t="s">
-        <v>989</v>
-      </c>
-      <c r="D348" t="s">
-        <v>990</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11655,13 +11670,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
+        <v>989</v>
+      </c>
+      <c r="C349" t="s">
+        <v>990</v>
+      </c>
+      <c r="D349" t="s">
         <v>991</v>
-      </c>
-      <c r="C349" t="s">
-        <v>992</v>
-      </c>
-      <c r="D349" t="s">
-        <v>993</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11675,13 +11690,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
+        <v>992</v>
+      </c>
+      <c r="C350" t="s">
+        <v>993</v>
+      </c>
+      <c r="D350" t="s">
         <v>994</v>
-      </c>
-      <c r="C350" t="s">
-        <v>995</v>
-      </c>
-      <c r="D350" t="s">
-        <v>996</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11695,13 +11710,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
+        <v>995</v>
+      </c>
+      <c r="C351" t="s">
+        <v>996</v>
+      </c>
+      <c r="D351" t="s">
         <v>997</v>
-      </c>
-      <c r="C351" t="s">
-        <v>998</v>
-      </c>
-      <c r="D351" t="s">
-        <v>999</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11715,13 +11730,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
+        <v>998</v>
+      </c>
+      <c r="C352" t="s">
+        <v>999</v>
+      </c>
+      <c r="D352" t="s">
         <v>1000</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1002</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11735,13 +11750,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D353" t="s">
         <v>1003</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1005</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11755,10 +11770,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C354" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D354" t="s">
         <v>187</v>
@@ -11775,13 +11790,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D355" t="s">
         <v>1008</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1010</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11795,10 +11810,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C356" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D356" t="s">
         <v>393</v>
@@ -11815,10 +11830,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C357" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D357" t="s">
         <v>861</v>
@@ -11835,13 +11850,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D358" t="s">
         <v>1015</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1017</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -11855,13 +11870,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D359" t="s">
         <v>1018</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1020</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -11875,13 +11890,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D360" t="s">
         <v>1021</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1023</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -11895,13 +11910,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D361" t="s">
         <v>1024</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1026</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -11915,10 +11930,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C362" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D362" t="s">
         <v>251</v>
@@ -11935,13 +11950,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D363" t="s">
         <v>1029</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1031</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -11955,13 +11970,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D364" t="s">
         <v>1032</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1034</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -11975,10 +11990,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C365" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D365" t="s">
         <v>187</v>
@@ -11995,13 +12010,13 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D366" t="s">
         <v>1008</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1010</v>
       </c>
       <c r="E366">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BFCAEC-E842-45DA-9BFE-69E39CB9994F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424FA67E-74EE-41BA-8CCC-81C31C23D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1040">
   <si>
     <t>Nº</t>
   </si>
@@ -3504,13 +3504,7 @@
     <t>The role of the Product Manager is most similar to what other role in SAFe?</t>
   </si>
   <si>
-    <t>Development Manager Solution Manager Release Train Engineer Business Manager</t>
-  </si>
-  <si>
     <t>What is the foundation of Lean?</t>
-  </si>
-  <si>
-    <t>Innovation Lean-Agile development Leadership Lean-thinking</t>
   </si>
   <si>
     <t>What is a benefit of continuously deploying using a DevOps model?</t>
@@ -3967,19 +3961,6 @@
 Deliver working software frequently</t>
   </si>
   <si>
-    <t>They are optimized for communication and delivery of value.
-They can define
-build
-and test a Feature or component.
-They deliver value every six weeks.
-They release customer products to production continuously.
-They are made up of members
-each of whom can define
-develop
-test
-and deploy the system.</t>
-  </si>
-  <si>
     <t>To enable Agile Release Trains to deliver value more frequently.
 To combine Development and Operations groups into one team.
 To clarify program and team roles.
@@ -4332,6 +4313,31 @@
   </si>
   <si>
     <t>Connect the portfolio to the enterprise business strategy</t>
+  </si>
+  <si>
+    <t>They are optimized for communication and delivery of value.
+They can define, build and test a Feature or component.
+They deliver value every six weeks.
+They release customer products to production continuously.
+They are made up of memberseach of whom can define, develop, test and deploy the system.</t>
+  </si>
+  <si>
+    <t>Development Manager 
+Solution Manager 
+Release Train Engineer 
+Business Manager</t>
+  </si>
+  <si>
+    <t>Solution Manager</t>
+  </si>
+  <si>
+    <t>Innovation
+Lean-Agile development
+Leadership
+Lean-thinking</t>
+  </si>
+  <si>
+    <t>Leadership</t>
   </si>
 </sst>
 </file>
@@ -4696,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C314" workbookViewId="0">
-      <selection activeCell="C342" sqref="C342"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4753,7 +4759,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4773,7 +4779,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4813,7 +4819,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -4873,7 +4879,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -4953,7 +4959,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -5073,7 +5079,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -5213,7 +5219,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -5253,7 +5259,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D28" t="s">
         <v>78</v>
@@ -5353,7 +5359,7 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -5513,7 +5519,7 @@
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
@@ -5673,7 +5679,7 @@
         <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -5713,7 +5719,7 @@
         <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D51" t="s">
         <v>143</v>
@@ -5793,7 +5799,7 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D55" t="s">
         <v>154</v>
@@ -6053,7 +6059,7 @@
         <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D68" t="s">
         <v>192</v>
@@ -6193,7 +6199,7 @@
         <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D75" t="s">
         <v>210</v>
@@ -6673,7 +6679,7 @@
         <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -6813,7 +6819,7 @@
         <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D106" t="s">
         <v>299</v>
@@ -6873,7 +6879,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D109" t="s">
         <v>306</v>
@@ -6893,7 +6899,7 @@
         <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D110" t="s">
         <v>308</v>
@@ -7113,7 +7119,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -7193,7 +7199,7 @@
         <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D125" t="s">
         <v>351</v>
@@ -7753,7 +7759,7 @@
         <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D153" t="s">
         <v>430</v>
@@ -7773,7 +7779,7 @@
         <v>431</v>
       </c>
       <c r="C154" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D154" t="s">
         <v>432</v>
@@ -7973,7 +7979,7 @@
         <v>459</v>
       </c>
       <c r="C164" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D164" t="s">
         <v>460</v>
@@ -8133,7 +8139,7 @@
         <v>480</v>
       </c>
       <c r="C172" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D172" t="s">
         <v>481</v>
@@ -8673,7 +8679,7 @@
         <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D199" t="s">
         <v>557</v>
@@ -8793,7 +8799,7 @@
         <v>572</v>
       </c>
       <c r="C205" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D205" t="s">
         <v>573</v>
@@ -8933,7 +8939,7 @@
         <v>588</v>
       </c>
       <c r="C212" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D212" t="s">
         <v>589</v>
@@ -9113,7 +9119,7 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D221" t="s">
         <v>611</v>
@@ -9313,7 +9319,7 @@
         <v>635</v>
       </c>
       <c r="C231" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D231" t="s">
         <v>636</v>
@@ -9393,7 +9399,7 @@
         <v>644</v>
       </c>
       <c r="C235" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D235" t="s">
         <v>154</v>
@@ -9513,7 +9519,7 @@
         <v>660</v>
       </c>
       <c r="C241" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D241" t="s">
         <v>661</v>
@@ -9793,7 +9799,7 @@
         <v>701</v>
       </c>
       <c r="C255" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D255" t="s">
         <v>702</v>
@@ -10193,7 +10199,7 @@
         <v>758</v>
       </c>
       <c r="C275" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D275" t="s">
         <v>73</v>
@@ -10273,7 +10279,7 @@
         <v>767</v>
       </c>
       <c r="C279" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D279" t="s">
         <v>432</v>
@@ -10333,7 +10339,7 @@
         <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D282" t="s">
         <v>25</v>
@@ -10393,7 +10399,7 @@
         <v>780</v>
       </c>
       <c r="C285" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D285" t="s">
         <v>781</v>
@@ -10753,7 +10759,7 @@
         <v>831</v>
       </c>
       <c r="C303" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D303" t="s">
         <v>832</v>
@@ -10853,7 +10859,7 @@
         <v>139</v>
       </c>
       <c r="C308" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D308" t="s">
         <v>844</v>
@@ -11033,10 +11039,10 @@
         <v>867</v>
       </c>
       <c r="C317" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D317" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11053,10 +11059,10 @@
         <v>868</v>
       </c>
       <c r="C318" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D318" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11173,7 +11179,7 @@
         <v>882</v>
       </c>
       <c r="C324" t="s">
-        <v>955</v>
+        <v>1035</v>
       </c>
       <c r="D324" t="s">
         <v>883</v>
@@ -11193,10 +11199,10 @@
         <v>884</v>
       </c>
       <c r="C325" t="s">
-        <v>885</v>
+        <v>1036</v>
       </c>
       <c r="D325" t="s">
-        <v>885</v>
+        <v>1037</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11210,13 +11216,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C326" t="s">
-        <v>887</v>
+        <v>1038</v>
       </c>
       <c r="D326" t="s">
-        <v>887</v>
+        <v>1039</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11230,13 +11236,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
+        <v>886</v>
+      </c>
+      <c r="C327" t="s">
+        <v>887</v>
+      </c>
+      <c r="D327" t="s">
         <v>888</v>
-      </c>
-      <c r="C327" t="s">
-        <v>889</v>
-      </c>
-      <c r="D327" t="s">
-        <v>890</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -11250,13 +11256,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
+        <v>889</v>
+      </c>
+      <c r="C328" t="s">
+        <v>890</v>
+      </c>
+      <c r="D328" t="s">
         <v>891</v>
-      </c>
-      <c r="C328" t="s">
-        <v>892</v>
-      </c>
-      <c r="D328" t="s">
-        <v>893</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -11270,13 +11276,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C329" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D329" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -11290,13 +11296,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C330" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D330" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -11310,13 +11316,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
+        <v>896</v>
+      </c>
+      <c r="C331" t="s">
+        <v>897</v>
+      </c>
+      <c r="D331" t="s">
         <v>898</v>
-      </c>
-      <c r="C331" t="s">
-        <v>899</v>
-      </c>
-      <c r="D331" t="s">
-        <v>900</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11330,13 +11336,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
+        <v>899</v>
+      </c>
+      <c r="C332" t="s">
+        <v>900</v>
+      </c>
+      <c r="D332" t="s">
         <v>901</v>
-      </c>
-      <c r="C332" t="s">
-        <v>902</v>
-      </c>
-      <c r="D332" t="s">
-        <v>903</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11350,13 +11356,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
+        <v>902</v>
+      </c>
+      <c r="C333" t="s">
+        <v>903</v>
+      </c>
+      <c r="D333" t="s">
         <v>904</v>
-      </c>
-      <c r="C333" t="s">
-        <v>905</v>
-      </c>
-      <c r="D333" t="s">
-        <v>906</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11370,13 +11376,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
+        <v>905</v>
+      </c>
+      <c r="C334" t="s">
+        <v>906</v>
+      </c>
+      <c r="D334" t="s">
         <v>907</v>
-      </c>
-      <c r="C334" t="s">
-        <v>908</v>
-      </c>
-      <c r="D334" t="s">
-        <v>909</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11390,13 +11396,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
+        <v>908</v>
+      </c>
+      <c r="C335" t="s">
+        <v>909</v>
+      </c>
+      <c r="D335" t="s">
         <v>910</v>
-      </c>
-      <c r="C335" t="s">
-        <v>911</v>
-      </c>
-      <c r="D335" t="s">
-        <v>912</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11410,13 +11416,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
+        <v>911</v>
+      </c>
+      <c r="C336" t="s">
+        <v>912</v>
+      </c>
+      <c r="D336" t="s">
         <v>913</v>
-      </c>
-      <c r="C336" t="s">
-        <v>914</v>
-      </c>
-      <c r="D336" t="s">
-        <v>915</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -11430,13 +11436,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C337" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D337" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -11453,7 +11459,7 @@
         <v>588</v>
       </c>
       <c r="C338" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D338" t="s">
         <v>697</v>
@@ -11470,13 +11476,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C339" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D339" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -11490,13 +11496,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C340" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D340" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11510,13 +11516,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C341" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D341" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11530,13 +11536,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C342" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D342" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11550,13 +11556,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C343" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D343" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11570,13 +11576,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C344" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D344" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11590,13 +11596,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C345" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D345" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11613,7 +11619,7 @@
         <v>558</v>
       </c>
       <c r="C346" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D346" t="s">
         <v>560</v>
@@ -11630,13 +11636,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C347" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D347" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11650,13 +11656,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C348" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D348" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11670,13 +11676,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C349" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D349" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11690,13 +11696,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C350" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D350" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11710,13 +11716,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C351" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D351" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11730,13 +11736,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C352" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D352" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11750,13 +11756,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C353" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D353" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11770,10 +11776,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C354" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D354" t="s">
         <v>187</v>
@@ -11790,13 +11796,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C355" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D355" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11810,10 +11816,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C356" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D356" t="s">
         <v>393</v>
@@ -11830,10 +11836,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C357" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D357" t="s">
         <v>861</v>
@@ -11850,13 +11856,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C358" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D358" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -11870,13 +11876,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C359" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D359" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -11890,13 +11896,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C360" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D360" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -11910,13 +11916,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C361" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D361" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -11930,10 +11936,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C362" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D362" t="s">
         <v>251</v>
@@ -11950,13 +11956,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C363" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D363" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -11970,13 +11976,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C364" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D364" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -11990,10 +11996,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C365" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D365" t="s">
         <v>187</v>
@@ -12010,13 +12016,13 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C366" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D366" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E366">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424FA67E-74EE-41BA-8CCC-81C31C23D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A747BCD-1595-4A41-98F2-C3921C3A81FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3540,9 +3540,6 @@
   </si>
   <si>
     <t>In which event are the PI Objectives created?</t>
-  </si>
-  <si>
-    <t>Post PI-Planning PI Planning Iteration Planning PI System Demo</t>
   </si>
   <si>
     <t>Which statement is most accurate about the Solution Vision?</t>
@@ -4338,6 +4335,12 @@
   </si>
   <si>
     <t>Leadership</t>
+  </si>
+  <si>
+    <t>Iteration Planning
+Post PI-Planning
+PI Planning
+PI System Demo</t>
   </si>
 </sst>
 </file>
@@ -4703,7 +4706,7 @@
   <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="C339" sqref="C339"/>
+      <selection activeCell="A330" sqref="A330:XFD330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4759,7 +4762,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4779,7 +4782,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4819,7 +4822,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -4879,7 +4882,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -4959,7 +4962,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -5079,7 +5082,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -5219,7 +5222,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -5259,7 +5262,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D28" t="s">
         <v>78</v>
@@ -5359,7 +5362,7 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -5519,7 +5522,7 @@
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
@@ -5679,7 +5682,7 @@
         <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -5719,7 +5722,7 @@
         <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D51" t="s">
         <v>143</v>
@@ -5799,7 +5802,7 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D55" t="s">
         <v>154</v>
@@ -6059,7 +6062,7 @@
         <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D68" t="s">
         <v>192</v>
@@ -6199,7 +6202,7 @@
         <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D75" t="s">
         <v>210</v>
@@ -6679,7 +6682,7 @@
         <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -6819,7 +6822,7 @@
         <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D106" t="s">
         <v>299</v>
@@ -6879,7 +6882,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D109" t="s">
         <v>306</v>
@@ -6899,7 +6902,7 @@
         <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D110" t="s">
         <v>308</v>
@@ -7119,7 +7122,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -7199,7 +7202,7 @@
         <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D125" t="s">
         <v>351</v>
@@ -7759,7 +7762,7 @@
         <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D153" t="s">
         <v>430</v>
@@ -7779,7 +7782,7 @@
         <v>431</v>
       </c>
       <c r="C154" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D154" t="s">
         <v>432</v>
@@ -7979,7 +7982,7 @@
         <v>459</v>
       </c>
       <c r="C164" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D164" t="s">
         <v>460</v>
@@ -8139,7 +8142,7 @@
         <v>480</v>
       </c>
       <c r="C172" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D172" t="s">
         <v>481</v>
@@ -8679,7 +8682,7 @@
         <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D199" t="s">
         <v>557</v>
@@ -8799,7 +8802,7 @@
         <v>572</v>
       </c>
       <c r="C205" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D205" t="s">
         <v>573</v>
@@ -8939,7 +8942,7 @@
         <v>588</v>
       </c>
       <c r="C212" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D212" t="s">
         <v>589</v>
@@ -9119,7 +9122,7 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D221" t="s">
         <v>611</v>
@@ -9319,7 +9322,7 @@
         <v>635</v>
       </c>
       <c r="C231" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D231" t="s">
         <v>636</v>
@@ -9399,7 +9402,7 @@
         <v>644</v>
       </c>
       <c r="C235" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D235" t="s">
         <v>154</v>
@@ -9519,7 +9522,7 @@
         <v>660</v>
       </c>
       <c r="C241" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D241" t="s">
         <v>661</v>
@@ -9799,7 +9802,7 @@
         <v>701</v>
       </c>
       <c r="C255" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D255" t="s">
         <v>702</v>
@@ -10199,7 +10202,7 @@
         <v>758</v>
       </c>
       <c r="C275" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D275" t="s">
         <v>73</v>
@@ -10279,7 +10282,7 @@
         <v>767</v>
       </c>
       <c r="C279" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D279" t="s">
         <v>432</v>
@@ -10339,7 +10342,7 @@
         <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D282" t="s">
         <v>25</v>
@@ -10399,7 +10402,7 @@
         <v>780</v>
       </c>
       <c r="C285" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D285" t="s">
         <v>781</v>
@@ -10759,7 +10762,7 @@
         <v>831</v>
       </c>
       <c r="C303" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D303" t="s">
         <v>832</v>
@@ -10859,7 +10862,7 @@
         <v>139</v>
       </c>
       <c r="C308" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D308" t="s">
         <v>844</v>
@@ -11039,10 +11042,10 @@
         <v>867</v>
       </c>
       <c r="C317" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D317" t="s">
         <v>1031</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1032</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11059,10 +11062,10 @@
         <v>868</v>
       </c>
       <c r="C318" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D318" t="s">
         <v>1033</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1034</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11179,7 +11182,7 @@
         <v>882</v>
       </c>
       <c r="C324" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D324" t="s">
         <v>883</v>
@@ -11199,10 +11202,10 @@
         <v>884</v>
       </c>
       <c r="C325" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D325" t="s">
         <v>1036</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1037</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11219,10 +11222,10 @@
         <v>885</v>
       </c>
       <c r="C326" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D326" t="s">
         <v>1038</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1039</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11279,7 +11282,7 @@
         <v>892</v>
       </c>
       <c r="C329" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D329" t="s">
         <v>893</v>
@@ -11299,10 +11302,10 @@
         <v>894</v>
       </c>
       <c r="C330" t="s">
-        <v>895</v>
+        <v>1039</v>
       </c>
       <c r="D330" t="s">
-        <v>895</v>
+        <v>113</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -11316,13 +11319,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
+        <v>895</v>
+      </c>
+      <c r="C331" t="s">
         <v>896</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>897</v>
-      </c>
-      <c r="D331" t="s">
-        <v>898</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11336,13 +11339,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
+        <v>898</v>
+      </c>
+      <c r="C332" t="s">
         <v>899</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>900</v>
-      </c>
-      <c r="D332" t="s">
-        <v>901</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11356,13 +11359,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
+        <v>901</v>
+      </c>
+      <c r="C333" t="s">
         <v>902</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>903</v>
-      </c>
-      <c r="D333" t="s">
-        <v>904</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11376,13 +11379,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
+        <v>904</v>
+      </c>
+      <c r="C334" t="s">
         <v>905</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>906</v>
-      </c>
-      <c r="D334" t="s">
-        <v>907</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11396,13 +11399,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
+        <v>907</v>
+      </c>
+      <c r="C335" t="s">
         <v>908</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>909</v>
-      </c>
-      <c r="D335" t="s">
-        <v>910</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11416,13 +11419,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
+        <v>910</v>
+      </c>
+      <c r="C336" t="s">
         <v>911</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>912</v>
-      </c>
-      <c r="D336" t="s">
-        <v>913</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -11436,13 +11439,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
+        <v>953</v>
+      </c>
+      <c r="C337" t="s">
         <v>954</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>955</v>
-      </c>
-      <c r="D337" t="s">
-        <v>956</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -11459,7 +11462,7 @@
         <v>588</v>
       </c>
       <c r="C338" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D338" t="s">
         <v>697</v>
@@ -11476,13 +11479,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
+        <v>957</v>
+      </c>
+      <c r="C339" t="s">
         <v>958</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" t="s">
         <v>959</v>
-      </c>
-      <c r="D339" t="s">
-        <v>960</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -11496,13 +11499,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
+        <v>960</v>
+      </c>
+      <c r="C340" t="s">
         <v>961</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>962</v>
-      </c>
-      <c r="D340" t="s">
-        <v>963</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11516,13 +11519,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
+        <v>963</v>
+      </c>
+      <c r="C341" t="s">
         <v>964</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" t="s">
         <v>965</v>
-      </c>
-      <c r="D341" t="s">
-        <v>966</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11536,13 +11539,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
+        <v>966</v>
+      </c>
+      <c r="C342" t="s">
         <v>967</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>968</v>
-      </c>
-      <c r="D342" t="s">
-        <v>969</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11556,13 +11559,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
+        <v>969</v>
+      </c>
+      <c r="C343" t="s">
         <v>970</v>
       </c>
-      <c r="C343" t="s">
+      <c r="D343" t="s">
         <v>971</v>
-      </c>
-      <c r="D343" t="s">
-        <v>972</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11576,13 +11579,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
+        <v>972</v>
+      </c>
+      <c r="C344" t="s">
         <v>973</v>
       </c>
-      <c r="C344" t="s">
+      <c r="D344" t="s">
         <v>974</v>
-      </c>
-      <c r="D344" t="s">
-        <v>975</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11596,13 +11599,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
+        <v>975</v>
+      </c>
+      <c r="C345" t="s">
         <v>976</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
         <v>977</v>
-      </c>
-      <c r="D345" t="s">
-        <v>978</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11619,7 +11622,7 @@
         <v>558</v>
       </c>
       <c r="C346" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D346" t="s">
         <v>560</v>
@@ -11636,13 +11639,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
+        <v>979</v>
+      </c>
+      <c r="C347" t="s">
         <v>980</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>981</v>
-      </c>
-      <c r="D347" t="s">
-        <v>982</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11656,13 +11659,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
+        <v>982</v>
+      </c>
+      <c r="C348" t="s">
         <v>983</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
         <v>984</v>
-      </c>
-      <c r="D348" t="s">
-        <v>985</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11676,13 +11679,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
+        <v>985</v>
+      </c>
+      <c r="C349" t="s">
         <v>986</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" t="s">
         <v>987</v>
-      </c>
-      <c r="D349" t="s">
-        <v>988</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11696,13 +11699,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
+        <v>988</v>
+      </c>
+      <c r="C350" t="s">
         <v>989</v>
       </c>
-      <c r="C350" t="s">
+      <c r="D350" t="s">
         <v>990</v>
-      </c>
-      <c r="D350" t="s">
-        <v>991</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11716,13 +11719,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
+        <v>991</v>
+      </c>
+      <c r="C351" t="s">
         <v>992</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" t="s">
         <v>993</v>
-      </c>
-      <c r="D351" t="s">
-        <v>994</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11736,13 +11739,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
+        <v>994</v>
+      </c>
+      <c r="C352" t="s">
         <v>995</v>
       </c>
-      <c r="C352" t="s">
+      <c r="D352" t="s">
         <v>996</v>
-      </c>
-      <c r="D352" t="s">
-        <v>997</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11756,13 +11759,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
+        <v>997</v>
+      </c>
+      <c r="C353" t="s">
         <v>998</v>
       </c>
-      <c r="C353" t="s">
+      <c r="D353" t="s">
         <v>999</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1000</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11776,10 +11779,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C354" t="s">
         <v>1001</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1002</v>
       </c>
       <c r="D354" t="s">
         <v>187</v>
@@ -11796,13 +11799,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C355" t="s">
         <v>1003</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
         <v>1004</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1005</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11816,10 +11819,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C356" t="s">
         <v>1006</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1007</v>
       </c>
       <c r="D356" t="s">
         <v>393</v>
@@ -11836,10 +11839,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C357" t="s">
         <v>1008</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1009</v>
       </c>
       <c r="D357" t="s">
         <v>861</v>
@@ -11856,13 +11859,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C358" t="s">
         <v>1010</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1011</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1012</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -11876,13 +11879,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C359" t="s">
         <v>1013</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>1014</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1015</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -11896,13 +11899,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C360" t="s">
         <v>1016</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
         <v>1017</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1018</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -11916,13 +11919,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C361" t="s">
         <v>1019</v>
       </c>
-      <c r="C361" t="s">
+      <c r="D361" t="s">
         <v>1020</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1021</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -11936,10 +11939,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C362" t="s">
         <v>1022</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1023</v>
       </c>
       <c r="D362" t="s">
         <v>251</v>
@@ -11956,13 +11959,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C363" t="s">
         <v>1024</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>1025</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1026</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -11976,13 +11979,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C364" t="s">
         <v>1027</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
         <v>1028</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1029</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -11996,10 +11999,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C365" t="s">
         <v>1001</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1002</v>
       </c>
       <c r="D365" t="s">
         <v>187</v>
@@ -12016,13 +12019,13 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C366" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D366" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E366">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A747BCD-1595-4A41-98F2-C3921C3A81FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0300B3C2-F546-42BE-9CC8-F1573D570576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3487,12 +3487,6 @@
   </si>
   <si>
     <t>Which two actions can slow the delivery of value?</t>
-  </si>
-  <si>
-    <t>Shortened Architectural Runway Loopbacks System delays Team swarming</t>
-  </si>
-  <si>
-    <t>Shortened Architectural Runway Loopbacks System delays Team swarming; Shortened Architectural Runway Loopbacks System delays Team swarming</t>
   </si>
   <si>
     <t>Which two statements best describe a cross-functional Agile Team?</t>
@@ -4341,6 +4335,15 @@
 Post PI-Planning
 PI Planning
 PI System Demo</t>
+  </si>
+  <si>
+    <t>System delays
+Shortened Architectural Runway
+Team swarming
+Loopbacks</t>
+  </si>
+  <si>
+    <t>Loopbacks; System delays</t>
   </si>
 </sst>
 </file>
@@ -4706,7 +4709,7 @@
   <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A330" sqref="A330:XFD330"/>
+      <selection activeCell="A323" sqref="A323:XFD324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4762,7 +4765,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4782,7 +4785,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4822,7 +4825,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -4882,7 +4885,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -4962,7 +4965,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -5082,7 +5085,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -5222,7 +5225,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -5262,7 +5265,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D28" t="s">
         <v>78</v>
@@ -5362,7 +5365,7 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -5522,7 +5525,7 @@
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
@@ -5682,7 +5685,7 @@
         <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -5722,7 +5725,7 @@
         <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D51" t="s">
         <v>143</v>
@@ -5802,7 +5805,7 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D55" t="s">
         <v>154</v>
@@ -6062,7 +6065,7 @@
         <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D68" t="s">
         <v>192</v>
@@ -6202,7 +6205,7 @@
         <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D75" t="s">
         <v>210</v>
@@ -6682,7 +6685,7 @@
         <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -6822,7 +6825,7 @@
         <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D106" t="s">
         <v>299</v>
@@ -6882,7 +6885,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D109" t="s">
         <v>306</v>
@@ -6902,7 +6905,7 @@
         <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D110" t="s">
         <v>308</v>
@@ -7122,7 +7125,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -7202,7 +7205,7 @@
         <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D125" t="s">
         <v>351</v>
@@ -7762,7 +7765,7 @@
         <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D153" t="s">
         <v>430</v>
@@ -7782,7 +7785,7 @@
         <v>431</v>
       </c>
       <c r="C154" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D154" t="s">
         <v>432</v>
@@ -7982,7 +7985,7 @@
         <v>459</v>
       </c>
       <c r="C164" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D164" t="s">
         <v>460</v>
@@ -8142,7 +8145,7 @@
         <v>480</v>
       </c>
       <c r="C172" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D172" t="s">
         <v>481</v>
@@ -8682,7 +8685,7 @@
         <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D199" t="s">
         <v>557</v>
@@ -8802,7 +8805,7 @@
         <v>572</v>
       </c>
       <c r="C205" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D205" t="s">
         <v>573</v>
@@ -8942,7 +8945,7 @@
         <v>588</v>
       </c>
       <c r="C212" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D212" t="s">
         <v>589</v>
@@ -9122,7 +9125,7 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D221" t="s">
         <v>611</v>
@@ -9322,7 +9325,7 @@
         <v>635</v>
       </c>
       <c r="C231" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D231" t="s">
         <v>636</v>
@@ -9402,7 +9405,7 @@
         <v>644</v>
       </c>
       <c r="C235" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D235" t="s">
         <v>154</v>
@@ -9522,7 +9525,7 @@
         <v>660</v>
       </c>
       <c r="C241" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D241" t="s">
         <v>661</v>
@@ -9802,7 +9805,7 @@
         <v>701</v>
       </c>
       <c r="C255" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D255" t="s">
         <v>702</v>
@@ -10202,7 +10205,7 @@
         <v>758</v>
       </c>
       <c r="C275" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D275" t="s">
         <v>73</v>
@@ -10282,7 +10285,7 @@
         <v>767</v>
       </c>
       <c r="C279" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D279" t="s">
         <v>432</v>
@@ -10342,7 +10345,7 @@
         <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D282" t="s">
         <v>25</v>
@@ -10402,7 +10405,7 @@
         <v>780</v>
       </c>
       <c r="C285" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D285" t="s">
         <v>781</v>
@@ -10762,7 +10765,7 @@
         <v>831</v>
       </c>
       <c r="C303" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D303" t="s">
         <v>832</v>
@@ -10862,7 +10865,7 @@
         <v>139</v>
       </c>
       <c r="C308" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D308" t="s">
         <v>844</v>
@@ -11042,10 +11045,10 @@
         <v>867</v>
       </c>
       <c r="C317" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D317" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11062,10 +11065,10 @@
         <v>868</v>
       </c>
       <c r="C318" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D318" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11162,10 +11165,10 @@
         <v>879</v>
       </c>
       <c r="C323" t="s">
-        <v>880</v>
+        <v>1038</v>
       </c>
       <c r="D323" t="s">
-        <v>881</v>
+        <v>1039</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -11179,13 +11182,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C324" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D324" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -11199,13 +11202,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C325" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D325" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11219,13 +11222,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C326" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D326" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11239,13 +11242,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
+        <v>884</v>
+      </c>
+      <c r="C327" t="s">
+        <v>885</v>
+      </c>
+      <c r="D327" t="s">
         <v>886</v>
-      </c>
-      <c r="C327" t="s">
-        <v>887</v>
-      </c>
-      <c r="D327" t="s">
-        <v>888</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -11259,13 +11262,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
+        <v>887</v>
+      </c>
+      <c r="C328" t="s">
+        <v>888</v>
+      </c>
+      <c r="D328" t="s">
         <v>889</v>
-      </c>
-      <c r="C328" t="s">
-        <v>890</v>
-      </c>
-      <c r="D328" t="s">
-        <v>891</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -11279,13 +11282,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C329" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D329" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -11299,10 +11302,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C330" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D330" t="s">
         <v>113</v>
@@ -11319,13 +11322,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
+        <v>893</v>
+      </c>
+      <c r="C331" t="s">
+        <v>894</v>
+      </c>
+      <c r="D331" t="s">
         <v>895</v>
-      </c>
-      <c r="C331" t="s">
-        <v>896</v>
-      </c>
-      <c r="D331" t="s">
-        <v>897</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11339,13 +11342,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
+        <v>896</v>
+      </c>
+      <c r="C332" t="s">
+        <v>897</v>
+      </c>
+      <c r="D332" t="s">
         <v>898</v>
-      </c>
-      <c r="C332" t="s">
-        <v>899</v>
-      </c>
-      <c r="D332" t="s">
-        <v>900</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11359,13 +11362,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
+        <v>899</v>
+      </c>
+      <c r="C333" t="s">
+        <v>900</v>
+      </c>
+      <c r="D333" t="s">
         <v>901</v>
-      </c>
-      <c r="C333" t="s">
-        <v>902</v>
-      </c>
-      <c r="D333" t="s">
-        <v>903</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11379,13 +11382,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
+        <v>902</v>
+      </c>
+      <c r="C334" t="s">
+        <v>903</v>
+      </c>
+      <c r="D334" t="s">
         <v>904</v>
-      </c>
-      <c r="C334" t="s">
-        <v>905</v>
-      </c>
-      <c r="D334" t="s">
-        <v>906</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11399,13 +11402,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
+        <v>905</v>
+      </c>
+      <c r="C335" t="s">
+        <v>906</v>
+      </c>
+      <c r="D335" t="s">
         <v>907</v>
-      </c>
-      <c r="C335" t="s">
-        <v>908</v>
-      </c>
-      <c r="D335" t="s">
-        <v>909</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11419,13 +11422,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
+        <v>908</v>
+      </c>
+      <c r="C336" t="s">
+        <v>909</v>
+      </c>
+      <c r="D336" t="s">
         <v>910</v>
-      </c>
-      <c r="C336" t="s">
-        <v>911</v>
-      </c>
-      <c r="D336" t="s">
-        <v>912</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -11439,13 +11442,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
+        <v>951</v>
+      </c>
+      <c r="C337" t="s">
+        <v>952</v>
+      </c>
+      <c r="D337" t="s">
         <v>953</v>
-      </c>
-      <c r="C337" t="s">
-        <v>954</v>
-      </c>
-      <c r="D337" t="s">
-        <v>955</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -11462,7 +11465,7 @@
         <v>588</v>
       </c>
       <c r="C338" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D338" t="s">
         <v>697</v>
@@ -11479,13 +11482,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
+        <v>955</v>
+      </c>
+      <c r="C339" t="s">
+        <v>956</v>
+      </c>
+      <c r="D339" t="s">
         <v>957</v>
-      </c>
-      <c r="C339" t="s">
-        <v>958</v>
-      </c>
-      <c r="D339" t="s">
-        <v>959</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -11499,13 +11502,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
+        <v>958</v>
+      </c>
+      <c r="C340" t="s">
+        <v>959</v>
+      </c>
+      <c r="D340" t="s">
         <v>960</v>
-      </c>
-      <c r="C340" t="s">
-        <v>961</v>
-      </c>
-      <c r="D340" t="s">
-        <v>962</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11519,13 +11522,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
+        <v>961</v>
+      </c>
+      <c r="C341" t="s">
+        <v>962</v>
+      </c>
+      <c r="D341" t="s">
         <v>963</v>
-      </c>
-      <c r="C341" t="s">
-        <v>964</v>
-      </c>
-      <c r="D341" t="s">
-        <v>965</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11539,13 +11542,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
+        <v>964</v>
+      </c>
+      <c r="C342" t="s">
+        <v>965</v>
+      </c>
+      <c r="D342" t="s">
         <v>966</v>
-      </c>
-      <c r="C342" t="s">
-        <v>967</v>
-      </c>
-      <c r="D342" t="s">
-        <v>968</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11559,13 +11562,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
+        <v>967</v>
+      </c>
+      <c r="C343" t="s">
+        <v>968</v>
+      </c>
+      <c r="D343" t="s">
         <v>969</v>
-      </c>
-      <c r="C343" t="s">
-        <v>970</v>
-      </c>
-      <c r="D343" t="s">
-        <v>971</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11579,13 +11582,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
+        <v>970</v>
+      </c>
+      <c r="C344" t="s">
+        <v>971</v>
+      </c>
+      <c r="D344" t="s">
         <v>972</v>
-      </c>
-      <c r="C344" t="s">
-        <v>973</v>
-      </c>
-      <c r="D344" t="s">
-        <v>974</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11599,13 +11602,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
+        <v>973</v>
+      </c>
+      <c r="C345" t="s">
+        <v>974</v>
+      </c>
+      <c r="D345" t="s">
         <v>975</v>
-      </c>
-      <c r="C345" t="s">
-        <v>976</v>
-      </c>
-      <c r="D345" t="s">
-        <v>977</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11622,7 +11625,7 @@
         <v>558</v>
       </c>
       <c r="C346" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D346" t="s">
         <v>560</v>
@@ -11639,13 +11642,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
+        <v>977</v>
+      </c>
+      <c r="C347" t="s">
+        <v>978</v>
+      </c>
+      <c r="D347" t="s">
         <v>979</v>
-      </c>
-      <c r="C347" t="s">
-        <v>980</v>
-      </c>
-      <c r="D347" t="s">
-        <v>981</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11659,13 +11662,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
+        <v>980</v>
+      </c>
+      <c r="C348" t="s">
+        <v>981</v>
+      </c>
+      <c r="D348" t="s">
         <v>982</v>
-      </c>
-      <c r="C348" t="s">
-        <v>983</v>
-      </c>
-      <c r="D348" t="s">
-        <v>984</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11679,13 +11682,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
+        <v>983</v>
+      </c>
+      <c r="C349" t="s">
+        <v>984</v>
+      </c>
+      <c r="D349" t="s">
         <v>985</v>
-      </c>
-      <c r="C349" t="s">
-        <v>986</v>
-      </c>
-      <c r="D349" t="s">
-        <v>987</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11699,13 +11702,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
+        <v>986</v>
+      </c>
+      <c r="C350" t="s">
+        <v>987</v>
+      </c>
+      <c r="D350" t="s">
         <v>988</v>
-      </c>
-      <c r="C350" t="s">
-        <v>989</v>
-      </c>
-      <c r="D350" t="s">
-        <v>990</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11719,13 +11722,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
+        <v>989</v>
+      </c>
+      <c r="C351" t="s">
+        <v>990</v>
+      </c>
+      <c r="D351" t="s">
         <v>991</v>
-      </c>
-      <c r="C351" t="s">
-        <v>992</v>
-      </c>
-      <c r="D351" t="s">
-        <v>993</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11739,13 +11742,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
+        <v>992</v>
+      </c>
+      <c r="C352" t="s">
+        <v>993</v>
+      </c>
+      <c r="D352" t="s">
         <v>994</v>
-      </c>
-      <c r="C352" t="s">
-        <v>995</v>
-      </c>
-      <c r="D352" t="s">
-        <v>996</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11759,13 +11762,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
+        <v>995</v>
+      </c>
+      <c r="C353" t="s">
+        <v>996</v>
+      </c>
+      <c r="D353" t="s">
         <v>997</v>
-      </c>
-      <c r="C353" t="s">
-        <v>998</v>
-      </c>
-      <c r="D353" t="s">
-        <v>999</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11779,10 +11782,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C354" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D354" t="s">
         <v>187</v>
@@ -11799,13 +11802,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D355" t="s">
         <v>1002</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1004</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11819,10 +11822,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C356" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D356" t="s">
         <v>393</v>
@@ -11839,10 +11842,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C357" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D357" t="s">
         <v>861</v>
@@ -11859,13 +11862,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D358" t="s">
         <v>1009</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1011</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -11879,13 +11882,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D359" t="s">
         <v>1012</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1014</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -11899,13 +11902,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D360" t="s">
         <v>1015</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1017</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -11919,13 +11922,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D361" t="s">
         <v>1018</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1020</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -11939,10 +11942,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C362" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D362" t="s">
         <v>251</v>
@@ -11959,13 +11962,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D363" t="s">
         <v>1023</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1025</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -11979,13 +11982,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D364" t="s">
         <v>1026</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1028</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -11999,10 +12002,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C365" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D365" t="s">
         <v>187</v>
@@ -12019,13 +12022,13 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D366" t="s">
         <v>1002</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1004</v>
       </c>
       <c r="E366">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0300B3C2-F546-42BE-9CC8-F1573D570576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FDD94C-2516-4AC2-9A3A-E4E2056E4A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1041">
   <si>
     <t>Nº</t>
   </si>
@@ -3481,9 +3481,6 @@
   </si>
   <si>
     <t>What is BDD?</t>
-  </si>
-  <si>
-    <t>Business-Driven Development Benchmark-Driven Development Behavior-Driven Development Backlog-Driven Development</t>
   </si>
   <si>
     <t>Which two actions can slow the delivery of value?</t>
@@ -4344,6 +4341,15 @@
   </si>
   <si>
     <t>Loopbacks; System delays</t>
+  </si>
+  <si>
+    <t>Behavior-Driven Development</t>
+  </si>
+  <si>
+    <t>Business-Driven Development
+Benchmark-Driven Development
+Behavior-Driven Development
+Backlog-Driven Development</t>
   </si>
 </sst>
 </file>
@@ -4399,10 +4405,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4708,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323:XFD324"/>
+    <sheetView tabSelected="1" topLeftCell="D316" workbookViewId="0">
+      <selection activeCell="D323" sqref="D323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4765,7 +4774,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4785,7 +4794,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4825,7 +4834,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -4885,7 +4894,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -4965,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -5085,7 +5094,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -5225,7 +5234,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -5265,7 +5274,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D28" t="s">
         <v>78</v>
@@ -5365,7 +5374,7 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -5525,7 +5534,7 @@
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
@@ -5685,7 +5694,7 @@
         <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -5725,7 +5734,7 @@
         <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D51" t="s">
         <v>143</v>
@@ -5805,7 +5814,7 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D55" t="s">
         <v>154</v>
@@ -6065,7 +6074,7 @@
         <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D68" t="s">
         <v>192</v>
@@ -6205,7 +6214,7 @@
         <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D75" t="s">
         <v>210</v>
@@ -6685,7 +6694,7 @@
         <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -6825,7 +6834,7 @@
         <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D106" t="s">
         <v>299</v>
@@ -6885,7 +6894,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D109" t="s">
         <v>306</v>
@@ -6905,7 +6914,7 @@
         <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D110" t="s">
         <v>308</v>
@@ -7125,7 +7134,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -7205,7 +7214,7 @@
         <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D125" t="s">
         <v>351</v>
@@ -7765,7 +7774,7 @@
         <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D153" t="s">
         <v>430</v>
@@ -7785,7 +7794,7 @@
         <v>431</v>
       </c>
       <c r="C154" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D154" t="s">
         <v>432</v>
@@ -7985,7 +7994,7 @@
         <v>459</v>
       </c>
       <c r="C164" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D164" t="s">
         <v>460</v>
@@ -8145,7 +8154,7 @@
         <v>480</v>
       </c>
       <c r="C172" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D172" t="s">
         <v>481</v>
@@ -8685,7 +8694,7 @@
         <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D199" t="s">
         <v>557</v>
@@ -8805,7 +8814,7 @@
         <v>572</v>
       </c>
       <c r="C205" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D205" t="s">
         <v>573</v>
@@ -8945,7 +8954,7 @@
         <v>588</v>
       </c>
       <c r="C212" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D212" t="s">
         <v>589</v>
@@ -9125,7 +9134,7 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D221" t="s">
         <v>611</v>
@@ -9325,7 +9334,7 @@
         <v>635</v>
       </c>
       <c r="C231" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D231" t="s">
         <v>636</v>
@@ -9405,7 +9414,7 @@
         <v>644</v>
       </c>
       <c r="C235" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D235" t="s">
         <v>154</v>
@@ -9525,7 +9534,7 @@
         <v>660</v>
       </c>
       <c r="C241" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D241" t="s">
         <v>661</v>
@@ -9805,7 +9814,7 @@
         <v>701</v>
       </c>
       <c r="C255" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D255" t="s">
         <v>702</v>
@@ -10205,7 +10214,7 @@
         <v>758</v>
       </c>
       <c r="C275" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D275" t="s">
         <v>73</v>
@@ -10285,7 +10294,7 @@
         <v>767</v>
       </c>
       <c r="C279" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D279" t="s">
         <v>432</v>
@@ -10345,7 +10354,7 @@
         <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D282" t="s">
         <v>25</v>
@@ -10405,7 +10414,7 @@
         <v>780</v>
       </c>
       <c r="C285" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D285" t="s">
         <v>781</v>
@@ -10765,7 +10774,7 @@
         <v>831</v>
       </c>
       <c r="C303" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D303" t="s">
         <v>832</v>
@@ -10865,7 +10874,7 @@
         <v>139</v>
       </c>
       <c r="C308" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D308" t="s">
         <v>844</v>
@@ -11045,10 +11054,10 @@
         <v>867</v>
       </c>
       <c r="C317" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D317" t="s">
         <v>1028</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1029</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11065,10 +11074,10 @@
         <v>868</v>
       </c>
       <c r="C318" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D318" t="s">
         <v>1030</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1031</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11137,18 +11146,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
         <v>877</v>
       </c>
-      <c r="C322" t="s">
-        <v>878</v>
+      <c r="C322" s="2" t="s">
+        <v>1040</v>
       </c>
       <c r="D322" t="s">
-        <v>878</v>
+        <v>1039</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -11162,13 +11171,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C323" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D323" t="s">
         <v>1038</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1039</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -11182,13 +11191,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
+        <v>879</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D324" t="s">
         <v>880</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D324" t="s">
-        <v>881</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -11202,13 +11211,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C325" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D325" t="s">
         <v>1033</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1034</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11222,13 +11231,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D326" t="s">
         <v>1035</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1036</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11242,13 +11251,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
+        <v>883</v>
+      </c>
+      <c r="C327" t="s">
         <v>884</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>885</v>
-      </c>
-      <c r="D327" t="s">
-        <v>886</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -11262,13 +11271,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
+        <v>886</v>
+      </c>
+      <c r="C328" t="s">
         <v>887</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>888</v>
-      </c>
-      <c r="D328" t="s">
-        <v>889</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -11282,13 +11291,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
+        <v>889</v>
+      </c>
+      <c r="C329" t="s">
+        <v>949</v>
+      </c>
+      <c r="D329" t="s">
         <v>890</v>
-      </c>
-      <c r="C329" t="s">
-        <v>950</v>
-      </c>
-      <c r="D329" t="s">
-        <v>891</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -11302,10 +11311,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C330" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D330" t="s">
         <v>113</v>
@@ -11322,13 +11331,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
+        <v>892</v>
+      </c>
+      <c r="C331" t="s">
         <v>893</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>894</v>
-      </c>
-      <c r="D331" t="s">
-        <v>895</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11342,13 +11351,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
+        <v>895</v>
+      </c>
+      <c r="C332" t="s">
         <v>896</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>897</v>
-      </c>
-      <c r="D332" t="s">
-        <v>898</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11362,13 +11371,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
+        <v>898</v>
+      </c>
+      <c r="C333" t="s">
         <v>899</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>900</v>
-      </c>
-      <c r="D333" t="s">
-        <v>901</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11382,13 +11391,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
+        <v>901</v>
+      </c>
+      <c r="C334" t="s">
         <v>902</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>903</v>
-      </c>
-      <c r="D334" t="s">
-        <v>904</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11402,13 +11411,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
+        <v>904</v>
+      </c>
+      <c r="C335" t="s">
         <v>905</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>906</v>
-      </c>
-      <c r="D335" t="s">
-        <v>907</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11422,13 +11431,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
+        <v>907</v>
+      </c>
+      <c r="C336" t="s">
         <v>908</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>909</v>
-      </c>
-      <c r="D336" t="s">
-        <v>910</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -11442,13 +11451,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
+        <v>950</v>
+      </c>
+      <c r="C337" t="s">
         <v>951</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>952</v>
-      </c>
-      <c r="D337" t="s">
-        <v>953</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -11465,7 +11474,7 @@
         <v>588</v>
       </c>
       <c r="C338" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D338" t="s">
         <v>697</v>
@@ -11482,13 +11491,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
+        <v>954</v>
+      </c>
+      <c r="C339" t="s">
         <v>955</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" t="s">
         <v>956</v>
-      </c>
-      <c r="D339" t="s">
-        <v>957</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -11502,13 +11511,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
+        <v>957</v>
+      </c>
+      <c r="C340" t="s">
         <v>958</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>959</v>
-      </c>
-      <c r="D340" t="s">
-        <v>960</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11522,13 +11531,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
+        <v>960</v>
+      </c>
+      <c r="C341" t="s">
         <v>961</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" t="s">
         <v>962</v>
-      </c>
-      <c r="D341" t="s">
-        <v>963</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11542,13 +11551,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
+        <v>963</v>
+      </c>
+      <c r="C342" t="s">
         <v>964</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>965</v>
-      </c>
-      <c r="D342" t="s">
-        <v>966</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11562,13 +11571,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
+        <v>966</v>
+      </c>
+      <c r="C343" t="s">
         <v>967</v>
       </c>
-      <c r="C343" t="s">
+      <c r="D343" t="s">
         <v>968</v>
-      </c>
-      <c r="D343" t="s">
-        <v>969</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11582,13 +11591,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
+        <v>969</v>
+      </c>
+      <c r="C344" t="s">
         <v>970</v>
       </c>
-      <c r="C344" t="s">
+      <c r="D344" t="s">
         <v>971</v>
-      </c>
-      <c r="D344" t="s">
-        <v>972</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11602,13 +11611,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
+        <v>972</v>
+      </c>
+      <c r="C345" t="s">
         <v>973</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
         <v>974</v>
-      </c>
-      <c r="D345" t="s">
-        <v>975</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11625,7 +11634,7 @@
         <v>558</v>
       </c>
       <c r="C346" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D346" t="s">
         <v>560</v>
@@ -11642,13 +11651,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
+        <v>976</v>
+      </c>
+      <c r="C347" t="s">
         <v>977</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>978</v>
-      </c>
-      <c r="D347" t="s">
-        <v>979</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11662,13 +11671,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
+        <v>979</v>
+      </c>
+      <c r="C348" t="s">
         <v>980</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
         <v>981</v>
-      </c>
-      <c r="D348" t="s">
-        <v>982</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11682,13 +11691,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
+        <v>982</v>
+      </c>
+      <c r="C349" t="s">
         <v>983</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" t="s">
         <v>984</v>
-      </c>
-      <c r="D349" t="s">
-        <v>985</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11702,13 +11711,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
+        <v>985</v>
+      </c>
+      <c r="C350" t="s">
         <v>986</v>
       </c>
-      <c r="C350" t="s">
+      <c r="D350" t="s">
         <v>987</v>
-      </c>
-      <c r="D350" t="s">
-        <v>988</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11722,13 +11731,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
+        <v>988</v>
+      </c>
+      <c r="C351" t="s">
         <v>989</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" t="s">
         <v>990</v>
-      </c>
-      <c r="D351" t="s">
-        <v>991</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11742,13 +11751,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
+        <v>991</v>
+      </c>
+      <c r="C352" t="s">
         <v>992</v>
       </c>
-      <c r="C352" t="s">
+      <c r="D352" t="s">
         <v>993</v>
-      </c>
-      <c r="D352" t="s">
-        <v>994</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11762,13 +11771,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
+        <v>994</v>
+      </c>
+      <c r="C353" t="s">
         <v>995</v>
       </c>
-      <c r="C353" t="s">
+      <c r="D353" t="s">
         <v>996</v>
-      </c>
-      <c r="D353" t="s">
-        <v>997</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11782,10 +11791,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
+        <v>997</v>
+      </c>
+      <c r="C354" t="s">
         <v>998</v>
-      </c>
-      <c r="C354" t="s">
-        <v>999</v>
       </c>
       <c r="D354" t="s">
         <v>187</v>
@@ -11802,13 +11811,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
+        <v>999</v>
+      </c>
+      <c r="C355" t="s">
         <v>1000</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
         <v>1001</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1002</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11822,10 +11831,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C356" t="s">
         <v>1003</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1004</v>
       </c>
       <c r="D356" t="s">
         <v>393</v>
@@ -11842,10 +11851,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C357" t="s">
         <v>1005</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1006</v>
       </c>
       <c r="D357" t="s">
         <v>861</v>
@@ -11862,13 +11871,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C358" t="s">
         <v>1007</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1008</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1009</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -11882,13 +11891,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C359" t="s">
         <v>1010</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>1011</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1012</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -11902,13 +11911,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C360" t="s">
         <v>1013</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
         <v>1014</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1015</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -11922,13 +11931,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C361" t="s">
         <v>1016</v>
       </c>
-      <c r="C361" t="s">
+      <c r="D361" t="s">
         <v>1017</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1018</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -11942,10 +11951,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C362" t="s">
         <v>1019</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1020</v>
       </c>
       <c r="D362" t="s">
         <v>251</v>
@@ -11962,13 +11971,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C363" t="s">
         <v>1021</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>1022</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1023</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -11982,13 +11991,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C364" t="s">
         <v>1024</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
         <v>1025</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1026</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -12002,10 +12011,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
+        <v>997</v>
+      </c>
+      <c r="C365" t="s">
         <v>998</v>
-      </c>
-      <c r="C365" t="s">
-        <v>999</v>
       </c>
       <c r="D365" t="s">
         <v>187</v>
@@ -12022,13 +12031,13 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C366" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D366" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E366">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FDD94C-2516-4AC2-9A3A-E4E2056E4A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410124EE-4D80-4F82-AAC4-3B67E5CD6E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1042">
   <si>
     <t>Nº</t>
   </si>
@@ -3475,9 +3475,6 @@
   </si>
   <si>
     <t>Which of the following is a Lean Budget Guardrail?</t>
-  </si>
-  <si>
-    <t>Participatory budgeting Investment horizons Centralized decision-making Lean startup cycle</t>
   </si>
   <si>
     <t>What is BDD?</t>
@@ -4350,6 +4347,15 @@
 Benchmark-Driven Development
 Behavior-Driven Development
 Backlog-Driven Development</t>
+  </si>
+  <si>
+    <t>Participatory budgeting
+Investment horizons
+Centralized decision-making
+Lean startup cycle</t>
+  </si>
+  <si>
+    <t>Investment horizons</t>
   </si>
 </sst>
 </file>
@@ -4405,13 +4411,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4717,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D316" workbookViewId="0">
-      <selection activeCell="D323" sqref="D323"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="A321" sqref="A321:XFD322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4774,7 +4777,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4794,7 +4797,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4834,7 +4837,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -4894,7 +4897,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -4974,7 +4977,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -5094,7 +5097,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -5234,7 +5237,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -5274,7 +5277,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D28" t="s">
         <v>78</v>
@@ -5374,7 +5377,7 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -5534,7 +5537,7 @@
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
@@ -5694,7 +5697,7 @@
         <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -5734,7 +5737,7 @@
         <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D51" t="s">
         <v>143</v>
@@ -5814,7 +5817,7 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D55" t="s">
         <v>154</v>
@@ -6074,7 +6077,7 @@
         <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D68" t="s">
         <v>192</v>
@@ -6214,7 +6217,7 @@
         <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D75" t="s">
         <v>210</v>
@@ -6694,7 +6697,7 @@
         <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -6834,7 +6837,7 @@
         <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D106" t="s">
         <v>299</v>
@@ -6894,7 +6897,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D109" t="s">
         <v>306</v>
@@ -6914,7 +6917,7 @@
         <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D110" t="s">
         <v>308</v>
@@ -7134,7 +7137,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -7214,7 +7217,7 @@
         <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D125" t="s">
         <v>351</v>
@@ -7774,7 +7777,7 @@
         <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D153" t="s">
         <v>430</v>
@@ -7794,7 +7797,7 @@
         <v>431</v>
       </c>
       <c r="C154" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D154" t="s">
         <v>432</v>
@@ -7994,7 +7997,7 @@
         <v>459</v>
       </c>
       <c r="C164" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D164" t="s">
         <v>460</v>
@@ -8154,7 +8157,7 @@
         <v>480</v>
       </c>
       <c r="C172" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D172" t="s">
         <v>481</v>
@@ -8694,7 +8697,7 @@
         <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D199" t="s">
         <v>557</v>
@@ -8814,7 +8817,7 @@
         <v>572</v>
       </c>
       <c r="C205" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D205" t="s">
         <v>573</v>
@@ -8954,7 +8957,7 @@
         <v>588</v>
       </c>
       <c r="C212" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D212" t="s">
         <v>589</v>
@@ -9134,7 +9137,7 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D221" t="s">
         <v>611</v>
@@ -9334,7 +9337,7 @@
         <v>635</v>
       </c>
       <c r="C231" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D231" t="s">
         <v>636</v>
@@ -9414,7 +9417,7 @@
         <v>644</v>
       </c>
       <c r="C235" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D235" t="s">
         <v>154</v>
@@ -9534,7 +9537,7 @@
         <v>660</v>
       </c>
       <c r="C241" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D241" t="s">
         <v>661</v>
@@ -9814,7 +9817,7 @@
         <v>701</v>
       </c>
       <c r="C255" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D255" t="s">
         <v>702</v>
@@ -10214,7 +10217,7 @@
         <v>758</v>
       </c>
       <c r="C275" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D275" t="s">
         <v>73</v>
@@ -10294,7 +10297,7 @@
         <v>767</v>
       </c>
       <c r="C279" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D279" t="s">
         <v>432</v>
@@ -10354,7 +10357,7 @@
         <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D282" t="s">
         <v>25</v>
@@ -10414,7 +10417,7 @@
         <v>780</v>
       </c>
       <c r="C285" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D285" t="s">
         <v>781</v>
@@ -10774,7 +10777,7 @@
         <v>831</v>
       </c>
       <c r="C303" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D303" t="s">
         <v>832</v>
@@ -10874,7 +10877,7 @@
         <v>139</v>
       </c>
       <c r="C308" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D308" t="s">
         <v>844</v>
@@ -11054,10 +11057,10 @@
         <v>867</v>
       </c>
       <c r="C317" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D317" t="s">
         <v>1027</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1028</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11074,10 +11077,10 @@
         <v>868</v>
       </c>
       <c r="C318" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D318" t="s">
         <v>1029</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1030</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11134,10 +11137,10 @@
         <v>875</v>
       </c>
       <c r="C321" t="s">
-        <v>876</v>
+        <v>1040</v>
       </c>
       <c r="D321" t="s">
-        <v>876</v>
+        <v>1041</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -11146,18 +11149,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>877</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>1040</v>
+        <v>876</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1039</v>
       </c>
       <c r="D322" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -11171,13 +11174,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C323" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D323" t="s">
         <v>1037</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1038</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -11191,13 +11194,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
+        <v>878</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D324" t="s">
         <v>879</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D324" t="s">
-        <v>880</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -11211,13 +11214,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C325" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D325" t="s">
         <v>1032</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1033</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11231,13 +11234,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D326" t="s">
         <v>1034</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1035</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11251,13 +11254,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
+        <v>882</v>
+      </c>
+      <c r="C327" t="s">
         <v>883</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>884</v>
-      </c>
-      <c r="D327" t="s">
-        <v>885</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -11271,13 +11274,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
+        <v>885</v>
+      </c>
+      <c r="C328" t="s">
         <v>886</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>887</v>
-      </c>
-      <c r="D328" t="s">
-        <v>888</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -11291,13 +11294,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
+        <v>888</v>
+      </c>
+      <c r="C329" t="s">
+        <v>948</v>
+      </c>
+      <c r="D329" t="s">
         <v>889</v>
-      </c>
-      <c r="C329" t="s">
-        <v>949</v>
-      </c>
-      <c r="D329" t="s">
-        <v>890</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -11311,10 +11314,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C330" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D330" t="s">
         <v>113</v>
@@ -11331,13 +11334,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
+        <v>891</v>
+      </c>
+      <c r="C331" t="s">
         <v>892</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>893</v>
-      </c>
-      <c r="D331" t="s">
-        <v>894</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11351,13 +11354,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
+        <v>894</v>
+      </c>
+      <c r="C332" t="s">
         <v>895</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>896</v>
-      </c>
-      <c r="D332" t="s">
-        <v>897</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11371,13 +11374,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
+        <v>897</v>
+      </c>
+      <c r="C333" t="s">
         <v>898</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>899</v>
-      </c>
-      <c r="D333" t="s">
-        <v>900</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11391,13 +11394,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
+        <v>900</v>
+      </c>
+      <c r="C334" t="s">
         <v>901</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>902</v>
-      </c>
-      <c r="D334" t="s">
-        <v>903</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11411,13 +11414,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
+        <v>903</v>
+      </c>
+      <c r="C335" t="s">
         <v>904</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>905</v>
-      </c>
-      <c r="D335" t="s">
-        <v>906</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11431,13 +11434,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
+        <v>906</v>
+      </c>
+      <c r="C336" t="s">
         <v>907</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>908</v>
-      </c>
-      <c r="D336" t="s">
-        <v>909</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -11451,13 +11454,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
+        <v>949</v>
+      </c>
+      <c r="C337" t="s">
         <v>950</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>951</v>
-      </c>
-      <c r="D337" t="s">
-        <v>952</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -11474,7 +11477,7 @@
         <v>588</v>
       </c>
       <c r="C338" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D338" t="s">
         <v>697</v>
@@ -11491,13 +11494,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
+        <v>953</v>
+      </c>
+      <c r="C339" t="s">
         <v>954</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" t="s">
         <v>955</v>
-      </c>
-      <c r="D339" t="s">
-        <v>956</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -11511,13 +11514,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
+        <v>956</v>
+      </c>
+      <c r="C340" t="s">
         <v>957</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>958</v>
-      </c>
-      <c r="D340" t="s">
-        <v>959</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11531,13 +11534,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
+        <v>959</v>
+      </c>
+      <c r="C341" t="s">
         <v>960</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" t="s">
         <v>961</v>
-      </c>
-      <c r="D341" t="s">
-        <v>962</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11551,13 +11554,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
+        <v>962</v>
+      </c>
+      <c r="C342" t="s">
         <v>963</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>964</v>
-      </c>
-      <c r="D342" t="s">
-        <v>965</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11571,13 +11574,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
+        <v>965</v>
+      </c>
+      <c r="C343" t="s">
         <v>966</v>
       </c>
-      <c r="C343" t="s">
+      <c r="D343" t="s">
         <v>967</v>
-      </c>
-      <c r="D343" t="s">
-        <v>968</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11591,13 +11594,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
+        <v>968</v>
+      </c>
+      <c r="C344" t="s">
         <v>969</v>
       </c>
-      <c r="C344" t="s">
+      <c r="D344" t="s">
         <v>970</v>
-      </c>
-      <c r="D344" t="s">
-        <v>971</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11611,13 +11614,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
+        <v>971</v>
+      </c>
+      <c r="C345" t="s">
         <v>972</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
         <v>973</v>
-      </c>
-      <c r="D345" t="s">
-        <v>974</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11634,7 +11637,7 @@
         <v>558</v>
       </c>
       <c r="C346" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D346" t="s">
         <v>560</v>
@@ -11651,13 +11654,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
+        <v>975</v>
+      </c>
+      <c r="C347" t="s">
         <v>976</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>977</v>
-      </c>
-      <c r="D347" t="s">
-        <v>978</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11671,13 +11674,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
+        <v>978</v>
+      </c>
+      <c r="C348" t="s">
         <v>979</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
         <v>980</v>
-      </c>
-      <c r="D348" t="s">
-        <v>981</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11691,13 +11694,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
+        <v>981</v>
+      </c>
+      <c r="C349" t="s">
         <v>982</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" t="s">
         <v>983</v>
-      </c>
-      <c r="D349" t="s">
-        <v>984</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11711,13 +11714,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
+        <v>984</v>
+      </c>
+      <c r="C350" t="s">
         <v>985</v>
       </c>
-      <c r="C350" t="s">
+      <c r="D350" t="s">
         <v>986</v>
-      </c>
-      <c r="D350" t="s">
-        <v>987</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11731,13 +11734,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
+        <v>987</v>
+      </c>
+      <c r="C351" t="s">
         <v>988</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" t="s">
         <v>989</v>
-      </c>
-      <c r="D351" t="s">
-        <v>990</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11751,13 +11754,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
+        <v>990</v>
+      </c>
+      <c r="C352" t="s">
         <v>991</v>
       </c>
-      <c r="C352" t="s">
+      <c r="D352" t="s">
         <v>992</v>
-      </c>
-      <c r="D352" t="s">
-        <v>993</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11771,13 +11774,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
+        <v>993</v>
+      </c>
+      <c r="C353" t="s">
         <v>994</v>
       </c>
-      <c r="C353" t="s">
+      <c r="D353" t="s">
         <v>995</v>
-      </c>
-      <c r="D353" t="s">
-        <v>996</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11791,10 +11794,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
+        <v>996</v>
+      </c>
+      <c r="C354" t="s">
         <v>997</v>
-      </c>
-      <c r="C354" t="s">
-        <v>998</v>
       </c>
       <c r="D354" t="s">
         <v>187</v>
@@ -11811,13 +11814,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
+        <v>998</v>
+      </c>
+      <c r="C355" t="s">
         <v>999</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
         <v>1000</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1001</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11831,10 +11834,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C356" t="s">
         <v>1002</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1003</v>
       </c>
       <c r="D356" t="s">
         <v>393</v>
@@ -11851,10 +11854,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C357" t="s">
         <v>1004</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1005</v>
       </c>
       <c r="D357" t="s">
         <v>861</v>
@@ -11871,13 +11874,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C358" t="s">
         <v>1006</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1007</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1008</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -11891,13 +11894,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C359" t="s">
         <v>1009</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>1010</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1011</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -11911,13 +11914,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C360" t="s">
         <v>1012</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
         <v>1013</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1014</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -11931,13 +11934,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C361" t="s">
         <v>1015</v>
       </c>
-      <c r="C361" t="s">
+      <c r="D361" t="s">
         <v>1016</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1017</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -11951,10 +11954,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C362" t="s">
         <v>1018</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1019</v>
       </c>
       <c r="D362" t="s">
         <v>251</v>
@@ -11971,13 +11974,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C363" t="s">
         <v>1020</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>1021</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1022</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -11991,13 +11994,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C364" t="s">
         <v>1023</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
         <v>1024</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1025</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -12011,10 +12014,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
+        <v>996</v>
+      </c>
+      <c r="C365" t="s">
         <v>997</v>
-      </c>
-      <c r="C365" t="s">
-        <v>998</v>
       </c>
       <c r="D365" t="s">
         <v>187</v>
@@ -12031,13 +12034,13 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C366" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D366" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E366">
         <v>0</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410124EE-4D80-4F82-AAC4-3B67E5CD6E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B1F59-4E87-474F-91DA-91C5B727D005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1085">
   <si>
     <t>Nº</t>
   </si>
@@ -2423,9 +2423,6 @@
   </si>
   <si>
     <t>How does SAFe provide a second operating system that enables Business Agility?</t>
-  </si>
-  <si>
-    <t>Focus on customers/products</t>
   </si>
   <si>
     <t>What is one of the inputs to the Portfolio canvas?</t>
@@ -3769,20 +3766,6 @@
 and Strategic Theme presentation</t>
   </si>
   <si>
-    <t>Name
-benefit hypothesis
-and acceptance criteria
-Acceptance criteria
-data models
-and priority
-Benefit hypothesis
-acceptance criteria
-and priority
-Non-functional requirements
-data models
-and architecture</t>
-  </si>
-  <si>
     <t>The PO identifies market needs
 the PM is solution
 technology
@@ -3856,15 +3839,6 @@
 Working software is the primary measure of progress</t>
   </si>
   <si>
-    <t>By organizing around functional areas to focus on skills development
-By focusing on customers
-products
-innovation
-and growth
-By achieving economies of scale
-By creating a hierarchy to provide stability</t>
-  </si>
-  <si>
     <t>Apply systems thinking
 Unlock the intrinsic motivation of knowledge workers
 Assume variability
@@ -4165,18 +4139,6 @@
     <t>What is one way Lean-Agile leaders lead by example?</t>
   </si>
   <si>
-    <t>By modeling SAFe’s Lean-Agile Mindset
-values
-principles
-and practices
-By applying empathic design and focusing on Customer Centricity
-By using the SAFe Implementation Roadmap to script the path for change
-By mastering the Seven Core Competencies of the Lean Enterprise</t>
-  </si>
-  <si>
-    <t>By modeling SAFe’s Lean-Agile Mindset, values, principles, and practices</t>
-  </si>
-  <si>
     <t>User business value and time criticality are components of what?</t>
   </si>
   <si>
@@ -4274,12 +4236,6 @@
   </si>
   <si>
     <t>SAFe Core Competencies</t>
-  </si>
-  <si>
-    <t>By modeling SAFe’s Lean-Agile Mindset values principles and practices
-By applying empathic design and focusing on Customer Centricity
-By using the SAFe Implementation Roadmap to script the path for change
-By mastering the Seven Core Competencies of the Lean Enterprise</t>
   </si>
   <si>
     <t>Define the enterprise strategy
@@ -4356,6 +4312,207 @@
   </si>
   <si>
     <t>Investment horizons</t>
+  </si>
+  <si>
+    <t>What is one of the dimensions of Lean-Agile Leadership?</t>
+  </si>
+  <si>
+    <t>Relentless improvement
+Support organizational change
+Mindset and principles
+Emotional intelligence</t>
+  </si>
+  <si>
+    <t>Mindset and principles</t>
+  </si>
+  <si>
+    <t>Resolved, Owned, Accepted, Mitigated</t>
+  </si>
+  <si>
+    <t>Resolved, Owned, Assigned, Mitigated
+Resolved, Owned, Active, Mitigated
+Resolved, Owned, Approved, Mitigated
+Resolved, Owned, Accepted, Mitigated</t>
+  </si>
+  <si>
+    <t>During the final plan review, ART PI risks are ROAM'ed. What do the letters in ROAM represent?</t>
+  </si>
+  <si>
+    <t>According to SAFe Lean-Agile Principle #10, what should the Enterprise do when markets and customers demand change?</t>
+  </si>
+  <si>
+    <t>Create a new Portfolio to manage the change
+Apply development cadence and synchronization to operate effectively and manage uncertainty
+Create a reliable decision-making framework to empower employees
+Reorganize the network to address emerging opportunities</t>
+  </si>
+  <si>
+    <t>Reorganize the network to address emerging opportunities</t>
+  </si>
+  <si>
+    <t>Which SAFe Lean-Agile Principle includes an emphasis on ‘deliver early and often’?</t>
+  </si>
+  <si>
+    <t>Build incrementally with fast, integrated learning cycles
+Organize around value
+Take an economic view
+Make value flow without interruptions</t>
+  </si>
+  <si>
+    <t>Take an economic view</t>
+  </si>
+  <si>
+    <t>Lean Thinking</t>
+  </si>
+  <si>
+    <t>SAFe Principles
+Lean Thinking
+SAFe Core Values
+Agile Manifesto</t>
+  </si>
+  <si>
+    <t>What is ‘precisely specify value by product’ central to?</t>
+  </si>
+  <si>
+    <t>What is one example of differentiating business objectives?</t>
+  </si>
+  <si>
+    <t>Strategic Themes
+Portfolio Vision
+Solution Intent
+Enterprise Goals</t>
+  </si>
+  <si>
+    <t>A SAFe Portfolio is a collection of what?</t>
+  </si>
+  <si>
+    <t>Solutions
+Business units
+Development Value Streams
+Functional teams</t>
+  </si>
+  <si>
+    <t>Development Value Streams</t>
+  </si>
+  <si>
+    <t>When basing decisions on economics, how are lead time, product cost, value, and development expense used?</t>
+  </si>
+  <si>
+    <t>To understand solution tradeoffs
+To take into account sunk costs
+To recover money already spent
+To limit work in process (WIP)</t>
+  </si>
+  <si>
+    <t>To understand solution tradeoffs</t>
+  </si>
+  <si>
+    <t>What is the focus of Lean Thinking?</t>
+  </si>
+  <si>
+    <t>Moving to an iterative development process
+Reducing delays
+Implementing objective measures of progress
+Ensuring respect for people and culture</t>
+  </si>
+  <si>
+    <t>Reducing delays</t>
+  </si>
+  <si>
+    <t>By modeling SAFe’s Lean-Agile Mindset, values, principles and practices
+By applying empathic design and focusing on Customer Centricity
+By using the SAFe Implementation Roadmap to script the path for change
+By mastering the Seven Core Competencies of the Lean Enterprise</t>
+  </si>
+  <si>
+    <t>By modeling SAFe’s Lean-Agile Mindset, values, principles and practices</t>
+  </si>
+  <si>
+    <t>How does SAFe recommend using a second operating system to deliver value?</t>
+  </si>
+  <si>
+    <t>Organize development around the flow of value while maintaining the hierarchies
+Decide whether to apply a hierarchical or Value Stream organizational model across the Enterprise
+Reorganize the hierarchies around the flow of value
+Build a small entrepreneurial network focused on the Customer in place of the existing hierarchies</t>
+  </si>
+  <si>
+    <t>Organize development around the flow of value while maintaining the hierarchies</t>
+  </si>
+  <si>
+    <t>Business Owner</t>
+  </si>
+  <si>
+    <t>Who decides the Team PI Objective Business Value scoring after negotiation</t>
+  </si>
+  <si>
+    <t>The Agile Team
+Business Owner
+The RTE
+Product Management</t>
+  </si>
+  <si>
+    <t>Name benefit hypothesis and acceptance criteria
+Acceptance criteria, data models and priority
+Benefit hypothesis, acceptance criteria and priority
+Non-functional requirements, data models and architecture</t>
+  </si>
+  <si>
+    <t>What else does the SAFe principle, unlock the intrinsic motivation of knowledge workers, require besides purpose and minimum possible constraints?</t>
+  </si>
+  <si>
+    <t>Incentive-based compensation
+Innovation
+Transparency
+Autonomy</t>
+  </si>
+  <si>
+    <t>Autonomy</t>
+  </si>
+  <si>
+    <t>By organizing around functional areas to focus on skills development
+By focusing on customers, products, innovation and growth
+By achieving economies of scale
+By creating a hierarchy to provide stability</t>
+  </si>
+  <si>
+    <t>By focusing on customers, products, innovation and growth</t>
+  </si>
+  <si>
+    <t>Which Lean budget Guardrail helps ensure the appropriate allocation of budgets to balance near-term opportunities with long-term strategy and growth?</t>
+  </si>
+  <si>
+    <t>Applying capacity allocation
+Continuous Business Owner engagement
+Guiding investments by horizon
+Approving significant initiatives</t>
+  </si>
+  <si>
+    <t>Guiding investments by horizon</t>
+  </si>
+  <si>
+    <t>What is one issue when organizing around functional silos?</t>
+  </si>
+  <si>
+    <t>Operational activities are not included
+They impede how value flows
+They do not provide development opportunities for employees
+Corporate responsibilities are not a focus</t>
+  </si>
+  <si>
+    <t>They impede how value flows</t>
+  </si>
+  <si>
+    <t>Which SAFe Lean-Agile Principle includes the critical part of ‘delaying decisions to the last responsible moment’?</t>
+  </si>
+  <si>
+    <t>Base milestones on objective evaluation of working systems
+Build incrementally with fast, integrated learning cycles
+Make value flow without interruptions
+Assume variability; preserve options</t>
+  </si>
+  <si>
+    <t>Assume variability; preserve options</t>
   </si>
 </sst>
 </file>
@@ -4718,10 +4875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321:XFD322"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="C380" sqref="C380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4777,7 +4934,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4797,7 +4954,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4837,7 +4994,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -4897,7 +5054,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -4977,7 +5134,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -5097,7 +5254,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -5237,7 +5394,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -5277,7 +5434,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D28" t="s">
         <v>78</v>
@@ -5377,7 +5534,7 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -5537,7 +5694,7 @@
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
@@ -5697,7 +5854,7 @@
         <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -5737,7 +5894,7 @@
         <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D51" t="s">
         <v>143</v>
@@ -5817,7 +5974,7 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D55" t="s">
         <v>154</v>
@@ -6077,7 +6234,7 @@
         <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D68" t="s">
         <v>192</v>
@@ -6217,7 +6374,7 @@
         <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D75" t="s">
         <v>210</v>
@@ -6697,7 +6854,7 @@
         <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -6837,7 +6994,7 @@
         <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D106" t="s">
         <v>299</v>
@@ -6897,7 +7054,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D109" t="s">
         <v>306</v>
@@ -6917,7 +7074,7 @@
         <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D110" t="s">
         <v>308</v>
@@ -7137,7 +7294,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>928</v>
+        <v>1070</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -7217,7 +7374,7 @@
         <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D125" t="s">
         <v>351</v>
@@ -7777,7 +7934,7 @@
         <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D153" t="s">
         <v>430</v>
@@ -7797,7 +7954,7 @@
         <v>431</v>
       </c>
       <c r="C154" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D154" t="s">
         <v>432</v>
@@ -7997,7 +8154,7 @@
         <v>459</v>
       </c>
       <c r="C164" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D164" t="s">
         <v>460</v>
@@ -8157,7 +8314,7 @@
         <v>480</v>
       </c>
       <c r="C172" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D172" t="s">
         <v>481</v>
@@ -8697,7 +8854,7 @@
         <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D199" t="s">
         <v>557</v>
@@ -8817,7 +8974,7 @@
         <v>572</v>
       </c>
       <c r="C205" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D205" t="s">
         <v>573</v>
@@ -8957,7 +9114,7 @@
         <v>588</v>
       </c>
       <c r="C212" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D212" t="s">
         <v>589</v>
@@ -9137,10 +9294,10 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
-        <v>937</v>
+        <v>1074</v>
       </c>
       <c r="D221" t="s">
-        <v>611</v>
+        <v>1075</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -9154,10 +9311,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>611</v>
+      </c>
+      <c r="C222" t="s">
         <v>612</v>
-      </c>
-      <c r="C222" t="s">
-        <v>613</v>
       </c>
       <c r="D222" t="s">
         <v>354</v>
@@ -9174,13 +9331,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>613</v>
+      </c>
+      <c r="C223" t="s">
         <v>614</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>615</v>
-      </c>
-      <c r="D223" t="s">
-        <v>616</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -9194,7 +9351,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C224" t="s">
         <v>186</v>
@@ -9214,13 +9371,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>617</v>
+      </c>
+      <c r="C225" t="s">
         <v>618</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>619</v>
-      </c>
-      <c r="D225" t="s">
-        <v>620</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -9234,13 +9391,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>620</v>
+      </c>
+      <c r="C226" t="s">
         <v>621</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>622</v>
-      </c>
-      <c r="D226" t="s">
-        <v>623</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -9254,13 +9411,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>623</v>
+      </c>
+      <c r="C227" t="s">
         <v>624</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>625</v>
-      </c>
-      <c r="D227" t="s">
-        <v>626</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -9274,10 +9431,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>626</v>
+      </c>
+      <c r="C228" t="s">
         <v>627</v>
-      </c>
-      <c r="C228" t="s">
-        <v>628</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
@@ -9294,13 +9451,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>628</v>
+      </c>
+      <c r="C229" t="s">
         <v>629</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>630</v>
-      </c>
-      <c r="D229" t="s">
-        <v>631</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -9314,13 +9471,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>631</v>
+      </c>
+      <c r="C230" t="s">
         <v>632</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>633</v>
-      </c>
-      <c r="D230" t="s">
-        <v>634</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -9334,13 +9491,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>634</v>
+      </c>
+      <c r="C231" t="s">
+        <v>935</v>
+      </c>
+      <c r="D231" t="s">
         <v>635</v>
-      </c>
-      <c r="C231" t="s">
-        <v>938</v>
-      </c>
-      <c r="D231" t="s">
-        <v>636</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -9354,13 +9511,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>636</v>
+      </c>
+      <c r="C232" t="s">
         <v>637</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>638</v>
-      </c>
-      <c r="D232" t="s">
-        <v>639</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -9374,13 +9531,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>639</v>
+      </c>
+      <c r="C233" t="s">
         <v>640</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>641</v>
-      </c>
-      <c r="D233" t="s">
-        <v>642</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -9394,7 +9551,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C234" t="s">
         <v>337</v>
@@ -9414,10 +9571,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C235" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D235" t="s">
         <v>154</v>
@@ -9434,13 +9591,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>644</v>
+      </c>
+      <c r="C236" t="s">
         <v>645</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>646</v>
-      </c>
-      <c r="D236" t="s">
-        <v>647</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -9454,13 +9611,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>647</v>
+      </c>
+      <c r="C237" t="s">
         <v>648</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>649</v>
-      </c>
-      <c r="D237" t="s">
-        <v>650</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -9474,13 +9631,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>650</v>
+      </c>
+      <c r="C238" t="s">
         <v>651</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>652</v>
-      </c>
-      <c r="D238" t="s">
-        <v>653</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -9494,13 +9651,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>653</v>
+      </c>
+      <c r="C239" t="s">
         <v>654</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>655</v>
-      </c>
-      <c r="D239" t="s">
-        <v>656</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -9514,13 +9671,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
+        <v>656</v>
+      </c>
+      <c r="C240" t="s">
         <v>657</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>658</v>
-      </c>
-      <c r="D240" t="s">
-        <v>659</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -9534,13 +9691,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>659</v>
+      </c>
+      <c r="C241" t="s">
+        <v>937</v>
+      </c>
+      <c r="D241" t="s">
         <v>660</v>
-      </c>
-      <c r="C241" t="s">
-        <v>940</v>
-      </c>
-      <c r="D241" t="s">
-        <v>661</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -9554,13 +9711,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>661</v>
+      </c>
+      <c r="C242" t="s">
         <v>662</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>663</v>
-      </c>
-      <c r="D242" t="s">
-        <v>664</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -9574,13 +9731,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>664</v>
+      </c>
+      <c r="C243" t="s">
         <v>665</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>666</v>
-      </c>
-      <c r="D243" t="s">
-        <v>667</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -9594,13 +9751,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>667</v>
+      </c>
+      <c r="C244" t="s">
         <v>668</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>669</v>
-      </c>
-      <c r="D244" t="s">
-        <v>670</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -9614,13 +9771,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>670</v>
+      </c>
+      <c r="C245" t="s">
         <v>671</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>672</v>
-      </c>
-      <c r="D245" t="s">
-        <v>673</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -9634,13 +9791,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>673</v>
+      </c>
+      <c r="C246" t="s">
         <v>674</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>675</v>
-      </c>
-      <c r="D246" t="s">
-        <v>676</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -9654,13 +9811,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>676</v>
+      </c>
+      <c r="C247" t="s">
         <v>677</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>678</v>
-      </c>
-      <c r="D247" t="s">
-        <v>679</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -9674,13 +9831,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>679</v>
+      </c>
+      <c r="C248" t="s">
         <v>680</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>681</v>
-      </c>
-      <c r="D248" t="s">
-        <v>682</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9694,13 +9851,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>682</v>
+      </c>
+      <c r="C249" t="s">
         <v>683</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>684</v>
-      </c>
-      <c r="D249" t="s">
-        <v>685</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9714,13 +9871,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>685</v>
+      </c>
+      <c r="C250" t="s">
         <v>686</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>687</v>
-      </c>
-      <c r="D250" t="s">
-        <v>688</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9734,13 +9891,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>688</v>
+      </c>
+      <c r="C251" t="s">
         <v>689</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>690</v>
-      </c>
-      <c r="D251" t="s">
-        <v>691</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -9754,13 +9911,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>691</v>
+      </c>
+      <c r="C252" t="s">
         <v>692</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>693</v>
-      </c>
-      <c r="D252" t="s">
-        <v>694</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -9774,13 +9931,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>694</v>
+      </c>
+      <c r="C253" t="s">
         <v>695</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>696</v>
-      </c>
-      <c r="D253" t="s">
-        <v>697</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -9794,13 +9951,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>697</v>
+      </c>
+      <c r="C254" t="s">
         <v>698</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>699</v>
-      </c>
-      <c r="D254" t="s">
-        <v>700</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9814,13 +9971,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>700</v>
+      </c>
+      <c r="C255" t="s">
+        <v>938</v>
+      </c>
+      <c r="D255" t="s">
         <v>701</v>
-      </c>
-      <c r="C255" t="s">
-        <v>941</v>
-      </c>
-      <c r="D255" t="s">
-        <v>702</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -9834,13 +9991,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>702</v>
+      </c>
+      <c r="C256" t="s">
         <v>703</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>704</v>
-      </c>
-      <c r="D256" t="s">
-        <v>705</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9854,13 +10011,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>705</v>
+      </c>
+      <c r="C257" t="s">
         <v>706</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>707</v>
-      </c>
-      <c r="D257" t="s">
-        <v>708</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9874,13 +10031,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>708</v>
+      </c>
+      <c r="C258" t="s">
         <v>709</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>710</v>
-      </c>
-      <c r="D258" t="s">
-        <v>711</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -9894,13 +10051,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>711</v>
+      </c>
+      <c r="C259" t="s">
         <v>712</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>713</v>
-      </c>
-      <c r="D259" t="s">
-        <v>714</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9914,13 +10071,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>714</v>
+      </c>
+      <c r="C260" t="s">
         <v>715</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>716</v>
-      </c>
-      <c r="D260" t="s">
-        <v>717</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -9934,13 +10091,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>717</v>
+      </c>
+      <c r="C261" t="s">
         <v>718</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>719</v>
-      </c>
-      <c r="D261" t="s">
-        <v>720</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -9954,10 +10111,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>720</v>
+      </c>
+      <c r="C262" t="s">
         <v>721</v>
-      </c>
-      <c r="C262" t="s">
-        <v>722</v>
       </c>
       <c r="D262" t="s">
         <v>541</v>
@@ -9974,13 +10131,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
+        <v>722</v>
+      </c>
+      <c r="C263" t="s">
         <v>723</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>724</v>
-      </c>
-      <c r="D263" t="s">
-        <v>725</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -9994,13 +10151,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
+        <v>725</v>
+      </c>
+      <c r="C264" t="s">
         <v>726</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>727</v>
-      </c>
-      <c r="D264" t="s">
-        <v>728</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -10014,13 +10171,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>728</v>
+      </c>
+      <c r="C265" t="s">
         <v>729</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>730</v>
-      </c>
-      <c r="D265" t="s">
-        <v>731</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -10034,13 +10191,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>731</v>
+      </c>
+      <c r="C266" t="s">
         <v>732</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>733</v>
-      </c>
-      <c r="D266" t="s">
-        <v>734</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -10054,13 +10211,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>734</v>
+      </c>
+      <c r="C267" t="s">
         <v>735</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>736</v>
-      </c>
-      <c r="D267" t="s">
-        <v>737</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -10074,13 +10231,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>737</v>
+      </c>
+      <c r="C268" t="s">
         <v>738</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>739</v>
-      </c>
-      <c r="D268" t="s">
-        <v>740</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -10094,13 +10251,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>740</v>
+      </c>
+      <c r="C269" t="s">
         <v>741</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>742</v>
-      </c>
-      <c r="D269" t="s">
-        <v>743</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -10114,13 +10271,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
+        <v>743</v>
+      </c>
+      <c r="C270" t="s">
         <v>744</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>745</v>
-      </c>
-      <c r="D270" t="s">
-        <v>746</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -10134,13 +10291,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>746</v>
+      </c>
+      <c r="C271" t="s">
         <v>747</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>748</v>
-      </c>
-      <c r="D271" t="s">
-        <v>749</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -10154,13 +10311,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>749</v>
+      </c>
+      <c r="C272" t="s">
         <v>750</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>751</v>
-      </c>
-      <c r="D272" t="s">
-        <v>752</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -10174,10 +10331,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
+        <v>752</v>
+      </c>
+      <c r="C273" t="s">
         <v>753</v>
-      </c>
-      <c r="C273" t="s">
-        <v>754</v>
       </c>
       <c r="D273" t="s">
         <v>84</v>
@@ -10194,13 +10351,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
+        <v>754</v>
+      </c>
+      <c r="C274" t="s">
         <v>755</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>756</v>
-      </c>
-      <c r="D274" t="s">
-        <v>757</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -10214,10 +10371,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C275" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D275" t="s">
         <v>73</v>
@@ -10234,13 +10391,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>758</v>
+      </c>
+      <c r="C276" t="s">
         <v>759</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>760</v>
-      </c>
-      <c r="D276" t="s">
-        <v>761</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -10254,13 +10411,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
+        <v>761</v>
+      </c>
+      <c r="C277" t="s">
         <v>762</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>763</v>
-      </c>
-      <c r="D277" t="s">
-        <v>764</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -10274,13 +10431,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C278" t="s">
+        <v>764</v>
+      </c>
+      <c r="D278" t="s">
         <v>765</v>
-      </c>
-      <c r="D278" t="s">
-        <v>766</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -10294,10 +10451,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C279" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D279" t="s">
         <v>432</v>
@@ -10314,13 +10471,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
+        <v>767</v>
+      </c>
+      <c r="C280" t="s">
         <v>768</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>769</v>
-      </c>
-      <c r="D280" t="s">
-        <v>770</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -10334,13 +10491,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
+        <v>770</v>
+      </c>
+      <c r="C281" t="s">
         <v>771</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>772</v>
-      </c>
-      <c r="D281" t="s">
-        <v>773</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -10357,7 +10514,7 @@
         <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D282" t="s">
         <v>25</v>
@@ -10374,13 +10531,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
+        <v>773</v>
+      </c>
+      <c r="C283" t="s">
         <v>774</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>775</v>
-      </c>
-      <c r="D283" t="s">
-        <v>776</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -10394,13 +10551,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
+        <v>776</v>
+      </c>
+      <c r="C284" t="s">
         <v>777</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>778</v>
-      </c>
-      <c r="D284" t="s">
-        <v>779</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -10414,13 +10571,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
+        <v>779</v>
+      </c>
+      <c r="C285" t="s">
+        <v>942</v>
+      </c>
+      <c r="D285" t="s">
         <v>780</v>
-      </c>
-      <c r="C285" t="s">
-        <v>945</v>
-      </c>
-      <c r="D285" t="s">
-        <v>781</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -10434,13 +10591,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
+        <v>781</v>
+      </c>
+      <c r="C286" t="s">
         <v>782</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>783</v>
-      </c>
-      <c r="D286" t="s">
-        <v>784</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -10454,13 +10611,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
+        <v>784</v>
+      </c>
+      <c r="C287" t="s">
         <v>785</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>786</v>
-      </c>
-      <c r="D287" t="s">
-        <v>787</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -10474,10 +10631,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
+        <v>787</v>
+      </c>
+      <c r="C288" t="s">
         <v>788</v>
-      </c>
-      <c r="C288" t="s">
-        <v>789</v>
       </c>
       <c r="D288" t="s">
         <v>458</v>
@@ -10494,13 +10651,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
+        <v>789</v>
+      </c>
+      <c r="C289" t="s">
         <v>790</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>791</v>
-      </c>
-      <c r="D289" t="s">
-        <v>792</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -10514,13 +10671,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
+        <v>792</v>
+      </c>
+      <c r="C290" t="s">
         <v>793</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>794</v>
-      </c>
-      <c r="D290" t="s">
-        <v>795</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -10534,13 +10691,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>795</v>
+      </c>
+      <c r="C291" t="s">
         <v>796</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>797</v>
-      </c>
-      <c r="D291" t="s">
-        <v>798</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -10554,13 +10711,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>798</v>
+      </c>
+      <c r="C292" t="s">
         <v>799</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>800</v>
-      </c>
-      <c r="D292" t="s">
-        <v>801</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -10574,13 +10731,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
+        <v>801</v>
+      </c>
+      <c r="C293" t="s">
         <v>802</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>803</v>
-      </c>
-      <c r="D293" t="s">
-        <v>804</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -10594,13 +10751,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
+        <v>804</v>
+      </c>
+      <c r="C294" t="s">
         <v>805</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>806</v>
-      </c>
-      <c r="D294" t="s">
-        <v>807</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -10614,13 +10771,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
+        <v>807</v>
+      </c>
+      <c r="C295" t="s">
         <v>808</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>809</v>
-      </c>
-      <c r="D295" t="s">
-        <v>810</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -10634,13 +10791,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
+        <v>810</v>
+      </c>
+      <c r="C296" t="s">
         <v>811</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>812</v>
-      </c>
-      <c r="D296" t="s">
-        <v>813</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -10654,13 +10811,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
+        <v>813</v>
+      </c>
+      <c r="C297" t="s">
         <v>814</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>815</v>
-      </c>
-      <c r="D297" t="s">
-        <v>816</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10674,13 +10831,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
+        <v>816</v>
+      </c>
+      <c r="C298" t="s">
         <v>817</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>818</v>
-      </c>
-      <c r="D298" t="s">
-        <v>819</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10694,10 +10851,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
+        <v>819</v>
+      </c>
+      <c r="C299" t="s">
         <v>820</v>
-      </c>
-      <c r="C299" t="s">
-        <v>821</v>
       </c>
       <c r="D299" t="s">
         <v>239</v>
@@ -10714,13 +10871,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
+        <v>821</v>
+      </c>
+      <c r="C300" t="s">
         <v>822</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>823</v>
-      </c>
-      <c r="D300" t="s">
-        <v>824</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10734,13 +10891,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>824</v>
+      </c>
+      <c r="C301" t="s">
         <v>825</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>826</v>
-      </c>
-      <c r="D301" t="s">
-        <v>827</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -10754,13 +10911,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>827</v>
+      </c>
+      <c r="C302" t="s">
         <v>828</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>829</v>
-      </c>
-      <c r="D302" t="s">
-        <v>830</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10774,13 +10931,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
+        <v>830</v>
+      </c>
+      <c r="C303" t="s">
+        <v>943</v>
+      </c>
+      <c r="D303" t="s">
         <v>831</v>
-      </c>
-      <c r="C303" t="s">
-        <v>946</v>
-      </c>
-      <c r="D303" t="s">
-        <v>832</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10794,13 +10951,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>832</v>
+      </c>
+      <c r="C304" t="s">
         <v>833</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>834</v>
-      </c>
-      <c r="D304" t="s">
-        <v>835</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10814,13 +10971,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
+        <v>835</v>
+      </c>
+      <c r="C305" t="s">
         <v>836</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>837</v>
-      </c>
-      <c r="D305" t="s">
-        <v>838</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10834,13 +10991,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
+        <v>838</v>
+      </c>
+      <c r="C306" t="s">
         <v>839</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>840</v>
-      </c>
-      <c r="D306" t="s">
-        <v>841</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10854,10 +11011,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
+        <v>841</v>
+      </c>
+      <c r="C307" t="s">
         <v>842</v>
-      </c>
-      <c r="C307" t="s">
-        <v>843</v>
       </c>
       <c r="D307" t="s">
         <v>239</v>
@@ -10877,10 +11034,10 @@
         <v>139</v>
       </c>
       <c r="C308" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D308" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10894,13 +11051,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
+        <v>844</v>
+      </c>
+      <c r="C309" t="s">
         <v>845</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>846</v>
-      </c>
-      <c r="D309" t="s">
-        <v>847</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10914,13 +11071,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
+        <v>847</v>
+      </c>
+      <c r="C310" t="s">
         <v>848</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>849</v>
-      </c>
-      <c r="D310" t="s">
-        <v>850</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10934,13 +11091,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
+        <v>850</v>
+      </c>
+      <c r="C311" t="s">
         <v>851</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>852</v>
-      </c>
-      <c r="D311" t="s">
-        <v>853</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10954,13 +11111,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
+        <v>853</v>
+      </c>
+      <c r="C312" t="s">
         <v>854</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>855</v>
-      </c>
-      <c r="D312" t="s">
-        <v>856</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10974,10 +11131,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
+        <v>856</v>
+      </c>
+      <c r="C313" t="s">
         <v>857</v>
-      </c>
-      <c r="C313" t="s">
-        <v>858</v>
       </c>
       <c r="D313" t="s">
         <v>178</v>
@@ -10994,13 +11151,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
+        <v>858</v>
+      </c>
+      <c r="C314" t="s">
         <v>859</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
         <v>860</v>
-      </c>
-      <c r="D314" t="s">
-        <v>861</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -11014,13 +11171,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
+        <v>861</v>
+      </c>
+      <c r="C315" t="s">
         <v>862</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>863</v>
-      </c>
-      <c r="D315" t="s">
-        <v>864</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -11034,13 +11191,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
+        <v>864</v>
+      </c>
+      <c r="C316" t="s">
         <v>865</v>
       </c>
-      <c r="C316" t="s">
-        <v>866</v>
-      </c>
       <c r="D316" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -11054,13 +11211,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C317" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D317" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11074,13 +11231,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C318" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D318" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11094,13 +11251,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
+        <v>868</v>
+      </c>
+      <c r="C319" t="s">
         <v>869</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>870</v>
-      </c>
-      <c r="D319" t="s">
-        <v>871</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -11114,13 +11271,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
+        <v>871</v>
+      </c>
+      <c r="C320" t="s">
         <v>872</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>873</v>
-      </c>
-      <c r="D320" t="s">
-        <v>874</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -11134,13 +11291,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C321" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D321" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -11154,13 +11311,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C322" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D322" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -11174,13 +11331,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C323" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D323" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -11194,13 +11351,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
+        <v>877</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D324" t="s">
         <v>878</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D324" t="s">
-        <v>879</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -11214,13 +11371,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C325" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D325" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11234,13 +11391,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C326" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D326" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11254,13 +11411,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
+        <v>881</v>
+      </c>
+      <c r="C327" t="s">
         <v>882</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>883</v>
-      </c>
-      <c r="D327" t="s">
-        <v>884</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -11274,13 +11431,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
+        <v>884</v>
+      </c>
+      <c r="C328" t="s">
         <v>885</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>886</v>
-      </c>
-      <c r="D328" t="s">
-        <v>887</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -11294,13 +11451,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
+        <v>887</v>
+      </c>
+      <c r="C329" t="s">
+        <v>945</v>
+      </c>
+      <c r="D329" t="s">
         <v>888</v>
-      </c>
-      <c r="C329" t="s">
-        <v>948</v>
-      </c>
-      <c r="D329" t="s">
-        <v>889</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -11314,10 +11471,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C330" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D330" t="s">
         <v>113</v>
@@ -11334,13 +11491,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
+        <v>890</v>
+      </c>
+      <c r="C331" t="s">
         <v>891</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>892</v>
-      </c>
-      <c r="D331" t="s">
-        <v>893</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11354,13 +11511,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
+        <v>893</v>
+      </c>
+      <c r="C332" t="s">
         <v>894</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>895</v>
-      </c>
-      <c r="D332" t="s">
-        <v>896</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11374,13 +11531,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
+        <v>896</v>
+      </c>
+      <c r="C333" t="s">
         <v>897</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>898</v>
-      </c>
-      <c r="D333" t="s">
-        <v>899</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11394,13 +11551,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
+        <v>899</v>
+      </c>
+      <c r="C334" t="s">
         <v>900</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>901</v>
-      </c>
-      <c r="D334" t="s">
-        <v>902</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11414,13 +11571,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
+        <v>902</v>
+      </c>
+      <c r="C335" t="s">
         <v>903</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>904</v>
-      </c>
-      <c r="D335" t="s">
-        <v>905</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11434,13 +11591,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
+        <v>905</v>
+      </c>
+      <c r="C336" t="s">
         <v>906</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>907</v>
-      </c>
-      <c r="D336" t="s">
-        <v>908</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -11454,13 +11611,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C337" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D337" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -11477,10 +11634,10 @@
         <v>588</v>
       </c>
       <c r="C338" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D338" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -11494,13 +11651,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C339" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D339" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -11514,13 +11671,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C340" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D340" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11534,13 +11691,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C341" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D341" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11554,13 +11711,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C342" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D342" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11574,13 +11731,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C343" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D343" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11594,13 +11751,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C344" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D344" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11614,13 +11771,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C345" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D345" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11637,7 +11794,7 @@
         <v>558</v>
       </c>
       <c r="C346" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D346" t="s">
         <v>560</v>
@@ -11654,13 +11811,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C347" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D347" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11674,13 +11831,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C348" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D348" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11694,13 +11851,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C349" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D349" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11714,13 +11871,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C350" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D350" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11734,13 +11891,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C351" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D351" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11754,13 +11911,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C352" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D352" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11774,13 +11931,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C353" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D353" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11794,10 +11951,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C354" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D354" t="s">
         <v>187</v>
@@ -11814,13 +11971,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C355" t="s">
-        <v>999</v>
+        <v>1062</v>
       </c>
       <c r="D355" t="s">
-        <v>1000</v>
+        <v>1063</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11834,10 +11991,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C356" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D356" t="s">
         <v>393</v>
@@ -11854,13 +12011,13 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C357" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D357" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -11874,13 +12031,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C358" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D358" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -11894,13 +12051,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C359" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D359" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -11914,13 +12071,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C360" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D360" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -11934,13 +12091,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C361" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D361" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -11954,10 +12111,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C362" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D362" t="s">
         <v>251</v>
@@ -11974,13 +12131,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C363" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D363" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -11994,13 +12151,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C364" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D364" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -12014,10 +12171,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C365" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D365" t="s">
         <v>187</v>
@@ -12031,21 +12188,298 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>998</v>
+        <v>1036</v>
       </c>
       <c r="C366" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="D366" t="s">
-        <v>1000</v>
+        <v>1038</v>
       </c>
       <c r="E366">
         <v>0</v>
       </c>
-      <c r="F366">
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>367</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>368</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>369</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>370</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>371</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D371" t="s">
+        <v>354</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>372</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>373</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>374</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>375</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>376</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>377</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>378</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>379</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>380</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
         <v>0</v>
       </c>
     </row>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B1F59-4E87-474F-91DA-91C5B727D005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8021326A-1F63-4977-B387-0287188F4A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1087">
   <si>
     <t>Nº</t>
   </si>
@@ -4513,6 +4513,15 @@
   </si>
   <si>
     <t>Assume variability; preserve options</t>
+  </si>
+  <si>
+    <t>What is one of the SAFe Core Values?</t>
+  </si>
+  <si>
+    <t>Transparency
+Culture
+Flow
+Built-in quality</t>
   </si>
 </sst>
 </file>
@@ -4875,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F380"/>
+  <dimension ref="A1:F384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="C380" sqref="C380"/>
+      <selection activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12481,6 +12490,41 @@
       </c>
       <c r="F380">
         <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>381</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D381" t="s">
+        <v>39</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8021326A-1F63-4977-B387-0287188F4A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C7301-AF45-4907-A3FF-8A80D6B09A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1086">
   <si>
     <t>Nº</t>
   </si>
@@ -4030,12 +4030,6 @@
   </si>
   <si>
     <t>Culture change comes last as a result of changing work habits</t>
-  </si>
-  <si>
-    <t>To make deploying of assets a business decision
-To remove the need to respond quickly to production issues
-To enable releasing functionality on demand to meet business needs
-To allow early access to specific groups of customers</t>
   </si>
   <si>
     <t>Why do Business Owners assign business value to team PI Objectives?</t>
@@ -4884,10 +4878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F384"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="A346" sqref="A346:XFD346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7303,7 +7297,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -9303,10 +9297,10 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D221" t="s">
         <v>1074</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1075</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -11223,10 +11217,10 @@
         <v>866</v>
       </c>
       <c r="C317" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D317" t="s">
         <v>1020</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1021</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11243,10 +11237,10 @@
         <v>867</v>
       </c>
       <c r="C318" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D318" t="s">
         <v>1022</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1023</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11303,10 +11297,10 @@
         <v>874</v>
       </c>
       <c r="C321" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D321" t="s">
         <v>1034</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1035</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -11323,10 +11317,10 @@
         <v>875</v>
       </c>
       <c r="C322" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D322" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -11343,10 +11337,10 @@
         <v>876</v>
       </c>
       <c r="C323" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D323" t="s">
         <v>1030</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1031</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -11363,7 +11357,7 @@
         <v>877</v>
       </c>
       <c r="C324" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D324" t="s">
         <v>878</v>
@@ -11383,10 +11377,10 @@
         <v>879</v>
       </c>
       <c r="C325" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D325" t="s">
         <v>1025</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1026</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11403,10 +11397,10 @@
         <v>880</v>
       </c>
       <c r="C326" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D326" t="s">
         <v>1027</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1028</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11483,7 +11477,7 @@
         <v>889</v>
       </c>
       <c r="C330" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D330" t="s">
         <v>113</v>
@@ -11797,16 +11791,16 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>558</v>
+        <v>971</v>
       </c>
       <c r="C346" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D346" t="s">
-        <v>560</v>
+        <v>973</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -11817,16 +11811,16 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C347" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D347" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11837,16 +11831,16 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C348" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D348" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11857,16 +11851,16 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C349" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D349" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11877,16 +11871,16 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C350" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D350" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11897,16 +11891,16 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C351" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D351" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11917,16 +11911,16 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C352" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D352" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11937,16 +11931,16 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C353" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D353" t="s">
-        <v>992</v>
+        <v>187</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11957,16 +11951,16 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C354" t="s">
-        <v>994</v>
+        <v>1061</v>
       </c>
       <c r="D354" t="s">
-        <v>187</v>
+        <v>1062</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -11977,16 +11971,16 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B355" t="s">
         <v>995</v>
       </c>
       <c r="C355" t="s">
-        <v>1062</v>
+        <v>996</v>
       </c>
       <c r="D355" t="s">
-        <v>1063</v>
+        <v>393</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11997,16 +11991,16 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C356" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D356" t="s">
-        <v>393</v>
+        <v>860</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -12017,16 +12011,16 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C357" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D357" t="s">
-        <v>860</v>
+        <v>1001</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -12037,16 +12031,16 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C358" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D358" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -12057,16 +12051,16 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C359" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D359" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -12077,16 +12071,16 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C360" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D360" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -12097,16 +12091,16 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C361" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D361" t="s">
-        <v>1011</v>
+        <v>251</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -12117,16 +12111,16 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C362" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D362" t="s">
-        <v>251</v>
+        <v>1015</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -12137,16 +12131,16 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C363" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D363" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -12157,16 +12151,16 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>1017</v>
+        <v>992</v>
       </c>
       <c r="C364" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="D364" t="s">
-        <v>1019</v>
+        <v>187</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -12177,33 +12171,30 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>993</v>
+        <v>1035</v>
       </c>
       <c r="C365" t="s">
-        <v>994</v>
+        <v>1036</v>
       </c>
       <c r="D365" t="s">
-        <v>187</v>
+        <v>1037</v>
       </c>
       <c r="E365">
-        <v>0</v>
-      </c>
-      <c r="F365">
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C366" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D366" t="s">
         <v>1038</v>
@@ -12211,19 +12202,22 @@
       <c r="E366">
         <v>0</v>
       </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B367" t="s">
         <v>1041</v>
       </c>
       <c r="C367" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D367" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -12234,16 +12228,16 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C368" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D368" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -12254,13 +12248,13 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="C369" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D369" t="s">
         <v>1047</v>
@@ -12274,16 +12268,16 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B370" t="s">
         <v>1050</v>
       </c>
       <c r="C370" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D370" t="s">
-        <v>1048</v>
+        <v>354</v>
       </c>
       <c r="E370">
         <v>0</v>
@@ -12294,16 +12288,16 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B371" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C371" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D371" t="s">
-        <v>354</v>
+        <v>1054</v>
       </c>
       <c r="E371">
         <v>0</v>
@@ -12314,16 +12308,16 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B372" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C372" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D372" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -12334,16 +12328,16 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B373" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C373" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D373" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -12354,16 +12348,16 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B374" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="C374" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="D374" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -12374,13 +12368,13 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B375" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C375" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="D375" t="s">
         <v>1066</v>
@@ -12394,16 +12388,16 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B376" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C376" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D376" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="E376">
         <v>0</v>
@@ -12414,16 +12408,16 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B377" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="C377" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="D377" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -12434,16 +12428,16 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B378" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C378" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D378" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -12454,16 +12448,16 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B379" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C379" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D379" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -12474,16 +12468,16 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B380" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C380" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D380" t="s">
-        <v>1084</v>
+        <v>39</v>
       </c>
       <c r="E380">
         <v>0</v>
@@ -12494,36 +12488,16 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>381</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C381" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D381" t="s">
-        <v>39</v>
-      </c>
-      <c r="E381">
-        <v>0</v>
-      </c>
-      <c r="F381">
-        <v>0</v>
+        <v>382</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A384">
         <v>384</v>
       </c>
     </row>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C7301-AF45-4907-A3FF-8A80D6B09A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE29B49B-AA42-4AE8-98E3-53A72E7A8ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4084,16 +4084,6 @@
     <t>What is one way to describe a cross-functional Agile Team?</t>
   </si>
   <si>
-    <t>They are made up of individuals
-each of whom can define
-develop
-test
-and deploy the system
-They are optimized for communication and delivery of value
-They deliver value every 6 weeks
-They release customer products to production continuously</t>
-  </si>
-  <si>
     <t>They are made up of individuals, each of whom can define, develop, test, and deploy the system</t>
   </si>
   <si>
@@ -4516,6 +4506,12 @@
 Culture
 Flow
 Built-in quality</t>
+  </si>
+  <si>
+    <t>They are made up of individuals each of whom can define, develop, test and deploy the system
+They are optimized for communication and delivery of value
+They deliver value every 6 weeks
+They release customer products to production continuously</t>
   </si>
 </sst>
 </file>
@@ -4878,10 +4874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F383"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="A346" sqref="A346:XFD346"/>
+    <sheetView tabSelected="1" topLeftCell="D360" workbookViewId="0">
+      <selection activeCell="F380" sqref="F380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7297,7 +7293,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -9297,10 +9293,10 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D221" t="s">
         <v>1073</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1074</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -11217,10 +11213,10 @@
         <v>866</v>
       </c>
       <c r="C317" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D317" t="s">
         <v>1019</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1020</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11237,10 +11233,10 @@
         <v>867</v>
       </c>
       <c r="C318" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D318" t="s">
         <v>1021</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1022</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11297,10 +11293,10 @@
         <v>874</v>
       </c>
       <c r="C321" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D321" t="s">
         <v>1033</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1034</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -11317,10 +11313,10 @@
         <v>875</v>
       </c>
       <c r="C322" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D322" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -11337,10 +11333,10 @@
         <v>876</v>
       </c>
       <c r="C323" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D323" t="s">
         <v>1029</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1030</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -11357,7 +11353,7 @@
         <v>877</v>
       </c>
       <c r="C324" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D324" t="s">
         <v>878</v>
@@ -11377,10 +11373,10 @@
         <v>879</v>
       </c>
       <c r="C325" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D325" t="s">
         <v>1024</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1025</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11397,10 +11393,10 @@
         <v>880</v>
       </c>
       <c r="C326" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D326" t="s">
         <v>1026</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1027</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11477,7 +11473,7 @@
         <v>889</v>
       </c>
       <c r="C330" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D330" t="s">
         <v>113</v>
@@ -11877,10 +11873,10 @@
         <v>983</v>
       </c>
       <c r="C350" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D350" t="s">
         <v>984</v>
-      </c>
-      <c r="D350" t="s">
-        <v>985</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11894,13 +11890,13 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
+        <v>985</v>
+      </c>
+      <c r="C351" t="s">
         <v>986</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" t="s">
         <v>987</v>
-      </c>
-      <c r="D351" t="s">
-        <v>988</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11914,13 +11910,13 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
+        <v>988</v>
+      </c>
+      <c r="C352" t="s">
         <v>989</v>
       </c>
-      <c r="C352" t="s">
+      <c r="D352" t="s">
         <v>990</v>
-      </c>
-      <c r="D352" t="s">
-        <v>991</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11934,10 +11930,10 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
+        <v>991</v>
+      </c>
+      <c r="C353" t="s">
         <v>992</v>
-      </c>
-      <c r="C353" t="s">
-        <v>993</v>
       </c>
       <c r="D353" t="s">
         <v>187</v>
@@ -11954,13 +11950,13 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C354" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D354" t="s">
         <v>1061</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1062</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -11974,10 +11970,10 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
+        <v>994</v>
+      </c>
+      <c r="C355" t="s">
         <v>995</v>
-      </c>
-      <c r="C355" t="s">
-        <v>996</v>
       </c>
       <c r="D355" t="s">
         <v>393</v>
@@ -11994,10 +11990,10 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
+        <v>996</v>
+      </c>
+      <c r="C356" t="s">
         <v>997</v>
-      </c>
-      <c r="C356" t="s">
-        <v>998</v>
       </c>
       <c r="D356" t="s">
         <v>860</v>
@@ -12014,13 +12010,13 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
+        <v>998</v>
+      </c>
+      <c r="C357" t="s">
         <v>999</v>
       </c>
-      <c r="C357" t="s">
+      <c r="D357" t="s">
         <v>1000</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1001</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -12034,13 +12030,13 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C358" t="s">
         <v>1002</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1003</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1004</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -12054,13 +12050,13 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C359" t="s">
         <v>1005</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>1006</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1007</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -12074,13 +12070,13 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C360" t="s">
         <v>1008</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
         <v>1009</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1010</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -12094,10 +12090,10 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C361" t="s">
         <v>1011</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1012</v>
       </c>
       <c r="D361" t="s">
         <v>251</v>
@@ -12114,13 +12110,13 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C362" t="s">
         <v>1013</v>
       </c>
-      <c r="C362" t="s">
+      <c r="D362" t="s">
         <v>1014</v>
-      </c>
-      <c r="D362" t="s">
-        <v>1015</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -12134,13 +12130,13 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C363" t="s">
         <v>1016</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>1017</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1018</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -12154,10 +12150,10 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
+        <v>991</v>
+      </c>
+      <c r="C364" t="s">
         <v>992</v>
-      </c>
-      <c r="C364" t="s">
-        <v>993</v>
       </c>
       <c r="D364" t="s">
         <v>187</v>
@@ -12174,13 +12170,13 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C365" t="s">
         <v>1035</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" t="s">
         <v>1036</v>
-      </c>
-      <c r="D365" t="s">
-        <v>1037</v>
       </c>
       <c r="E365">
         <v>0</v>
@@ -12191,13 +12187,13 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C366" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D366" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E366">
         <v>0</v>
@@ -12211,13 +12207,13 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C367" t="s">
         <v>1041</v>
       </c>
-      <c r="C367" t="s">
+      <c r="D367" t="s">
         <v>1042</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1043</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -12231,13 +12227,13 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C368" t="s">
         <v>1044</v>
       </c>
-      <c r="C368" t="s">
+      <c r="D368" t="s">
         <v>1045</v>
-      </c>
-      <c r="D368" t="s">
-        <v>1046</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -12251,13 +12247,13 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C369" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D369" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -12271,10 +12267,10 @@
         <v>371</v>
       </c>
       <c r="B370" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C370" t="s">
         <v>1050</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1051</v>
       </c>
       <c r="D370" t="s">
         <v>354</v>
@@ -12291,13 +12287,13 @@
         <v>372</v>
       </c>
       <c r="B371" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C371" t="s">
         <v>1052</v>
       </c>
-      <c r="C371" t="s">
+      <c r="D371" t="s">
         <v>1053</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1054</v>
       </c>
       <c r="E371">
         <v>0</v>
@@ -12311,13 +12307,13 @@
         <v>373</v>
       </c>
       <c r="B372" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C372" t="s">
         <v>1055</v>
       </c>
-      <c r="C372" t="s">
+      <c r="D372" t="s">
         <v>1056</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1057</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -12331,13 +12327,13 @@
         <v>374</v>
       </c>
       <c r="B373" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C373" t="s">
         <v>1058</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" t="s">
         <v>1059</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1060</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -12351,13 +12347,13 @@
         <v>375</v>
       </c>
       <c r="B374" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C374" t="s">
         <v>1063</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" t="s">
         <v>1064</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1065</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -12371,13 +12367,13 @@
         <v>376</v>
       </c>
       <c r="B375" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C375" t="s">
         <v>1067</v>
       </c>
-      <c r="C375" t="s">
-        <v>1068</v>
-      </c>
       <c r="D375" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E375">
         <v>0</v>
@@ -12391,13 +12387,13 @@
         <v>377</v>
       </c>
       <c r="B376" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C376" t="s">
         <v>1070</v>
       </c>
-      <c r="C376" t="s">
+      <c r="D376" t="s">
         <v>1071</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1072</v>
       </c>
       <c r="E376">
         <v>0</v>
@@ -12411,13 +12407,13 @@
         <v>378</v>
       </c>
       <c r="B377" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C377" t="s">
         <v>1075</v>
       </c>
-      <c r="C377" t="s">
+      <c r="D377" t="s">
         <v>1076</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1077</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -12431,13 +12427,13 @@
         <v>379</v>
       </c>
       <c r="B378" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C378" t="s">
         <v>1078</v>
       </c>
-      <c r="C378" t="s">
+      <c r="D378" t="s">
         <v>1079</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1080</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -12451,13 +12447,13 @@
         <v>380</v>
       </c>
       <c r="B379" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C379" t="s">
         <v>1081</v>
       </c>
-      <c r="C379" t="s">
+      <c r="D379" t="s">
         <v>1082</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1083</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -12471,10 +12467,10 @@
         <v>381</v>
       </c>
       <c r="B380" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C380" t="s">
         <v>1084</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1085</v>
       </c>
       <c r="D380" t="s">
         <v>39</v>
@@ -12484,21 +12480,6 @@
       </c>
       <c r="F380">
         <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A381">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A382">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A383">
-        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE29B49B-AA42-4AE8-98E3-53A72E7A8ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652FCFA7-02DA-42CF-914C-C9B5817F5258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4084,9 +4084,6 @@
     <t>What is one way to describe a cross-functional Agile Team?</t>
   </si>
   <si>
-    <t>They are made up of individuals, each of whom can define, develop, test, and deploy the system</t>
-  </si>
-  <si>
     <t>What is used to brainstorm potential Portfolio future states?</t>
   </si>
   <si>
@@ -4512,6 +4509,9 @@
 They are optimized for communication and delivery of value
 They deliver value every 6 weeks
 They release customer products to production continuously</t>
+  </si>
+  <si>
+    <t>They are made up of individuals each of whom can define, develop, test and deploy the system</t>
   </si>
 </sst>
 </file>
@@ -4876,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D360" workbookViewId="0">
-      <selection activeCell="F380" sqref="F380"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="A350" sqref="A350:XFD350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7293,7 +7293,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -9293,10 +9293,10 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D221" t="s">
         <v>1072</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1073</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -11213,10 +11213,10 @@
         <v>866</v>
       </c>
       <c r="C317" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D317" t="s">
         <v>1018</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1019</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11233,10 +11233,10 @@
         <v>867</v>
       </c>
       <c r="C318" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D318" t="s">
         <v>1020</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1021</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11293,10 +11293,10 @@
         <v>874</v>
       </c>
       <c r="C321" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D321" t="s">
         <v>1032</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1033</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -11313,10 +11313,10 @@
         <v>875</v>
       </c>
       <c r="C322" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D322" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -11333,10 +11333,10 @@
         <v>876</v>
       </c>
       <c r="C323" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D323" t="s">
         <v>1028</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1029</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>877</v>
       </c>
       <c r="C324" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D324" t="s">
         <v>878</v>
@@ -11373,10 +11373,10 @@
         <v>879</v>
       </c>
       <c r="C325" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D325" t="s">
         <v>1023</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1024</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>880</v>
       </c>
       <c r="C326" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D326" t="s">
         <v>1025</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1026</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>889</v>
       </c>
       <c r="C330" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D330" t="s">
         <v>113</v>
@@ -11873,10 +11873,10 @@
         <v>983</v>
       </c>
       <c r="C350" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D350" t="s">
         <v>1085</v>
-      </c>
-      <c r="D350" t="s">
-        <v>984</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11890,13 +11890,13 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
+        <v>984</v>
+      </c>
+      <c r="C351" t="s">
         <v>985</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" t="s">
         <v>986</v>
-      </c>
-      <c r="D351" t="s">
-        <v>987</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11910,13 +11910,13 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
+        <v>987</v>
+      </c>
+      <c r="C352" t="s">
         <v>988</v>
       </c>
-      <c r="C352" t="s">
+      <c r="D352" t="s">
         <v>989</v>
-      </c>
-      <c r="D352" t="s">
-        <v>990</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11930,10 +11930,10 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
+        <v>990</v>
+      </c>
+      <c r="C353" t="s">
         <v>991</v>
-      </c>
-      <c r="C353" t="s">
-        <v>992</v>
       </c>
       <c r="D353" t="s">
         <v>187</v>
@@ -11950,13 +11950,13 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C354" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D354" t="s">
         <v>1060</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1061</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -11970,10 +11970,10 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
+        <v>993</v>
+      </c>
+      <c r="C355" t="s">
         <v>994</v>
-      </c>
-      <c r="C355" t="s">
-        <v>995</v>
       </c>
       <c r="D355" t="s">
         <v>393</v>
@@ -11990,10 +11990,10 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
+        <v>995</v>
+      </c>
+      <c r="C356" t="s">
         <v>996</v>
-      </c>
-      <c r="C356" t="s">
-        <v>997</v>
       </c>
       <c r="D356" t="s">
         <v>860</v>
@@ -12010,13 +12010,13 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
+        <v>997</v>
+      </c>
+      <c r="C357" t="s">
         <v>998</v>
       </c>
-      <c r="C357" t="s">
+      <c r="D357" t="s">
         <v>999</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1000</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -12030,13 +12030,13 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C358" t="s">
         <v>1001</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1002</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1003</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -12050,13 +12050,13 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C359" t="s">
         <v>1004</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>1005</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1006</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -12070,13 +12070,13 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C360" t="s">
         <v>1007</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
         <v>1008</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1009</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -12090,10 +12090,10 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C361" t="s">
         <v>1010</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1011</v>
       </c>
       <c r="D361" t="s">
         <v>251</v>
@@ -12110,13 +12110,13 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C362" t="s">
         <v>1012</v>
       </c>
-      <c r="C362" t="s">
+      <c r="D362" t="s">
         <v>1013</v>
-      </c>
-      <c r="D362" t="s">
-        <v>1014</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -12130,13 +12130,13 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C363" t="s">
         <v>1015</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>1016</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1017</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -12150,10 +12150,10 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
+        <v>990</v>
+      </c>
+      <c r="C364" t="s">
         <v>991</v>
-      </c>
-      <c r="C364" t="s">
-        <v>992</v>
       </c>
       <c r="D364" t="s">
         <v>187</v>
@@ -12170,13 +12170,13 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C365" t="s">
         <v>1034</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" t="s">
         <v>1035</v>
-      </c>
-      <c r="D365" t="s">
-        <v>1036</v>
       </c>
       <c r="E365">
         <v>0</v>
@@ -12187,13 +12187,13 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C366" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D366" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E366">
         <v>0</v>
@@ -12207,13 +12207,13 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C367" t="s">
         <v>1040</v>
       </c>
-      <c r="C367" t="s">
+      <c r="D367" t="s">
         <v>1041</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1042</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -12227,13 +12227,13 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C368" t="s">
         <v>1043</v>
       </c>
-      <c r="C368" t="s">
+      <c r="D368" t="s">
         <v>1044</v>
-      </c>
-      <c r="D368" t="s">
-        <v>1045</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -12247,13 +12247,13 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C369" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D369" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -12267,10 +12267,10 @@
         <v>371</v>
       </c>
       <c r="B370" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C370" t="s">
         <v>1049</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1050</v>
       </c>
       <c r="D370" t="s">
         <v>354</v>
@@ -12287,13 +12287,13 @@
         <v>372</v>
       </c>
       <c r="B371" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C371" t="s">
         <v>1051</v>
       </c>
-      <c r="C371" t="s">
+      <c r="D371" t="s">
         <v>1052</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1053</v>
       </c>
       <c r="E371">
         <v>0</v>
@@ -12307,13 +12307,13 @@
         <v>373</v>
       </c>
       <c r="B372" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C372" t="s">
         <v>1054</v>
       </c>
-      <c r="C372" t="s">
+      <c r="D372" t="s">
         <v>1055</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1056</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -12327,13 +12327,13 @@
         <v>374</v>
       </c>
       <c r="B373" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C373" t="s">
         <v>1057</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" t="s">
         <v>1058</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1059</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -12347,13 +12347,13 @@
         <v>375</v>
       </c>
       <c r="B374" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C374" t="s">
         <v>1062</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" t="s">
         <v>1063</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1064</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -12367,13 +12367,13 @@
         <v>376</v>
       </c>
       <c r="B375" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C375" t="s">
         <v>1066</v>
       </c>
-      <c r="C375" t="s">
-        <v>1067</v>
-      </c>
       <c r="D375" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E375">
         <v>0</v>
@@ -12387,13 +12387,13 @@
         <v>377</v>
       </c>
       <c r="B376" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C376" t="s">
         <v>1069</v>
       </c>
-      <c r="C376" t="s">
+      <c r="D376" t="s">
         <v>1070</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1071</v>
       </c>
       <c r="E376">
         <v>0</v>
@@ -12407,13 +12407,13 @@
         <v>378</v>
       </c>
       <c r="B377" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C377" t="s">
         <v>1074</v>
       </c>
-      <c r="C377" t="s">
+      <c r="D377" t="s">
         <v>1075</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1076</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -12427,13 +12427,13 @@
         <v>379</v>
       </c>
       <c r="B378" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C378" t="s">
         <v>1077</v>
       </c>
-      <c r="C378" t="s">
+      <c r="D378" t="s">
         <v>1078</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1079</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -12447,13 +12447,13 @@
         <v>380</v>
       </c>
       <c r="B379" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C379" t="s">
         <v>1080</v>
       </c>
-      <c r="C379" t="s">
+      <c r="D379" t="s">
         <v>1081</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1082</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -12467,10 +12467,10 @@
         <v>381</v>
       </c>
       <c r="B380" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C380" t="s">
         <v>1083</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1084</v>
       </c>
       <c r="D380" t="s">
         <v>39</v>

--- a/Agil - Copia de Preguntas_Examen.xlsx
+++ b/Agil - Copia de Preguntas_Examen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBHRZRL\Desktop\SRC\safe-trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652FCFA7-02DA-42CF-914C-C9B5817F5258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496240A5-8934-4328-A777-8D4F8391E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1088">
   <si>
     <t>Nº</t>
   </si>
@@ -3955,9 +3955,6 @@
 The managers vote</t>
   </si>
   <si>
-    <t>Each person votes</t>
-  </si>
-  <si>
     <t>During the PI Planning event, when are planning adjustments agreed upon?</t>
   </si>
   <si>
@@ -3993,9 +3990,6 @@
 They are extra things teams can do if they have time</t>
   </si>
   <si>
-    <t>They are extra things teams can do if they have time</t>
-  </si>
-  <si>
     <t>Which type of decision should remain centralized even in a decentralized decision-making environment?</t>
   </si>
   <si>
@@ -4039,9 +4033,6 @@
 To empower teams to make decisions around work
 To determine what the teams should work on first
 To override the decisions made in WSJF prioritization</t>
-  </si>
-  <si>
-    <t>To determine what the teams should work on first</t>
   </si>
   <si>
     <t>Which statement is true about batch size?</t>
@@ -4511,7 +4502,25 @@
 They release customer products to production continuously</t>
   </si>
   <si>
-    <t>They are made up of individuals each of whom can define, develop, test and deploy the system</t>
+    <t>Definition of Done
+Establish flow
+Collective owership and standards
+Peer-review and pairing</t>
+  </si>
+  <si>
+    <t>Peer-review and pairing</t>
+  </si>
+  <si>
+    <t>The teams and the ARTs vote</t>
+  </si>
+  <si>
+    <t>They are counted when calculating load</t>
+  </si>
+  <si>
+    <t>To empower teams to make decisions around work</t>
+  </si>
+  <si>
+    <t>They are optimized for communication and delivery of value</t>
   </si>
 </sst>
 </file>
@@ -4874,10 +4883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F380"/>
+  <dimension ref="A1:F381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="A350" sqref="A350:XFD350"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7293,7 +7302,7 @@
         <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D121" t="s">
         <v>340</v>
@@ -9293,10 +9302,10 @@
         <v>610</v>
       </c>
       <c r="C221" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D221" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -11213,10 +11222,10 @@
         <v>866</v>
       </c>
       <c r="C317" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D317" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -11233,10 +11242,10 @@
         <v>867</v>
       </c>
       <c r="C318" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D318" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -11293,10 +11302,10 @@
         <v>874</v>
       </c>
       <c r="C321" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D321" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -11313,10 +11322,10 @@
         <v>875</v>
       </c>
       <c r="C322" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D322" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -11333,10 +11342,10 @@
         <v>876</v>
       </c>
       <c r="C323" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D323" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -11353,7 +11362,7 @@
         <v>877</v>
       </c>
       <c r="C324" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D324" t="s">
         <v>878</v>
@@ -11373,10 +11382,10 @@
         <v>879</v>
       </c>
       <c r="C325" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D325" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11393,10 +11402,10 @@
         <v>880</v>
       </c>
       <c r="C326" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D326" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11473,7 +11482,7 @@
         <v>889</v>
       </c>
       <c r="C330" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D330" t="s">
         <v>113</v>
@@ -11630,13 +11639,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>588</v>
+        <v>946</v>
       </c>
       <c r="C338" t="s">
-        <v>949</v>
+        <v>1082</v>
       </c>
       <c r="D338" t="s">
-        <v>696</v>
+        <v>1083</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -11650,13 +11659,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>950</v>
+        <v>588</v>
       </c>
       <c r="C339" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D339" t="s">
-        <v>952</v>
+        <v>696</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -11670,13 +11679,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C340" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D340" t="s">
-        <v>955</v>
+        <v>1084</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11690,13 +11699,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C341" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D341" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11710,13 +11719,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C342" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D342" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11730,13 +11739,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C343" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D343" t="s">
-        <v>964</v>
+        <v>1085</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11750,13 +11759,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C344" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="D344" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11770,13 +11779,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C345" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D345" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11787,16 +11796,16 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C346" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D346" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -11807,16 +11816,16 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C347" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D347" t="s">
-        <v>976</v>
+        <v>1086</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11827,16 +11836,16 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C348" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="D348" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11847,16 +11856,16 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C349" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D349" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11867,16 +11876,16 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="C350" t="s">
-        <v>1084</v>
+        <v>978</v>
       </c>
       <c r="D350" t="s">
-        <v>1085</v>
+        <v>979</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11887,16 +11896,16 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C351" t="s">
-        <v>985</v>
+        <v>1081</v>
       </c>
       <c r="D351" t="s">
-        <v>986</v>
+        <v>1087</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11907,16 +11916,16 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C352" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D352" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11927,16 +11936,16 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C353" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D353" t="s">
-        <v>187</v>
+        <v>986</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11947,16 +11956,16 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C354" t="s">
-        <v>1059</v>
+        <v>988</v>
       </c>
       <c r="D354" t="s">
-        <v>1060</v>
+        <v>187</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -11967,16 +11976,16 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C355" t="s">
-        <v>994</v>
+        <v>1056</v>
       </c>
       <c r="D355" t="s">
-        <v>393</v>
+        <v>1057</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11987,16 +11996,16 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C356" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="D356" t="s">
-        <v>860</v>
+        <v>393</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -12007,16 +12016,16 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C357" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D357" t="s">
-        <v>999</v>
+        <v>860</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -12027,16 +12036,16 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C358" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D358" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -12047,16 +12056,16 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C359" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D359" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -12067,16 +12076,16 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C360" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D360" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -12087,16 +12096,16 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C361" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D361" t="s">
-        <v>251</v>
+        <v>1005</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -12107,16 +12116,16 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C362" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D362" t="s">
-        <v>1013</v>
+        <v>251</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -12127,16 +12136,16 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="C363" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D363" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -12147,16 +12156,16 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>990</v>
+        <v>1011</v>
       </c>
       <c r="C364" t="s">
-        <v>991</v>
+        <v>1012</v>
       </c>
       <c r="D364" t="s">
-        <v>187</v>
+        <v>1013</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -12167,53 +12176,53 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1033</v>
+        <v>987</v>
       </c>
       <c r="C365" t="s">
-        <v>1034</v>
+        <v>988</v>
       </c>
       <c r="D365" t="s">
-        <v>1035</v>
+        <v>187</v>
       </c>
       <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="C366" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D366" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E366">
-        <v>0</v>
-      </c>
-      <c r="F366">
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C367" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D367" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -12224,16 +12233,16 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C368" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D368" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -12244,16 +12253,16 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="C369" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D369" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -12264,16 +12273,16 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C370" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D370" t="s">
-        <v>354</v>
+        <v>1042</v>
       </c>
       <c r="E370">
         <v>0</v>
@@ -12284,16 +12293,16 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="C371" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="D371" t="s">
-        <v>1052</v>
+        <v>354</v>
       </c>
       <c r="E371">
         <v>0</v>
@@ -12304,16 +12313,16 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C372" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D372" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -12324,16 +12333,16 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C373" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="D373" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -12344,16 +12353,16 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="C374" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="D374" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -12364,16 +12373,16 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="C375" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="D375" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E375">
         <v>0</v>
@@ -12384,16 +12393,16 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C376" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="D376" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="E376">
         <v>0</v>
@@ -12404,16 +12413,16 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="C377" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D377" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -12424,16 +12433,16 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C378" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="D378" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -12444,16 +12453,16 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C379" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D379" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -12464,21 +12473,41 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C380" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="D380" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D381" t="s">
         <v>39</v>
       </c>
-      <c r="E380">
-        <v>0</v>
-      </c>
-      <c r="F380">
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
         <v>0</v>
       </c>
     </row>
